--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6A8115-DB07-A241-B2E4-2400B1BC4192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8124006-537B-CF48-94E6-6FFE4A96BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1363">
   <si>
     <r>
       <rPr>
@@ -5646,9 +5646,6 @@
     <t>globalWriteInWelsh</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>globalEnglish</t>
   </si>
   <si>
@@ -5677,6 +5674,18 @@
   </si>
   <si>
     <t>apConfirmationPageWhatHappensNextContent</t>
+  </si>
+  <si>
+    <t>Attending practitioner's information</t>
+  </si>
+  <si>
+    <t>pmMCCDTasklistAttendingPractitionersInformation</t>
+  </si>
+  <si>
+    <t>Mynychu gwybodaeth ymarferydd</t>
+  </si>
+  <si>
+    <t>012</t>
   </si>
 </sst>
 </file>
@@ -6460,12 +6469,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6567,6 +6570,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6947,538 +6956,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="123"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="123"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="123"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="123"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="123"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="123"/>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="123"/>
-      <c r="K10" s="123"/>
-      <c r="L10" s="123"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="123"/>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="123"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="123"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="123"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="123"/>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="123"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="123"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="123"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="123"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="123"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="123"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="123"/>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="123"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="123"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="123"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="121"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="123"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="121"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="123"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
+      <c r="A28" s="121"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="123"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
+      <c r="A29" s="121"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="121"/>
+      <c r="L29" s="121"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="123"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
+      <c r="K30" s="121"/>
+      <c r="L30" s="121"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="123"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="121"/>
+      <c r="K31" s="121"/>
+      <c r="L31" s="121"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="123"/>
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
+      <c r="A32" s="121"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="121"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="123"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
+      <c r="K33" s="121"/>
+      <c r="L33" s="121"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="123"/>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
+      <c r="K34" s="121"/>
+      <c r="L34" s="121"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="123"/>
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="121"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="123"/>
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="K36" s="121"/>
+      <c r="L36" s="121"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="123"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="121"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="121"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="123"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="121"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7493,7 +7502,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -7736,8 +7745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C2F8F-96ED-4E65-B816-FFFEB93DC889}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7773,14 +7782,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="153" t="s">
         <v>1191</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8000,21 +8009,21 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="153" t="s">
         <v>1240</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1241</v>
@@ -8031,7 +8040,7 @@
         <v>202</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>1243</v>
@@ -8045,7 +8054,7 @@
         <v>196</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1199</v>
@@ -8059,7 +8068,7 @@
         <v>202</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1245</v>
@@ -8087,9 +8096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8127,14 +8136,14 @@
       <c r="B2" s="120" t="s">
         <v>1293</v>
       </c>
-      <c r="C2" s="121" t="s">
-        <v>1349</v>
+      <c r="C2" s="155" t="s">
+        <v>1362</v>
       </c>
       <c r="D2" s="120" t="s">
         <v>1294</v>
       </c>
-      <c r="E2" s="122" t="s">
-        <v>1349</v>
+      <c r="E2" s="156" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9119,24 +9128,24 @@
     </row>
     <row r="64" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E64" s="40" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E65" s="40" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
   </sheetData>
@@ -9388,7 +9397,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -9887,7 +9896,7 @@
   <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -9923,13 +9932,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="125" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10057,13 +10066,13 @@
       <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="128" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="130"/>
       <c r="F10" s="88"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10119,13 +10128,13 @@
       <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="122" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="124"/>
       <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10269,13 +10278,13 @@
       <c r="F23" s="88"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="124" t="s">
+      <c r="A24" s="122" t="s">
         <v>371</v>
       </c>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="88"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10547,13 +10556,13 @@
       <c r="F42" s="88"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="122" t="s">
         <v>416</v>
       </c>
-      <c r="B43" s="125"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="126"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="124"/>
       <c r="F43" s="88"/>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10755,13 +10764,13 @@
       <c r="F56" s="88"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="124" t="s">
+      <c r="A57" s="122" t="s">
         <v>448</v>
       </c>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="126"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="124"/>
       <c r="F57" s="88"/>
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -10819,13 +10828,13 @@
       <c r="F60" s="88"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="122" t="s">
         <v>463</v>
       </c>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="126"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="124"/>
       <c r="F61" s="88"/>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10875,13 +10884,13 @@
       <c r="F64" s="88"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="122" t="s">
         <v>468</v>
       </c>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="126"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="124"/>
       <c r="F65" s="88"/>
     </row>
     <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11099,13 +11108,13 @@
       <c r="F79" s="88"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="124" t="s">
+      <c r="A80" s="122" t="s">
         <v>489</v>
       </c>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="126"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="123"/>
+      <c r="D80" s="123"/>
+      <c r="E80" s="124"/>
       <c r="F80" s="88"/>
     </row>
     <row r="81" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11255,13 +11264,13 @@
       <c r="F89" s="88"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="124" t="s">
+      <c r="A90" s="122" t="s">
         <v>514</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="126"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="123"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="124"/>
       <c r="F90" s="88"/>
     </row>
     <row r="91" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11723,13 +11732,13 @@
       <c r="F120" s="88"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="124" t="s">
+      <c r="A121" s="122" t="s">
         <v>596</v>
       </c>
-      <c r="B121" s="125"/>
-      <c r="C121" s="125"/>
-      <c r="D121" s="125"/>
-      <c r="E121" s="126"/>
+      <c r="B121" s="123"/>
+      <c r="C121" s="123"/>
+      <c r="D121" s="123"/>
+      <c r="E121" s="124"/>
       <c r="F121" s="88"/>
     </row>
     <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11917,13 +11926,13 @@
       <c r="F134" s="88"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="124" t="s">
+      <c r="A135" s="122" t="s">
         <v>618</v>
       </c>
-      <c r="B135" s="125"/>
-      <c r="C135" s="125"/>
-      <c r="D135" s="125"/>
-      <c r="E135" s="126"/>
+      <c r="B135" s="123"/>
+      <c r="C135" s="123"/>
+      <c r="D135" s="123"/>
+      <c r="E135" s="124"/>
       <c r="F135" s="88"/>
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12051,13 +12060,13 @@
       <c r="F143" s="88"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="124" t="s">
+      <c r="A144" s="122" t="s">
         <v>639</v>
       </c>
-      <c r="B144" s="125"/>
-      <c r="C144" s="125"/>
-      <c r="D144" s="125"/>
-      <c r="E144" s="126"/>
+      <c r="B144" s="123"/>
+      <c r="C144" s="123"/>
+      <c r="D144" s="123"/>
+      <c r="E144" s="124"/>
       <c r="F144" s="88"/>
     </row>
     <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12185,13 +12194,13 @@
       <c r="F152" s="88"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="124" t="s">
+      <c r="A153" s="122" t="s">
         <v>661</v>
       </c>
-      <c r="B153" s="125"/>
-      <c r="C153" s="125"/>
-      <c r="D153" s="125"/>
-      <c r="E153" s="126"/>
+      <c r="B153" s="123"/>
+      <c r="C153" s="123"/>
+      <c r="D153" s="123"/>
+      <c r="E153" s="124"/>
       <c r="F153" s="88"/>
     </row>
     <row r="154" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12309,13 +12318,13 @@
       <c r="F160" s="88"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="124" t="s">
+      <c r="A161" s="122" t="s">
         <v>677</v>
       </c>
-      <c r="B161" s="125"/>
-      <c r="C161" s="125"/>
-      <c r="D161" s="125"/>
-      <c r="E161" s="126"/>
+      <c r="B161" s="123"/>
+      <c r="C161" s="123"/>
+      <c r="D161" s="123"/>
+      <c r="E161" s="124"/>
       <c r="F161" s="88"/>
     </row>
     <row r="162" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12489,13 +12498,13 @@
       <c r="F172" s="88"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="124" t="s">
+      <c r="A173" s="122" t="s">
         <v>697</v>
       </c>
-      <c r="B173" s="125"/>
-      <c r="C173" s="125"/>
-      <c r="D173" s="125"/>
-      <c r="E173" s="126"/>
+      <c r="B173" s="123"/>
+      <c r="C173" s="123"/>
+      <c r="D173" s="123"/>
+      <c r="E173" s="124"/>
       <c r="F173" s="88"/>
     </row>
     <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12547,13 +12556,13 @@
       <c r="F176" s="88"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="124" t="s">
+      <c r="A177" s="122" t="s">
         <v>706</v>
       </c>
-      <c r="B177" s="125"/>
-      <c r="C177" s="125"/>
-      <c r="D177" s="125"/>
-      <c r="E177" s="126"/>
+      <c r="B177" s="123"/>
+      <c r="C177" s="123"/>
+      <c r="D177" s="123"/>
+      <c r="E177" s="124"/>
       <c r="F177" s="88"/>
     </row>
     <row r="178" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12639,13 +12648,13 @@
       <c r="F182" s="88"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="124" t="s">
+      <c r="A183" s="122" t="s">
         <v>724</v>
       </c>
-      <c r="B183" s="125"/>
-      <c r="C183" s="125"/>
-      <c r="D183" s="125"/>
-      <c r="E183" s="126"/>
+      <c r="B183" s="123"/>
+      <c r="C183" s="123"/>
+      <c r="D183" s="123"/>
+      <c r="E183" s="124"/>
       <c r="F183" s="88"/>
     </row>
     <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12785,13 +12794,13 @@
       <c r="F192" s="88"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="124" t="s">
+      <c r="A193" s="122" t="s">
         <v>737</v>
       </c>
-      <c r="B193" s="125"/>
-      <c r="C193" s="125"/>
-      <c r="D193" s="125"/>
-      <c r="E193" s="126"/>
+      <c r="B193" s="123"/>
+      <c r="C193" s="123"/>
+      <c r="D193" s="123"/>
+      <c r="E193" s="124"/>
       <c r="F193" s="88"/>
     </row>
     <row r="194" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12877,13 +12886,13 @@
       <c r="F198" s="88"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="124" t="s">
+      <c r="A199" s="122" t="s">
         <v>747</v>
       </c>
-      <c r="B199" s="125"/>
-      <c r="C199" s="125"/>
-      <c r="D199" s="125"/>
-      <c r="E199" s="126"/>
+      <c r="B199" s="123"/>
+      <c r="C199" s="123"/>
+      <c r="D199" s="123"/>
+      <c r="E199" s="124"/>
       <c r="F199" s="88"/>
     </row>
     <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13041,13 +13050,13 @@
       <c r="F209" s="88"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="124" t="s">
+      <c r="A210" s="122" t="s">
         <v>761</v>
       </c>
-      <c r="B210" s="125"/>
-      <c r="C210" s="125"/>
-      <c r="D210" s="125"/>
-      <c r="E210" s="126"/>
+      <c r="B210" s="123"/>
+      <c r="C210" s="123"/>
+      <c r="D210" s="123"/>
+      <c r="E210" s="124"/>
       <c r="F210" s="88"/>
     </row>
     <row r="211" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14042,6 +14051,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A161:E161"/>
     <mergeCell ref="A153:E153"/>
     <mergeCell ref="A61:E61"/>
@@ -14051,18 +14072,6 @@
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A177:E177"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A199:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14070,11 +14079,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7FE5E2-8B99-45DF-8804-30523FDA4B3A}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14109,13 +14118,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="134" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -14189,32 +14198,32 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B9" s="28" t="s">
         <v>825</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>826</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="46" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="46" t="s">
         <v>827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>828</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>829</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14222,56 +14231,53 @@
         <v>828</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>828</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="136" t="s">
+    <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="134" t="s">
         <v>831</v>
       </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138"/>
-    </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+    </row>
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>832</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C13" s="21" t="s">
         <v>833</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E13" s="46" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>836</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>838</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14279,467 +14285,467 @@
         <v>82</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>838</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>838</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>1295</v>
+        <v>844</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>838</v>
       </c>
       <c r="E16" s="46" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="E17" s="46" t="s">
         <v>1296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>847</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="18" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>849</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="18" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="145" t="s">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="143" t="s">
         <v>851</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="83" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="82" t="s">
-        <v>855</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C21" s="84" t="s">
-        <v>856</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="83" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="83" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="s">
+        <v>858</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>859</v>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="83" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="142" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="140" t="s">
         <v>861</v>
       </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144"/>
-    </row>
-    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="142"/>
+    </row>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B25" s="28" t="s">
         <v>862</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C25" s="27" t="s">
         <v>863</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="46" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="46" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="133" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="131" t="s">
         <v>865</v>
       </c>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-    </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B27" s="28" t="s">
         <v>866</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C27" s="27" t="s">
         <v>867</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="46" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="46" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="133" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="131" t="s">
         <v>869</v>
       </c>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-    </row>
-    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>870</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>872</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>1314</v>
-      </c>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>870</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>872</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>855</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B30" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C30" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>875</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E30" s="46" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+    <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
         <v>877</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>878</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>1311</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E31" s="46" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+    <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B32" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C32" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E32" s="46" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B33" s="19" t="s">
         <v>882</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>883</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D33" s="26" t="s">
         <v>884</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E33" s="46" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>886</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="18" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>352</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="C36" s="27"/>
+      <c r="D36" s="18" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="133" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="131" t="s">
         <v>892</v>
       </c>
-      <c r="B36" s="134"/>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="135"/>
-    </row>
-    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
+    </row>
+    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B38" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>894</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E38" s="46" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+    <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B39" s="28" t="s">
         <v>897</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="18" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>899</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>899</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="18" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="139" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="137" t="s">
         <v>900</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="141"/>
-    </row>
-    <row r="41" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A41" s="85" t="s">
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="139"/>
+    </row>
+    <row r="42" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A42" s="85" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B42" s="85" t="s">
         <v>901</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="D41" s="85" t="s">
+      <c r="D42" s="85" t="s">
         <v>902</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E42" s="46" t="s">
         <v>765</v>
       </c>
-      <c r="F41" s="73" t="s">
+      <c r="F42" s="73" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A42" s="85" t="s">
+    <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A43" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B43" s="85" t="s">
         <v>904</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>823</v>
       </c>
-      <c r="D42" s="85" t="s">
+      <c r="D43" s="85" t="s">
         <v>905</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E43" s="46" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A43" s="85" t="s">
+    <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B44" s="85" t="s">
         <v>906</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C44" s="62" t="s">
         <v>907</v>
       </c>
-      <c r="D43" s="85" t="s">
+      <c r="D44" s="85" t="s">
         <v>908</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E44" s="46" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="85" t="s">
-        <v>328</v>
-      </c>
-      <c r="B44" s="85" t="s">
-        <v>910</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>911</v>
-      </c>
-      <c r="D44" s="90" t="s">
-        <v>912</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="85" t="s">
         <v>328</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D45" s="90" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="85" t="s">
         <v>328</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D46" s="90" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14747,62 +14753,62 @@
         <v>328</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="85" t="s">
         <v>328</v>
       </c>
       <c r="B48" s="85" t="s">
+        <v>921</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>923</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B49" s="85" t="s">
         <v>1315</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>1316</v>
       </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="46" t="s">
+      <c r="D49" s="90"/>
+      <c r="E49" s="46" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B50" s="19" t="s">
         <v>925</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E50" s="46" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>926</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>928</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>929</v>
-      </c>
-      <c r="F50" s="72" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14810,10 +14816,10 @@
         <v>926</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>929</v>
@@ -14823,17 +14829,17 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A52" s="85" t="s">
-        <v>328</v>
-      </c>
-      <c r="B52" s="85" t="s">
-        <v>932</v>
+      <c r="A52" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>930</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>933</v>
-      </c>
-      <c r="D52" s="90" t="s">
-        <v>934</v>
+        <v>931</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>929</v>
       </c>
       <c r="F52" s="72" t="s">
         <v>811</v>
@@ -14844,28 +14850,45 @@
         <v>328</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D53" s="90" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F53" s="72" t="s">
         <v>811</v>
       </c>
     </row>
+    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A54" s="85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B54" s="85" t="s">
+        <v>935</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="D54" s="90" t="s">
+        <v>937</v>
+      </c>
+      <c r="F54" s="72" t="s">
+        <v>811</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A41:E41"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14876,7 +14899,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -15327,13 +15350,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="146" t="s">
         <v>1019</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="150"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
     </row>
     <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="103" t="s">
@@ -15396,13 +15419,13 @@
       <c r="E32" s="109"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="149" t="s">
         <v>1031</v>
       </c>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="154"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="152"/>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="107" t="s">
@@ -15605,13 +15628,13 @@
       <c r="F45" s="98"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="146" t="s">
         <v>1061</v>
       </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="150"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="148"/>
     </row>
     <row r="47" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="107" t="s">
@@ -16239,6 +16262,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -16277,15 +16309,6 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16566,6 +16589,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16574,14 +16605,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8124006-537B-CF48-94E6-6FFE4A96BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F534358F-FEBC-7D4A-852B-13CBCE85ECFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1366">
   <si>
     <r>
       <rPr>
@@ -5686,6 +5686,15 @@
   </si>
   <si>
     <t>012</t>
+  </si>
+  <si>
+    <t>globalBackToDashboard</t>
+  </si>
+  <si>
+    <t>Back to dashboard</t>
+  </si>
+  <si>
+    <t>Yn ôl i dashboard</t>
   </si>
 </sst>
 </file>
@@ -6469,6 +6478,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6570,12 +6585,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6956,538 +6965,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="121"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="121"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="121"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="121"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="121"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="123"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="123"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="121"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="123"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="121"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="121"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="121"/>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="121"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="121"/>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="121"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="121"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="121"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="121"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="121"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="121"/>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="121"/>
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="121"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="121"/>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="121"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="121"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="121"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="121"/>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="121"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="121"/>
-      <c r="L24" s="121"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="121"/>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="121"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="121"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="121"/>
-      <c r="B28" s="121"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="121"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="121"/>
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="121"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="121"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="121"/>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="121"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="121"/>
-      <c r="B33" s="121"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="121"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="121"/>
+      <c r="A34" s="123"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="121"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="K36" s="121"/>
-      <c r="L36" s="121"/>
+      <c r="A36" s="123"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="121"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
-      <c r="G37" s="121"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="K37" s="121"/>
-      <c r="L37" s="121"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="121"/>
-      <c r="B38" s="121"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7782,14 +7791,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="155" t="s">
         <v>1191</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8009,14 +8018,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="155" t="s">
         <v>1240</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -8094,11 +8103,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8136,13 +8145,13 @@
       <c r="B2" s="120" t="s">
         <v>1293</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="121" t="s">
         <v>1362</v>
       </c>
       <c r="D2" s="120" t="s">
         <v>1294</v>
       </c>
-      <c r="E2" s="156" t="s">
+      <c r="E2" s="122" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -9146,6 +9155,17 @@
       </c>
       <c r="E65" s="40" t="s">
         <v>1354</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>1365</v>
       </c>
     </row>
   </sheetData>
@@ -9932,13 +9952,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10066,13 +10086,13 @@
       <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="130" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
       <c r="F10" s="88"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10128,13 +10148,13 @@
       <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="124" t="s">
         <v>347</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="124"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
       <c r="F14" s="88"/>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10278,13 +10298,13 @@
       <c r="F23" s="88"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="124" t="s">
         <v>371</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="124"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
       <c r="F24" s="88"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10556,13 +10576,13 @@
       <c r="F42" s="88"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="124" t="s">
         <v>416</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="124"/>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="126"/>
       <c r="F43" s="88"/>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10764,13 +10784,13 @@
       <c r="F56" s="88"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="122" t="s">
+      <c r="A57" s="124" t="s">
         <v>448</v>
       </c>
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="124"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="126"/>
       <c r="F57" s="88"/>
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -10828,13 +10848,13 @@
       <c r="F60" s="88"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="122" t="s">
+      <c r="A61" s="124" t="s">
         <v>463</v>
       </c>
-      <c r="B61" s="123"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="126"/>
       <c r="F61" s="88"/>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10884,13 +10904,13 @@
       <c r="F64" s="88"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="124" t="s">
         <v>468</v>
       </c>
-      <c r="B65" s="123"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="124"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="126"/>
       <c r="F65" s="88"/>
     </row>
     <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11108,13 +11128,13 @@
       <c r="F79" s="88"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="124" t="s">
         <v>489</v>
       </c>
-      <c r="B80" s="123"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="123"/>
-      <c r="E80" s="124"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="126"/>
       <c r="F80" s="88"/>
     </row>
     <row r="81" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11264,13 +11284,13 @@
       <c r="F89" s="88"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="122" t="s">
+      <c r="A90" s="124" t="s">
         <v>514</v>
       </c>
-      <c r="B90" s="123"/>
-      <c r="C90" s="123"/>
-      <c r="D90" s="123"/>
-      <c r="E90" s="124"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="126"/>
       <c r="F90" s="88"/>
     </row>
     <row r="91" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11732,13 +11752,13 @@
       <c r="F120" s="88"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="122" t="s">
+      <c r="A121" s="124" t="s">
         <v>596</v>
       </c>
-      <c r="B121" s="123"/>
-      <c r="C121" s="123"/>
-      <c r="D121" s="123"/>
-      <c r="E121" s="124"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="126"/>
       <c r="F121" s="88"/>
     </row>
     <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11926,13 +11946,13 @@
       <c r="F134" s="88"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="122" t="s">
+      <c r="A135" s="124" t="s">
         <v>618</v>
       </c>
-      <c r="B135" s="123"/>
-      <c r="C135" s="123"/>
-      <c r="D135" s="123"/>
-      <c r="E135" s="124"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="125"/>
+      <c r="E135" s="126"/>
       <c r="F135" s="88"/>
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12060,13 +12080,13 @@
       <c r="F143" s="88"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="122" t="s">
+      <c r="A144" s="124" t="s">
         <v>639</v>
       </c>
-      <c r="B144" s="123"/>
-      <c r="C144" s="123"/>
-      <c r="D144" s="123"/>
-      <c r="E144" s="124"/>
+      <c r="B144" s="125"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="126"/>
       <c r="F144" s="88"/>
     </row>
     <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12194,13 +12214,13 @@
       <c r="F152" s="88"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="122" t="s">
+      <c r="A153" s="124" t="s">
         <v>661</v>
       </c>
-      <c r="B153" s="123"/>
-      <c r="C153" s="123"/>
-      <c r="D153" s="123"/>
-      <c r="E153" s="124"/>
+      <c r="B153" s="125"/>
+      <c r="C153" s="125"/>
+      <c r="D153" s="125"/>
+      <c r="E153" s="126"/>
       <c r="F153" s="88"/>
     </row>
     <row r="154" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12318,13 +12338,13 @@
       <c r="F160" s="88"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="122" t="s">
+      <c r="A161" s="124" t="s">
         <v>677</v>
       </c>
-      <c r="B161" s="123"/>
-      <c r="C161" s="123"/>
-      <c r="D161" s="123"/>
-      <c r="E161" s="124"/>
+      <c r="B161" s="125"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="126"/>
       <c r="F161" s="88"/>
     </row>
     <row r="162" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12498,13 +12518,13 @@
       <c r="F172" s="88"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="122" t="s">
+      <c r="A173" s="124" t="s">
         <v>697</v>
       </c>
-      <c r="B173" s="123"/>
-      <c r="C173" s="123"/>
-      <c r="D173" s="123"/>
-      <c r="E173" s="124"/>
+      <c r="B173" s="125"/>
+      <c r="C173" s="125"/>
+      <c r="D173" s="125"/>
+      <c r="E173" s="126"/>
       <c r="F173" s="88"/>
     </row>
     <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12556,13 +12576,13 @@
       <c r="F176" s="88"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="122" t="s">
+      <c r="A177" s="124" t="s">
         <v>706</v>
       </c>
-      <c r="B177" s="123"/>
-      <c r="C177" s="123"/>
-      <c r="D177" s="123"/>
-      <c r="E177" s="124"/>
+      <c r="B177" s="125"/>
+      <c r="C177" s="125"/>
+      <c r="D177" s="125"/>
+      <c r="E177" s="126"/>
       <c r="F177" s="88"/>
     </row>
     <row r="178" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12648,13 +12668,13 @@
       <c r="F182" s="88"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="122" t="s">
+      <c r="A183" s="124" t="s">
         <v>724</v>
       </c>
-      <c r="B183" s="123"/>
-      <c r="C183" s="123"/>
-      <c r="D183" s="123"/>
-      <c r="E183" s="124"/>
+      <c r="B183" s="125"/>
+      <c r="C183" s="125"/>
+      <c r="D183" s="125"/>
+      <c r="E183" s="126"/>
       <c r="F183" s="88"/>
     </row>
     <row r="184" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12794,13 +12814,13 @@
       <c r="F192" s="88"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="122" t="s">
+      <c r="A193" s="124" t="s">
         <v>737</v>
       </c>
-      <c r="B193" s="123"/>
-      <c r="C193" s="123"/>
-      <c r="D193" s="123"/>
-      <c r="E193" s="124"/>
+      <c r="B193" s="125"/>
+      <c r="C193" s="125"/>
+      <c r="D193" s="125"/>
+      <c r="E193" s="126"/>
       <c r="F193" s="88"/>
     </row>
     <row r="194" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12886,13 +12906,13 @@
       <c r="F198" s="88"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="122" t="s">
+      <c r="A199" s="124" t="s">
         <v>747</v>
       </c>
-      <c r="B199" s="123"/>
-      <c r="C199" s="123"/>
-      <c r="D199" s="123"/>
-      <c r="E199" s="124"/>
+      <c r="B199" s="125"/>
+      <c r="C199" s="125"/>
+      <c r="D199" s="125"/>
+      <c r="E199" s="126"/>
       <c r="F199" s="88"/>
     </row>
     <row r="200" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13050,13 +13070,13 @@
       <c r="F209" s="88"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="122" t="s">
+      <c r="A210" s="124" t="s">
         <v>761</v>
       </c>
-      <c r="B210" s="123"/>
-      <c r="C210" s="123"/>
-      <c r="D210" s="123"/>
-      <c r="E210" s="124"/>
+      <c r="B210" s="125"/>
+      <c r="C210" s="125"/>
+      <c r="D210" s="125"/>
+      <c r="E210" s="126"/>
       <c r="F210" s="88"/>
     </row>
     <row r="211" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14051,18 +14071,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A177:E177"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A161:E161"/>
     <mergeCell ref="A153:E153"/>
     <mergeCell ref="A61:E61"/>
@@ -14072,6 +14080,18 @@
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A90:E90"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A199:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14118,13 +14138,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>812</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -14255,13 +14275,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="136" t="s">
         <v>831</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="138"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
@@ -14373,13 +14393,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="145" t="s">
         <v>851</v>
       </c>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="145"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -14427,13 +14447,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="142" t="s">
         <v>861</v>
       </c>
-      <c r="B24" s="141"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="142"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="144"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
@@ -14451,13 +14471,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="133" t="s">
         <v>865</v>
       </c>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="133"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="135"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -14475,13 +14495,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="133" t="s">
         <v>869</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="133"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="135"/>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
@@ -14602,13 +14622,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="131" t="s">
+      <c r="A37" s="133" t="s">
         <v>892</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="133"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="135"/>
     </row>
     <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
@@ -14652,13 +14672,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="139" t="s">
         <v>900</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="139"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="141"/>
     </row>
     <row r="42" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="85" t="s">
@@ -15350,13 +15370,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="148" t="s">
         <v>1019</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="150"/>
     </row>
     <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="103" t="s">
@@ -15419,13 +15439,13 @@
       <c r="E32" s="109"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="151" t="s">
         <v>1031</v>
       </c>
-      <c r="B33" s="150"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="152"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="154"/>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="107" t="s">
@@ -15628,13 +15648,13 @@
       <c r="F45" s="98"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="148" t="s">
         <v>1061</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="147"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="148"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="150"/>
     </row>
     <row r="47" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="107" t="s">
@@ -16262,15 +16282,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -16309,6 +16320,15 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16589,14 +16609,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16605,6 +16617,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0035FFB0-8C5C-7E4D-86E1-8A31FA5A6944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA69E0-7A81-0E4E-9172-3A8DD5BAC82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1397">
   <si>
     <r>
       <rPr>
@@ -3111,29 +3111,6 @@
     <t>dpdHospitalTriageConsultantName</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enter the name of the consultant responsible for the deceased person (optional) (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updated content)</t>
-    </r>
-  </si>
-  <si>
     <t>Label for text input - the AP or ME enter the full name of the consultant if the death occured in a hospital</t>
   </si>
   <si>
@@ -3257,30 +3234,6 @@
   </si>
   <si>
     <t>dpdHospitalPostcodeSearchPageTitle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">What is the name or postcode of the hospital? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(copied from v10.1)
-</t>
-    </r>
   </si>
   <si>
     <t>Page heading - describes content on page for a Hopital post code lookup</t>
@@ -5767,7 +5720,45 @@
     <t>apConfirmationPageWhatHappensNextContent</t>
   </si>
   <si>
-    <t>007</t>
+    <r>
+      <t>What is the name or postcode of the hospital?</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the name of the consultant responsible for the deceased person (optional)</t>
+  </si>
+  <si>
+    <t>dpdHospitalName</t>
+  </si>
+  <si>
+    <t>dpdHospitalPostcode</t>
+  </si>
+  <si>
+    <t>Enter hospital name</t>
+  </si>
+  <si>
+    <t>Or enter hospital postcode</t>
+  </si>
+  <si>
+    <t>Rhowch enw'r ysbyty</t>
+  </si>
+  <si>
+    <t>Neu rhowch god post ysbyty</t>
+  </si>
+  <si>
+    <t>008</t>
   </si>
 </sst>
 </file>
@@ -6705,6 +6696,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6712,24 +6721,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7773,50 +7764,50 @@
         <v>243</v>
       </c>
       <c r="B2" s="96" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D2" s="96" t="s">
         <v>1282</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="E2" s="88" t="s">
         <v>1283</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E2" s="88" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="98" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C3" s="100" t="s">
         <v>1286</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="D3" s="99" t="s">
         <v>1287</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="E3" s="93" t="s">
         <v>1288</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D4" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7824,13 +7815,13 @@
         <v>421</v>
       </c>
       <c r="B5" s="109" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C5" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D5" s="111" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E5" s="93" t="s">
         <v>414</v>
@@ -7841,13 +7832,13 @@
         <v>424</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C6" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D6" s="111" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E6" s="93" t="s">
         <v>414</v>
@@ -7875,44 +7866,44 @@
         <v>243</v>
       </c>
       <c r="B8" s="99" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C8" s="100" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D8" s="99" t="s">
         <v>1298</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="E8" s="93" t="s">
         <v>1299</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E8" s="93" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="99" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D9" s="99" t="s">
         <v>1302</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="E9" s="93" t="s">
         <v>1303</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E9" s="93" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B10" s="99" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D10" s="99" t="s">
         <v>414</v>
@@ -7926,13 +7917,13 @@
         <v>421</v>
       </c>
       <c r="B11" s="109" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C11" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E11" s="93" t="s">
         <v>414</v>
@@ -7943,13 +7934,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="109" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C12" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E12" s="93" t="s">
         <v>414</v>
@@ -7977,13 +7968,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="99" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D14" s="99" t="s">
         <v>1310</v>
-      </c>
-      <c r="C14" s="100" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>1312</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>414</v>
@@ -7991,19 +7982,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="98" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B15" s="99" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D15" s="99" t="s">
         <v>1313</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="E15" s="93" t="s">
         <v>1314</v>
-      </c>
-      <c r="D15" s="99" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E15" s="93" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8011,13 +8002,13 @@
         <v>421</v>
       </c>
       <c r="B16" s="109" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C16" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E16" s="93" t="s">
         <v>414</v>
@@ -8028,13 +8019,13 @@
         <v>424</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C17" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E17" s="93" t="s">
         <v>414</v>
@@ -8045,16 +8036,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="99" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D18" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E18" s="93" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8079,13 +8070,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="99" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E20" s="93" t="s">
         <v>414</v>
@@ -8093,16 +8084,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="98" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B21" s="99" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C21" s="100" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D21" s="99" t="s">
         <v>1324</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>1325</v>
-      </c>
-      <c r="D21" s="99" t="s">
-        <v>1326</v>
       </c>
       <c r="E21" s="93" t="s">
         <v>414</v>
@@ -8110,13 +8101,13 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="98" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B22" s="99" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D22" s="99" t="s">
         <v>414</v>
@@ -8130,13 +8121,13 @@
         <v>421</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C23" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E23" s="93" t="s">
         <v>414</v>
@@ -8147,13 +8138,13 @@
         <v>424</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C24" s="110" t="s">
         <v>414</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E24" s="93" t="s">
         <v>414</v>
@@ -8206,7 +8197,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="190" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B2" s="191"/>
       <c r="C2" s="191"/>
@@ -8219,16 +8210,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>1332</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8236,13 +8227,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>1335</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8250,13 +8241,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>1338</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8264,13 +8255,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>1341</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8278,127 +8269,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>1344</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="37" t="s">
         <v>1348</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1349</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1351</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="37" t="s">
         <v>1352</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1353</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1355</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>1358</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1359</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>1361</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1362</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>1364</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8406,34 +8397,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>1376</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>1378</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="190" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B18" s="191"/>
       <c r="C18" s="191"/>
@@ -8446,16 +8437,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8463,10 +8454,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C20" s="77" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8474,13 +8465,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8488,13 +8479,13 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8558,13 +8549,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="D2" s="102" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="103" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="F2" s="102"/>
     </row>
@@ -10387,17 +10378,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
-  <dimension ref="A1:F339"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F183" sqref="F183"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.83203125" style="40" customWidth="1"/>
@@ -10426,13 +10417,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="159" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="161"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10560,13 +10551,13 @@
       <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="162" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="123"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12505,16 +12496,16 @@
         <v>723</v>
       </c>
       <c r="C139" s="117" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D139" s="126" t="s">
         <v>724</v>
       </c>
-      <c r="D139" s="126" t="s">
+      <c r="E139" s="126" t="s">
         <v>725</v>
       </c>
-      <c r="E139" s="126" t="s">
+      <c r="F139" s="127" t="s">
         <v>726</v>
-      </c>
-      <c r="F139" s="127" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12522,15 +12513,15 @@
         <v>421</v>
       </c>
       <c r="B140" s="126" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C140" s="126"/>
       <c r="D140" s="117" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E140" s="126"/>
       <c r="F140" s="127" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12538,11 +12529,11 @@
         <v>424</v>
       </c>
       <c r="B141" s="126" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C141" s="126"/>
       <c r="D141" s="117" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E141" s="126"/>
       <c r="F141" s="127"/>
@@ -12552,15 +12543,15 @@
         <v>421</v>
       </c>
       <c r="B142" s="120" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C142" s="124"/>
       <c r="D142" s="20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E142" s="124"/>
       <c r="F142" s="123" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12568,18 +12559,18 @@
         <v>424</v>
       </c>
       <c r="B143" s="120" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C143" s="124"/>
       <c r="D143" s="20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E143" s="124"/>
       <c r="F143" s="123"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="156" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B144" s="157"/>
       <c r="C144" s="157"/>
@@ -12587,447 +12578,443 @@
       <c r="E144" s="158"/>
       <c r="F144" s="123"/>
     </row>
-    <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="120" t="s">
         <v>243</v>
       </c>
       <c r="B145" s="120" t="s">
+        <v>738</v>
+      </c>
+      <c r="C145" s="59" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D145" s="120" t="s">
         <v>739</v>
       </c>
-      <c r="C145" s="59" t="s">
+      <c r="E145" s="124" t="s">
         <v>740</v>
-      </c>
-      <c r="D145" s="120" t="s">
-        <v>741</v>
-      </c>
-      <c r="E145" s="124" t="s">
-        <v>742</v>
       </c>
       <c r="F145" s="123"/>
     </row>
     <row r="146" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A146" s="120" t="s">
+        <v>741</v>
+      </c>
+      <c r="B146" s="120" t="s">
+        <v>742</v>
+      </c>
+      <c r="C146" s="59" t="s">
         <v>743</v>
-      </c>
-      <c r="B146" s="120" t="s">
-        <v>744</v>
-      </c>
-      <c r="C146" s="59" t="s">
-        <v>745</v>
       </c>
       <c r="D146" s="120"/>
       <c r="E146" s="124" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F146" s="123"/>
     </row>
     <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="120" t="s">
-        <v>747</v>
+        <v>37</v>
       </c>
       <c r="B147" s="120" t="s">
-        <v>748</v>
-      </c>
-      <c r="C147" s="121" t="s">
-        <v>76</v>
+        <v>1390</v>
+      </c>
+      <c r="C147" s="59" t="s">
+        <v>1392</v>
       </c>
       <c r="D147" s="120"/>
       <c r="E147" s="124" t="s">
-        <v>78</v>
+        <v>1394</v>
       </c>
       <c r="F147" s="123"/>
     </row>
     <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="120" t="s">
-        <v>749</v>
+        <v>37</v>
       </c>
       <c r="B148" s="120" t="s">
-        <v>750</v>
-      </c>
-      <c r="C148" s="121" t="s">
-        <v>43</v>
+        <v>1391</v>
+      </c>
+      <c r="C148" s="59" t="s">
+        <v>1393</v>
       </c>
       <c r="D148" s="120"/>
       <c r="E148" s="124" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F148" s="123"/>
+    </row>
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="120" t="s">
+        <v>745</v>
+      </c>
+      <c r="B149" s="120" t="s">
+        <v>746</v>
+      </c>
+      <c r="C149" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="120"/>
+      <c r="E149" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F149" s="123"/>
+    </row>
+    <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="120" t="s">
+        <v>747</v>
+      </c>
+      <c r="B150" s="120" t="s">
+        <v>748</v>
+      </c>
+      <c r="C150" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D150" s="120"/>
+      <c r="E150" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="F148" s="123"/>
-    </row>
-    <row r="149" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A149" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B149" s="120" t="s">
-        <v>751</v>
-      </c>
-      <c r="C149" s="124"/>
-      <c r="D149" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="E149" s="124"/>
-      <c r="F149" s="123"/>
-    </row>
-    <row r="150" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A150" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B150" s="120" t="s">
-        <v>753</v>
-      </c>
-      <c r="C150" s="124"/>
-      <c r="D150" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="E150" s="124"/>
       <c r="F150" s="123"/>
     </row>
-    <row r="151" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="120" t="s">
         <v>421</v>
       </c>
       <c r="B151" s="120" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C151" s="124"/>
       <c r="D151" s="20" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E151" s="124"/>
-      <c r="F151" s="123" t="s">
-        <v>757</v>
-      </c>
+      <c r="F151" s="123"/>
     </row>
     <row r="152" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A152" s="120" t="s">
         <v>424</v>
       </c>
       <c r="B152" s="120" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C152" s="124"/>
       <c r="D152" s="20" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E152" s="124"/>
       <c r="F152" s="123"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="156" t="s">
+    <row r="153" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A153" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B153" s="120" t="s">
+        <v>753</v>
+      </c>
+      <c r="C153" s="124"/>
+      <c r="D153" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E153" s="124"/>
+      <c r="F153" s="123" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A154" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B154" s="120" t="s">
+        <v>756</v>
+      </c>
+      <c r="C154" s="124"/>
+      <c r="D154" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="E154" s="124"/>
+      <c r="F154" s="123"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="156" t="s">
+        <v>758</v>
+      </c>
+      <c r="B155" s="157"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="157"/>
+      <c r="E155" s="158"/>
+      <c r="F155" s="123"/>
+    </row>
+    <row r="156" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A156" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B156" s="120" t="s">
+        <v>759</v>
+      </c>
+      <c r="C156" s="128" t="s">
         <v>760</v>
       </c>
-      <c r="B153" s="157"/>
-      <c r="C153" s="157"/>
-      <c r="D153" s="157"/>
-      <c r="E153" s="158"/>
-      <c r="F153" s="123"/>
-    </row>
-    <row r="154" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A154" s="120" t="s">
+      <c r="D156" s="120" t="s">
+        <v>761</v>
+      </c>
+      <c r="E156" s="124" t="s">
+        <v>762</v>
+      </c>
+      <c r="F156" s="123"/>
+    </row>
+    <row r="157" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A157" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="B157" s="120" t="s">
+        <v>763</v>
+      </c>
+      <c r="C157" s="121" t="s">
+        <v>764</v>
+      </c>
+      <c r="D157" s="129" t="s">
+        <v>765</v>
+      </c>
+      <c r="E157" s="124" t="s">
+        <v>766</v>
+      </c>
+      <c r="F157" s="123"/>
+    </row>
+    <row r="158" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A158" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B158" s="120" t="s">
+        <v>767</v>
+      </c>
+      <c r="C158" s="121" t="s">
+        <v>768</v>
+      </c>
+      <c r="D158" s="129" t="s">
+        <v>769</v>
+      </c>
+      <c r="E158" s="124" t="s">
+        <v>770</v>
+      </c>
+      <c r="F158" s="123"/>
+    </row>
+    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="130" t="s">
+        <v>771</v>
+      </c>
+      <c r="B159" s="120" t="s">
+        <v>772</v>
+      </c>
+      <c r="C159" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" s="129"/>
+      <c r="E159" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="F159" s="123"/>
+    </row>
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="120" t="s">
+        <v>745</v>
+      </c>
+      <c r="B160" s="120" t="s">
+        <v>773</v>
+      </c>
+      <c r="C160" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="D160" s="120"/>
+      <c r="E160" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F160" s="123"/>
+    </row>
+    <row r="161" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A161" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B161" s="120" t="s">
+        <v>774</v>
+      </c>
+      <c r="C161" s="132"/>
+      <c r="D161" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E161" s="124"/>
+      <c r="F161" s="123"/>
+    </row>
+    <row r="162" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A162" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B162" s="120" t="s">
+        <v>776</v>
+      </c>
+      <c r="C162" s="124"/>
+      <c r="D162" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="E162" s="124"/>
+      <c r="F162" s="123"/>
+    </row>
+    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="165" t="s">
+        <v>778</v>
+      </c>
+      <c r="B163" s="166"/>
+      <c r="C163" s="166"/>
+      <c r="D163" s="166"/>
+      <c r="E163" s="167"/>
+      <c r="F163" s="133" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="B154" s="120" t="s">
-        <v>761</v>
-      </c>
-      <c r="C154" s="128" t="s">
-        <v>762</v>
-      </c>
-      <c r="D154" s="120" t="s">
-        <v>763</v>
-      </c>
-      <c r="E154" s="124" t="s">
-        <v>764</v>
-      </c>
-      <c r="F154" s="123"/>
-    </row>
-    <row r="155" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A155" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="B155" s="120" t="s">
-        <v>765</v>
-      </c>
-      <c r="C155" s="121" t="s">
-        <v>766</v>
-      </c>
-      <c r="D155" s="129" t="s">
-        <v>767</v>
-      </c>
-      <c r="E155" s="124" t="s">
-        <v>768</v>
-      </c>
-      <c r="F155" s="123"/>
-    </row>
-    <row r="156" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A156" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="B156" s="120" t="s">
-        <v>769</v>
-      </c>
-      <c r="C156" s="121" t="s">
-        <v>770</v>
-      </c>
-      <c r="D156" s="129" t="s">
-        <v>771</v>
-      </c>
-      <c r="E156" s="124" t="s">
-        <v>772</v>
-      </c>
-      <c r="F156" s="123"/>
-    </row>
-    <row r="157" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="130" t="s">
-        <v>773</v>
-      </c>
-      <c r="B157" s="120" t="s">
-        <v>774</v>
-      </c>
-      <c r="C157" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="D157" s="129"/>
-      <c r="E157" s="124" t="s">
-        <v>49</v>
-      </c>
-      <c r="F157" s="123"/>
-    </row>
-    <row r="158" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="120" t="s">
-        <v>747</v>
-      </c>
-      <c r="B158" s="120" t="s">
-        <v>775</v>
-      </c>
-      <c r="C158" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="D158" s="120"/>
-      <c r="E158" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="F158" s="123"/>
-    </row>
-    <row r="159" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A159" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B159" s="120" t="s">
-        <v>776</v>
-      </c>
-      <c r="C159" s="132"/>
-      <c r="D159" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="E159" s="124"/>
-      <c r="F159" s="123"/>
-    </row>
-    <row r="160" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A160" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B160" s="120" t="s">
-        <v>778</v>
-      </c>
-      <c r="C160" s="124"/>
-      <c r="D160" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="E160" s="124"/>
-      <c r="F160" s="123"/>
-    </row>
-    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="159" t="s">
+      <c r="B164" s="120" t="s">
         <v>780</v>
       </c>
-      <c r="B161" s="160"/>
-      <c r="C161" s="160"/>
-      <c r="D161" s="160"/>
-      <c r="E161" s="161"/>
-      <c r="F161" s="133" t="s">
+      <c r="C164" s="134" t="s">
         <v>781</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B162" s="120" t="s">
-        <v>782</v>
-      </c>
-      <c r="C162" s="134" t="s">
-        <v>783</v>
-      </c>
-      <c r="D162" s="118"/>
-      <c r="E162" s="135"/>
-      <c r="F162" s="133" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A163" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="B163" s="120" t="s">
-        <v>785</v>
-      </c>
-      <c r="C163" s="121" t="s">
-        <v>766</v>
-      </c>
-      <c r="D163" s="118"/>
-      <c r="E163" s="135"/>
-      <c r="F163" s="133" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="130" t="s">
-        <v>786</v>
-      </c>
-      <c r="B164" s="120" t="s">
-        <v>787</v>
-      </c>
-      <c r="C164" s="119" t="s">
-        <v>788</v>
       </c>
       <c r="D164" s="118"/>
       <c r="E164" s="135"/>
       <c r="F164" s="133" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="130" t="s">
-        <v>32</v>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A165" s="120" t="s">
+        <v>261</v>
       </c>
       <c r="B165" s="120" t="s">
-        <v>789</v>
-      </c>
-      <c r="C165" s="134" t="s">
-        <v>790</v>
+        <v>783</v>
+      </c>
+      <c r="C165" s="121" t="s">
+        <v>764</v>
       </c>
       <c r="D165" s="118"/>
       <c r="E165" s="135"/>
       <c r="F165" s="133" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="130" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="60" t="s">
-        <v>791</v>
-      </c>
-      <c r="C166" s="134" t="s">
-        <v>76</v>
+        <v>784</v>
+      </c>
+      <c r="B166" s="120" t="s">
+        <v>785</v>
+      </c>
+      <c r="C166" s="119" t="s">
+        <v>786</v>
       </c>
       <c r="D166" s="118"/>
       <c r="E166" s="135"/>
       <c r="F166" s="133" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="120" t="s">
-        <v>749</v>
+      <c r="A167" s="130" t="s">
+        <v>32</v>
       </c>
       <c r="B167" s="120" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="C167" s="134" t="s">
-        <v>47</v>
+        <v>788</v>
       </c>
       <c r="D167" s="118"/>
       <c r="E167" s="135"/>
       <c r="F167" s="133" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B168" s="136"/>
-      <c r="C168" s="137"/>
+      <c r="A168" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="60" t="s">
+        <v>789</v>
+      </c>
+      <c r="C168" s="134" t="s">
+        <v>76</v>
+      </c>
       <c r="D168" s="118"/>
       <c r="E168" s="135"/>
       <c r="F168" s="133" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B169" s="136"/>
-      <c r="C169" s="137"/>
+        <v>747</v>
+      </c>
+      <c r="B169" s="120" t="s">
+        <v>772</v>
+      </c>
+      <c r="C169" s="134" t="s">
+        <v>47</v>
+      </c>
       <c r="D169" s="118"/>
       <c r="E169" s="135"/>
       <c r="F169" s="133" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="156" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B170" s="136"/>
+      <c r="C170" s="137"/>
+      <c r="D170" s="118"/>
+      <c r="E170" s="135"/>
+      <c r="F170" s="133" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B171" s="136"/>
+      <c r="C171" s="137"/>
+      <c r="D171" s="118"/>
+      <c r="E171" s="135"/>
+      <c r="F171" s="133" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="156" t="s">
+        <v>790</v>
+      </c>
+      <c r="B172" s="157"/>
+      <c r="C172" s="157"/>
+      <c r="D172" s="157"/>
+      <c r="E172" s="158"/>
+      <c r="F172" s="123"/>
+    </row>
+    <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A173" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="B173" s="96" t="s">
+        <v>791</v>
+      </c>
+      <c r="C173" s="97" t="s">
         <v>792</v>
       </c>
-      <c r="B170" s="157"/>
-      <c r="C170" s="157"/>
-      <c r="D170" s="157"/>
-      <c r="E170" s="158"/>
-      <c r="F170" s="123"/>
-    </row>
-    <row r="171" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A171" s="95" t="s">
-        <v>243</v>
-      </c>
-      <c r="B171" s="96" t="s">
+      <c r="D173" s="96" t="s">
         <v>793</v>
       </c>
-      <c r="C171" s="97" t="s">
+      <c r="E173" s="88" t="s">
         <v>794</v>
-      </c>
-      <c r="D171" s="96" t="s">
-        <v>795</v>
-      </c>
-      <c r="E171" s="88" t="s">
-        <v>796</v>
-      </c>
-      <c r="F171" s="123"/>
-    </row>
-    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="98" t="s">
-        <v>427</v>
-      </c>
-      <c r="B172" s="99" t="s">
-        <v>797</v>
-      </c>
-      <c r="C172" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="D172" s="99" t="s">
-        <v>414</v>
-      </c>
-      <c r="E172" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="F172" s="123"/>
-    </row>
-    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="98" t="s">
-        <v>427</v>
-      </c>
-      <c r="B173" s="99" t="s">
-        <v>798</v>
-      </c>
-      <c r="C173" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D173" s="99" t="s">
-        <v>414</v>
-      </c>
-      <c r="E173" s="93" t="s">
-        <v>62</v>
       </c>
       <c r="F173" s="123"/>
     </row>
@@ -13036,16 +13023,16 @@
         <v>427</v>
       </c>
       <c r="B174" s="99" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C174" s="100" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D174" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E174" s="93" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F174" s="123"/>
     </row>
@@ -13054,16 +13041,16 @@
         <v>427</v>
       </c>
       <c r="B175" s="99" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="C175" s="100" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D175" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E175" s="93" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F175" s="123"/>
     </row>
@@ -13072,75 +13059,83 @@
         <v>427</v>
       </c>
       <c r="B176" s="99" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C176" s="100" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D176" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E176" s="93" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F176" s="123"/>
     </row>
-    <row r="177" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="98" t="s">
-        <v>32</v>
+        <v>427</v>
       </c>
       <c r="B177" s="99" t="s">
-        <v>802</v>
-      </c>
-      <c r="C177" s="101" t="s">
-        <v>803</v>
+        <v>798</v>
+      </c>
+      <c r="C177" s="100" t="s">
+        <v>68</v>
       </c>
       <c r="D177" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E177" s="93" t="s">
-        <v>804</v>
+        <v>70</v>
       </c>
       <c r="F177" s="123"/>
     </row>
-    <row r="178" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A178" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B178" s="120" t="s">
-        <v>805</v>
-      </c>
-      <c r="C178" s="124"/>
-      <c r="D178" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="E178" s="124"/>
+    <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="98" t="s">
+        <v>427</v>
+      </c>
+      <c r="B178" s="99" t="s">
+        <v>799</v>
+      </c>
+      <c r="C178" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="E178" s="93" t="s">
+        <v>41</v>
+      </c>
       <c r="F178" s="123"/>
     </row>
-    <row r="179" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A179" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B179" s="120" t="s">
-        <v>807</v>
-      </c>
-      <c r="C179" s="124"/>
-      <c r="D179" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="E179" s="124"/>
+    <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A179" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="B179" s="99" t="s">
+        <v>800</v>
+      </c>
+      <c r="C179" s="101" t="s">
+        <v>801</v>
+      </c>
+      <c r="D179" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="E179" s="93" t="s">
+        <v>802</v>
+      </c>
       <c r="F179" s="123"/>
     </row>
-    <row r="180" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A180" s="120" t="s">
         <v>421</v>
       </c>
       <c r="B180" s="120" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="C180" s="124"/>
       <c r="D180" s="20" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E180" s="124"/>
       <c r="F180" s="123"/>
@@ -13150,278 +13145,278 @@
         <v>424</v>
       </c>
       <c r="B181" s="120" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="C181" s="124"/>
       <c r="D181" s="20" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E181" s="124"/>
       <c r="F181" s="123"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="156" t="s">
+    <row r="182" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A182" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B182" s="120" t="s">
+        <v>807</v>
+      </c>
+      <c r="C182" s="124"/>
+      <c r="D182" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="E182" s="124"/>
+      <c r="F182" s="123"/>
+    </row>
+    <row r="183" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A183" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B183" s="120" t="s">
+        <v>809</v>
+      </c>
+      <c r="C183" s="124"/>
+      <c r="D183" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="E183" s="124"/>
+      <c r="F183" s="123"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="156" t="s">
+        <v>811</v>
+      </c>
+      <c r="B184" s="157"/>
+      <c r="C184" s="157"/>
+      <c r="D184" s="157"/>
+      <c r="E184" s="158"/>
+      <c r="F184" s="123"/>
+    </row>
+    <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A185" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B185" s="120" t="s">
+        <v>812</v>
+      </c>
+      <c r="C185" s="121" t="s">
         <v>813</v>
       </c>
-      <c r="B182" s="157"/>
-      <c r="C182" s="157"/>
-      <c r="D182" s="157"/>
-      <c r="E182" s="158"/>
-      <c r="F182" s="123"/>
-    </row>
-    <row r="183" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A183" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B183" s="120" t="s">
+      <c r="D185" s="120" t="s">
+        <v>793</v>
+      </c>
+      <c r="E185" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="C183" s="121" t="s">
+      <c r="F185" s="123"/>
+    </row>
+    <row r="186" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A186" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B186" s="120" t="s">
         <v>815</v>
       </c>
-      <c r="D183" s="120" t="s">
-        <v>795</v>
-      </c>
-      <c r="E183" s="124" t="s">
+      <c r="C186" s="124"/>
+      <c r="D186" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="F183" s="123"/>
-    </row>
-    <row r="184" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A184" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B184" s="120" t="s">
-        <v>817</v>
-      </c>
-      <c r="C184" s="124"/>
-      <c r="D184" s="20" t="s">
-        <v>818</v>
-      </c>
-      <c r="E184" s="124"/>
-      <c r="F184" s="123"/>
-    </row>
-    <row r="185" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A185" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B185" s="120" t="s">
-        <v>819</v>
-      </c>
-      <c r="C185" s="124"/>
-      <c r="D185" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="E185" s="124"/>
-      <c r="F185" s="123"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="156" t="s">
-        <v>821</v>
-      </c>
-      <c r="B186" s="157"/>
-      <c r="C186" s="157"/>
-      <c r="D186" s="157"/>
-      <c r="E186" s="158"/>
+      <c r="E186" s="124"/>
       <c r="F186" s="123"/>
     </row>
     <row r="187" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A187" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B187" s="120" t="s">
+        <v>817</v>
+      </c>
+      <c r="C187" s="124"/>
+      <c r="D187" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="E187" s="124"/>
+      <c r="F187" s="123"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="156" t="s">
+        <v>819</v>
+      </c>
+      <c r="B188" s="157"/>
+      <c r="C188" s="157"/>
+      <c r="D188" s="157"/>
+      <c r="E188" s="158"/>
+      <c r="F188" s="123"/>
+    </row>
+    <row r="189" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A189" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="B187" s="120" t="s">
+      <c r="B189" s="120" t="s">
+        <v>820</v>
+      </c>
+      <c r="C189" s="121" t="s">
+        <v>821</v>
+      </c>
+      <c r="D189" s="120" t="s">
         <v>822</v>
       </c>
-      <c r="C187" s="121" t="s">
+      <c r="E189" s="124" t="s">
         <v>823</v>
       </c>
-      <c r="D187" s="120" t="s">
+      <c r="F189" s="123"/>
+    </row>
+    <row r="190" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A190" s="120" t="s">
+        <v>561</v>
+      </c>
+      <c r="B190" s="120" t="s">
         <v>824</v>
       </c>
-      <c r="E187" s="124" t="s">
+      <c r="C190" s="121" t="s">
         <v>825</v>
       </c>
-      <c r="F187" s="123"/>
-    </row>
-    <row r="188" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A188" s="120" t="s">
-        <v>561</v>
-      </c>
-      <c r="B188" s="120" t="s">
+      <c r="D190" s="120" t="s">
         <v>826</v>
       </c>
-      <c r="C188" s="121" t="s">
+      <c r="E190" s="124" t="s">
         <v>827</v>
       </c>
-      <c r="D188" s="120" t="s">
+      <c r="F190" s="123"/>
+    </row>
+    <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A191" s="120" t="s">
+        <v>495</v>
+      </c>
+      <c r="B191" s="120" t="s">
         <v>828</v>
       </c>
-      <c r="E188" s="124" t="s">
+      <c r="C191" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="F188" s="123"/>
-    </row>
-    <row r="189" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A189" s="120" t="s">
-        <v>495</v>
-      </c>
-      <c r="B189" s="120" t="s">
+      <c r="D191" s="120" t="s">
         <v>830</v>
       </c>
-      <c r="C189" s="59" t="s">
+      <c r="E191" s="124" t="s">
         <v>831</v>
       </c>
-      <c r="D189" s="120" t="s">
+      <c r="F191" s="123"/>
+    </row>
+    <row r="192" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A192" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B192" s="120" t="s">
         <v>832</v>
       </c>
-      <c r="E189" s="124" t="s">
+      <c r="C192" s="124"/>
+      <c r="D192" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="F189" s="123"/>
-    </row>
-    <row r="190" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A190" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B190" s="120" t="s">
+      <c r="E192" s="124"/>
+      <c r="F192" s="123"/>
+    </row>
+    <row r="193" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A193" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B193" s="120" t="s">
         <v>834</v>
       </c>
-      <c r="C190" s="124"/>
-      <c r="D190" s="20" t="s">
+      <c r="C193" s="124"/>
+      <c r="D193" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="E190" s="124"/>
-      <c r="F190" s="123"/>
-    </row>
-    <row r="191" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A191" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B191" s="120" t="s">
+      <c r="E193" s="124"/>
+      <c r="F193" s="123"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="156" t="s">
         <v>836</v>
       </c>
-      <c r="C191" s="124"/>
-      <c r="D191" s="20" t="s">
+      <c r="B194" s="157"/>
+      <c r="C194" s="157"/>
+      <c r="D194" s="157"/>
+      <c r="E194" s="158"/>
+      <c r="F194" s="123"/>
+    </row>
+    <row r="195" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A195" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B195" s="120" t="s">
         <v>837</v>
       </c>
-      <c r="E191" s="124"/>
-      <c r="F191" s="123"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="156" t="s">
+      <c r="C195" s="121" t="s">
         <v>838</v>
       </c>
-      <c r="B192" s="157"/>
-      <c r="C192" s="157"/>
-      <c r="D192" s="157"/>
-      <c r="E192" s="158"/>
-      <c r="F192" s="123"/>
-    </row>
-    <row r="193" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A193" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B193" s="120" t="s">
+      <c r="D195" s="120" t="s">
         <v>839</v>
       </c>
-      <c r="C193" s="121" t="s">
+      <c r="E195" s="124" t="s">
         <v>840</v>
-      </c>
-      <c r="D193" s="120" t="s">
-        <v>841</v>
-      </c>
-      <c r="E193" s="124" t="s">
-        <v>842</v>
-      </c>
-      <c r="F193" s="123"/>
-    </row>
-    <row r="194" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A194" s="120" t="s">
-        <v>427</v>
-      </c>
-      <c r="B194" s="120" t="s">
-        <v>843</v>
-      </c>
-      <c r="C194" s="121" t="s">
-        <v>39</v>
-      </c>
-      <c r="D194" s="120"/>
-      <c r="E194" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="F194" s="123"/>
-    </row>
-    <row r="195" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="120" t="s">
-        <v>747</v>
-      </c>
-      <c r="B195" s="120" t="s">
-        <v>844</v>
-      </c>
-      <c r="C195" s="121" t="s">
-        <v>76</v>
-      </c>
-      <c r="D195" s="120"/>
-      <c r="E195" s="124" t="s">
-        <v>78</v>
       </c>
       <c r="F195" s="123"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="120" t="s">
-        <v>749</v>
+        <v>427</v>
       </c>
       <c r="B196" s="120" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C196" s="121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D196" s="120"/>
       <c r="E196" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F196" s="123"/>
+    </row>
+    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="120" t="s">
+        <v>745</v>
+      </c>
+      <c r="B197" s="120" t="s">
+        <v>842</v>
+      </c>
+      <c r="C197" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="D197" s="120"/>
+      <c r="E197" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F197" s="123"/>
+    </row>
+    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="120" t="s">
+        <v>747</v>
+      </c>
+      <c r="B198" s="120" t="s">
+        <v>843</v>
+      </c>
+      <c r="C198" s="121" t="s">
+        <v>43</v>
+      </c>
+      <c r="D198" s="120"/>
+      <c r="E198" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="F196" s="123"/>
-    </row>
-    <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A197" s="120" t="s">
+      <c r="F198" s="123"/>
+    </row>
+    <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B197" s="120" t="s">
-        <v>846</v>
-      </c>
-      <c r="C197" s="138" t="s">
-        <v>847</v>
-      </c>
-      <c r="D197" s="120"/>
-      <c r="E197" s="124"/>
-      <c r="F197" s="123"/>
-    </row>
-    <row r="198" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A198" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B198" s="120" t="s">
-        <v>848</v>
-      </c>
-      <c r="C198" s="124"/>
-      <c r="D198" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="E198" s="124"/>
-      <c r="F198" s="123"/>
-    </row>
-    <row r="199" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A199" s="120" t="s">
-        <v>424</v>
-      </c>
       <c r="B199" s="120" t="s">
-        <v>849</v>
-      </c>
-      <c r="C199" s="124"/>
-      <c r="D199" s="20" t="s">
-        <v>754</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="C199" s="138" t="s">
+        <v>845</v>
+      </c>
+      <c r="D199" s="120"/>
       <c r="E199" s="124"/>
       <c r="F199" s="123"/>
     </row>
@@ -13430,11 +13425,11 @@
         <v>421</v>
       </c>
       <c r="B200" s="120" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C200" s="124"/>
       <c r="D200" s="20" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E200" s="124"/>
       <c r="F200" s="123"/>
@@ -13444,164 +13439,160 @@
         <v>424</v>
       </c>
       <c r="B201" s="120" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C201" s="124"/>
       <c r="D201" s="20" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E201" s="124"/>
       <c r="F201" s="123"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="156" t="s">
-        <v>852</v>
-      </c>
-      <c r="B202" s="157"/>
-      <c r="C202" s="157"/>
-      <c r="D202" s="157"/>
-      <c r="E202" s="158"/>
+    <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A202" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B202" s="120" t="s">
+        <v>848</v>
+      </c>
+      <c r="C202" s="124"/>
+      <c r="D202" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E202" s="124"/>
       <c r="F202" s="123"/>
     </row>
-    <row r="203" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A203" s="120" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
       <c r="B203" s="120" t="s">
-        <v>853</v>
-      </c>
-      <c r="C203" s="121" t="s">
-        <v>854</v>
-      </c>
-      <c r="D203" s="120" t="s">
-        <v>855</v>
-      </c>
-      <c r="E203" s="124" t="s">
-        <v>54</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="C203" s="124"/>
+      <c r="D203" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="E203" s="124"/>
       <c r="F203" s="123"/>
     </row>
-    <row r="204" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A204" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="B204" s="120" t="s">
-        <v>856</v>
-      </c>
-      <c r="C204" s="121" t="s">
-        <v>766</v>
-      </c>
-      <c r="D204" s="129" t="s">
-        <v>857</v>
-      </c>
-      <c r="E204" s="124" t="s">
-        <v>768</v>
-      </c>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="156" t="s">
+        <v>850</v>
+      </c>
+      <c r="B204" s="157"/>
+      <c r="C204" s="157"/>
+      <c r="D204" s="157"/>
+      <c r="E204" s="158"/>
       <c r="F204" s="123"/>
     </row>
     <row r="205" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A205" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B205" s="120" t="s">
+        <v>851</v>
+      </c>
+      <c r="C205" s="121" t="s">
+        <v>852</v>
+      </c>
+      <c r="D205" s="120" t="s">
+        <v>853</v>
+      </c>
+      <c r="E205" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" s="123"/>
+    </row>
+    <row r="206" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A206" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="B206" s="120" t="s">
+        <v>854</v>
+      </c>
+      <c r="C206" s="121" t="s">
+        <v>764</v>
+      </c>
+      <c r="D206" s="129" t="s">
+        <v>855</v>
+      </c>
+      <c r="E206" s="124" t="s">
+        <v>766</v>
+      </c>
+      <c r="F206" s="123"/>
+    </row>
+    <row r="207" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A207" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B205" s="120" t="s">
+      <c r="B207" s="120" t="s">
+        <v>856</v>
+      </c>
+      <c r="C207" s="121" t="s">
+        <v>768</v>
+      </c>
+      <c r="D207" s="129" t="s">
+        <v>857</v>
+      </c>
+      <c r="E207" s="124" t="s">
+        <v>770</v>
+      </c>
+      <c r="F207" s="123"/>
+    </row>
+    <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A208" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" s="120" t="s">
         <v>858</v>
       </c>
-      <c r="C205" s="121" t="s">
-        <v>770</v>
-      </c>
-      <c r="D205" s="129" t="s">
+      <c r="C208" s="132"/>
+      <c r="D208" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E208" s="124"/>
+      <c r="F208" s="123"/>
+    </row>
+    <row r="209" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A209" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" s="120" t="s">
         <v>859</v>
       </c>
-      <c r="E205" s="124" t="s">
-        <v>772</v>
-      </c>
-      <c r="F205" s="123"/>
-    </row>
-    <row r="206" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A206" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B206" s="120" t="s">
+      <c r="C209" s="124"/>
+      <c r="D209" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="E209" s="124"/>
+      <c r="F209" s="123"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="156" t="s">
         <v>860</v>
       </c>
-      <c r="C206" s="132"/>
-      <c r="D206" s="20" t="s">
-        <v>777</v>
-      </c>
-      <c r="E206" s="124"/>
-      <c r="F206" s="123"/>
-    </row>
-    <row r="207" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A207" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B207" s="120" t="s">
+      <c r="B210" s="157"/>
+      <c r="C210" s="157"/>
+      <c r="D210" s="157"/>
+      <c r="E210" s="158"/>
+      <c r="F210" s="123"/>
+    </row>
+    <row r="211" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A211" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B211" s="120" t="s">
         <v>861</v>
       </c>
-      <c r="C207" s="124"/>
-      <c r="D207" s="20" t="s">
-        <v>779</v>
-      </c>
-      <c r="E207" s="124"/>
-      <c r="F207" s="123"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="156" t="s">
+      <c r="C211" s="121" t="s">
         <v>862</v>
       </c>
-      <c r="B208" s="157"/>
-      <c r="C208" s="157"/>
-      <c r="D208" s="157"/>
-      <c r="E208" s="158"/>
-      <c r="F208" s="123"/>
-    </row>
-    <row r="209" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A209" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B209" s="120" t="s">
+      <c r="D211" s="120" t="s">
         <v>863</v>
       </c>
-      <c r="C209" s="121" t="s">
+      <c r="E211" s="124" t="s">
         <v>864</v>
-      </c>
-      <c r="D209" s="120" t="s">
-        <v>865</v>
-      </c>
-      <c r="E209" s="124" t="s">
-        <v>866</v>
-      </c>
-      <c r="F209" s="123"/>
-    </row>
-    <row r="210" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A210" s="120" t="s">
-        <v>427</v>
-      </c>
-      <c r="B210" s="120" t="s">
-        <v>867</v>
-      </c>
-      <c r="C210" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="D210" s="120"/>
-      <c r="E210" s="124" t="s">
-        <v>58</v>
-      </c>
-      <c r="F210" s="123"/>
-    </row>
-    <row r="211" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="120" t="s">
-        <v>427</v>
-      </c>
-      <c r="B211" s="120" t="s">
-        <v>868</v>
-      </c>
-      <c r="C211" s="121" t="s">
-        <v>60</v>
-      </c>
-      <c r="D211" s="120"/>
-      <c r="E211" s="124" t="s">
-        <v>62</v>
       </c>
       <c r="F211" s="123"/>
     </row>
@@ -13610,14 +13601,14 @@
         <v>427</v>
       </c>
       <c r="B212" s="120" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C212" s="121" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D212" s="120"/>
       <c r="E212" s="124" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F212" s="123"/>
     </row>
@@ -13626,14 +13617,14 @@
         <v>427</v>
       </c>
       <c r="B213" s="120" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C213" s="121" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D213" s="120"/>
       <c r="E213" s="124" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F213" s="123"/>
     </row>
@@ -13642,55 +13633,59 @@
         <v>427</v>
       </c>
       <c r="B214" s="120" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C214" s="121" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D214" s="120"/>
       <c r="E214" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F214" s="123"/>
+    </row>
+    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="B215" s="120" t="s">
+        <v>868</v>
+      </c>
+      <c r="C215" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" s="120"/>
+      <c r="E215" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="F215" s="123"/>
+    </row>
+    <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="B216" s="120" t="s">
+        <v>869</v>
+      </c>
+      <c r="C216" s="121" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216" s="120"/>
+      <c r="E216" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F214" s="123"/>
-    </row>
-    <row r="215" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A215" s="120" t="s">
-        <v>421</v>
-      </c>
-      <c r="B215" s="120" t="s">
-        <v>872</v>
-      </c>
-      <c r="C215" s="124"/>
-      <c r="D215" s="20" t="s">
-        <v>806</v>
-      </c>
-      <c r="E215" s="124"/>
-      <c r="F215" s="123"/>
-    </row>
-    <row r="216" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A216" s="120" t="s">
-        <v>424</v>
-      </c>
-      <c r="B216" s="120" t="s">
-        <v>873</v>
-      </c>
-      <c r="C216" s="124"/>
-      <c r="D216" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="E216" s="124"/>
       <c r="F216" s="123"/>
     </row>
-    <row r="217" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A217" s="120" t="s">
         <v>421</v>
       </c>
       <c r="B217" s="120" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C217" s="124"/>
       <c r="D217" s="20" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E217" s="124"/>
       <c r="F217" s="123"/>
@@ -13700,114 +13695,106 @@
         <v>424</v>
       </c>
       <c r="B218" s="120" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C218" s="124"/>
       <c r="D218" s="20" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E218" s="124"/>
       <c r="F218" s="123"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="156" t="s">
+    <row r="219" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A219" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" s="120" t="s">
+        <v>872</v>
+      </c>
+      <c r="C219" s="124"/>
+      <c r="D219" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="E219" s="124"/>
+      <c r="F219" s="123"/>
+    </row>
+    <row r="220" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A220" s="120" t="s">
+        <v>424</v>
+      </c>
+      <c r="B220" s="120" t="s">
+        <v>873</v>
+      </c>
+      <c r="C220" s="124"/>
+      <c r="D220" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="E220" s="124"/>
+      <c r="F220" s="123"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="156" t="s">
+        <v>874</v>
+      </c>
+      <c r="B221" s="157"/>
+      <c r="C221" s="157"/>
+      <c r="D221" s="157"/>
+      <c r="E221" s="158"/>
+      <c r="F221" s="123"/>
+    </row>
+    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A222" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="B222" s="120" t="s">
+        <v>875</v>
+      </c>
+      <c r="C222" s="121" t="s">
         <v>876</v>
       </c>
-      <c r="B219" s="157"/>
-      <c r="C219" s="157"/>
-      <c r="D219" s="157"/>
-      <c r="E219" s="158"/>
-      <c r="F219" s="123"/>
-    </row>
-    <row r="220" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A220" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="B220" s="120" t="s">
+      <c r="D222" s="120" t="s">
         <v>877</v>
       </c>
-      <c r="C220" s="121" t="s">
+      <c r="E222" s="124" t="s">
         <v>878</v>
       </c>
-      <c r="D220" s="120" t="s">
+      <c r="F222" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="E220" s="124" t="s">
+    </row>
+    <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A223" s="120" t="s">
+        <v>375</v>
+      </c>
+      <c r="B223" s="120" t="s">
         <v>880</v>
       </c>
-      <c r="F220" s="38" t="s">
+      <c r="C223" s="121" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A221" s="120" t="s">
-        <v>375</v>
-      </c>
-      <c r="B221" s="120" t="s">
+      <c r="D223" s="120" t="s">
         <v>882</v>
       </c>
-      <c r="C221" s="121" t="s">
+      <c r="E223" s="124" t="s">
         <v>883</v>
       </c>
-      <c r="D221" s="120" t="s">
+      <c r="F223" s="123"/>
+    </row>
+    <row r="224" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A224" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="B224" s="120" t="s">
         <v>884</v>
       </c>
-      <c r="E221" s="124" t="s">
+      <c r="C224" s="59" t="s">
         <v>885</v>
       </c>
-      <c r="F221" s="123"/>
-    </row>
-    <row r="222" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A222" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="B222" s="120" t="s">
+      <c r="D224" s="120" t="s">
         <v>886</v>
       </c>
-      <c r="C222" s="59" t="s">
+      <c r="E224" s="124" t="s">
         <v>887</v>
-      </c>
-      <c r="D222" s="120" t="s">
-        <v>888</v>
-      </c>
-      <c r="E222" s="124" t="s">
-        <v>889</v>
-      </c>
-      <c r="F222" s="123"/>
-    </row>
-    <row r="223" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A223" s="120" t="s">
-        <v>389</v>
-      </c>
-      <c r="B223" s="120" t="s">
-        <v>890</v>
-      </c>
-      <c r="C223" s="121" t="s">
-        <v>891</v>
-      </c>
-      <c r="D223" s="125" t="s">
-        <v>892</v>
-      </c>
-      <c r="E223" s="124" t="s">
-        <v>893</v>
-      </c>
-      <c r="F223" s="123"/>
-    </row>
-    <row r="224" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A224" s="120" t="s">
-        <v>389</v>
-      </c>
-      <c r="B224" s="120" t="s">
-        <v>894</v>
-      </c>
-      <c r="C224" s="121" t="s">
-        <v>391</v>
-      </c>
-      <c r="D224" s="125" t="s">
-        <v>895</v>
-      </c>
-      <c r="E224" s="124" t="s">
-        <v>393</v>
       </c>
       <c r="F224" s="123"/>
     </row>
@@ -13816,34 +13803,34 @@
         <v>389</v>
       </c>
       <c r="B225" s="120" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C225" s="121" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D225" s="125" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E225" s="124" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F225" s="123"/>
     </row>
-    <row r="226" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A226" s="120" t="s">
         <v>389</v>
       </c>
       <c r="B226" s="120" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="C226" s="121" t="s">
-        <v>901</v>
+        <v>391</v>
       </c>
       <c r="D226" s="125" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="E226" s="124" t="s">
-        <v>903</v>
+        <v>393</v>
       </c>
       <c r="F226" s="123"/>
     </row>
@@ -13852,70 +13839,70 @@
         <v>389</v>
       </c>
       <c r="B227" s="120" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C227" s="121" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="D227" s="125" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="E227" s="124" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="F227" s="123"/>
     </row>
-    <row r="228" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A228" s="120" t="s">
-        <v>502</v>
+        <v>389</v>
       </c>
       <c r="B228" s="120" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="C228" s="121" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="D228" s="125" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E228" s="124" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F228" s="123"/>
     </row>
-    <row r="229" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="120" t="s">
         <v>389</v>
       </c>
       <c r="B229" s="120" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C229" s="121" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D229" s="125" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E229" s="124" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="F229" s="123"/>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="120" t="s">
-        <v>389</v>
+        <v>502</v>
       </c>
       <c r="B230" s="120" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C230" s="121" t="s">
-        <v>323</v>
+        <v>907</v>
       </c>
       <c r="D230" s="125" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="E230" s="124" t="s">
-        <v>325</v>
+        <v>908</v>
       </c>
       <c r="F230" s="123"/>
     </row>
@@ -13924,62 +13911,84 @@
         <v>389</v>
       </c>
       <c r="B231" s="120" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="C231" s="121" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D231" s="125" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E231" s="124" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="F231" s="123"/>
     </row>
-    <row r="232" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="120" t="s">
         <v>389</v>
       </c>
       <c r="B232" s="120" t="s">
+        <v>913</v>
+      </c>
+      <c r="C232" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="D232" s="125" t="s">
+        <v>914</v>
+      </c>
+      <c r="E232" s="124" t="s">
+        <v>325</v>
+      </c>
+      <c r="F232" s="123"/>
+    </row>
+    <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A233" s="120" t="s">
+        <v>389</v>
+      </c>
+      <c r="B233" s="120" t="s">
+        <v>915</v>
+      </c>
+      <c r="C233" s="121" t="s">
+        <v>916</v>
+      </c>
+      <c r="D233" s="125" t="s">
+        <v>917</v>
+      </c>
+      <c r="E233" s="124" t="s">
+        <v>918</v>
+      </c>
+      <c r="F233" s="123"/>
+    </row>
+    <row r="234" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A234" s="120" t="s">
+        <v>389</v>
+      </c>
+      <c r="B234" s="120" t="s">
+        <v>919</v>
+      </c>
+      <c r="C234" s="121" t="s">
+        <v>920</v>
+      </c>
+      <c r="D234" s="125" t="s">
         <v>921</v>
       </c>
-      <c r="C232" s="121" t="s">
+      <c r="E234" s="124" t="s">
         <v>922</v>
       </c>
-      <c r="D232" s="125" t="s">
-        <v>923</v>
-      </c>
-      <c r="E232" s="124" t="s">
-        <v>924</v>
-      </c>
-      <c r="F232" s="123"/>
-    </row>
-    <row r="233" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="D233" s="5"/>
-      <c r="E233" s="37"/>
-      <c r="F233" s="68" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="37"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F234" s="123"/>
+    </row>
+    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
-      <c r="C235" s="6"/>
+      <c r="C235" s="6" t="s">
+        <v>923</v>
+      </c>
       <c r="D235" s="5"/>
       <c r="E235" s="37"/>
+      <c r="F235" s="68" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
@@ -14709,22 +14718,24 @@
       <c r="D339" s="5"/>
       <c r="E339" s="37"/>
     </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="5"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="37"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="5"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="5"/>
+      <c r="E341" s="37"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A219:E219"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A192:E192"/>
-    <mergeCell ref="A202:E202"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A170:E170"/>
-    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A155:E155"/>
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="A80:E80"/>
@@ -14732,7 +14743,19 @@
     <mergeCell ref="A135:E135"/>
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A161:E161"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A210:E210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14780,7 +14803,7 @@
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="171" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B2" s="172"/>
       <c r="C2" s="172"/>
@@ -14792,110 +14815,110 @@
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>931</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>932</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>881</v>
+      </c>
+      <c r="E5" s="46" t="s">
         <v>883</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>937</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>938</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D8" s="96" t="s">
         <v>414</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -14906,10 +14929,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>946</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>948</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -14920,7 +14943,7 @@
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="171" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B12" s="172"/>
       <c r="C12" s="172"/>
@@ -14932,16 +14955,16 @@
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>949</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="E13" s="46" t="s">
         <v>951</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14949,16 +14972,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>954</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="E14" s="46" t="s">
         <v>955</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14966,16 +14989,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>956</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>957</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>958</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>959</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14983,16 +15006,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>961</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>962</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>956</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15000,16 +15023,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="96" t="s">
+        <v>962</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>963</v>
+      </c>
+      <c r="D17" s="96" t="s">
+        <v>954</v>
+      </c>
+      <c r="E17" s="88" t="s">
         <v>964</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>965</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>956</v>
-      </c>
-      <c r="E17" s="88" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15017,11 +15040,11 @@
         <v>421</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15029,16 +15052,16 @@
         <v>424</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="180" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B20" s="181"/>
       <c r="C20" s="181"/>
@@ -15047,52 +15070,52 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>971</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>972</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>973</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>974</v>
       </c>
       <c r="D21" s="82"/>
       <c r="E21" s="83" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
+        <v>974</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>975</v>
+      </c>
+      <c r="C22" s="84" t="s">
         <v>976</v>
-      </c>
-      <c r="B22" s="98" t="s">
-        <v>977</v>
-      </c>
-      <c r="C22" s="84" t="s">
-        <v>978</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="83" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
+        <v>978</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>979</v>
+      </c>
+      <c r="C23" s="84" t="s">
         <v>980</v>
-      </c>
-      <c r="B23" s="98" t="s">
-        <v>981</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>982</v>
       </c>
       <c r="D23" s="82"/>
       <c r="E23" s="83" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="177" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B24" s="178"/>
       <c r="C24" s="178"/>
@@ -15104,19 +15127,19 @@
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="168" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B26" s="169"/>
       <c r="C26" s="169"/>
@@ -15128,19 +15151,19 @@
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="168" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B28" s="169"/>
       <c r="C28" s="169"/>
@@ -15152,53 +15175,53 @@
         <v>243</v>
       </c>
       <c r="B29" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>992</v>
+      </c>
+      <c r="D29" s="96" t="s">
         <v>993</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="E29" s="88" t="s">
         <v>994</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="F29" s="72" t="s">
         <v>995</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>996</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="98" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B30" s="99" t="s">
+        <v>996</v>
+      </c>
+      <c r="C30" s="100" t="s">
+        <v>997</v>
+      </c>
+      <c r="D30" s="99" t="s">
         <v>998</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="E30" s="93" t="s">
         <v>999</v>
-      </c>
-      <c r="D30" s="99" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="93" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="98" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C31" s="100" t="s">
         <v>1002</v>
-      </c>
-      <c r="B31" s="99" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>1004</v>
       </c>
       <c r="D31" s="99" t="s">
         <v>414</v>
       </c>
       <c r="E31" s="93" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15206,13 +15229,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>1006</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15220,16 +15243,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>1009</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="E33" s="46" t="s">
         <v>1010</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15237,11 +15260,11 @@
         <v>421</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15249,11 +15272,11 @@
         <v>421</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15261,16 +15284,16 @@
         <v>424</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="168" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B37" s="169"/>
       <c r="C37" s="169"/>
@@ -15282,16 +15305,16 @@
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>1020</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="E38" s="46" t="s">
         <v>1021</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15299,11 +15322,11 @@
         <v>421</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15311,16 +15334,16 @@
         <v>424</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="174" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B41" s="175"/>
       <c r="C41" s="175"/>
@@ -15332,19 +15355,19 @@
         <v>243</v>
       </c>
       <c r="B42" s="120" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>876</v>
+      </c>
+      <c r="D42" s="120" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>878</v>
+      </c>
+      <c r="F42" s="73" t="s">
         <v>1028</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>878</v>
-      </c>
-      <c r="D42" s="120" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>880</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15352,16 +15375,16 @@
         <v>375</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D43" s="120" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15369,16 +15392,16 @@
         <v>261</v>
       </c>
       <c r="B44" s="120" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D44" s="120" t="s">
         <v>1033</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="E44" s="46" t="s">
         <v>1034</v>
-      </c>
-      <c r="D44" s="120" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15386,16 +15409,16 @@
         <v>389</v>
       </c>
       <c r="B45" s="120" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D45" s="125" t="s">
         <v>1037</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D45" s="125" t="s">
-        <v>1039</v>
-      </c>
       <c r="E45" s="46" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15403,16 +15426,16 @@
         <v>389</v>
       </c>
       <c r="B46" s="120" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D46" s="125" t="s">
         <v>1040</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="E46" s="46" t="s">
         <v>1041</v>
-      </c>
-      <c r="D46" s="125" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15420,16 +15443,16 @@
         <v>389</v>
       </c>
       <c r="B47" s="120" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D47" s="125" t="s">
         <v>1044</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="E47" s="46" t="s">
         <v>1045</v>
-      </c>
-      <c r="D47" s="125" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15437,16 +15460,16 @@
         <v>389</v>
       </c>
       <c r="B48" s="120" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D48" s="125" t="s">
         <v>1048</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="E48" s="46" t="s">
         <v>1049</v>
-      </c>
-      <c r="D48" s="125" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15454,16 +15477,16 @@
         <v>389</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D49" s="105" t="s">
         <v>414</v>
       </c>
       <c r="E49" s="88" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15471,7 +15494,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -15482,36 +15505,36 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>1056</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>1057</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1059</v>
-      </c>
       <c r="F51" s="72" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F52" s="72" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15519,16 +15542,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="120" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D53" s="125" t="s">
         <v>1062</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D53" s="125" t="s">
-        <v>1064</v>
-      </c>
       <c r="F53" s="72" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15536,16 +15559,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="120" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D54" s="125" t="s">
         <v>1065</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D54" s="125" t="s">
-        <v>1067</v>
-      </c>
       <c r="F54" s="72" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -15608,52 +15631,52 @@
         <v>243</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="142" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F2" s="139"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="140" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B3" s="140" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D3" s="140" t="s">
         <v>1071</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="E3" s="142" t="s">
         <v>1072</v>
-      </c>
-      <c r="D3" s="140" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E3" s="142" t="s">
-        <v>1074</v>
       </c>
       <c r="F3" s="139"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="140" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B4" s="140" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C4" s="141" t="s">
         <v>1075</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="D4" s="140" t="s">
         <v>1076</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="E4" s="142" t="s">
         <v>1077</v>
-      </c>
-      <c r="D4" s="140" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E4" s="142" t="s">
-        <v>1079</v>
       </c>
       <c r="F4" s="139"/>
     </row>
@@ -15662,11 +15685,11 @@
         <v>421</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="140" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E5" s="142"/>
       <c r="F5" s="139"/>
@@ -15676,84 +15699,84 @@
         <v>424</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="140" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E6" s="142"/>
       <c r="F6" s="139"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B7" s="140" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C7" s="141" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D7" s="140" t="s">
         <v>1084</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="E7" s="142" t="s">
         <v>1085</v>
-      </c>
-      <c r="D7" s="140" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E7" s="142" t="s">
-        <v>1087</v>
       </c>
       <c r="F7" s="139"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B8" s="140" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C8" s="141" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D8" s="140" t="s">
         <v>1088</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="E8" s="142" t="s">
         <v>1089</v>
-      </c>
-      <c r="D8" s="140" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E8" s="142" t="s">
-        <v>1091</v>
       </c>
       <c r="F8" s="139"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B9" s="140" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D9" s="140" t="s">
         <v>1092</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="E9" s="142" t="s">
         <v>1093</v>
-      </c>
-      <c r="D9" s="140" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E9" s="142" t="s">
-        <v>1095</v>
       </c>
       <c r="F9" s="139"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B10" s="140" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C10" s="141" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D10" s="140" t="s">
         <v>1096</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="E10" s="142" t="s">
         <v>1097</v>
-      </c>
-      <c r="D10" s="140" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E10" s="142" t="s">
-        <v>1099</v>
       </c>
       <c r="F10" s="139"/>
     </row>
@@ -15762,32 +15785,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="140" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D11" s="140" t="s">
         <v>1100</v>
-      </c>
-      <c r="C11" s="141" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>1102</v>
       </c>
       <c r="E11" s="142"/>
       <c r="F11" s="139"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B12" s="140" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="141" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D12" s="140" t="s">
         <v>1103</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="E12" s="142" t="s">
         <v>1104</v>
-      </c>
-      <c r="D12" s="140" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E12" s="142" t="s">
-        <v>1106</v>
       </c>
       <c r="F12" s="139"/>
     </row>
@@ -15796,11 +15819,11 @@
         <v>421</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C13" s="142"/>
       <c r="D13" s="140" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E13" s="142"/>
       <c r="F13" s="139"/>
@@ -15810,83 +15833,83 @@
         <v>424</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C14" s="142"/>
       <c r="D14" s="140" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E14" s="142"/>
       <c r="F14" s="139"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B15" s="140" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C15" s="141" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D15" s="140" t="s">
         <v>1110</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="E15" s="142" t="s">
         <v>1111</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E15" s="142" t="s">
-        <v>1113</v>
       </c>
       <c r="F15" s="139"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B16" s="140" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C16" s="141" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D16" s="140" t="s">
         <v>1114</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="E16" s="142" t="s">
         <v>1115</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E16" s="142" t="s">
-        <v>1117</v>
       </c>
       <c r="F16" s="139"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B17" s="140" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C17" s="141" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D17" s="140" t="s">
         <v>1118</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="E17" s="142" t="s">
         <v>1119</v>
-      </c>
-      <c r="D17" s="140" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E17" s="142" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B18" s="140" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>1122</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="E18" s="142" t="s">
         <v>1123</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E18" s="142" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -15894,11 +15917,11 @@
         <v>421</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E19" s="142"/>
     </row>
@@ -15907,11 +15930,11 @@
         <v>424</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E20" s="142"/>
     </row>
@@ -15920,29 +15943,29 @@
         <v>424</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E21" s="142"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="140" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B22" s="140" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C22" s="141" t="s">
         <v>1131</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="D22" s="140" t="s">
         <v>1132</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="E22" s="142" t="s">
         <v>1133</v>
-      </c>
-      <c r="D22" s="140" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E22" s="142" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -15950,11 +15973,11 @@
         <v>421</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="140" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E23" s="142"/>
     </row>
@@ -15963,11 +15986,11 @@
         <v>424</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="140" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E24" s="142"/>
     </row>
@@ -15976,11 +15999,11 @@
         <v>424</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E25" s="142"/>
     </row>
@@ -15989,38 +16012,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="140" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C26" s="141" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D26" s="140" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="142" t="s">
         <v>1142</v>
-      </c>
-      <c r="C26" s="141" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D26" s="140" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E26" s="142" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="140" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B27" s="140" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C27" s="141" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D27" s="140" t="s">
         <v>1145</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="E27" s="142" t="s">
         <v>1146</v>
-      </c>
-      <c r="D27" s="140" t="s">
-        <v>1147</v>
-      </c>
-      <c r="E27" s="142" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="183" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B28" s="184"/>
       <c r="C28" s="184"/>
@@ -16032,33 +16055,33 @@
         <v>243</v>
       </c>
       <c r="B29" s="145" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C29" s="146" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="E29" s="147" t="s">
         <v>1151</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E29" s="147" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="148" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B30" s="148" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C30" s="149" t="s">
         <v>1154</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="D30" s="148" t="s">
         <v>1155</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="E30" s="150" t="s">
         <v>1156</v>
-      </c>
-      <c r="D30" s="148" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E30" s="150" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16066,11 +16089,11 @@
         <v>421</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E31" s="150"/>
     </row>
@@ -16079,17 +16102,17 @@
         <v>424</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E32" s="150"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="186" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B33" s="187"/>
       <c r="C33" s="188"/>
@@ -16101,121 +16124,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="151" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C34" s="149" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D34" s="50" t="s">
         <v>1162</v>
       </c>
-      <c r="C34" s="149" t="s">
+      <c r="E34" s="150" t="s">
         <v>1163</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E34" s="150" t="s">
-        <v>1165</v>
       </c>
       <c r="F34" s="139"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="148" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B35" s="152" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C35" s="149" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D35" s="153" t="s">
         <v>1166</v>
       </c>
-      <c r="C35" s="149" t="s">
+      <c r="E35" s="150" t="s">
         <v>1167</v>
-      </c>
-      <c r="D35" s="153" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E35" s="150" t="s">
-        <v>1169</v>
       </c>
       <c r="F35" s="139"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="148" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B36" s="152" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C36" s="149" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D36" s="153" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E36" s="150" t="s">
         <v>1170</v>
-      </c>
-      <c r="C36" s="149" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D36" s="153" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E36" s="150" t="s">
-        <v>1172</v>
       </c>
       <c r="F36" s="139"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="148" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B37" s="152" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D37" s="153" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E37" s="150" t="s">
         <v>1173</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D37" s="153" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E37" s="150" t="s">
-        <v>1175</v>
       </c>
       <c r="F37" s="139"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="148" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B38" s="152" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D38" s="153" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E38" s="150" t="s">
         <v>1176</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D38" s="153" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E38" s="150" t="s">
-        <v>1178</v>
       </c>
       <c r="F38" s="139"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="148" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B39" s="152" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D39" s="153" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E39" s="150" t="s">
         <v>1179</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D39" s="153" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E39" s="150" t="s">
-        <v>1181</v>
       </c>
       <c r="F39" s="139"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="148" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B40" s="152" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="153" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E40" s="150" t="s">
         <v>95</v>
@@ -16227,11 +16250,11 @@
         <v>421</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E41" s="150"/>
       <c r="F41" s="139"/>
@@ -16241,11 +16264,11 @@
         <v>424</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E42" s="150"/>
       <c r="F42" s="139"/>
@@ -16255,16 +16278,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="140" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="E43" s="150" t="s">
         <v>1186</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E43" s="150" t="s">
-        <v>1188</v>
       </c>
       <c r="F43" s="139"/>
     </row>
@@ -16273,11 +16296,11 @@
         <v>421</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E44" s="150"/>
       <c r="F44" s="139"/>
@@ -16287,18 +16310,18 @@
         <v>424</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E45" s="150"/>
       <c r="F45" s="139"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="183" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B46" s="184"/>
       <c r="C46" s="184"/>
@@ -16310,53 +16333,53 @@
         <v>243</v>
       </c>
       <c r="B47" s="148" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D47" s="120" t="s">
         <v>1192</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="E47" s="63" t="s">
+        <v>878</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>1193</v>
-      </c>
-      <c r="D47" s="120" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>880</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="148" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B48" s="148" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>1196</v>
       </c>
-      <c r="B48" s="148" t="s">
+      <c r="D48" s="120" t="s">
         <v>1197</v>
       </c>
-      <c r="C48" s="62" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D48" s="120" t="s">
-        <v>1199</v>
-      </c>
       <c r="E48" s="63" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="148" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B49" s="148" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D49" s="120" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16364,19 +16387,19 @@
         <v>389</v>
       </c>
       <c r="B50" s="140" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C50" s="149" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D50" s="125" t="s">
         <v>1202</v>
       </c>
-      <c r="C50" s="149" t="s">
+      <c r="E50" s="63" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F50" s="74" t="s">
         <v>1203</v>
-      </c>
-      <c r="D50" s="125" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16384,16 +16407,16 @@
         <v>389</v>
       </c>
       <c r="B51" s="140" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C51" s="149" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D51" s="125" t="s">
         <v>1206</v>
       </c>
-      <c r="C51" s="149" t="s">
+      <c r="E51" s="63" t="s">
         <v>1207</v>
-      </c>
-      <c r="D51" s="125" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16401,16 +16424,16 @@
         <v>389</v>
       </c>
       <c r="B52" s="140" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C52" s="149" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D52" s="125" t="s">
         <v>1210</v>
       </c>
-      <c r="C52" s="149" t="s">
+      <c r="E52" s="63" t="s">
         <v>1211</v>
-      </c>
-      <c r="D52" s="125" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16418,16 +16441,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="140" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C53" s="149" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D53" s="125" t="s">
         <v>1214</v>
       </c>
-      <c r="C53" s="149" t="s">
+      <c r="E53" s="63" t="s">
         <v>1215</v>
-      </c>
-      <c r="D53" s="125" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16435,16 +16458,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="140" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C54" s="149" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D54" s="125" t="s">
         <v>1218</v>
       </c>
-      <c r="C54" s="149" t="s">
+      <c r="E54" s="63" t="s">
         <v>1219</v>
-      </c>
-      <c r="D54" s="125" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16452,19 +16475,19 @@
         <v>389</v>
       </c>
       <c r="B55" s="140" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C55" s="149" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D55" s="125" t="s">
         <v>1222</v>
       </c>
-      <c r="C55" s="149" t="s">
+      <c r="E55" s="63" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F55" s="74" t="s">
         <v>1223</v>
-      </c>
-      <c r="D55" s="125" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16472,19 +16495,19 @@
         <v>389</v>
       </c>
       <c r="B56" s="140" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C56" s="149" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D56" s="125" t="s">
         <v>1226</v>
       </c>
-      <c r="C56" s="149" t="s">
+      <c r="E56" s="63" t="s">
         <v>1227</v>
       </c>
-      <c r="D56" s="125" t="s">
+      <c r="F56" s="74" t="s">
         <v>1228</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16492,19 +16515,19 @@
         <v>389</v>
       </c>
       <c r="B57" s="140" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C57" s="149" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D57" s="125" t="s">
         <v>1231</v>
       </c>
-      <c r="C57" s="149" t="s">
+      <c r="E57" s="63" t="s">
         <v>1232</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="F57" s="74" t="s">
         <v>1233</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16512,19 +16535,19 @@
         <v>389</v>
       </c>
       <c r="B58" s="140" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D58" s="125" t="s">
         <v>1236</v>
       </c>
-      <c r="C58" s="149" t="s">
+      <c r="E58" s="63" t="s">
         <v>1237</v>
       </c>
-      <c r="D58" s="125" t="s">
+      <c r="F58" s="74" t="s">
         <v>1238</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16532,16 +16555,16 @@
         <v>389</v>
       </c>
       <c r="B59" s="140" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C59" s="149" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D59" s="125" t="s">
         <v>1241</v>
       </c>
-      <c r="C59" s="149" t="s">
+      <c r="E59" s="63" t="s">
         <v>1242</v>
-      </c>
-      <c r="D59" s="125" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16549,16 +16572,16 @@
         <v>389</v>
       </c>
       <c r="B60" s="140" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C60" s="149" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D60" s="125" t="s">
         <v>1245</v>
       </c>
-      <c r="C60" s="149" t="s">
+      <c r="E60" s="63" t="s">
         <v>1246</v>
-      </c>
-      <c r="D60" s="125" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16566,16 +16589,16 @@
         <v>389</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C61" s="149" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D61" s="125" t="s">
         <v>1249</v>
       </c>
-      <c r="C61" s="149" t="s">
+      <c r="E61" s="63" t="s">
         <v>1250</v>
-      </c>
-      <c r="D61" s="125" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16583,63 +16606,63 @@
         <v>389</v>
       </c>
       <c r="B62" s="140" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C62" s="149" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D62" s="125" t="s">
         <v>1253</v>
       </c>
-      <c r="C62" s="149" t="s">
+      <c r="E62" s="81" t="s">
         <v>1254</v>
-      </c>
-      <c r="D62" s="125" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E62" s="81" t="s">
-        <v>1256</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="148" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B63" s="148" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C63" s="149" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D63" s="152"/>
       <c r="E63" s="80" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F63" s="139"/>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="148" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B64" s="148" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C64" s="149" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D64" s="152"/>
       <c r="E64" s="80" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F64" s="139"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="148" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B65" s="140" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C65" s="149" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D65" s="152"/>
       <c r="E65" s="80" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F65" s="139"/>
     </row>
@@ -16754,16 +16777,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="68" t="s">
         <v>1263</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16771,16 +16794,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16788,50 +16811,50 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>883</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16839,16 +16862,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16856,49 +16879,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1277</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="75" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -16931,15 +16954,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -16978,6 +16992,15 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17258,14 +17281,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17274,6 +17289,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCA69E0-7A81-0E4E-9172-3A8DD5BAC82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2767B-2DC0-D54F-898D-1CEE9B3322F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1396">
   <si>
     <r>
       <rPr>
@@ -5699,15 +5699,6 @@
     <t>Tystysgrif feddygol o achos marwolaeth wedi'i chyflwyno i'w harchwilio</t>
   </si>
   <si>
-    <t>PROCESS TO BE CONFIRMED - Either mapping or code transfer from AP to ME…</t>
-  </si>
-  <si>
-    <t>In the case that amendments are required by the medical examiner, you will be notified via email and asked to sign back in to edit the information on this certificate.</t>
-  </si>
-  <si>
-    <t>Os bydd angen diwygiadau gan yr archwiliwr meddygol, cewch eich hysbysu trwy e-bost a gofynnir i chi fewngofnodi eto i olygu'r wybodaeth ar y dystysgrif hon.</t>
-  </si>
-  <si>
     <t>apConfirmationPageTitle</t>
   </si>
   <si>
@@ -5759,6 +5750,12 @@
   </si>
   <si>
     <t>008</t>
+  </si>
+  <si>
+    <t>This certificate will now be sent to the medical examiner office for review and scrutiny.&lt;br /&gt;&lt;br /&gt;A summary of this certificate can be accessed from your dashboard.</t>
+  </si>
+  <si>
+    <t>You will be contacted by the medical examiner office if, following review and scrutiny of the cause of death the medical examiner requests that you amend this MCCD. You must then sign back in to edit the information on this certificate.&lt;br /&gt;&lt;br /&gt;You will be notified by email when the approved certificate is sent to the local register office.</t>
   </si>
 </sst>
 </file>
@@ -6228,7 +6225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6452,9 +6449,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6696,6 +6690,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6712,15 +6715,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7178,538 +7172,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="154"/>
+      <c r="K1" s="154"/>
+      <c r="L1" s="154"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="155"/>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
+      <c r="A3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="155"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="154"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="155"/>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="154"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="155"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
+      <c r="K9" s="154"/>
+      <c r="L9" s="154"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="155"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="155"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="155"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="155"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="154"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="155"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="155"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="155"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="155"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="155"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="155"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="155"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="155"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="155"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="155"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="154"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="155"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="155"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="154"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="155"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="154"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="155"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="154"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="154"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="155"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="154"/>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="154"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="155"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="154"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="155"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="154"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="154"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="155"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="154"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="155"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
+      <c r="A36" s="154"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="154"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="155"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="154"/>
+      <c r="G37" s="154"/>
+      <c r="H37" s="154"/>
+      <c r="I37" s="154"/>
+      <c r="J37" s="154"/>
+      <c r="K37" s="154"/>
+      <c r="L37" s="154"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="155"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7724,7 +7718,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7755,398 +7749,398 @@
       <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>1280</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>1281</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>1282</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>1284</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="98" t="s">
         <v>1285</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="99" t="s">
         <v>1286</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>1287</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="92" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>771</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>1289</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>1290</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="92" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>1292</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="110" t="s">
         <v>1293</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="108" t="s">
         <v>1294</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="110" t="s">
         <v>1295</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="112" t="s">
+      <c r="A7" s="111" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="113" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>1296</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="99" t="s">
         <v>1297</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="98" t="s">
         <v>1298</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="92" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="97" t="s">
         <v>1284</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="98" t="s">
         <v>1300</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="99" t="s">
         <v>1301</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="98" t="s">
         <v>1302</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="92" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>771</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>1304</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="99" t="s">
         <v>1305</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="108" t="s">
         <v>1306</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>1293</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="108" t="s">
         <v>1307</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>1295</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="111" t="s">
         <v>414</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="113" t="s">
+      <c r="C13" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="E13" s="114" t="s">
+      <c r="E13" s="113" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="98" t="s">
         <v>1308</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="99" t="s">
         <v>1309</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="98" t="s">
         <v>1310</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="97" t="s">
         <v>1284</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>1311</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="99" t="s">
         <v>1312</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="98" t="s">
         <v>1313</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="92" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="108" t="s">
         <v>1315</v>
       </c>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="110" t="s">
         <v>1293</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="108" t="s">
         <v>1316</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>1295</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="98" t="s">
         <v>1317</v>
       </c>
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="99" t="s">
         <v>1318</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="92" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="114" t="s">
         <v>414</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="115" t="s">
         <v>414</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="115" t="s">
         <v>414</v>
       </c>
-      <c r="D19" s="116" t="s">
+      <c r="D19" s="115" t="s">
         <v>414</v>
       </c>
-      <c r="E19" s="116" t="s">
+      <c r="E19" s="115" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="98" t="s">
         <v>1320</v>
       </c>
-      <c r="C20" s="100" t="s">
+      <c r="C20" s="99" t="s">
         <v>1321</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="98" t="s">
         <v>1282</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="97" t="s">
         <v>1284</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="98" t="s">
         <v>1322</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="99" t="s">
         <v>1323</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="98" t="s">
         <v>1324</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="97" t="s">
         <v>771</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="98" t="s">
         <v>1325</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="99" t="s">
         <v>1326</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="108" t="s">
         <v>1327</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="110" t="s">
         <v>1293</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="92" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="108" t="s">
         <v>1328</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="109" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="110" t="s">
         <v>1295</v>
       </c>
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="92" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8159,9 +8153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C2F8F-96ED-4E65-B816-FFFEB93DC889}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8191,19 +8185,19 @@
       <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="189" t="s">
         <v>1329</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8423,21 +8417,21 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="189" t="s">
         <v>1378</v>
       </c>
-      <c r="B18" s="191"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1379</v>
@@ -8449,15 +8443,15 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>1381</v>
+        <v>1382</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8465,7 +8459,7 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>1337</v>
@@ -8474,18 +8468,15 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8507,7 +8498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -8544,20 +8535,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="104" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D2" s="102" t="s">
+      <c r="C2" s="103" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="103" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F2" s="102"/>
+      <c r="E2" s="102" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -9211,7 +9202,7 @@
       <c r="E39" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="77"/>
     </row>
     <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -9364,263 +9355,263 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89" t="s">
+      <c r="A48" s="88"/>
+      <c r="B48" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="106" t="s">
+      <c r="C48" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="89"/>
-      <c r="E48" s="107" t="s">
+      <c r="D48" s="88"/>
+      <c r="E48" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="89"/>
+      <c r="F48" s="88"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89" t="s">
+      <c r="A49" s="88"/>
+      <c r="B49" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="106" t="s">
+      <c r="C49" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="D49" s="89"/>
-      <c r="E49" s="107" t="s">
+      <c r="D49" s="88"/>
+      <c r="E49" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="F49" s="89"/>
+      <c r="F49" s="88"/>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89" t="s">
+      <c r="A50" s="88"/>
+      <c r="B50" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="C50" s="106" t="s">
+      <c r="C50" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="107" t="s">
+      <c r="D50" s="88"/>
+      <c r="E50" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="89"/>
+      <c r="F50" s="88"/>
     </row>
     <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="106" t="s">
+      <c r="C51" s="105" t="s">
         <v>201</v>
       </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="107" t="s">
+      <c r="D51" s="88"/>
+      <c r="E51" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="F51" s="89"/>
+      <c r="F51" s="88"/>
     </row>
     <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89" t="s">
+      <c r="A52" s="88"/>
+      <c r="B52" s="88" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="106" t="s">
+      <c r="C52" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="D52" s="89"/>
-      <c r="E52" s="107" t="s">
+      <c r="D52" s="88"/>
+      <c r="E52" s="106" t="s">
         <v>204</v>
       </c>
-      <c r="F52" s="89"/>
+      <c r="F52" s="88"/>
     </row>
     <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89" t="s">
+      <c r="A53" s="88"/>
+      <c r="B53" s="88" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="105" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="89"/>
-      <c r="E53" s="107" t="s">
+      <c r="D53" s="88"/>
+      <c r="E53" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="F53" s="89"/>
+      <c r="F53" s="88"/>
     </row>
     <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89" t="s">
+      <c r="A54" s="88"/>
+      <c r="B54" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="106" t="s">
+      <c r="C54" s="105" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="89"/>
-      <c r="E54" s="107" t="s">
+      <c r="D54" s="88"/>
+      <c r="E54" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="89"/>
+      <c r="F54" s="88"/>
     </row>
     <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89" t="s">
+      <c r="A55" s="88"/>
+      <c r="B55" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="D55" s="89"/>
-      <c r="E55" s="107" t="s">
+      <c r="D55" s="88"/>
+      <c r="E55" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="89"/>
+      <c r="F55" s="88"/>
     </row>
     <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89" t="s">
+      <c r="A56" s="88"/>
+      <c r="B56" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="106" t="s">
+      <c r="C56" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="D56" s="89"/>
-      <c r="E56" s="107" t="s">
+      <c r="D56" s="88"/>
+      <c r="E56" s="106" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="89"/>
+      <c r="F56" s="88"/>
     </row>
     <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89" t="s">
+      <c r="A57" s="88"/>
+      <c r="B57" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="89"/>
-      <c r="E57" s="107" t="s">
+      <c r="D57" s="88"/>
+      <c r="E57" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="F57" s="89"/>
+      <c r="F57" s="88"/>
     </row>
     <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89" t="s">
+      <c r="A58" s="88"/>
+      <c r="B58" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="106" t="s">
+      <c r="C58" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="89"/>
-      <c r="E58" s="107" t="s">
+      <c r="D58" s="88"/>
+      <c r="E58" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F58" s="89"/>
+      <c r="F58" s="88"/>
     </row>
     <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89" t="s">
+      <c r="A59" s="88"/>
+      <c r="B59" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="106" t="s">
+      <c r="C59" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="89"/>
-      <c r="E59" s="107" t="s">
+      <c r="D59" s="88"/>
+      <c r="E59" s="106" t="s">
         <v>221</v>
       </c>
-      <c r="F59" s="89"/>
+      <c r="F59" s="88"/>
     </row>
     <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89" t="s">
+      <c r="A60" s="88"/>
+      <c r="B60" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="C60" s="106" t="s">
+      <c r="C60" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="D60" s="89"/>
-      <c r="E60" s="107" t="s">
+      <c r="D60" s="88"/>
+      <c r="E60" s="106" t="s">
         <v>224</v>
       </c>
-      <c r="F60" s="89"/>
+      <c r="F60" s="88"/>
     </row>
     <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89" t="s">
+      <c r="A61" s="88"/>
+      <c r="B61" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="106" t="s">
+      <c r="C61" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="D61" s="89"/>
-      <c r="E61" s="107" t="s">
+      <c r="D61" s="88"/>
+      <c r="E61" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="F61" s="89"/>
+      <c r="F61" s="88"/>
     </row>
     <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89" t="s">
+      <c r="A62" s="88"/>
+      <c r="B62" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="D62" s="89"/>
-      <c r="E62" s="107" t="s">
+      <c r="D62" s="88"/>
+      <c r="E62" s="106" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89" t="s">
+      <c r="A63" s="88"/>
+      <c r="B63" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="C63" s="106" t="s">
+      <c r="C63" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="107" t="s">
+      <c r="D63" s="88"/>
+      <c r="E63" s="106" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89" t="s">
+      <c r="A64" s="88"/>
+      <c r="B64" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="C64" s="106" t="s">
+      <c r="C64" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="D64" s="89"/>
-      <c r="E64" s="107" t="s">
+      <c r="D64" s="88"/>
+      <c r="E64" s="106" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89" t="s">
+      <c r="A65" s="88"/>
+      <c r="B65" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="107" t="s">
+      <c r="D65" s="88"/>
+      <c r="E65" s="106" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89" t="s">
+      <c r="A66" s="88"/>
+      <c r="B66" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="C66" s="106" t="s">
+      <c r="C66" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="107" t="s">
+      <c r="D66" s="88"/>
+      <c r="E66" s="106" t="s">
         <v>242</v>
       </c>
     </row>
@@ -9700,10 +9691,10 @@
       <c r="D3" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="78" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10417,3345 +10408,3345 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="161" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="119" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="121" t="s">
         <v>379</v>
       </c>
-      <c r="F3" s="123"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="119" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="122" t="s">
+      <c r="E4" s="121" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="123"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="119" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="120" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="119" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="123" t="s">
         <v>388</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="122"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="124" t="s">
         <v>392</v>
       </c>
-      <c r="E6" s="124" t="s">
+      <c r="E6" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="F6" s="123"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="122" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="120" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>396</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="123" t="s">
         <v>397</v>
       </c>
-      <c r="F7" s="123"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="8" spans="1:6" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="122" t="s">
         <v>398</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="120" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="124" t="s">
         <v>400</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="123" t="s">
         <v>401</v>
       </c>
-      <c r="F8" s="123"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:6" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="122" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="124" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="123"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="164" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="123"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="120" t="s">
+      <c r="A11" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="119" t="s">
         <v>404</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="120" t="s">
         <v>405</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="119" t="s">
         <v>406</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="123" t="s">
         <v>407</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="86" t="s">
         <v>409</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="87" t="s">
         <v>411</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="88"/>
     </row>
     <row r="13" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="91" t="s">
         <v>413</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="92" t="s">
         <v>415</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="155" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="123"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="119" t="s">
         <v>417</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="120" t="s">
         <v>418</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="119" t="s">
         <v>419</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="123" t="s">
         <v>420</v>
       </c>
-      <c r="F15" s="123"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="C16" s="124"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="119" t="s">
         <v>425</v>
       </c>
-      <c r="C17" s="124"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="122"/>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="119" t="s">
         <v>428</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="120" t="s">
         <v>429</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="119" t="s">
         <v>430</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="123" t="s">
         <v>431</v>
       </c>
-      <c r="F18" s="123"/>
+      <c r="F18" s="122"/>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="94" t="s">
         <v>432</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="95" t="s">
         <v>435</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="87" t="s">
         <v>436</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="88" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="119" t="s">
         <v>438</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A21" s="120" t="s">
+      <c r="A21" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B21" s="120" t="s">
+      <c r="B21" s="119" t="s">
         <v>440</v>
       </c>
-      <c r="C21" s="124"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B22" s="120" t="s">
+      <c r="B22" s="119" t="s">
         <v>442</v>
       </c>
-      <c r="C22" s="124"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="E22" s="124"/>
-      <c r="F22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B23" s="120" t="s">
+      <c r="B23" s="119" t="s">
         <v>444</v>
       </c>
-      <c r="C23" s="124"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="123"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="122"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="120" t="s">
+      <c r="A25" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B25" s="120" t="s">
+      <c r="B25" s="119" t="s">
         <v>447</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="120" t="s">
         <v>448</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="119" t="s">
         <v>449</v>
       </c>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="123" t="s">
         <v>450</v>
       </c>
-      <c r="F25" s="123"/>
+      <c r="F25" s="122"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="119" t="s">
         <v>451</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="120" t="s">
         <v>452</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="119" t="s">
         <v>453</v>
       </c>
-      <c r="E26" s="124" t="s">
+      <c r="E26" s="123" t="s">
         <v>454</v>
       </c>
-      <c r="F26" s="123"/>
+      <c r="F26" s="122"/>
     </row>
     <row r="27" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A27" s="120" t="s">
+      <c r="A27" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B27" s="119" t="s">
         <v>455</v>
       </c>
-      <c r="C27" s="124"/>
+      <c r="C27" s="123"/>
       <c r="D27" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A28" s="120" t="s">
+      <c r="A28" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="119" t="s">
         <v>457</v>
       </c>
-      <c r="C28" s="124"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="E28" s="124"/>
-      <c r="F28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="122"/>
     </row>
     <row r="29" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="119" t="s">
         <v>459</v>
       </c>
-      <c r="C29" s="124"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="E29" s="124"/>
-      <c r="F29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="122"/>
     </row>
     <row r="30" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="120" t="s">
+      <c r="B30" s="119" t="s">
         <v>461</v>
       </c>
-      <c r="C30" s="124"/>
+      <c r="C30" s="123"/>
       <c r="D30" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="E30" s="124"/>
-      <c r="F30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="122"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B31" s="120" t="s">
+      <c r="B31" s="119" t="s">
         <v>463</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="120" t="s">
         <v>464</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="119" t="s">
         <v>465</v>
       </c>
-      <c r="E31" s="124" t="s">
+      <c r="E31" s="123" t="s">
         <v>466</v>
       </c>
-      <c r="F31" s="123"/>
+      <c r="F31" s="122"/>
     </row>
     <row r="32" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="119" t="s">
         <v>467</v>
       </c>
-      <c r="C32" s="124"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="122"/>
     </row>
     <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A33" s="120" t="s">
+      <c r="A33" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B33" s="120" t="s">
+      <c r="B33" s="119" t="s">
         <v>469</v>
       </c>
-      <c r="C33" s="124"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="E33" s="124"/>
-      <c r="F33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="122"/>
     </row>
     <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A34" s="120" t="s">
+      <c r="A34" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="119" t="s">
         <v>471</v>
       </c>
-      <c r="C34" s="124"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="E34" s="124"/>
-      <c r="F34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="122"/>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B35" s="120" t="s">
+      <c r="B35" s="119" t="s">
         <v>473</v>
       </c>
-      <c r="C35" s="124"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="122"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B36" s="120" t="s">
+      <c r="B36" s="119" t="s">
         <v>475</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="119" t="s">
         <v>476</v>
       </c>
-      <c r="E36" s="124" t="s">
+      <c r="E36" s="123" t="s">
         <v>477</v>
       </c>
-      <c r="F36" s="123"/>
+      <c r="F36" s="122"/>
     </row>
     <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="120" t="s">
+      <c r="A37" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B37" s="120" t="s">
+      <c r="B37" s="119" t="s">
         <v>478</v>
       </c>
-      <c r="C37" s="124"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="E37" s="124"/>
-      <c r="F37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="122"/>
     </row>
     <row r="38" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A38" s="120" t="s">
+      <c r="A38" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="119" t="s">
         <v>480</v>
       </c>
-      <c r="C38" s="124"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="E38" s="124"/>
-      <c r="F38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="122"/>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="119" t="s">
         <v>482</v>
       </c>
-      <c r="C39" s="124"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="E39" s="124"/>
-      <c r="F39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="122"/>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="120" t="s">
+      <c r="A40" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="119" t="s">
         <v>484</v>
       </c>
-      <c r="C40" s="124"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="E40" s="124"/>
-      <c r="F40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="122"/>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="120" t="s">
+      <c r="A41" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="119" t="s">
         <v>486</v>
       </c>
-      <c r="C41" s="124"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="E41" s="124"/>
-      <c r="F41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="122"/>
     </row>
     <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="119" t="s">
         <v>488</v>
       </c>
-      <c r="C42" s="124"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="E42" s="124"/>
-      <c r="F42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="122"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="155" t="s">
         <v>490</v>
       </c>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="157"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="123"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="119" t="s">
         <v>491</v>
       </c>
-      <c r="C44" s="121" t="s">
+      <c r="C44" s="120" t="s">
         <v>492</v>
       </c>
-      <c r="D44" s="120" t="s">
+      <c r="D44" s="119" t="s">
         <v>493</v>
       </c>
-      <c r="E44" s="124" t="s">
+      <c r="E44" s="123" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="123"/>
+      <c r="F44" s="122"/>
     </row>
     <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A45" s="120" t="s">
+      <c r="A45" s="119" t="s">
         <v>495</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="119" t="s">
         <v>496</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="124" t="s">
+      <c r="D45" s="119"/>
+      <c r="E45" s="123" t="s">
         <v>498</v>
       </c>
-      <c r="F45" s="123"/>
+      <c r="F45" s="122"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="119" t="s">
         <v>499</v>
       </c>
       <c r="C46" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="124" t="s">
+      <c r="D46" s="119"/>
+      <c r="E46" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="123"/>
+      <c r="F46" s="122"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="119" t="s">
         <v>500</v>
       </c>
       <c r="C47" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="124" t="s">
+      <c r="D47" s="119"/>
+      <c r="E47" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="F47" s="123"/>
+      <c r="F47" s="122"/>
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="119" t="s">
         <v>501</v>
       </c>
       <c r="C48" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="120"/>
-      <c r="E48" s="124" t="s">
+      <c r="D48" s="119"/>
+      <c r="E48" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="123"/>
+      <c r="F48" s="122"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="120" t="s">
+      <c r="A49" s="119" t="s">
         <v>502</v>
       </c>
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="119" t="s">
         <v>503</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>504</v>
       </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="124" t="s">
+      <c r="D49" s="119"/>
+      <c r="E49" s="123" t="s">
         <v>505</v>
       </c>
-      <c r="F49" s="123"/>
+      <c r="F49" s="122"/>
     </row>
     <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="120" t="s">
+      <c r="A50" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="119" t="s">
         <v>506</v>
       </c>
       <c r="C50" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="D50" s="120"/>
-      <c r="E50" s="124" t="s">
+      <c r="D50" s="119"/>
+      <c r="E50" s="123" t="s">
         <v>508</v>
       </c>
-      <c r="F50" s="123"/>
+      <c r="F50" s="122"/>
     </row>
     <row r="51" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A51" s="120" t="s">
+      <c r="A51" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="119" t="s">
         <v>509</v>
       </c>
-      <c r="C51" s="124"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="E51" s="124"/>
-      <c r="F51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="122"/>
     </row>
     <row r="52" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A52" s="120" t="s">
+      <c r="A52" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B52" s="120" t="s">
+      <c r="B52" s="119" t="s">
         <v>511</v>
       </c>
-      <c r="C52" s="124"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="E52" s="124"/>
-      <c r="F52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="122"/>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="119" t="s">
         <v>513</v>
       </c>
-      <c r="C53" s="124"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="E53" s="124"/>
-      <c r="F53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="122"/>
     </row>
     <row r="54" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A54" s="120" t="s">
+      <c r="A54" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="119" t="s">
         <v>515</v>
       </c>
-      <c r="C54" s="124"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="E54" s="124"/>
-      <c r="F54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="122"/>
     </row>
     <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="120" t="s">
+      <c r="A55" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="119" t="s">
         <v>517</v>
       </c>
-      <c r="C55" s="124"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="E55" s="124"/>
-      <c r="F55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="122"/>
     </row>
     <row r="56" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A56" s="120" t="s">
+      <c r="A56" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B56" s="120" t="s">
+      <c r="B56" s="119" t="s">
         <v>519</v>
       </c>
-      <c r="C56" s="124"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="E56" s="124"/>
-      <c r="F56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="156" t="s">
+      <c r="A57" s="155" t="s">
         <v>521</v>
       </c>
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="123"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B58" s="120" t="s">
+      <c r="B58" s="119" t="s">
         <v>522</v>
       </c>
-      <c r="C58" s="121" t="s">
+      <c r="C58" s="120" t="s">
         <v>523</v>
       </c>
-      <c r="D58" s="120" t="s">
+      <c r="D58" s="119" t="s">
         <v>524</v>
       </c>
-      <c r="E58" s="124" t="s">
+      <c r="E58" s="123" t="s">
         <v>525</v>
       </c>
-      <c r="F58" s="123"/>
+      <c r="F58" s="122"/>
     </row>
     <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="120" t="s">
+      <c r="A59" s="119" t="s">
         <v>526</v>
       </c>
-      <c r="B59" s="120" t="s">
+      <c r="B59" s="119" t="s">
         <v>527</v>
       </c>
-      <c r="C59" s="121" t="s">
+      <c r="C59" s="120" t="s">
         <v>528</v>
       </c>
-      <c r="D59" s="120" t="s">
+      <c r="D59" s="119" t="s">
         <v>529</v>
       </c>
-      <c r="E59" s="124" t="s">
+      <c r="E59" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="F59" s="123"/>
+      <c r="F59" s="122"/>
     </row>
     <row r="60" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="120" t="s">
+      <c r="A60" s="119" t="s">
         <v>531</v>
       </c>
-      <c r="B60" s="120" t="s">
+      <c r="B60" s="119" t="s">
         <v>532</v>
       </c>
-      <c r="C60" s="121" t="s">
+      <c r="C60" s="120" t="s">
         <v>533</v>
       </c>
-      <c r="D60" s="120" t="s">
+      <c r="D60" s="119" t="s">
         <v>534</v>
       </c>
-      <c r="E60" s="124" t="s">
+      <c r="E60" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="F60" s="123"/>
+      <c r="F60" s="122"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="156" t="s">
+      <c r="A61" s="155" t="s">
         <v>536</v>
       </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="123"/>
+      <c r="B61" s="156"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="122"/>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="120" t="s">
+      <c r="A62" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="120" t="s">
+      <c r="B62" s="119" t="s">
         <v>537</v>
       </c>
-      <c r="C62" s="121" t="s">
+      <c r="C62" s="120" t="s">
         <v>538</v>
       </c>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="119" t="s">
         <v>539</v>
       </c>
-      <c r="E62" s="124" t="s">
+      <c r="E62" s="123" t="s">
         <v>540</v>
       </c>
-      <c r="F62" s="123"/>
+      <c r="F62" s="122"/>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="120" t="s">
+      <c r="A63" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B63" s="120" t="s">
+      <c r="B63" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="C63" s="124"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E63" s="124"/>
-      <c r="F63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="122"/>
     </row>
     <row r="64" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="120" t="s">
+      <c r="A64" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B64" s="120" t="s">
+      <c r="B64" s="119" t="s">
         <v>425</v>
       </c>
-      <c r="C64" s="124"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="E64" s="124"/>
-      <c r="F64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="122"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="156" t="s">
+      <c r="A65" s="155" t="s">
         <v>541</v>
       </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="123"/>
+      <c r="B65" s="156"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="122"/>
     </row>
     <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="120" t="s">
+      <c r="A66" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B66" s="120" t="s">
+      <c r="B66" s="119" t="s">
         <v>542</v>
       </c>
-      <c r="C66" s="121" t="s">
+      <c r="C66" s="120" t="s">
         <v>543</v>
       </c>
-      <c r="D66" s="120" t="s">
+      <c r="D66" s="119" t="s">
         <v>544</v>
       </c>
-      <c r="E66" s="124" t="s">
+      <c r="E66" s="123" t="s">
         <v>545</v>
       </c>
-      <c r="F66" s="123"/>
+      <c r="F66" s="122"/>
     </row>
     <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="94" t="s">
         <v>427</v>
       </c>
-      <c r="B67" s="96" t="s">
+      <c r="B67" s="95" t="s">
         <v>546</v>
       </c>
-      <c r="C67" s="97" t="s">
+      <c r="C67" s="96" t="s">
         <v>547</v>
       </c>
-      <c r="D67" s="96" t="s">
+      <c r="D67" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="E67" s="88" t="s">
+      <c r="E67" s="87" t="s">
         <v>548</v>
       </c>
-      <c r="F67" s="123"/>
+      <c r="F67" s="122"/>
     </row>
     <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B68" s="99" t="s">
+      <c r="B68" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="D68" s="99" t="s">
+      <c r="D68" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E68" s="93" t="s">
+      <c r="E68" s="92" t="s">
         <v>551</v>
       </c>
-      <c r="F68" s="123"/>
+      <c r="F68" s="122"/>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B69" s="99" t="s">
+      <c r="B69" s="98" t="s">
         <v>552</v>
       </c>
-      <c r="C69" s="100" t="s">
+      <c r="C69" s="99" t="s">
         <v>553</v>
       </c>
-      <c r="D69" s="99" t="s">
+      <c r="D69" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E69" s="93" t="s">
+      <c r="E69" s="92" t="s">
         <v>554</v>
       </c>
-      <c r="F69" s="123"/>
+      <c r="F69" s="122"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="98" t="s">
+      <c r="A70" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B70" s="99" t="s">
+      <c r="B70" s="98" t="s">
         <v>555</v>
       </c>
-      <c r="C70" s="100" t="s">
+      <c r="C70" s="99" t="s">
         <v>556</v>
       </c>
-      <c r="D70" s="99" t="s">
+      <c r="D70" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E70" s="93" t="s">
+      <c r="E70" s="92" t="s">
         <v>557</v>
       </c>
-      <c r="F70" s="123"/>
+      <c r="F70" s="122"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B71" s="99" t="s">
+      <c r="B71" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="C71" s="100" t="s">
+      <c r="C71" s="99" t="s">
         <v>559</v>
       </c>
-      <c r="D71" s="99" t="s">
+      <c r="D71" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E71" s="93" t="s">
+      <c r="E71" s="92" t="s">
         <v>560</v>
       </c>
-      <c r="F71" s="123"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="98" t="s">
+      <c r="A72" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="B72" s="99" t="s">
+      <c r="B72" s="98" t="s">
         <v>562</v>
       </c>
-      <c r="C72" s="100" t="s">
+      <c r="C72" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="D72" s="99" t="s">
+      <c r="D72" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E72" s="93" t="s">
+      <c r="E72" s="92" t="s">
         <v>564</v>
       </c>
-      <c r="F72" s="123"/>
+      <c r="F72" s="122"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="97" t="s">
         <v>561</v>
       </c>
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="98" t="s">
         <v>565</v>
       </c>
-      <c r="C73" s="100" t="s">
+      <c r="C73" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="D73" s="99" t="s">
+      <c r="D73" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E73" s="93" t="s">
+      <c r="E73" s="92" t="s">
         <v>567</v>
       </c>
-      <c r="F73" s="123"/>
+      <c r="F73" s="122"/>
     </row>
     <row r="74" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="120" t="s">
+      <c r="A74" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B74" s="120" t="s">
+      <c r="B74" s="119" t="s">
         <v>568</v>
       </c>
-      <c r="C74" s="124"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="E74" s="124"/>
-      <c r="F74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="122"/>
     </row>
     <row r="75" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A75" s="120" t="s">
+      <c r="A75" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B75" s="120" t="s">
+      <c r="B75" s="119" t="s">
         <v>570</v>
       </c>
-      <c r="C75" s="124"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="E75" s="124"/>
-      <c r="F75" s="123"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="122"/>
     </row>
     <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A76" s="120" t="s">
+      <c r="A76" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B76" s="120" t="s">
+      <c r="B76" s="119" t="s">
         <v>572</v>
       </c>
-      <c r="C76" s="124"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="E76" s="124"/>
-      <c r="F76" s="123"/>
+      <c r="E76" s="123"/>
+      <c r="F76" s="122"/>
     </row>
     <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A77" s="120" t="s">
+      <c r="A77" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B77" s="120" t="s">
+      <c r="B77" s="119" t="s">
         <v>574</v>
       </c>
-      <c r="C77" s="124"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="E77" s="124"/>
-      <c r="F77" s="123"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="122"/>
     </row>
     <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A78" s="120" t="s">
+      <c r="A78" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B78" s="120" t="s">
+      <c r="B78" s="119" t="s">
         <v>576</v>
       </c>
-      <c r="C78" s="124"/>
+      <c r="C78" s="123"/>
       <c r="D78" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="E78" s="124"/>
-      <c r="F78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="122"/>
     </row>
     <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A79" s="120" t="s">
+      <c r="A79" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B79" s="120" t="s">
+      <c r="B79" s="119" t="s">
         <v>578</v>
       </c>
-      <c r="C79" s="124"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="E79" s="124"/>
-      <c r="F79" s="123"/>
+      <c r="E79" s="123"/>
+      <c r="F79" s="122"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="156" t="s">
+      <c r="A80" s="155" t="s">
         <v>580</v>
       </c>
-      <c r="B80" s="157"/>
-      <c r="C80" s="157"/>
-      <c r="D80" s="157"/>
-      <c r="E80" s="158"/>
-      <c r="F80" s="123"/>
+      <c r="B80" s="156"/>
+      <c r="C80" s="156"/>
+      <c r="D80" s="156"/>
+      <c r="E80" s="157"/>
+      <c r="F80" s="122"/>
     </row>
     <row r="81" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="120" t="s">
+      <c r="A81" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B81" s="120" t="s">
+      <c r="B81" s="119" t="s">
         <v>581</v>
       </c>
-      <c r="C81" s="121" t="s">
+      <c r="C81" s="120" t="s">
         <v>582</v>
       </c>
-      <c r="D81" s="120" t="s">
+      <c r="D81" s="119" t="s">
         <v>583</v>
       </c>
-      <c r="E81" s="124" t="s">
+      <c r="E81" s="123" t="s">
         <v>584</v>
       </c>
-      <c r="F81" s="123"/>
+      <c r="F81" s="122"/>
     </row>
     <row r="82" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="120" t="s">
+      <c r="A82" s="119" t="s">
         <v>531</v>
       </c>
-      <c r="B82" s="120" t="s">
+      <c r="B82" s="119" t="s">
         <v>585</v>
       </c>
-      <c r="C82" s="121" t="s">
+      <c r="C82" s="120" t="s">
         <v>586</v>
       </c>
-      <c r="D82" s="120"/>
-      <c r="E82" s="124" t="s">
+      <c r="D82" s="119"/>
+      <c r="E82" s="123" t="s">
         <v>587</v>
       </c>
-      <c r="F82" s="123" t="s">
+      <c r="F82" s="122" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="120" t="s">
+      <c r="A83" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="119" t="s">
         <v>589</v>
       </c>
-      <c r="C83" s="121" t="s">
+      <c r="C83" s="120" t="s">
         <v>590</v>
       </c>
-      <c r="D83" s="120"/>
-      <c r="E83" s="124" t="s">
+      <c r="D83" s="119"/>
+      <c r="E83" s="123" t="s">
         <v>591</v>
       </c>
-      <c r="F83" s="123"/>
+      <c r="F83" s="122"/>
     </row>
     <row r="84" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="120" t="s">
+      <c r="A84" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="120" t="s">
+      <c r="B84" s="119" t="s">
         <v>592</v>
       </c>
       <c r="C84" s="60" t="s">
         <v>593</v>
       </c>
-      <c r="D84" s="120"/>
-      <c r="E84" s="124" t="s">
+      <c r="D84" s="119"/>
+      <c r="E84" s="123" t="s">
         <v>594</v>
       </c>
-      <c r="F84" s="123"/>
+      <c r="F84" s="122"/>
     </row>
     <row r="85" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="120" t="s">
+      <c r="A85" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="120" t="s">
+      <c r="B85" s="119" t="s">
         <v>595</v>
       </c>
-      <c r="C85" s="121" t="s">
+      <c r="C85" s="120" t="s">
         <v>596</v>
       </c>
-      <c r="D85" s="120"/>
-      <c r="E85" s="124" t="s">
+      <c r="D85" s="119"/>
+      <c r="E85" s="123" t="s">
         <v>597</v>
       </c>
-      <c r="F85" s="123"/>
+      <c r="F85" s="122"/>
     </row>
     <row r="86" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="120" t="s">
+      <c r="A86" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="120" t="s">
+      <c r="B86" s="119" t="s">
         <v>598</v>
       </c>
-      <c r="C86" s="121" t="s">
+      <c r="C86" s="120" t="s">
         <v>599</v>
       </c>
-      <c r="D86" s="120"/>
-      <c r="E86" s="124" t="s">
+      <c r="D86" s="119"/>
+      <c r="E86" s="123" t="s">
         <v>600</v>
       </c>
-      <c r="F86" s="123"/>
+      <c r="F86" s="122"/>
     </row>
     <row r="87" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="120" t="s">
+      <c r="A87" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="120" t="s">
+      <c r="B87" s="119" t="s">
         <v>601</v>
       </c>
-      <c r="C87" s="121" t="s">
+      <c r="C87" s="120" t="s">
         <v>602</v>
       </c>
-      <c r="D87" s="120"/>
-      <c r="E87" s="124" t="s">
+      <c r="D87" s="119"/>
+      <c r="E87" s="123" t="s">
         <v>603</v>
       </c>
-      <c r="F87" s="123"/>
+      <c r="F87" s="122"/>
     </row>
     <row r="88" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="120" t="s">
+      <c r="A88" s="119" t="s">
         <v>502</v>
       </c>
-      <c r="B88" s="120" t="s">
+      <c r="B88" s="119" t="s">
         <v>604</v>
       </c>
-      <c r="C88" s="121" t="s">
+      <c r="C88" s="120" t="s">
         <v>504</v>
       </c>
-      <c r="D88" s="120"/>
-      <c r="E88" s="124" t="s">
+      <c r="D88" s="119"/>
+      <c r="E88" s="123" t="s">
         <v>605</v>
       </c>
-      <c r="F88" s="123"/>
+      <c r="F88" s="122"/>
     </row>
     <row r="89" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="120" t="s">
+      <c r="A89" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="120" t="s">
+      <c r="B89" s="119" t="s">
         <v>606</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="D89" s="120"/>
-      <c r="E89" s="124" t="s">
+      <c r="D89" s="119"/>
+      <c r="E89" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="F89" s="123"/>
+      <c r="F89" s="122"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="156" t="s">
+      <c r="A90" s="155" t="s">
         <v>607</v>
       </c>
-      <c r="B90" s="157"/>
-      <c r="C90" s="157"/>
-      <c r="D90" s="157"/>
-      <c r="E90" s="158"/>
-      <c r="F90" s="123"/>
+      <c r="B90" s="156"/>
+      <c r="C90" s="156"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="157"/>
+      <c r="F90" s="122"/>
     </row>
     <row r="91" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="120" t="s">
+      <c r="A91" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="120" t="s">
+      <c r="B91" s="119" t="s">
         <v>608</v>
       </c>
-      <c r="C91" s="121" t="s">
+      <c r="C91" s="120" t="s">
         <v>609</v>
       </c>
-      <c r="D91" s="120" t="s">
+      <c r="D91" s="119" t="s">
         <v>610</v>
       </c>
-      <c r="E91" s="124" t="s">
+      <c r="E91" s="123" t="s">
         <v>611</v>
       </c>
-      <c r="F91" s="123"/>
+      <c r="F91" s="122"/>
     </row>
     <row r="92" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="120" t="s">
+      <c r="A92" s="119" t="s">
         <v>531</v>
       </c>
-      <c r="B92" s="120" t="s">
+      <c r="B92" s="119" t="s">
         <v>612</v>
       </c>
-      <c r="C92" s="121" t="s">
+      <c r="C92" s="120" t="s">
         <v>586</v>
       </c>
-      <c r="D92" s="120"/>
-      <c r="E92" s="124" t="s">
+      <c r="D92" s="119"/>
+      <c r="E92" s="123" t="s">
         <v>587</v>
       </c>
-      <c r="F92" s="123" t="s">
+      <c r="F92" s="122" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="95" t="s">
+      <c r="A93" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="96" t="s">
+      <c r="B93" s="95" t="s">
         <v>613</v>
       </c>
-      <c r="C93" s="97" t="s">
+      <c r="C93" s="96" t="s">
         <v>614</v>
       </c>
-      <c r="D93" s="96" t="s">
+      <c r="D93" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="E93" s="88" t="s">
+      <c r="E93" s="87" t="s">
         <v>615</v>
       </c>
-      <c r="F93" s="89" t="s">
+      <c r="F93" s="88" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="120" t="s">
+      <c r="A94" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B94" s="120" t="s">
+      <c r="B94" s="119" t="s">
         <v>617</v>
       </c>
-      <c r="C94" s="121" t="s">
+      <c r="C94" s="120" t="s">
         <v>618</v>
       </c>
-      <c r="D94" s="120" t="s">
+      <c r="D94" s="119" t="s">
         <v>619</v>
       </c>
-      <c r="E94" s="124" t="s">
+      <c r="E94" s="123" t="s">
         <v>620</v>
       </c>
-      <c r="F94" s="123"/>
+      <c r="F94" s="122"/>
     </row>
     <row r="95" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A95" s="120" t="s">
+      <c r="A95" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B95" s="120" t="s">
+      <c r="B95" s="119" t="s">
         <v>621</v>
       </c>
-      <c r="C95" s="121" t="s">
+      <c r="C95" s="120" t="s">
         <v>622</v>
       </c>
-      <c r="D95" s="120" t="s">
+      <c r="D95" s="119" t="s">
         <v>623</v>
       </c>
-      <c r="E95" s="124" t="s">
+      <c r="E95" s="123" t="s">
         <v>624</v>
       </c>
-      <c r="F95" s="123"/>
+      <c r="F95" s="122"/>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A96" s="120" t="s">
+      <c r="A96" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B96" s="120" t="s">
+      <c r="B96" s="119" t="s">
         <v>625</v>
       </c>
       <c r="C96" s="61" t="s">
         <v>626</v>
       </c>
-      <c r="D96" s="120" t="s">
+      <c r="D96" s="119" t="s">
         <v>627</v>
       </c>
-      <c r="E96" s="124" t="s">
+      <c r="E96" s="123" t="s">
         <v>628</v>
       </c>
-      <c r="F96" s="123"/>
+      <c r="F96" s="122"/>
     </row>
     <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A97" s="120" t="s">
+      <c r="A97" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="120" t="s">
+      <c r="B97" s="119" t="s">
         <v>629</v>
       </c>
-      <c r="C97" s="121" t="s">
+      <c r="C97" s="120" t="s">
         <v>630</v>
       </c>
-      <c r="D97" s="120" t="s">
+      <c r="D97" s="119" t="s">
         <v>631</v>
       </c>
-      <c r="E97" s="124" t="s">
+      <c r="E97" s="123" t="s">
         <v>632</v>
       </c>
-      <c r="F97" s="123"/>
+      <c r="F97" s="122"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="120"/>
-      <c r="B98" s="120"/>
-      <c r="C98" s="121"/>
-      <c r="D98" s="120"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="123"/>
+      <c r="A98" s="119"/>
+      <c r="B98" s="119"/>
+      <c r="C98" s="120"/>
+      <c r="D98" s="119"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="122"/>
     </row>
     <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="120" t="s">
+      <c r="A99" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B99" s="120" t="s">
+      <c r="B99" s="119" t="s">
         <v>633</v>
       </c>
-      <c r="C99" s="121" t="s">
+      <c r="C99" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="D99" s="120" t="s">
+      <c r="D99" s="119" t="s">
         <v>635</v>
       </c>
-      <c r="E99" s="124" t="s">
+      <c r="E99" s="123" t="s">
         <v>636</v>
       </c>
-      <c r="F99" s="123"/>
+      <c r="F99" s="122"/>
     </row>
     <row r="100" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="120" t="s">
+      <c r="A100" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="120" t="s">
+      <c r="B100" s="119" t="s">
         <v>637</v>
       </c>
-      <c r="C100" s="121" t="s">
+      <c r="C100" s="120" t="s">
         <v>638</v>
       </c>
-      <c r="D100" s="120" t="s">
+      <c r="D100" s="119" t="s">
         <v>639</v>
       </c>
-      <c r="E100" s="124" t="s">
+      <c r="E100" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="F100" s="123"/>
+      <c r="F100" s="122"/>
     </row>
     <row r="101" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="120" t="s">
+      <c r="B101" s="119" t="s">
         <v>641</v>
       </c>
-      <c r="C101" s="121" t="s">
+      <c r="C101" s="120" t="s">
         <v>642</v>
       </c>
-      <c r="D101" s="120" t="s">
+      <c r="D101" s="119" t="s">
         <v>643</v>
       </c>
-      <c r="E101" s="124" t="s">
+      <c r="E101" s="123" t="s">
         <v>644</v>
       </c>
-      <c r="F101" s="123"/>
+      <c r="F101" s="122"/>
     </row>
     <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A102" s="120" t="s">
+      <c r="A102" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B102" s="120" t="s">
+      <c r="B102" s="119" t="s">
         <v>645</v>
       </c>
-      <c r="C102" s="121" t="s">
+      <c r="C102" s="120" t="s">
         <v>646</v>
       </c>
-      <c r="D102" s="120" t="s">
+      <c r="D102" s="119" t="s">
         <v>647</v>
       </c>
-      <c r="E102" s="124" t="s">
+      <c r="E102" s="123" t="s">
         <v>648</v>
       </c>
-      <c r="F102" s="123"/>
+      <c r="F102" s="122"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="120"/>
-      <c r="B103" s="120"/>
-      <c r="C103" s="121"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="123"/>
+      <c r="A103" s="119"/>
+      <c r="B103" s="119"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="119"/>
+      <c r="E103" s="123"/>
+      <c r="F103" s="122"/>
     </row>
     <row r="104" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="120" t="s">
+      <c r="A104" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B104" s="120" t="s">
+      <c r="B104" s="119" t="s">
         <v>649</v>
       </c>
-      <c r="C104" s="121" t="s">
+      <c r="C104" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="D104" s="120" t="s">
+      <c r="D104" s="119" t="s">
         <v>651</v>
       </c>
-      <c r="E104" s="124" t="s">
+      <c r="E104" s="123" t="s">
         <v>652</v>
       </c>
-      <c r="F104" s="123"/>
+      <c r="F104" s="122"/>
     </row>
     <row r="105" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="120" t="s">
+      <c r="A105" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="120" t="s">
+      <c r="B105" s="119" t="s">
         <v>653</v>
       </c>
-      <c r="C105" s="121" t="s">
+      <c r="C105" s="120" t="s">
         <v>654</v>
       </c>
-      <c r="D105" s="120" t="s">
+      <c r="D105" s="119" t="s">
         <v>655</v>
       </c>
-      <c r="E105" s="124" t="s">
+      <c r="E105" s="123" t="s">
         <v>656</v>
       </c>
-      <c r="F105" s="123"/>
+      <c r="F105" s="122"/>
     </row>
     <row r="106" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A106" s="120" t="s">
+      <c r="A106" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B106" s="120" t="s">
+      <c r="B106" s="119" t="s">
         <v>657</v>
       </c>
-      <c r="C106" s="121" t="s">
+      <c r="C106" s="120" t="s">
         <v>658</v>
       </c>
-      <c r="D106" s="120" t="s">
+      <c r="D106" s="119" t="s">
         <v>659</v>
       </c>
-      <c r="E106" s="124" t="s">
+      <c r="E106" s="123" t="s">
         <v>660</v>
       </c>
-      <c r="F106" s="123"/>
+      <c r="F106" s="122"/>
     </row>
     <row r="107" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A107" s="120" t="s">
+      <c r="A107" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B107" s="120" t="s">
+      <c r="B107" s="119" t="s">
         <v>661</v>
       </c>
-      <c r="C107" s="121" t="s">
+      <c r="C107" s="120" t="s">
         <v>662</v>
       </c>
-      <c r="D107" s="120" t="s">
+      <c r="D107" s="119" t="s">
         <v>663</v>
       </c>
-      <c r="E107" s="124" t="s">
+      <c r="E107" s="123" t="s">
         <v>664</v>
       </c>
-      <c r="F107" s="123"/>
+      <c r="F107" s="122"/>
     </row>
     <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A108" s="120" t="s">
+      <c r="A108" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="120" t="s">
+      <c r="B108" s="119" t="s">
         <v>665</v>
       </c>
-      <c r="C108" s="121" t="s">
+      <c r="C108" s="120" t="s">
         <v>666</v>
       </c>
-      <c r="D108" s="120" t="s">
+      <c r="D108" s="119" t="s">
         <v>667</v>
       </c>
-      <c r="E108" s="124" t="s">
+      <c r="E108" s="123" t="s">
         <v>668</v>
       </c>
-      <c r="F108" s="123"/>
+      <c r="F108" s="122"/>
     </row>
     <row r="110" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="120" t="s">
+      <c r="A110" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="120" t="s">
+      <c r="B110" s="119" t="s">
         <v>669</v>
       </c>
-      <c r="C110" s="121" t="s">
+      <c r="C110" s="120" t="s">
         <v>670</v>
       </c>
-      <c r="D110" s="120" t="s">
+      <c r="D110" s="119" t="s">
         <v>671</v>
       </c>
-      <c r="E110" s="124" t="s">
+      <c r="E110" s="123" t="s">
         <v>672</v>
       </c>
-      <c r="F110" s="123"/>
+      <c r="F110" s="122"/>
     </row>
     <row r="111" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="120" t="s">
+      <c r="A111" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="119" t="s">
         <v>673</v>
       </c>
-      <c r="C111" s="121" t="s">
+      <c r="C111" s="120" t="s">
         <v>674</v>
       </c>
-      <c r="D111" s="120" t="s">
+      <c r="D111" s="119" t="s">
         <v>675</v>
       </c>
-      <c r="E111" s="124" t="s">
+      <c r="E111" s="123" t="s">
         <v>676</v>
       </c>
-      <c r="F111" s="123"/>
+      <c r="F111" s="122"/>
     </row>
     <row r="112" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A112" s="120" t="s">
+      <c r="A112" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B112" s="120" t="s">
+      <c r="B112" s="119" t="s">
         <v>677</v>
       </c>
-      <c r="C112" s="121" t="s">
+      <c r="C112" s="120" t="s">
         <v>678</v>
       </c>
-      <c r="D112" s="120" t="s">
+      <c r="D112" s="119" t="s">
         <v>679</v>
       </c>
-      <c r="E112" s="124" t="s">
+      <c r="E112" s="123" t="s">
         <v>680</v>
       </c>
-      <c r="F112" s="123"/>
+      <c r="F112" s="122"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="120"/>
-      <c r="B113" s="120"/>
-      <c r="C113" s="121"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="123"/>
+      <c r="A113" s="119"/>
+      <c r="B113" s="119"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="123"/>
+      <c r="F113" s="122"/>
     </row>
     <row r="114" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="120" t="s">
+      <c r="A114" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B114" s="120" t="s">
+      <c r="B114" s="119" t="s">
         <v>681</v>
       </c>
-      <c r="C114" s="121" t="s">
+      <c r="C114" s="120" t="s">
         <v>682</v>
       </c>
-      <c r="D114" s="120" t="s">
+      <c r="D114" s="119" t="s">
         <v>683</v>
       </c>
-      <c r="E114" s="124" t="s">
+      <c r="E114" s="123" t="s">
         <v>684</v>
       </c>
-      <c r="F114" s="123"/>
+      <c r="F114" s="122"/>
     </row>
     <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A115" s="120" t="s">
+      <c r="A115" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B115" s="120" t="s">
+      <c r="B115" s="119" t="s">
         <v>685</v>
       </c>
-      <c r="C115" s="121" t="s">
+      <c r="C115" s="120" t="s">
         <v>686</v>
       </c>
-      <c r="D115" s="120" t="s">
+      <c r="D115" s="119" t="s">
         <v>687</v>
       </c>
-      <c r="E115" s="124" t="s">
+      <c r="E115" s="123" t="s">
         <v>688</v>
       </c>
-      <c r="F115" s="123"/>
+      <c r="F115" s="122"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="120"/>
-      <c r="B116" s="120"/>
-      <c r="C116" s="121"/>
-      <c r="D116" s="120"/>
-      <c r="E116" s="124"/>
-      <c r="F116" s="123"/>
+      <c r="A116" s="119"/>
+      <c r="B116" s="119"/>
+      <c r="C116" s="120"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="123"/>
+      <c r="F116" s="122"/>
     </row>
     <row r="117" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A117" s="124"/>
-      <c r="B117" s="124"/>
-      <c r="C117" s="124"/>
-      <c r="D117" s="120" t="s">
+      <c r="A117" s="123"/>
+      <c r="B117" s="123"/>
+      <c r="C117" s="123"/>
+      <c r="D117" s="119" t="s">
         <v>689</v>
       </c>
-      <c r="E117" s="124"/>
-      <c r="F117" s="123" t="s">
+      <c r="E117" s="123"/>
+      <c r="F117" s="122" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A118" s="124"/>
-      <c r="B118" s="124"/>
-      <c r="C118" s="124"/>
-      <c r="D118" s="120" t="s">
+      <c r="A118" s="123"/>
+      <c r="B118" s="123"/>
+      <c r="C118" s="123"/>
+      <c r="D118" s="119" t="s">
         <v>691</v>
       </c>
-      <c r="E118" s="124"/>
-      <c r="F118" s="123"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="122"/>
     </row>
     <row r="119" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A119" s="120" t="s">
+      <c r="A119" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B119" s="120" t="s">
+      <c r="B119" s="119" t="s">
         <v>692</v>
       </c>
-      <c r="C119" s="124"/>
+      <c r="C119" s="123"/>
       <c r="D119" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E119" s="124"/>
-      <c r="F119" s="123"/>
+      <c r="E119" s="123"/>
+      <c r="F119" s="122"/>
     </row>
     <row r="120" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A120" s="120" t="s">
+      <c r="A120" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B120" s="120" t="s">
+      <c r="B120" s="119" t="s">
         <v>693</v>
       </c>
-      <c r="C120" s="124"/>
+      <c r="C120" s="123"/>
       <c r="D120" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="E120" s="124"/>
-      <c r="F120" s="123"/>
+      <c r="E120" s="123"/>
+      <c r="F120" s="122"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="156" t="s">
+      <c r="A121" s="155" t="s">
         <v>694</v>
       </c>
-      <c r="B121" s="157"/>
-      <c r="C121" s="157"/>
-      <c r="D121" s="157"/>
-      <c r="E121" s="158"/>
-      <c r="F121" s="123"/>
+      <c r="B121" s="156"/>
+      <c r="C121" s="156"/>
+      <c r="D121" s="156"/>
+      <c r="E121" s="157"/>
+      <c r="F121" s="122"/>
     </row>
     <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="120" t="s">
+      <c r="A122" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="120" t="s">
+      <c r="B122" s="119" t="s">
         <v>695</v>
       </c>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="120" t="s">
         <v>696</v>
       </c>
-      <c r="D122" s="120" t="s">
+      <c r="D122" s="119" t="s">
         <v>697</v>
       </c>
-      <c r="E122" s="124" t="s">
+      <c r="E122" s="123" t="s">
         <v>698</v>
       </c>
-      <c r="F122" s="123"/>
+      <c r="F122" s="122"/>
     </row>
     <row r="123" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A123" s="120" t="s">
+      <c r="A123" s="119" t="s">
         <v>495</v>
       </c>
-      <c r="B123" s="120" t="s">
+      <c r="B123" s="119" t="s">
         <v>699</v>
       </c>
-      <c r="C123" s="121" t="s">
+      <c r="C123" s="120" t="s">
         <v>700</v>
       </c>
-      <c r="D123" s="120" t="s">
+      <c r="D123" s="119" t="s">
         <v>701</v>
       </c>
-      <c r="E123" s="124" t="s">
+      <c r="E123" s="123" t="s">
         <v>702</v>
       </c>
-      <c r="F123" s="123"/>
+      <c r="F123" s="122"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="120"/>
-      <c r="B124" s="120"/>
-      <c r="C124" s="121"/>
-      <c r="D124" s="120"/>
-      <c r="E124" s="124"/>
-      <c r="F124" s="123"/>
+      <c r="A124" s="119"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="120"/>
+      <c r="D124" s="119"/>
+      <c r="E124" s="123"/>
+      <c r="F124" s="122"/>
     </row>
     <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="120" t="s">
+      <c r="A125" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B125" s="120" t="s">
+      <c r="B125" s="119" t="s">
         <v>703</v>
       </c>
       <c r="C125" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="D125" s="120"/>
-      <c r="E125" s="124" t="s">
+      <c r="D125" s="119"/>
+      <c r="E125" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="F125" s="123"/>
+      <c r="F125" s="122"/>
     </row>
     <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="120" t="s">
+      <c r="A126" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B126" s="120" t="s">
+      <c r="B126" s="119" t="s">
         <v>704</v>
       </c>
       <c r="C126" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="D126" s="120"/>
-      <c r="E126" s="124" t="s">
+      <c r="D126" s="119"/>
+      <c r="E126" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="F126" s="123"/>
+      <c r="F126" s="122"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="120" t="s">
+      <c r="A127" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B127" s="120" t="s">
+      <c r="B127" s="119" t="s">
         <v>705</v>
       </c>
       <c r="C127" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="D127" s="120"/>
-      <c r="E127" s="124" t="s">
+      <c r="D127" s="119"/>
+      <c r="E127" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="F127" s="123"/>
+      <c r="F127" s="122"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="120"/>
-      <c r="B128" s="120"/>
-      <c r="C128" s="121"/>
-      <c r="D128" s="120"/>
-      <c r="E128" s="124"/>
-      <c r="F128" s="123"/>
+      <c r="A128" s="119"/>
+      <c r="B128" s="119"/>
+      <c r="C128" s="120"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="123"/>
+      <c r="F128" s="122"/>
     </row>
     <row r="129" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A129" s="120" t="s">
+      <c r="A129" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B129" s="120" t="s">
+      <c r="B129" s="119" t="s">
         <v>706</v>
       </c>
-      <c r="C129" s="124"/>
+      <c r="C129" s="123"/>
       <c r="D129" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="E129" s="124"/>
-      <c r="F129" s="123"/>
+      <c r="E129" s="123"/>
+      <c r="F129" s="122"/>
     </row>
     <row r="130" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A130" s="120" t="s">
+      <c r="A130" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B130" s="120" t="s">
+      <c r="B130" s="119" t="s">
         <v>708</v>
       </c>
-      <c r="C130" s="124"/>
+      <c r="C130" s="123"/>
       <c r="D130" s="20" t="s">
         <v>709</v>
       </c>
-      <c r="E130" s="124"/>
-      <c r="F130" s="123"/>
+      <c r="E130" s="123"/>
+      <c r="F130" s="122"/>
     </row>
     <row r="131" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A131" s="120" t="s">
+      <c r="A131" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B131" s="120" t="s">
+      <c r="B131" s="119" t="s">
         <v>710</v>
       </c>
-      <c r="C131" s="124"/>
+      <c r="C131" s="123"/>
       <c r="D131" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="E131" s="124"/>
-      <c r="F131" s="123"/>
+      <c r="E131" s="123"/>
+      <c r="F131" s="122"/>
     </row>
     <row r="132" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A132" s="120" t="s">
+      <c r="A132" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B132" s="120" t="s">
+      <c r="B132" s="119" t="s">
         <v>711</v>
       </c>
-      <c r="C132" s="124"/>
+      <c r="C132" s="123"/>
       <c r="D132" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="E132" s="124"/>
-      <c r="F132" s="123"/>
+      <c r="E132" s="123"/>
+      <c r="F132" s="122"/>
     </row>
     <row r="133" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A133" s="120" t="s">
+      <c r="A133" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B133" s="120" t="s">
+      <c r="B133" s="119" t="s">
         <v>712</v>
       </c>
-      <c r="C133" s="124"/>
+      <c r="C133" s="123"/>
       <c r="D133" s="20" t="s">
         <v>713</v>
       </c>
-      <c r="E133" s="124"/>
-      <c r="F133" s="123"/>
+      <c r="E133" s="123"/>
+      <c r="F133" s="122"/>
     </row>
     <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A134" s="120" t="s">
+      <c r="A134" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B134" s="120" t="s">
+      <c r="B134" s="119" t="s">
         <v>714</v>
       </c>
-      <c r="C134" s="124"/>
+      <c r="C134" s="123"/>
       <c r="D134" s="20" t="s">
         <v>715</v>
       </c>
-      <c r="E134" s="124"/>
-      <c r="F134" s="123"/>
+      <c r="E134" s="123"/>
+      <c r="F134" s="122"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="156" t="s">
+      <c r="A135" s="155" t="s">
         <v>716</v>
       </c>
-      <c r="B135" s="157"/>
-      <c r="C135" s="157"/>
-      <c r="D135" s="157"/>
-      <c r="E135" s="158"/>
-      <c r="F135" s="123"/>
+      <c r="B135" s="156"/>
+      <c r="C135" s="156"/>
+      <c r="D135" s="156"/>
+      <c r="E135" s="157"/>
+      <c r="F135" s="122"/>
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A136" s="120" t="s">
+      <c r="A136" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B136" s="120" t="s">
+      <c r="B136" s="119" t="s">
         <v>717</v>
       </c>
-      <c r="C136" s="121" t="s">
+      <c r="C136" s="120" t="s">
         <v>718</v>
       </c>
-      <c r="D136" s="120" t="s">
+      <c r="D136" s="119" t="s">
         <v>719</v>
       </c>
-      <c r="E136" s="124" t="s">
+      <c r="E136" s="123" t="s">
         <v>720</v>
       </c>
-      <c r="F136" s="123"/>
+      <c r="F136" s="122"/>
     </row>
     <row r="137" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A137" s="120" t="s">
+      <c r="A137" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B137" s="120" t="s">
+      <c r="B137" s="119" t="s">
         <v>721</v>
       </c>
-      <c r="C137" s="124"/>
+      <c r="C137" s="123"/>
       <c r="D137" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="E137" s="124"/>
-      <c r="F137" s="123"/>
+      <c r="E137" s="123"/>
+      <c r="F137" s="122"/>
     </row>
     <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A138" s="120" t="s">
+      <c r="A138" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B138" s="120" t="s">
+      <c r="B138" s="119" t="s">
         <v>722</v>
       </c>
-      <c r="C138" s="124"/>
+      <c r="C138" s="123"/>
       <c r="D138" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="E138" s="124"/>
-      <c r="F138" s="123"/>
+      <c r="E138" s="123"/>
+      <c r="F138" s="122"/>
     </row>
     <row r="139" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="126" t="s">
+      <c r="A139" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="B139" s="126" t="s">
+      <c r="B139" s="125" t="s">
         <v>723</v>
       </c>
-      <c r="C139" s="117" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D139" s="126" t="s">
+      <c r="C139" s="116" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D139" s="125" t="s">
         <v>724</v>
       </c>
-      <c r="E139" s="126" t="s">
+      <c r="E139" s="125" t="s">
         <v>725</v>
       </c>
-      <c r="F139" s="127" t="s">
+      <c r="F139" s="126" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A140" s="126" t="s">
+      <c r="A140" s="125" t="s">
         <v>421</v>
       </c>
-      <c r="B140" s="126" t="s">
+      <c r="B140" s="125" t="s">
         <v>727</v>
       </c>
-      <c r="C140" s="126"/>
-      <c r="D140" s="117" t="s">
+      <c r="C140" s="125"/>
+      <c r="D140" s="116" t="s">
         <v>728</v>
       </c>
-      <c r="E140" s="126"/>
-      <c r="F140" s="127" t="s">
+      <c r="E140" s="125"/>
+      <c r="F140" s="126" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A141" s="126" t="s">
+      <c r="A141" s="125" t="s">
         <v>424</v>
       </c>
-      <c r="B141" s="126" t="s">
+      <c r="B141" s="125" t="s">
         <v>730</v>
       </c>
-      <c r="C141" s="126"/>
-      <c r="D141" s="117" t="s">
+      <c r="C141" s="125"/>
+      <c r="D141" s="116" t="s">
         <v>731</v>
       </c>
-      <c r="E141" s="126"/>
-      <c r="F141" s="127"/>
+      <c r="E141" s="125"/>
+      <c r="F141" s="126"/>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="120" t="s">
+      <c r="A142" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B142" s="120" t="s">
+      <c r="B142" s="119" t="s">
         <v>732</v>
       </c>
-      <c r="C142" s="124"/>
+      <c r="C142" s="123"/>
       <c r="D142" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="E142" s="124"/>
-      <c r="F142" s="123" t="s">
+      <c r="E142" s="123"/>
+      <c r="F142" s="122" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A143" s="120" t="s">
+      <c r="A143" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B143" s="120" t="s">
+      <c r="B143" s="119" t="s">
         <v>735</v>
       </c>
-      <c r="C143" s="124"/>
+      <c r="C143" s="123"/>
       <c r="D143" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="E143" s="124"/>
-      <c r="F143" s="123"/>
+      <c r="E143" s="123"/>
+      <c r="F143" s="122"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="156" t="s">
+      <c r="A144" s="155" t="s">
         <v>737</v>
       </c>
-      <c r="B144" s="157"/>
-      <c r="C144" s="157"/>
-      <c r="D144" s="157"/>
-      <c r="E144" s="158"/>
-      <c r="F144" s="123"/>
+      <c r="B144" s="156"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="156"/>
+      <c r="E144" s="157"/>
+      <c r="F144" s="122"/>
     </row>
     <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A145" s="120" t="s">
+      <c r="A145" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B145" s="120" t="s">
+      <c r="B145" s="119" t="s">
         <v>738</v>
       </c>
       <c r="C145" s="59" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D145" s="120" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D145" s="119" t="s">
         <v>739</v>
       </c>
-      <c r="E145" s="124" t="s">
+      <c r="E145" s="123" t="s">
         <v>740</v>
       </c>
-      <c r="F145" s="123"/>
+      <c r="F145" s="122"/>
     </row>
     <row r="146" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="120" t="s">
+      <c r="A146" s="119" t="s">
         <v>741</v>
       </c>
-      <c r="B146" s="120" t="s">
+      <c r="B146" s="119" t="s">
         <v>742</v>
       </c>
       <c r="C146" s="59" t="s">
         <v>743</v>
       </c>
-      <c r="D146" s="120"/>
-      <c r="E146" s="124" t="s">
+      <c r="D146" s="119"/>
+      <c r="E146" s="123" t="s">
         <v>744</v>
       </c>
-      <c r="F146" s="123"/>
+      <c r="F146" s="122"/>
     </row>
     <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="120" t="s">
+      <c r="A147" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="120" t="s">
+      <c r="B147" s="119" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C147" s="59" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D147" s="119"/>
+      <c r="E147" s="123" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F147" s="122"/>
+    </row>
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="119" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="119" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C148" s="59" t="s">
         <v>1390</v>
       </c>
-      <c r="C147" s="59" t="s">
+      <c r="D148" s="119"/>
+      <c r="E148" s="123" t="s">
         <v>1392</v>
       </c>
-      <c r="D147" s="120"/>
-      <c r="E147" s="124" t="s">
-        <v>1394</v>
-      </c>
-      <c r="F147" s="123"/>
-    </row>
-    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="120" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="120" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C148" s="59" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D148" s="120"/>
-      <c r="E148" s="124" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F148" s="123"/>
+      <c r="F148" s="122"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="120" t="s">
+      <c r="A149" s="119" t="s">
         <v>745</v>
       </c>
-      <c r="B149" s="120" t="s">
+      <c r="B149" s="119" t="s">
         <v>746</v>
       </c>
-      <c r="C149" s="121" t="s">
+      <c r="C149" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="120"/>
-      <c r="E149" s="124" t="s">
+      <c r="D149" s="119"/>
+      <c r="E149" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="F149" s="123"/>
+      <c r="F149" s="122"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="120" t="s">
+      <c r="A150" s="119" t="s">
         <v>747</v>
       </c>
-      <c r="B150" s="120" t="s">
+      <c r="B150" s="119" t="s">
         <v>748</v>
       </c>
-      <c r="C150" s="121" t="s">
+      <c r="C150" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="D150" s="120"/>
-      <c r="E150" s="124" t="s">
+      <c r="D150" s="119"/>
+      <c r="E150" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="F150" s="123"/>
+      <c r="F150" s="122"/>
     </row>
     <row r="151" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A151" s="120" t="s">
+      <c r="A151" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B151" s="120" t="s">
+      <c r="B151" s="119" t="s">
         <v>749</v>
       </c>
-      <c r="C151" s="124"/>
+      <c r="C151" s="123"/>
       <c r="D151" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="E151" s="124"/>
-      <c r="F151" s="123"/>
+      <c r="E151" s="123"/>
+      <c r="F151" s="122"/>
     </row>
     <row r="152" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A152" s="120" t="s">
+      <c r="A152" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B152" s="120" t="s">
+      <c r="B152" s="119" t="s">
         <v>751</v>
       </c>
-      <c r="C152" s="124"/>
+      <c r="C152" s="123"/>
       <c r="D152" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="E152" s="124"/>
-      <c r="F152" s="123"/>
+      <c r="E152" s="123"/>
+      <c r="F152" s="122"/>
     </row>
     <row r="153" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A153" s="120" t="s">
+      <c r="A153" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B153" s="120" t="s">
+      <c r="B153" s="119" t="s">
         <v>753</v>
       </c>
-      <c r="C153" s="124"/>
+      <c r="C153" s="123"/>
       <c r="D153" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="E153" s="124"/>
-      <c r="F153" s="123" t="s">
+      <c r="E153" s="123"/>
+      <c r="F153" s="122" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A154" s="120" t="s">
+      <c r="A154" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B154" s="120" t="s">
+      <c r="B154" s="119" t="s">
         <v>756</v>
       </c>
-      <c r="C154" s="124"/>
+      <c r="C154" s="123"/>
       <c r="D154" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="E154" s="124"/>
-      <c r="F154" s="123"/>
+      <c r="E154" s="123"/>
+      <c r="F154" s="122"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="156" t="s">
+      <c r="A155" s="155" t="s">
         <v>758</v>
       </c>
-      <c r="B155" s="157"/>
-      <c r="C155" s="157"/>
-      <c r="D155" s="157"/>
-      <c r="E155" s="158"/>
-      <c r="F155" s="123"/>
+      <c r="B155" s="156"/>
+      <c r="C155" s="156"/>
+      <c r="D155" s="156"/>
+      <c r="E155" s="157"/>
+      <c r="F155" s="122"/>
     </row>
     <row r="156" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A156" s="120" t="s">
+      <c r="A156" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B156" s="120" t="s">
+      <c r="B156" s="119" t="s">
         <v>759</v>
       </c>
-      <c r="C156" s="128" t="s">
+      <c r="C156" s="127" t="s">
         <v>760</v>
       </c>
-      <c r="D156" s="120" t="s">
+      <c r="D156" s="119" t="s">
         <v>761</v>
       </c>
-      <c r="E156" s="124" t="s">
+      <c r="E156" s="123" t="s">
         <v>762</v>
       </c>
-      <c r="F156" s="123"/>
+      <c r="F156" s="122"/>
     </row>
     <row r="157" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A157" s="120" t="s">
+      <c r="A157" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="B157" s="120" t="s">
+      <c r="B157" s="119" t="s">
         <v>763</v>
       </c>
-      <c r="C157" s="121" t="s">
+      <c r="C157" s="120" t="s">
         <v>764</v>
       </c>
-      <c r="D157" s="129" t="s">
+      <c r="D157" s="128" t="s">
         <v>765</v>
       </c>
-      <c r="E157" s="124" t="s">
+      <c r="E157" s="123" t="s">
         <v>766</v>
       </c>
-      <c r="F157" s="123"/>
+      <c r="F157" s="122"/>
     </row>
     <row r="158" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A158" s="130" t="s">
+      <c r="A158" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="120" t="s">
+      <c r="B158" s="119" t="s">
         <v>767</v>
       </c>
-      <c r="C158" s="121" t="s">
+      <c r="C158" s="120" t="s">
         <v>768</v>
       </c>
-      <c r="D158" s="129" t="s">
+      <c r="D158" s="128" t="s">
         <v>769</v>
       </c>
-      <c r="E158" s="124" t="s">
+      <c r="E158" s="123" t="s">
         <v>770</v>
       </c>
-      <c r="F158" s="123"/>
+      <c r="F158" s="122"/>
     </row>
     <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="130" t="s">
+      <c r="A159" s="129" t="s">
         <v>771</v>
       </c>
-      <c r="B159" s="120" t="s">
+      <c r="B159" s="119" t="s">
         <v>772</v>
       </c>
-      <c r="C159" s="131" t="s">
+      <c r="C159" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D159" s="129"/>
-      <c r="E159" s="124" t="s">
+      <c r="D159" s="128"/>
+      <c r="E159" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="F159" s="123"/>
+      <c r="F159" s="122"/>
     </row>
     <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="120" t="s">
+      <c r="A160" s="119" t="s">
         <v>745</v>
       </c>
-      <c r="B160" s="120" t="s">
+      <c r="B160" s="119" t="s">
         <v>773</v>
       </c>
-      <c r="C160" s="121" t="s">
+      <c r="C160" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="D160" s="120"/>
-      <c r="E160" s="124" t="s">
+      <c r="D160" s="119"/>
+      <c r="E160" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="F160" s="123"/>
+      <c r="F160" s="122"/>
     </row>
     <row r="161" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A161" s="120" t="s">
+      <c r="A161" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B161" s="120" t="s">
+      <c r="B161" s="119" t="s">
         <v>774</v>
       </c>
-      <c r="C161" s="132"/>
+      <c r="C161" s="131"/>
       <c r="D161" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="E161" s="124"/>
-      <c r="F161" s="123"/>
+      <c r="E161" s="123"/>
+      <c r="F161" s="122"/>
     </row>
     <row r="162" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A162" s="120" t="s">
+      <c r="A162" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B162" s="120" t="s">
+      <c r="B162" s="119" t="s">
         <v>776</v>
       </c>
-      <c r="C162" s="124"/>
+      <c r="C162" s="123"/>
       <c r="D162" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="E162" s="124"/>
-      <c r="F162" s="123"/>
+      <c r="E162" s="123"/>
+      <c r="F162" s="122"/>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="165" t="s">
+      <c r="A163" s="158" t="s">
         <v>778</v>
       </c>
-      <c r="B163" s="166"/>
-      <c r="C163" s="166"/>
-      <c r="D163" s="166"/>
-      <c r="E163" s="167"/>
-      <c r="F163" s="133" t="s">
+      <c r="B163" s="159"/>
+      <c r="C163" s="159"/>
+      <c r="D163" s="159"/>
+      <c r="E163" s="160"/>
+      <c r="F163" s="132" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="120" t="s">
+      <c r="A164" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B164" s="120" t="s">
+      <c r="B164" s="119" t="s">
         <v>780</v>
       </c>
-      <c r="C164" s="134" t="s">
+      <c r="C164" s="133" t="s">
         <v>781</v>
       </c>
-      <c r="D164" s="118"/>
-      <c r="E164" s="135"/>
-      <c r="F164" s="133" t="s">
+      <c r="D164" s="117"/>
+      <c r="E164" s="134"/>
+      <c r="F164" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A165" s="120" t="s">
+      <c r="A165" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="B165" s="120" t="s">
+      <c r="B165" s="119" t="s">
         <v>783</v>
       </c>
-      <c r="C165" s="121" t="s">
+      <c r="C165" s="120" t="s">
         <v>764</v>
       </c>
-      <c r="D165" s="118"/>
-      <c r="E165" s="135"/>
-      <c r="F165" s="133" t="s">
+      <c r="D165" s="117"/>
+      <c r="E165" s="134"/>
+      <c r="F165" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="130" t="s">
+      <c r="A166" s="129" t="s">
         <v>784</v>
       </c>
-      <c r="B166" s="120" t="s">
+      <c r="B166" s="119" t="s">
         <v>785</v>
       </c>
-      <c r="C166" s="119" t="s">
+      <c r="C166" s="118" t="s">
         <v>786</v>
       </c>
-      <c r="D166" s="118"/>
-      <c r="E166" s="135"/>
-      <c r="F166" s="133" t="s">
+      <c r="D166" s="117"/>
+      <c r="E166" s="134"/>
+      <c r="F166" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="130" t="s">
+      <c r="A167" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B167" s="120" t="s">
+      <c r="B167" s="119" t="s">
         <v>787</v>
       </c>
-      <c r="C167" s="134" t="s">
+      <c r="C167" s="133" t="s">
         <v>788</v>
       </c>
-      <c r="D167" s="118"/>
-      <c r="E167" s="135"/>
-      <c r="F167" s="133" t="s">
+      <c r="D167" s="117"/>
+      <c r="E167" s="134"/>
+      <c r="F167" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="130" t="s">
+      <c r="A168" s="129" t="s">
         <v>32</v>
       </c>
       <c r="B168" s="60" t="s">
         <v>789</v>
       </c>
-      <c r="C168" s="134" t="s">
+      <c r="C168" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="D168" s="118"/>
-      <c r="E168" s="135"/>
-      <c r="F168" s="133" t="s">
+      <c r="D168" s="117"/>
+      <c r="E168" s="134"/>
+      <c r="F168" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="120" t="s">
+      <c r="A169" s="119" t="s">
         <v>747</v>
       </c>
-      <c r="B169" s="120" t="s">
+      <c r="B169" s="119" t="s">
         <v>772</v>
       </c>
-      <c r="C169" s="134" t="s">
+      <c r="C169" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="D169" s="118"/>
-      <c r="E169" s="135"/>
-      <c r="F169" s="133" t="s">
+      <c r="D169" s="117"/>
+      <c r="E169" s="134"/>
+      <c r="F169" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="120" t="s">
+      <c r="A170" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B170" s="136"/>
-      <c r="C170" s="137"/>
-      <c r="D170" s="118"/>
-      <c r="E170" s="135"/>
-      <c r="F170" s="133" t="s">
+      <c r="B170" s="135"/>
+      <c r="C170" s="136"/>
+      <c r="D170" s="117"/>
+      <c r="E170" s="134"/>
+      <c r="F170" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A171" s="120" t="s">
+      <c r="A171" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B171" s="136"/>
-      <c r="C171" s="137"/>
-      <c r="D171" s="118"/>
-      <c r="E171" s="135"/>
-      <c r="F171" s="133" t="s">
+      <c r="B171" s="135"/>
+      <c r="C171" s="136"/>
+      <c r="D171" s="117"/>
+      <c r="E171" s="134"/>
+      <c r="F171" s="132" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="156" t="s">
+      <c r="A172" s="155" t="s">
         <v>790</v>
       </c>
-      <c r="B172" s="157"/>
-      <c r="C172" s="157"/>
-      <c r="D172" s="157"/>
-      <c r="E172" s="158"/>
-      <c r="F172" s="123"/>
+      <c r="B172" s="156"/>
+      <c r="C172" s="156"/>
+      <c r="D172" s="156"/>
+      <c r="E172" s="157"/>
+      <c r="F172" s="122"/>
     </row>
     <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A173" s="95" t="s">
+      <c r="A173" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="B173" s="96" t="s">
+      <c r="B173" s="95" t="s">
         <v>791</v>
       </c>
-      <c r="C173" s="97" t="s">
+      <c r="C173" s="96" t="s">
         <v>792</v>
       </c>
-      <c r="D173" s="96" t="s">
+      <c r="D173" s="95" t="s">
         <v>793</v>
       </c>
-      <c r="E173" s="88" t="s">
+      <c r="E173" s="87" t="s">
         <v>794</v>
       </c>
-      <c r="F173" s="123"/>
+      <c r="F173" s="122"/>
     </row>
     <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="98" t="s">
+      <c r="A174" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B174" s="99" t="s">
+      <c r="B174" s="98" t="s">
         <v>795</v>
       </c>
-      <c r="C174" s="100" t="s">
+      <c r="C174" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="D174" s="99" t="s">
+      <c r="D174" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E174" s="93" t="s">
+      <c r="E174" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="F174" s="123"/>
+      <c r="F174" s="122"/>
     </row>
     <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="98" t="s">
+      <c r="A175" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B175" s="99" t="s">
+      <c r="B175" s="98" t="s">
         <v>796</v>
       </c>
-      <c r="C175" s="100" t="s">
+      <c r="C175" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="D175" s="99" t="s">
+      <c r="D175" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E175" s="93" t="s">
+      <c r="E175" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="F175" s="123"/>
+      <c r="F175" s="122"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="98" t="s">
+      <c r="A176" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B176" s="99" t="s">
+      <c r="B176" s="98" t="s">
         <v>797</v>
       </c>
-      <c r="C176" s="100" t="s">
+      <c r="C176" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D176" s="99" t="s">
+      <c r="D176" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E176" s="93" t="s">
+      <c r="E176" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="F176" s="123"/>
+      <c r="F176" s="122"/>
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A177" s="98" t="s">
+      <c r="A177" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B177" s="99" t="s">
+      <c r="B177" s="98" t="s">
         <v>798</v>
       </c>
-      <c r="C177" s="100" t="s">
+      <c r="C177" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="D177" s="99" t="s">
+      <c r="D177" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E177" s="93" t="s">
+      <c r="E177" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="F177" s="123"/>
+      <c r="F177" s="122"/>
     </row>
     <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" s="98" t="s">
+      <c r="A178" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="B178" s="99" t="s">
+      <c r="B178" s="98" t="s">
         <v>799</v>
       </c>
-      <c r="C178" s="100" t="s">
+      <c r="C178" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D178" s="99" t="s">
+      <c r="D178" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E178" s="93" t="s">
+      <c r="E178" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="F178" s="123"/>
+      <c r="F178" s="122"/>
     </row>
     <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A179" s="98" t="s">
+      <c r="A179" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="B179" s="99" t="s">
+      <c r="B179" s="98" t="s">
         <v>800</v>
       </c>
-      <c r="C179" s="101" t="s">
+      <c r="C179" s="100" t="s">
         <v>801</v>
       </c>
-      <c r="D179" s="99" t="s">
+      <c r="D179" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E179" s="93" t="s">
+      <c r="E179" s="92" t="s">
         <v>802</v>
       </c>
-      <c r="F179" s="123"/>
+      <c r="F179" s="122"/>
     </row>
     <row r="180" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A180" s="120" t="s">
+      <c r="A180" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B180" s="120" t="s">
+      <c r="B180" s="119" t="s">
         <v>803</v>
       </c>
-      <c r="C180" s="124"/>
+      <c r="C180" s="123"/>
       <c r="D180" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="E180" s="124"/>
-      <c r="F180" s="123"/>
+      <c r="E180" s="123"/>
+      <c r="F180" s="122"/>
     </row>
     <row r="181" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A181" s="120" t="s">
+      <c r="A181" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B181" s="120" t="s">
+      <c r="B181" s="119" t="s">
         <v>805</v>
       </c>
-      <c r="C181" s="124"/>
+      <c r="C181" s="123"/>
       <c r="D181" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="E181" s="124"/>
-      <c r="F181" s="123"/>
+      <c r="E181" s="123"/>
+      <c r="F181" s="122"/>
     </row>
     <row r="182" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A182" s="120" t="s">
+      <c r="A182" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B182" s="120" t="s">
+      <c r="B182" s="119" t="s">
         <v>807</v>
       </c>
-      <c r="C182" s="124"/>
+      <c r="C182" s="123"/>
       <c r="D182" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="E182" s="124"/>
-      <c r="F182" s="123"/>
+      <c r="E182" s="123"/>
+      <c r="F182" s="122"/>
     </row>
     <row r="183" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A183" s="120" t="s">
+      <c r="A183" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B183" s="120" t="s">
+      <c r="B183" s="119" t="s">
         <v>809</v>
       </c>
-      <c r="C183" s="124"/>
+      <c r="C183" s="123"/>
       <c r="D183" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="E183" s="124"/>
-      <c r="F183" s="123"/>
+      <c r="E183" s="123"/>
+      <c r="F183" s="122"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="156" t="s">
+      <c r="A184" s="155" t="s">
         <v>811</v>
       </c>
-      <c r="B184" s="157"/>
-      <c r="C184" s="157"/>
-      <c r="D184" s="157"/>
-      <c r="E184" s="158"/>
-      <c r="F184" s="123"/>
+      <c r="B184" s="156"/>
+      <c r="C184" s="156"/>
+      <c r="D184" s="156"/>
+      <c r="E184" s="157"/>
+      <c r="F184" s="122"/>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A185" s="120" t="s">
+      <c r="A185" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B185" s="120" t="s">
+      <c r="B185" s="119" t="s">
         <v>812</v>
       </c>
-      <c r="C185" s="121" t="s">
+      <c r="C185" s="120" t="s">
         <v>813</v>
       </c>
-      <c r="D185" s="120" t="s">
+      <c r="D185" s="119" t="s">
         <v>793</v>
       </c>
-      <c r="E185" s="124" t="s">
+      <c r="E185" s="123" t="s">
         <v>814</v>
       </c>
-      <c r="F185" s="123"/>
+      <c r="F185" s="122"/>
     </row>
     <row r="186" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A186" s="120" t="s">
+      <c r="A186" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B186" s="120" t="s">
+      <c r="B186" s="119" t="s">
         <v>815</v>
       </c>
-      <c r="C186" s="124"/>
+      <c r="C186" s="123"/>
       <c r="D186" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="E186" s="124"/>
-      <c r="F186" s="123"/>
+      <c r="E186" s="123"/>
+      <c r="F186" s="122"/>
     </row>
     <row r="187" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A187" s="120" t="s">
+      <c r="A187" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B187" s="120" t="s">
+      <c r="B187" s="119" t="s">
         <v>817</v>
       </c>
-      <c r="C187" s="124"/>
+      <c r="C187" s="123"/>
       <c r="D187" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="E187" s="124"/>
-      <c r="F187" s="123"/>
+      <c r="E187" s="123"/>
+      <c r="F187" s="122"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="156" t="s">
+      <c r="A188" s="155" t="s">
         <v>819</v>
       </c>
-      <c r="B188" s="157"/>
-      <c r="C188" s="157"/>
-      <c r="D188" s="157"/>
-      <c r="E188" s="158"/>
-      <c r="F188" s="123"/>
+      <c r="B188" s="156"/>
+      <c r="C188" s="156"/>
+      <c r="D188" s="156"/>
+      <c r="E188" s="157"/>
+      <c r="F188" s="122"/>
     </row>
     <row r="189" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A189" s="120" t="s">
+      <c r="A189" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B189" s="120" t="s">
+      <c r="B189" s="119" t="s">
         <v>820</v>
       </c>
-      <c r="C189" s="121" t="s">
+      <c r="C189" s="120" t="s">
         <v>821</v>
       </c>
-      <c r="D189" s="120" t="s">
+      <c r="D189" s="119" t="s">
         <v>822</v>
       </c>
-      <c r="E189" s="124" t="s">
+      <c r="E189" s="123" t="s">
         <v>823</v>
       </c>
-      <c r="F189" s="123"/>
+      <c r="F189" s="122"/>
     </row>
     <row r="190" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A190" s="120" t="s">
+      <c r="A190" s="119" t="s">
         <v>561</v>
       </c>
-      <c r="B190" s="120" t="s">
+      <c r="B190" s="119" t="s">
         <v>824</v>
       </c>
-      <c r="C190" s="121" t="s">
+      <c r="C190" s="120" t="s">
         <v>825</v>
       </c>
-      <c r="D190" s="120" t="s">
+      <c r="D190" s="119" t="s">
         <v>826</v>
       </c>
-      <c r="E190" s="124" t="s">
+      <c r="E190" s="123" t="s">
         <v>827</v>
       </c>
-      <c r="F190" s="123"/>
+      <c r="F190" s="122"/>
     </row>
     <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A191" s="120" t="s">
+      <c r="A191" s="119" t="s">
         <v>495</v>
       </c>
-      <c r="B191" s="120" t="s">
+      <c r="B191" s="119" t="s">
         <v>828</v>
       </c>
       <c r="C191" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="D191" s="120" t="s">
+      <c r="D191" s="119" t="s">
         <v>830</v>
       </c>
-      <c r="E191" s="124" t="s">
+      <c r="E191" s="123" t="s">
         <v>831</v>
       </c>
-      <c r="F191" s="123"/>
+      <c r="F191" s="122"/>
     </row>
     <row r="192" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A192" s="120" t="s">
+      <c r="A192" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B192" s="120" t="s">
+      <c r="B192" s="119" t="s">
         <v>832</v>
       </c>
-      <c r="C192" s="124"/>
+      <c r="C192" s="123"/>
       <c r="D192" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="E192" s="124"/>
-      <c r="F192" s="123"/>
+      <c r="E192" s="123"/>
+      <c r="F192" s="122"/>
     </row>
     <row r="193" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A193" s="120" t="s">
+      <c r="A193" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B193" s="120" t="s">
+      <c r="B193" s="119" t="s">
         <v>834</v>
       </c>
-      <c r="C193" s="124"/>
+      <c r="C193" s="123"/>
       <c r="D193" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="E193" s="124"/>
-      <c r="F193" s="123"/>
+      <c r="E193" s="123"/>
+      <c r="F193" s="122"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="156" t="s">
+      <c r="A194" s="155" t="s">
         <v>836</v>
       </c>
-      <c r="B194" s="157"/>
-      <c r="C194" s="157"/>
-      <c r="D194" s="157"/>
-      <c r="E194" s="158"/>
-      <c r="F194" s="123"/>
+      <c r="B194" s="156"/>
+      <c r="C194" s="156"/>
+      <c r="D194" s="156"/>
+      <c r="E194" s="157"/>
+      <c r="F194" s="122"/>
     </row>
     <row r="195" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A195" s="120" t="s">
+      <c r="A195" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B195" s="120" t="s">
+      <c r="B195" s="119" t="s">
         <v>837</v>
       </c>
-      <c r="C195" s="121" t="s">
+      <c r="C195" s="120" t="s">
         <v>838</v>
       </c>
-      <c r="D195" s="120" t="s">
+      <c r="D195" s="119" t="s">
         <v>839</v>
       </c>
-      <c r="E195" s="124" t="s">
+      <c r="E195" s="123" t="s">
         <v>840</v>
       </c>
-      <c r="F195" s="123"/>
+      <c r="F195" s="122"/>
     </row>
     <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="120" t="s">
+      <c r="A196" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B196" s="120" t="s">
+      <c r="B196" s="119" t="s">
         <v>841</v>
       </c>
-      <c r="C196" s="121" t="s">
+      <c r="C196" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D196" s="120"/>
-      <c r="E196" s="124" t="s">
+      <c r="D196" s="119"/>
+      <c r="E196" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="F196" s="123"/>
+      <c r="F196" s="122"/>
     </row>
     <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="120" t="s">
+      <c r="A197" s="119" t="s">
         <v>745</v>
       </c>
-      <c r="B197" s="120" t="s">
+      <c r="B197" s="119" t="s">
         <v>842</v>
       </c>
-      <c r="C197" s="121" t="s">
+      <c r="C197" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="D197" s="120"/>
-      <c r="E197" s="124" t="s">
+      <c r="D197" s="119"/>
+      <c r="E197" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="F197" s="123"/>
+      <c r="F197" s="122"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="120" t="s">
+      <c r="A198" s="119" t="s">
         <v>747</v>
       </c>
-      <c r="B198" s="120" t="s">
+      <c r="B198" s="119" t="s">
         <v>843</v>
       </c>
-      <c r="C198" s="121" t="s">
+      <c r="C198" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="D198" s="120"/>
-      <c r="E198" s="124" t="s">
+      <c r="D198" s="119"/>
+      <c r="E198" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="F198" s="123"/>
+      <c r="F198" s="122"/>
     </row>
     <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A199" s="120" t="s">
+      <c r="A199" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="120" t="s">
+      <c r="B199" s="119" t="s">
         <v>844</v>
       </c>
-      <c r="C199" s="138" t="s">
+      <c r="C199" s="137" t="s">
         <v>845</v>
       </c>
-      <c r="D199" s="120"/>
-      <c r="E199" s="124"/>
-      <c r="F199" s="123"/>
+      <c r="D199" s="119"/>
+      <c r="E199" s="123"/>
+      <c r="F199" s="122"/>
     </row>
     <row r="200" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A200" s="120" t="s">
+      <c r="A200" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B200" s="120" t="s">
+      <c r="B200" s="119" t="s">
         <v>846</v>
       </c>
-      <c r="C200" s="124"/>
+      <c r="C200" s="123"/>
       <c r="D200" s="20" t="s">
         <v>750</v>
       </c>
-      <c r="E200" s="124"/>
-      <c r="F200" s="123"/>
+      <c r="E200" s="123"/>
+      <c r="F200" s="122"/>
     </row>
     <row r="201" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A201" s="120" t="s">
+      <c r="A201" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B201" s="120" t="s">
+      <c r="B201" s="119" t="s">
         <v>847</v>
       </c>
-      <c r="C201" s="124"/>
+      <c r="C201" s="123"/>
       <c r="D201" s="20" t="s">
         <v>752</v>
       </c>
-      <c r="E201" s="124"/>
-      <c r="F201" s="123"/>
+      <c r="E201" s="123"/>
+      <c r="F201" s="122"/>
     </row>
     <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A202" s="120" t="s">
+      <c r="A202" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B202" s="120" t="s">
+      <c r="B202" s="119" t="s">
         <v>848</v>
       </c>
-      <c r="C202" s="124"/>
+      <c r="C202" s="123"/>
       <c r="D202" s="20" t="s">
         <v>754</v>
       </c>
-      <c r="E202" s="124"/>
-      <c r="F202" s="123"/>
+      <c r="E202" s="123"/>
+      <c r="F202" s="122"/>
     </row>
     <row r="203" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A203" s="120" t="s">
+      <c r="A203" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B203" s="120" t="s">
+      <c r="B203" s="119" t="s">
         <v>849</v>
       </c>
-      <c r="C203" s="124"/>
+      <c r="C203" s="123"/>
       <c r="D203" s="20" t="s">
         <v>757</v>
       </c>
-      <c r="E203" s="124"/>
-      <c r="F203" s="123"/>
+      <c r="E203" s="123"/>
+      <c r="F203" s="122"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="156" t="s">
+      <c r="A204" s="155" t="s">
         <v>850</v>
       </c>
-      <c r="B204" s="157"/>
-      <c r="C204" s="157"/>
-      <c r="D204" s="157"/>
-      <c r="E204" s="158"/>
-      <c r="F204" s="123"/>
+      <c r="B204" s="156"/>
+      <c r="C204" s="156"/>
+      <c r="D204" s="156"/>
+      <c r="E204" s="157"/>
+      <c r="F204" s="122"/>
     </row>
     <row r="205" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A205" s="120" t="s">
+      <c r="A205" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B205" s="120" t="s">
+      <c r="B205" s="119" t="s">
         <v>851</v>
       </c>
-      <c r="C205" s="121" t="s">
+      <c r="C205" s="120" t="s">
         <v>852</v>
       </c>
-      <c r="D205" s="120" t="s">
+      <c r="D205" s="119" t="s">
         <v>853</v>
       </c>
-      <c r="E205" s="124" t="s">
+      <c r="E205" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="F205" s="123"/>
+      <c r="F205" s="122"/>
     </row>
     <row r="206" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A206" s="120" t="s">
+      <c r="A206" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="B206" s="120" t="s">
+      <c r="B206" s="119" t="s">
         <v>854</v>
       </c>
-      <c r="C206" s="121" t="s">
+      <c r="C206" s="120" t="s">
         <v>764</v>
       </c>
-      <c r="D206" s="129" t="s">
+      <c r="D206" s="128" t="s">
         <v>855</v>
       </c>
-      <c r="E206" s="124" t="s">
+      <c r="E206" s="123" t="s">
         <v>766</v>
       </c>
-      <c r="F206" s="123"/>
+      <c r="F206" s="122"/>
     </row>
     <row r="207" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A207" s="120" t="s">
+      <c r="A207" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="B207" s="120" t="s">
+      <c r="B207" s="119" t="s">
         <v>856</v>
       </c>
-      <c r="C207" s="121" t="s">
+      <c r="C207" s="120" t="s">
         <v>768</v>
       </c>
-      <c r="D207" s="129" t="s">
+      <c r="D207" s="128" t="s">
         <v>857</v>
       </c>
-      <c r="E207" s="124" t="s">
+      <c r="E207" s="123" t="s">
         <v>770</v>
       </c>
-      <c r="F207" s="123"/>
+      <c r="F207" s="122"/>
     </row>
     <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A208" s="120" t="s">
+      <c r="A208" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B208" s="120" t="s">
+      <c r="B208" s="119" t="s">
         <v>858</v>
       </c>
-      <c r="C208" s="132"/>
+      <c r="C208" s="131"/>
       <c r="D208" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="E208" s="124"/>
-      <c r="F208" s="123"/>
+      <c r="E208" s="123"/>
+      <c r="F208" s="122"/>
     </row>
     <row r="209" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A209" s="120" t="s">
+      <c r="A209" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B209" s="120" t="s">
+      <c r="B209" s="119" t="s">
         <v>859</v>
       </c>
-      <c r="C209" s="124"/>
+      <c r="C209" s="123"/>
       <c r="D209" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="E209" s="124"/>
-      <c r="F209" s="123"/>
+      <c r="E209" s="123"/>
+      <c r="F209" s="122"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="156" t="s">
+      <c r="A210" s="155" t="s">
         <v>860</v>
       </c>
-      <c r="B210" s="157"/>
-      <c r="C210" s="157"/>
-      <c r="D210" s="157"/>
-      <c r="E210" s="158"/>
-      <c r="F210" s="123"/>
+      <c r="B210" s="156"/>
+      <c r="C210" s="156"/>
+      <c r="D210" s="156"/>
+      <c r="E210" s="157"/>
+      <c r="F210" s="122"/>
     </row>
     <row r="211" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A211" s="120" t="s">
+      <c r="A211" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B211" s="120" t="s">
+      <c r="B211" s="119" t="s">
         <v>861</v>
       </c>
-      <c r="C211" s="121" t="s">
+      <c r="C211" s="120" t="s">
         <v>862</v>
       </c>
-      <c r="D211" s="120" t="s">
+      <c r="D211" s="119" t="s">
         <v>863</v>
       </c>
-      <c r="E211" s="124" t="s">
+      <c r="E211" s="123" t="s">
         <v>864</v>
       </c>
-      <c r="F211" s="123"/>
+      <c r="F211" s="122"/>
     </row>
     <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="120" t="s">
+      <c r="A212" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B212" s="120" t="s">
+      <c r="B212" s="119" t="s">
         <v>865</v>
       </c>
-      <c r="C212" s="121" t="s">
+      <c r="C212" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="D212" s="120"/>
-      <c r="E212" s="124" t="s">
+      <c r="D212" s="119"/>
+      <c r="E212" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="F212" s="123"/>
+      <c r="F212" s="122"/>
     </row>
     <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="120" t="s">
+      <c r="A213" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B213" s="120" t="s">
+      <c r="B213" s="119" t="s">
         <v>866</v>
       </c>
-      <c r="C213" s="121" t="s">
+      <c r="C213" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="D213" s="120"/>
-      <c r="E213" s="124" t="s">
+      <c r="D213" s="119"/>
+      <c r="E213" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="F213" s="123"/>
+      <c r="F213" s="122"/>
     </row>
     <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="120" t="s">
+      <c r="A214" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="120" t="s">
+      <c r="B214" s="119" t="s">
         <v>867</v>
       </c>
-      <c r="C214" s="121" t="s">
+      <c r="C214" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="D214" s="120"/>
-      <c r="E214" s="124" t="s">
+      <c r="D214" s="119"/>
+      <c r="E214" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="F214" s="123"/>
+      <c r="F214" s="122"/>
     </row>
     <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="120" t="s">
+      <c r="A215" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B215" s="120" t="s">
+      <c r="B215" s="119" t="s">
         <v>868</v>
       </c>
-      <c r="C215" s="121" t="s">
+      <c r="C215" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="D215" s="120"/>
-      <c r="E215" s="124" t="s">
+      <c r="D215" s="119"/>
+      <c r="E215" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="F215" s="123"/>
+      <c r="F215" s="122"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="120" t="s">
+      <c r="A216" s="119" t="s">
         <v>427</v>
       </c>
-      <c r="B216" s="120" t="s">
+      <c r="B216" s="119" t="s">
         <v>869</v>
       </c>
-      <c r="C216" s="121" t="s">
+      <c r="C216" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D216" s="120"/>
-      <c r="E216" s="124" t="s">
+      <c r="D216" s="119"/>
+      <c r="E216" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="F216" s="123"/>
+      <c r="F216" s="122"/>
     </row>
     <row r="217" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A217" s="120" t="s">
+      <c r="A217" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B217" s="120" t="s">
+      <c r="B217" s="119" t="s">
         <v>870</v>
       </c>
-      <c r="C217" s="124"/>
+      <c r="C217" s="123"/>
       <c r="D217" s="20" t="s">
         <v>804</v>
       </c>
-      <c r="E217" s="124"/>
-      <c r="F217" s="123"/>
+      <c r="E217" s="123"/>
+      <c r="F217" s="122"/>
     </row>
     <row r="218" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A218" s="120" t="s">
+      <c r="A218" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B218" s="120" t="s">
+      <c r="B218" s="119" t="s">
         <v>871</v>
       </c>
-      <c r="C218" s="124"/>
+      <c r="C218" s="123"/>
       <c r="D218" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="E218" s="124"/>
-      <c r="F218" s="123"/>
+      <c r="E218" s="123"/>
+      <c r="F218" s="122"/>
     </row>
     <row r="219" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A219" s="120" t="s">
+      <c r="A219" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="B219" s="120" t="s">
+      <c r="B219" s="119" t="s">
         <v>872</v>
       </c>
-      <c r="C219" s="124"/>
+      <c r="C219" s="123"/>
       <c r="D219" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="E219" s="124"/>
-      <c r="F219" s="123"/>
+      <c r="E219" s="123"/>
+      <c r="F219" s="122"/>
     </row>
     <row r="220" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A220" s="120" t="s">
+      <c r="A220" s="119" t="s">
         <v>424</v>
       </c>
-      <c r="B220" s="120" t="s">
+      <c r="B220" s="119" t="s">
         <v>873</v>
       </c>
-      <c r="C220" s="124"/>
+      <c r="C220" s="123"/>
       <c r="D220" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="E220" s="124"/>
-      <c r="F220" s="123"/>
+      <c r="E220" s="123"/>
+      <c r="F220" s="122"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="156" t="s">
+      <c r="A221" s="155" t="s">
         <v>874</v>
       </c>
-      <c r="B221" s="157"/>
-      <c r="C221" s="157"/>
-      <c r="D221" s="157"/>
-      <c r="E221" s="158"/>
-      <c r="F221" s="123"/>
+      <c r="B221" s="156"/>
+      <c r="C221" s="156"/>
+      <c r="D221" s="156"/>
+      <c r="E221" s="157"/>
+      <c r="F221" s="122"/>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A222" s="120" t="s">
+      <c r="A222" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B222" s="120" t="s">
+      <c r="B222" s="119" t="s">
         <v>875</v>
       </c>
-      <c r="C222" s="121" t="s">
+      <c r="C222" s="120" t="s">
         <v>876</v>
       </c>
-      <c r="D222" s="120" t="s">
+      <c r="D222" s="119" t="s">
         <v>877</v>
       </c>
-      <c r="E222" s="124" t="s">
+      <c r="E222" s="123" t="s">
         <v>878</v>
       </c>
       <c r="F222" s="38" t="s">
@@ -13763,220 +13754,220 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A223" s="120" t="s">
+      <c r="A223" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="B223" s="120" t="s">
+      <c r="B223" s="119" t="s">
         <v>880</v>
       </c>
-      <c r="C223" s="121" t="s">
+      <c r="C223" s="120" t="s">
         <v>881</v>
       </c>
-      <c r="D223" s="120" t="s">
+      <c r="D223" s="119" t="s">
         <v>882</v>
       </c>
-      <c r="E223" s="124" t="s">
+      <c r="E223" s="123" t="s">
         <v>883</v>
       </c>
-      <c r="F223" s="123"/>
+      <c r="F223" s="122"/>
     </row>
     <row r="224" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A224" s="120" t="s">
+      <c r="A224" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="B224" s="120" t="s">
+      <c r="B224" s="119" t="s">
         <v>884</v>
       </c>
       <c r="C224" s="59" t="s">
         <v>885</v>
       </c>
-      <c r="D224" s="120" t="s">
+      <c r="D224" s="119" t="s">
         <v>886</v>
       </c>
-      <c r="E224" s="124" t="s">
+      <c r="E224" s="123" t="s">
         <v>887</v>
       </c>
-      <c r="F224" s="123"/>
+      <c r="F224" s="122"/>
     </row>
     <row r="225" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A225" s="120" t="s">
+      <c r="A225" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B225" s="120" t="s">
+      <c r="B225" s="119" t="s">
         <v>888</v>
       </c>
-      <c r="C225" s="121" t="s">
+      <c r="C225" s="120" t="s">
         <v>889</v>
       </c>
-      <c r="D225" s="125" t="s">
+      <c r="D225" s="124" t="s">
         <v>890</v>
       </c>
-      <c r="E225" s="124" t="s">
+      <c r="E225" s="123" t="s">
         <v>891</v>
       </c>
-      <c r="F225" s="123"/>
+      <c r="F225" s="122"/>
     </row>
     <row r="226" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A226" s="120" t="s">
+      <c r="A226" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B226" s="120" t="s">
+      <c r="B226" s="119" t="s">
         <v>892</v>
       </c>
-      <c r="C226" s="121" t="s">
+      <c r="C226" s="120" t="s">
         <v>391</v>
       </c>
-      <c r="D226" s="125" t="s">
+      <c r="D226" s="124" t="s">
         <v>893</v>
       </c>
-      <c r="E226" s="124" t="s">
+      <c r="E226" s="123" t="s">
         <v>393</v>
       </c>
-      <c r="F226" s="123"/>
+      <c r="F226" s="122"/>
     </row>
     <row r="227" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A227" s="120" t="s">
+      <c r="A227" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B227" s="120" t="s">
+      <c r="B227" s="119" t="s">
         <v>894</v>
       </c>
-      <c r="C227" s="121" t="s">
+      <c r="C227" s="120" t="s">
         <v>895</v>
       </c>
-      <c r="D227" s="125" t="s">
+      <c r="D227" s="124" t="s">
         <v>896</v>
       </c>
-      <c r="E227" s="124" t="s">
+      <c r="E227" s="123" t="s">
         <v>897</v>
       </c>
-      <c r="F227" s="123"/>
+      <c r="F227" s="122"/>
     </row>
     <row r="228" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A228" s="120" t="s">
+      <c r="A228" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B228" s="120" t="s">
+      <c r="B228" s="119" t="s">
         <v>898</v>
       </c>
-      <c r="C228" s="121" t="s">
+      <c r="C228" s="120" t="s">
         <v>899</v>
       </c>
-      <c r="D228" s="125" t="s">
+      <c r="D228" s="124" t="s">
         <v>900</v>
       </c>
-      <c r="E228" s="124" t="s">
+      <c r="E228" s="123" t="s">
         <v>901</v>
       </c>
-      <c r="F228" s="123"/>
+      <c r="F228" s="122"/>
     </row>
     <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A229" s="120" t="s">
+      <c r="A229" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B229" s="120" t="s">
+      <c r="B229" s="119" t="s">
         <v>902</v>
       </c>
-      <c r="C229" s="121" t="s">
+      <c r="C229" s="120" t="s">
         <v>903</v>
       </c>
-      <c r="D229" s="125" t="s">
+      <c r="D229" s="124" t="s">
         <v>904</v>
       </c>
-      <c r="E229" s="124" t="s">
+      <c r="E229" s="123" t="s">
         <v>905</v>
       </c>
-      <c r="F229" s="123"/>
+      <c r="F229" s="122"/>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A230" s="120" t="s">
+      <c r="A230" s="119" t="s">
         <v>502</v>
       </c>
-      <c r="B230" s="120" t="s">
+      <c r="B230" s="119" t="s">
         <v>906</v>
       </c>
-      <c r="C230" s="121" t="s">
+      <c r="C230" s="120" t="s">
         <v>907</v>
       </c>
-      <c r="D230" s="125" t="s">
+      <c r="D230" s="124" t="s">
         <v>904</v>
       </c>
-      <c r="E230" s="124" t="s">
+      <c r="E230" s="123" t="s">
         <v>908</v>
       </c>
-      <c r="F230" s="123"/>
+      <c r="F230" s="122"/>
     </row>
     <row r="231" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A231" s="120" t="s">
+      <c r="A231" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B231" s="120" t="s">
+      <c r="B231" s="119" t="s">
         <v>909</v>
       </c>
-      <c r="C231" s="121" t="s">
+      <c r="C231" s="120" t="s">
         <v>910</v>
       </c>
-      <c r="D231" s="125" t="s">
+      <c r="D231" s="124" t="s">
         <v>911</v>
       </c>
-      <c r="E231" s="124" t="s">
+      <c r="E231" s="123" t="s">
         <v>912</v>
       </c>
-      <c r="F231" s="123"/>
+      <c r="F231" s="122"/>
     </row>
     <row r="232" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A232" s="120" t="s">
+      <c r="A232" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B232" s="120" t="s">
+      <c r="B232" s="119" t="s">
         <v>913</v>
       </c>
-      <c r="C232" s="121" t="s">
+      <c r="C232" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="D232" s="125" t="s">
+      <c r="D232" s="124" t="s">
         <v>914</v>
       </c>
-      <c r="E232" s="124" t="s">
+      <c r="E232" s="123" t="s">
         <v>325</v>
       </c>
-      <c r="F232" s="123"/>
+      <c r="F232" s="122"/>
     </row>
     <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A233" s="120" t="s">
+      <c r="A233" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B233" s="120" t="s">
+      <c r="B233" s="119" t="s">
         <v>915</v>
       </c>
-      <c r="C233" s="121" t="s">
+      <c r="C233" s="120" t="s">
         <v>916</v>
       </c>
-      <c r="D233" s="125" t="s">
+      <c r="D233" s="124" t="s">
         <v>917</v>
       </c>
-      <c r="E233" s="124" t="s">
+      <c r="E233" s="123" t="s">
         <v>918</v>
       </c>
-      <c r="F233" s="123"/>
+      <c r="F233" s="122"/>
     </row>
     <row r="234" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A234" s="120" t="s">
+      <c r="A234" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B234" s="120" t="s">
+      <c r="B234" s="119" t="s">
         <v>919</v>
       </c>
-      <c r="C234" s="121" t="s">
+      <c r="C234" s="120" t="s">
         <v>920</v>
       </c>
-      <c r="D234" s="125" t="s">
+      <c r="D234" s="124" t="s">
         <v>921</v>
       </c>
-      <c r="E234" s="124" t="s">
+      <c r="E234" s="123" t="s">
         <v>922</v>
       </c>
-      <c r="F234" s="123"/>
+      <c r="F234" s="122"/>
     </row>
     <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
@@ -14734,6 +14725,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A172:E172"/>
     <mergeCell ref="A155:E155"/>
     <mergeCell ref="A61:E61"/>
@@ -14744,18 +14747,6 @@
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A210:E210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14802,13 +14793,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="170" t="s">
         <v>925</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="172"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -14882,19 +14873,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="95" t="s">
+      <c r="A8" s="94" t="s">
         <v>929</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="95" t="s">
         <v>938</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>939</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="87" t="s">
         <v>940</v>
       </c>
     </row>
@@ -14942,13 +14933,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="170" t="s">
         <v>947</v>
       </c>
-      <c r="B12" s="172"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="172"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
@@ -15019,19 +15010,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="95" t="s">
         <v>962</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="96" t="s">
         <v>963</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="95" t="s">
         <v>954</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="87" t="s">
         <v>964</v>
       </c>
     </row>
@@ -15060,67 +15051,67 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="180" t="s">
+      <c r="A20" s="179" t="s">
         <v>969</v>
       </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="182"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="181"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>970</v>
       </c>
-      <c r="B21" s="95" t="s">
+      <c r="B21" s="94" t="s">
         <v>971</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="82" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="81" t="s">
         <v>974</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="97" t="s">
         <v>975</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="83" t="s">
         <v>976</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83" t="s">
+      <c r="D22" s="81"/>
+      <c r="E22" s="82" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="81" t="s">
         <v>978</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="97" t="s">
         <v>979</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="83" t="s">
         <v>980</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="83" t="s">
+      <c r="D23" s="81"/>
+      <c r="E23" s="82" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="177" t="s">
+      <c r="A24" s="176" t="s">
         <v>982</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="178"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
@@ -15138,13 +15129,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="168" t="s">
+      <c r="A26" s="167" t="s">
         <v>986</v>
       </c>
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="170"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="169"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -15162,28 +15153,28 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="168" t="s">
+      <c r="A28" s="167" t="s">
         <v>990</v>
       </c>
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="170"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
     </row>
     <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="94" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="95" t="s">
         <v>991</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="96" t="s">
         <v>992</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="95" t="s">
         <v>993</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="87" t="s">
         <v>994</v>
       </c>
       <c r="F29" s="72" t="s">
@@ -15191,36 +15182,36 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="98" t="s">
+      <c r="A30" s="97" t="s">
         <v>974</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="98" t="s">
         <v>996</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="99" t="s">
         <v>997</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="98" t="s">
         <v>998</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="92" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="97" t="s">
         <v>1000</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="98" t="s">
         <v>1001</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="99" t="s">
         <v>1002</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="92" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -15292,13 +15283,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="168" t="s">
+      <c r="A37" s="167" t="s">
         <v>1017</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="170"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="169"/>
     </row>
     <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
@@ -15342,25 +15333,25 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="173" t="s">
         <v>1025</v>
       </c>
-      <c r="B41" s="175"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="175"/>
-      <c r="E41" s="176"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="174"/>
+      <c r="E41" s="175"/>
     </row>
     <row r="42" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="119" t="s">
         <v>1026</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="D42" s="120" t="s">
+      <c r="D42" s="119" t="s">
         <v>1027</v>
       </c>
       <c r="E42" s="46" t="s">
@@ -15371,16 +15362,16 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="119" t="s">
         <v>375</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="119" t="s">
         <v>1029</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="D43" s="120" t="s">
+      <c r="D43" s="119" t="s">
         <v>1030</v>
       </c>
       <c r="E43" s="46" t="s">
@@ -15388,16 +15379,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="119" t="s">
         <v>1031</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>1032</v>
       </c>
-      <c r="D44" s="120" t="s">
+      <c r="D44" s="119" t="s">
         <v>1033</v>
       </c>
       <c r="E44" s="46" t="s">
@@ -15405,16 +15396,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="120" t="s">
+      <c r="A45" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="119" t="s">
         <v>1035</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="D45" s="125" t="s">
+      <c r="D45" s="124" t="s">
         <v>1037</v>
       </c>
       <c r="E45" s="46" t="s">
@@ -15422,16 +15413,16 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="119" t="s">
         <v>1038</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>1039</v>
       </c>
-      <c r="D46" s="125" t="s">
+      <c r="D46" s="124" t="s">
         <v>1040</v>
       </c>
       <c r="E46" s="46" t="s">
@@ -15439,16 +15430,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="119" t="s">
         <v>1042</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>1043</v>
       </c>
-      <c r="D47" s="125" t="s">
+      <c r="D47" s="124" t="s">
         <v>1044</v>
       </c>
       <c r="E47" s="46" t="s">
@@ -15456,16 +15447,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="119" t="s">
         <v>1046</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>1047</v>
       </c>
-      <c r="D48" s="125" t="s">
+      <c r="D48" s="124" t="s">
         <v>1048</v>
       </c>
       <c r="E48" s="46" t="s">
@@ -15473,19 +15464,19 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="95" t="s">
         <v>1050</v>
       </c>
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="96" t="s">
         <v>1051</v>
       </c>
-      <c r="D49" s="105" t="s">
+      <c r="D49" s="104" t="s">
         <v>414</v>
       </c>
-      <c r="E49" s="88" t="s">
+      <c r="E49" s="87" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -15538,16 +15529,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="119" t="s">
         <v>1060</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>1061</v>
       </c>
-      <c r="D53" s="125" t="s">
+      <c r="D53" s="124" t="s">
         <v>1062</v>
       </c>
       <c r="F53" s="72" t="s">
@@ -15555,16 +15546,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="120" t="s">
+      <c r="A54" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="B54" s="120" t="s">
+      <c r="B54" s="119" t="s">
         <v>1063</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>1064</v>
       </c>
-      <c r="D54" s="125" t="s">
+      <c r="D54" s="124" t="s">
         <v>1065</v>
       </c>
       <c r="F54" s="72" t="s">
@@ -15622,298 +15613,298 @@
       <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="138" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="139" t="s">
         <v>1066</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="140" t="s">
         <v>1067</v>
       </c>
-      <c r="D2" s="140" t="s">
+      <c r="D2" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="142" t="s">
+      <c r="E2" s="141" t="s">
         <v>1068</v>
       </c>
-      <c r="F2" s="139"/>
+      <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="139" t="s">
         <v>974</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="139" t="s">
         <v>1069</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="140" t="s">
         <v>1070</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="139" t="s">
         <v>1071</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="141" t="s">
         <v>1072</v>
       </c>
-      <c r="F3" s="139"/>
+      <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>1074</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>1075</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>1076</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="141" t="s">
         <v>1077</v>
       </c>
-      <c r="F4" s="139"/>
+      <c r="F4" s="138"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="139" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="142" t="s">
         <v>1078</v>
       </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="139" t="s">
         <v>1079</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="139"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="138"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="139" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="142" t="s">
         <v>1080</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="139" t="s">
         <v>1081</v>
       </c>
-      <c r="E6" s="142"/>
-      <c r="F6" s="139"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>1082</v>
       </c>
-      <c r="C7" s="141" t="s">
+      <c r="C7" s="140" t="s">
         <v>1083</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="139" t="s">
         <v>1084</v>
       </c>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="141" t="s">
         <v>1085</v>
       </c>
-      <c r="F7" s="139"/>
+      <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>1086</v>
       </c>
-      <c r="C8" s="141" t="s">
+      <c r="C8" s="140" t="s">
         <v>1087</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>1088</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="141" t="s">
         <v>1089</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="138"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>1090</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="140" t="s">
         <v>1091</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="139" t="s">
         <v>1092</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="141" t="s">
         <v>1093</v>
       </c>
-      <c r="F9" s="139"/>
+      <c r="F9" s="138"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>1094</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="140" t="s">
         <v>1095</v>
       </c>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="139" t="s">
         <v>1096</v>
       </c>
-      <c r="E10" s="142" t="s">
+      <c r="E10" s="141" t="s">
         <v>1097</v>
       </c>
-      <c r="F10" s="139"/>
+      <c r="F10" s="138"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>1098</v>
       </c>
-      <c r="C11" s="141" t="s">
+      <c r="C11" s="140" t="s">
         <v>1099</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="139" t="s">
         <v>1100</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="139"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="138"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="139" t="s">
         <v>1101</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="140" t="s">
         <v>1102</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="139" t="s">
         <v>1103</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="141" t="s">
         <v>1104</v>
       </c>
-      <c r="F12" s="139"/>
+      <c r="F12" s="138"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="139" t="s">
         <v>421</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>1105</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="141"/>
+      <c r="D13" s="139" t="s">
         <v>1106</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="139"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="138"/>
     </row>
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="140" t="s">
+      <c r="A14" s="139" t="s">
         <v>424</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>1107</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="140" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="139" t="s">
         <v>1081</v>
       </c>
-      <c r="E14" s="142"/>
-      <c r="F14" s="139"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="138"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="139" t="s">
         <v>1108</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="140" t="s">
         <v>1109</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="139" t="s">
         <v>1110</v>
       </c>
-      <c r="E15" s="142" t="s">
+      <c r="E15" s="141" t="s">
         <v>1111</v>
       </c>
-      <c r="F15" s="139"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="140" t="s">
+      <c r="A16" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="139" t="s">
         <v>1112</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="140" t="s">
         <v>1113</v>
       </c>
-      <c r="D16" s="140" t="s">
+      <c r="D16" s="139" t="s">
         <v>1114</v>
       </c>
-      <c r="E16" s="142" t="s">
+      <c r="E16" s="141" t="s">
         <v>1115</v>
       </c>
-      <c r="F16" s="139"/>
+      <c r="F16" s="138"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B17" s="140" t="s">
+      <c r="B17" s="139" t="s">
         <v>1116</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="140" t="s">
         <v>1117</v>
       </c>
-      <c r="D17" s="140" t="s">
+      <c r="D17" s="139" t="s">
         <v>1118</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="141" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="139" t="s">
         <v>1120</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="140" t="s">
         <v>1121</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>1122</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="141" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="139" t="s">
         <v>421</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -15923,10 +15914,10 @@
       <c r="D19" s="18" t="s">
         <v>1125</v>
       </c>
-      <c r="E19" s="142"/>
+      <c r="E19" s="141"/>
     </row>
     <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="139" t="s">
         <v>424</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -15936,10 +15927,10 @@
       <c r="D20" s="18" t="s">
         <v>1081</v>
       </c>
-      <c r="E20" s="142"/>
+      <c r="E20" s="141"/>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="139" t="s">
         <v>424</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -15949,53 +15940,53 @@
       <c r="D21" s="18" t="s">
         <v>1128</v>
       </c>
-      <c r="E21" s="142"/>
+      <c r="E21" s="141"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="139" t="s">
         <v>1129</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="139" t="s">
         <v>1130</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="140" t="s">
         <v>1131</v>
       </c>
-      <c r="D22" s="140" t="s">
+      <c r="D22" s="139" t="s">
         <v>1132</v>
       </c>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="141" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="140" t="s">
+      <c r="A23" s="139" t="s">
         <v>421</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>1134</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="140" t="s">
+      <c r="D23" s="139" t="s">
         <v>1135</v>
       </c>
-      <c r="E23" s="142"/>
+      <c r="E23" s="141"/>
     </row>
     <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="139" t="s">
         <v>424</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>1136</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="140" t="s">
+      <c r="D24" s="139" t="s">
         <v>1137</v>
       </c>
-      <c r="E24" s="142"/>
+      <c r="E24" s="141"/>
     </row>
     <row r="25" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="139" t="s">
         <v>424</v>
       </c>
       <c r="B25" s="28" t="s">
@@ -16005,82 +15996,82 @@
       <c r="D25" s="29" t="s">
         <v>1139</v>
       </c>
-      <c r="E25" s="142"/>
+      <c r="E25" s="141"/>
     </row>
     <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="140" t="s">
+      <c r="A26" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="139" t="s">
         <v>1140</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="140" t="s">
         <v>1141</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="139" t="s">
         <v>1100</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="141" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="139" t="s">
         <v>1073</v>
       </c>
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="139" t="s">
         <v>1143</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="140" t="s">
         <v>1144</v>
       </c>
-      <c r="D27" s="140" t="s">
+      <c r="D27" s="139" t="s">
         <v>1145</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="141" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="182" t="s">
         <v>1147</v>
       </c>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="184"/>
     </row>
     <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="143" t="s">
         <v>243</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="144" t="s">
         <v>1148</v>
       </c>
-      <c r="C29" s="146" t="s">
+      <c r="C29" s="145" t="s">
         <v>1149</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="E29" s="147" t="s">
+      <c r="E29" s="146" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="147" t="s">
         <v>1152</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="147" t="s">
         <v>1153</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="148" t="s">
         <v>1154</v>
       </c>
-      <c r="D30" s="148" t="s">
+      <c r="D30" s="147" t="s">
         <v>1155</v>
       </c>
-      <c r="E30" s="150" t="s">
+      <c r="E30" s="149" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -16095,7 +16086,7 @@
       <c r="D31" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="E31" s="150"/>
+      <c r="E31" s="149"/>
     </row>
     <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
@@ -16108,142 +16099,142 @@
       <c r="D32" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="E32" s="150"/>
+      <c r="E32" s="149"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186" t="s">
+      <c r="A33" s="185" t="s">
         <v>1159</v>
       </c>
-      <c r="B33" s="187"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="189"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="187"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="188"/>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="150" t="s">
         <v>1160</v>
       </c>
-      <c r="C34" s="149" t="s">
+      <c r="C34" s="148" t="s">
         <v>1161</v>
       </c>
       <c r="D34" s="50" t="s">
         <v>1162</v>
       </c>
-      <c r="E34" s="150" t="s">
+      <c r="E34" s="149" t="s">
         <v>1163</v>
       </c>
-      <c r="F34" s="139"/>
+      <c r="F34" s="138"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="148" t="s">
+      <c r="A35" s="147" t="s">
         <v>1073</v>
       </c>
-      <c r="B35" s="152" t="s">
+      <c r="B35" s="151" t="s">
         <v>1164</v>
       </c>
-      <c r="C35" s="149" t="s">
+      <c r="C35" s="148" t="s">
         <v>1165</v>
       </c>
-      <c r="D35" s="153" t="s">
+      <c r="D35" s="152" t="s">
         <v>1166</v>
       </c>
-      <c r="E35" s="150" t="s">
+      <c r="E35" s="149" t="s">
         <v>1167</v>
       </c>
-      <c r="F35" s="139"/>
+      <c r="F35" s="138"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="147" t="s">
         <v>1073</v>
       </c>
-      <c r="B36" s="152" t="s">
+      <c r="B36" s="151" t="s">
         <v>1168</v>
       </c>
-      <c r="C36" s="149" t="s">
+      <c r="C36" s="148" t="s">
         <v>1169</v>
       </c>
-      <c r="D36" s="153" t="s">
+      <c r="D36" s="152" t="s">
         <v>1166</v>
       </c>
-      <c r="E36" s="150" t="s">
+      <c r="E36" s="149" t="s">
         <v>1170</v>
       </c>
-      <c r="F36" s="139"/>
+      <c r="F36" s="138"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="148" t="s">
+      <c r="A37" s="147" t="s">
         <v>1073</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="151" t="s">
         <v>1171</v>
       </c>
       <c r="C37" s="49" t="s">
         <v>1172</v>
       </c>
-      <c r="D37" s="153" t="s">
+      <c r="D37" s="152" t="s">
         <v>1166</v>
       </c>
-      <c r="E37" s="150" t="s">
+      <c r="E37" s="149" t="s">
         <v>1173</v>
       </c>
-      <c r="F37" s="139"/>
+      <c r="F37" s="138"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="148" t="s">
+      <c r="A38" s="147" t="s">
         <v>1073</v>
       </c>
-      <c r="B38" s="152" t="s">
+      <c r="B38" s="151" t="s">
         <v>1174</v>
       </c>
       <c r="C38" s="49" t="s">
         <v>1175</v>
       </c>
-      <c r="D38" s="153" t="s">
+      <c r="D38" s="152" t="s">
         <v>1166</v>
       </c>
-      <c r="E38" s="150" t="s">
+      <c r="E38" s="149" t="s">
         <v>1176</v>
       </c>
-      <c r="F38" s="139"/>
+      <c r="F38" s="138"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="147" t="s">
         <v>1073</v>
       </c>
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="151" t="s">
         <v>1177</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>1178</v>
       </c>
-      <c r="D39" s="153" t="s">
+      <c r="D39" s="152" t="s">
         <v>1166</v>
       </c>
-      <c r="E39" s="150" t="s">
+      <c r="E39" s="149" t="s">
         <v>1179</v>
       </c>
-      <c r="F39" s="139"/>
+      <c r="F39" s="138"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="148" t="s">
+      <c r="A40" s="147" t="s">
         <v>1073</v>
       </c>
-      <c r="B40" s="152" t="s">
+      <c r="B40" s="151" t="s">
         <v>1180</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="153" t="s">
+      <c r="D40" s="152" t="s">
         <v>1166</v>
       </c>
-      <c r="E40" s="150" t="s">
+      <c r="E40" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="139"/>
+      <c r="F40" s="138"/>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
@@ -16256,8 +16247,8 @@
       <c r="D41" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="139"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="138"/>
     </row>
     <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
@@ -16270,14 +16261,14 @@
       <c r="D42" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="139"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="138"/>
     </row>
     <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="148" t="s">
+      <c r="A43" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="139" t="s">
         <v>1183</v>
       </c>
       <c r="C43" s="62" t="s">
@@ -16286,10 +16277,10 @@
       <c r="D43" s="5" t="s">
         <v>1185</v>
       </c>
-      <c r="E43" s="150" t="s">
+      <c r="E43" s="149" t="s">
         <v>1186</v>
       </c>
-      <c r="F43" s="139"/>
+      <c r="F43" s="138"/>
     </row>
     <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
@@ -16302,8 +16293,8 @@
       <c r="D44" s="18" t="s">
         <v>1023</v>
       </c>
-      <c r="E44" s="150"/>
-      <c r="F44" s="139"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="138"/>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
@@ -16316,29 +16307,29 @@
       <c r="D45" s="18" t="s">
         <v>1016</v>
       </c>
-      <c r="E45" s="150"/>
-      <c r="F45" s="139"/>
+      <c r="E45" s="149"/>
+      <c r="F45" s="138"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="182" t="s">
         <v>1189</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="185"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
     </row>
     <row r="47" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="148" t="s">
+      <c r="A47" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="B47" s="148" t="s">
+      <c r="B47" s="147" t="s">
         <v>1190</v>
       </c>
       <c r="C47" s="62" t="s">
         <v>1191</v>
       </c>
-      <c r="D47" s="120" t="s">
+      <c r="D47" s="119" t="s">
         <v>1192</v>
       </c>
       <c r="E47" s="63" t="s">
@@ -16349,16 +16340,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A48" s="148" t="s">
+      <c r="A48" s="147" t="s">
         <v>1194</v>
       </c>
-      <c r="B48" s="148" t="s">
+      <c r="B48" s="147" t="s">
         <v>1195</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>1196</v>
       </c>
-      <c r="D48" s="120" t="s">
+      <c r="D48" s="119" t="s">
         <v>1197</v>
       </c>
       <c r="E48" s="63" t="s">
@@ -16366,16 +16357,16 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="148" t="s">
+      <c r="A49" s="147" t="s">
         <v>1152</v>
       </c>
-      <c r="B49" s="148" t="s">
+      <c r="B49" s="147" t="s">
         <v>1198</v>
       </c>
       <c r="C49" s="62" t="s">
         <v>1199</v>
       </c>
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="119" t="s">
         <v>1033</v>
       </c>
       <c r="E49" s="63" t="s">
@@ -16386,13 +16377,13 @@
       <c r="A50" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="139" t="s">
         <v>1200</v>
       </c>
-      <c r="C50" s="149" t="s">
+      <c r="C50" s="148" t="s">
         <v>1201</v>
       </c>
-      <c r="D50" s="125" t="s">
+      <c r="D50" s="124" t="s">
         <v>1202</v>
       </c>
       <c r="E50" s="63" t="s">
@@ -16406,13 +16397,13 @@
       <c r="A51" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="139" t="s">
         <v>1204</v>
       </c>
-      <c r="C51" s="149" t="s">
+      <c r="C51" s="148" t="s">
         <v>1205</v>
       </c>
-      <c r="D51" s="125" t="s">
+      <c r="D51" s="124" t="s">
         <v>1206</v>
       </c>
       <c r="E51" s="63" t="s">
@@ -16423,13 +16414,13 @@
       <c r="A52" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="139" t="s">
         <v>1208</v>
       </c>
-      <c r="C52" s="149" t="s">
+      <c r="C52" s="148" t="s">
         <v>1209</v>
       </c>
-      <c r="D52" s="125" t="s">
+      <c r="D52" s="124" t="s">
         <v>1210</v>
       </c>
       <c r="E52" s="63" t="s">
@@ -16440,13 +16431,13 @@
       <c r="A53" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="139" t="s">
         <v>1212</v>
       </c>
-      <c r="C53" s="149" t="s">
+      <c r="C53" s="148" t="s">
         <v>1213</v>
       </c>
-      <c r="D53" s="125" t="s">
+      <c r="D53" s="124" t="s">
         <v>1214</v>
       </c>
       <c r="E53" s="63" t="s">
@@ -16457,13 +16448,13 @@
       <c r="A54" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="139" t="s">
         <v>1216</v>
       </c>
-      <c r="C54" s="149" t="s">
+      <c r="C54" s="148" t="s">
         <v>1217</v>
       </c>
-      <c r="D54" s="125" t="s">
+      <c r="D54" s="124" t="s">
         <v>1218</v>
       </c>
       <c r="E54" s="63" t="s">
@@ -16474,13 +16465,13 @@
       <c r="A55" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="139" t="s">
         <v>1220</v>
       </c>
-      <c r="C55" s="149" t="s">
+      <c r="C55" s="148" t="s">
         <v>1221</v>
       </c>
-      <c r="D55" s="125" t="s">
+      <c r="D55" s="124" t="s">
         <v>1222</v>
       </c>
       <c r="E55" s="63" t="s">
@@ -16494,13 +16485,13 @@
       <c r="A56" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="139" t="s">
         <v>1224</v>
       </c>
-      <c r="C56" s="149" t="s">
+      <c r="C56" s="148" t="s">
         <v>1225</v>
       </c>
-      <c r="D56" s="125" t="s">
+      <c r="D56" s="124" t="s">
         <v>1226</v>
       </c>
       <c r="E56" s="63" t="s">
@@ -16514,13 +16505,13 @@
       <c r="A57" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="139" t="s">
         <v>1229</v>
       </c>
-      <c r="C57" s="149" t="s">
+      <c r="C57" s="148" t="s">
         <v>1230</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="D57" s="124" t="s">
         <v>1231</v>
       </c>
       <c r="E57" s="63" t="s">
@@ -16534,13 +16525,13 @@
       <c r="A58" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="139" t="s">
         <v>1234</v>
       </c>
-      <c r="C58" s="149" t="s">
+      <c r="C58" s="148" t="s">
         <v>1235</v>
       </c>
-      <c r="D58" s="125" t="s">
+      <c r="D58" s="124" t="s">
         <v>1236</v>
       </c>
       <c r="E58" s="63" t="s">
@@ -16554,13 +16545,13 @@
       <c r="A59" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="139" t="s">
         <v>1239</v>
       </c>
-      <c r="C59" s="149" t="s">
+      <c r="C59" s="148" t="s">
         <v>1240</v>
       </c>
-      <c r="D59" s="125" t="s">
+      <c r="D59" s="124" t="s">
         <v>1241</v>
       </c>
       <c r="E59" s="63" t="s">
@@ -16571,13 +16562,13 @@
       <c r="A60" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="139" t="s">
         <v>1243</v>
       </c>
-      <c r="C60" s="149" t="s">
+      <c r="C60" s="148" t="s">
         <v>1244</v>
       </c>
-      <c r="D60" s="125" t="s">
+      <c r="D60" s="124" t="s">
         <v>1245</v>
       </c>
       <c r="E60" s="63" t="s">
@@ -16591,10 +16582,10 @@
       <c r="B61" s="18" t="s">
         <v>1247</v>
       </c>
-      <c r="C61" s="149" t="s">
+      <c r="C61" s="148" t="s">
         <v>1248</v>
       </c>
-      <c r="D61" s="125" t="s">
+      <c r="D61" s="124" t="s">
         <v>1249</v>
       </c>
       <c r="E61" s="63" t="s">
@@ -16605,122 +16596,122 @@
       <c r="A62" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="139" t="s">
         <v>1251</v>
       </c>
-      <c r="C62" s="149" t="s">
+      <c r="C62" s="148" t="s">
         <v>1252</v>
       </c>
-      <c r="D62" s="125" t="s">
+      <c r="D62" s="124" t="s">
         <v>1253</v>
       </c>
-      <c r="E62" s="81" t="s">
+      <c r="E62" s="80" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="148" t="s">
+      <c r="A63" s="147" t="s">
         <v>745</v>
       </c>
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="147" t="s">
         <v>1255</v>
       </c>
-      <c r="C63" s="149" t="s">
+      <c r="C63" s="148" t="s">
         <v>1256</v>
       </c>
-      <c r="D63" s="152"/>
-      <c r="E63" s="80" t="s">
+      <c r="D63" s="151"/>
+      <c r="E63" s="79" t="s">
         <v>1257</v>
       </c>
-      <c r="F63" s="139"/>
+      <c r="F63" s="138"/>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="148" t="s">
+      <c r="A64" s="147" t="s">
         <v>745</v>
       </c>
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="147" t="s">
         <v>1258</v>
       </c>
-      <c r="C64" s="149" t="s">
+      <c r="C64" s="148" t="s">
         <v>1178</v>
       </c>
-      <c r="D64" s="152"/>
-      <c r="E64" s="80" t="s">
+      <c r="D64" s="151"/>
+      <c r="E64" s="79" t="s">
         <v>1179</v>
       </c>
-      <c r="F64" s="139"/>
+      <c r="F64" s="138"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="148" t="s">
+      <c r="A65" s="147" t="s">
         <v>745</v>
       </c>
-      <c r="B65" s="140" t="s">
+      <c r="B65" s="139" t="s">
         <v>1259</v>
       </c>
-      <c r="C65" s="149" t="s">
+      <c r="C65" s="148" t="s">
         <v>1165</v>
       </c>
-      <c r="D65" s="152"/>
-      <c r="E65" s="80" t="s">
+      <c r="D65" s="151"/>
+      <c r="E65" s="79" t="s">
         <v>1167</v>
       </c>
-      <c r="F65" s="139"/>
+      <c r="F65" s="138"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="148"/>
-      <c r="B66" s="148"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="139"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="151"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="138"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="148"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="150"/>
-      <c r="F67" s="139"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="139"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="151"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="138"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="148"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="139"/>
+      <c r="A68" s="147"/>
+      <c r="B68" s="139"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="138"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="148"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="154"/>
-      <c r="F69" s="139"/>
+      <c r="A69" s="147"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="138"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="148"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="139"/>
+      <c r="A71" s="147"/>
+      <c r="B71" s="139"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="138"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="148"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="148"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="139"/>
+      <c r="A72" s="147"/>
+      <c r="B72" s="139"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="138"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="148"/>
-      <c r="B73" s="148"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="139"/>
+      <c r="A73" s="147"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="149"/>
+      <c r="F73" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16768,7 +16759,7 @@
       <c r="E1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="139" t="s">
+      <c r="F1" s="138" t="s">
         <v>6</v>
       </c>
     </row>
@@ -16954,6 +16945,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -16992,15 +16992,6 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17281,6 +17272,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17289,14 +17288,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F2767B-2DC0-D54F-898D-1CEE9B3322F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB276E68-948D-1F48-A916-DDB231A499F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -4228,12 +4228,6 @@
     <t>pmInputLabelReportedToCoroner</t>
   </si>
   <si>
-    <t>This death was reported to the coroner who decided not to investigate</t>
-  </si>
-  <si>
-    <t>Cafodd y farwolaeth hon ei hadrodd i'r crwner a benderfynodd beidio ag ymchwilio</t>
-  </si>
-  <si>
     <t>pmValidationSummaryEmpty</t>
   </si>
   <si>
@@ -5749,13 +5743,19 @@
     <t>Neu rhowch god post ysbyty</t>
   </si>
   <si>
-    <t>008</t>
-  </si>
-  <si>
     <t>This certificate will now be sent to the medical examiner office for review and scrutiny.&lt;br /&gt;&lt;br /&gt;A summary of this certificate can be accessed from your dashboard.</t>
   </si>
   <si>
     <t>You will be contacted by the medical examiner office if, following review and scrutiny of the cause of death the medical examiner requests that you amend this MCCD. You must then sign back in to edit the information on this certificate.&lt;br /&gt;&lt;br /&gt;You will be notified by email when the approved certificate is sent to the local register office.</t>
+  </si>
+  <si>
+    <t>This death was reported to the coroner whose duty to investigate under s1 CJA2009 was not engaged</t>
+  </si>
+  <si>
+    <t>Hysbyswyd y crwner am y farwolaeth hon ac nid oedd ei ddyletswydd i ymchwilio o dan adran 1 o Ddeddf Crwneriaid a Chyfiawnder 2009 yn gymwys</t>
+  </si>
+  <si>
+    <t>009</t>
   </si>
 </sst>
 </file>
@@ -6225,7 +6225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6690,6 +6690,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6699,24 +6717,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6788,6 +6788,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7758,33 +7764,33 @@
         <v>243</v>
       </c>
       <c r="B2" s="95" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D2" s="95" t="s">
         <v>1280</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="E2" s="87" t="s">
         <v>1281</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E2" s="87" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="97" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C3" s="99" t="s">
         <v>1284</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="D3" s="98" t="s">
         <v>1285</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="E3" s="92" t="s">
         <v>1286</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7792,16 +7798,16 @@
         <v>771</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C4" s="99" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D4" s="98" t="s">
         <v>414</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7809,13 +7815,13 @@
         <v>421</v>
       </c>
       <c r="B5" s="108" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C5" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E5" s="92" t="s">
         <v>414</v>
@@ -7826,13 +7832,13 @@
         <v>424</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C6" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E6" s="92" t="s">
         <v>414</v>
@@ -7860,33 +7866,33 @@
         <v>243</v>
       </c>
       <c r="B8" s="98" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D8" s="98" t="s">
         <v>1296</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="E8" s="92" t="s">
         <v>1297</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="97" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B9" s="98" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D9" s="98" t="s">
         <v>1300</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="E9" s="92" t="s">
         <v>1301</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7894,10 +7900,10 @@
         <v>771</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C10" s="99" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D10" s="98" t="s">
         <v>414</v>
@@ -7911,13 +7917,13 @@
         <v>421</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C11" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E11" s="92" t="s">
         <v>414</v>
@@ -7928,13 +7934,13 @@
         <v>424</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C12" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E12" s="92" t="s">
         <v>414</v>
@@ -7962,13 +7968,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="98" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D14" s="98" t="s">
         <v>1308</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D14" s="98" t="s">
-        <v>1310</v>
       </c>
       <c r="E14" s="92" t="s">
         <v>414</v>
@@ -7976,19 +7982,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="97" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B15" s="98" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D15" s="98" t="s">
         <v>1311</v>
       </c>
-      <c r="C15" s="99" t="s">
+      <c r="E15" s="92" t="s">
         <v>1312</v>
-      </c>
-      <c r="D15" s="98" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -7996,13 +8002,13 @@
         <v>421</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C16" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E16" s="92" t="s">
         <v>414</v>
@@ -8013,13 +8019,13 @@
         <v>424</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C17" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E17" s="92" t="s">
         <v>414</v>
@@ -8030,16 +8036,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C18" s="99" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D18" s="98" t="s">
         <v>414</v>
       </c>
       <c r="E18" s="92" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8064,13 +8070,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E20" s="92" t="s">
         <v>414</v>
@@ -8078,16 +8084,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B21" s="98" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D21" s="98" t="s">
         <v>1322</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>1324</v>
       </c>
       <c r="E21" s="92" t="s">
         <v>414</v>
@@ -8098,10 +8104,10 @@
         <v>771</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D22" s="98" t="s">
         <v>414</v>
@@ -8115,13 +8121,13 @@
         <v>421</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C23" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="E23" s="92" t="s">
         <v>414</v>
@@ -8132,13 +8138,13 @@
         <v>424</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C24" s="109" t="s">
         <v>414</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>414</v>
@@ -8153,9 +8159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C2F8F-96ED-4E65-B816-FFFEB93DC889}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8191,7 +8197,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="189" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B2" s="190"/>
       <c r="C2" s="190"/>
@@ -8204,16 +8210,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>1330</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8221,13 +8227,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>1333</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8235,13 +8241,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>1336</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8249,13 +8255,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>1339</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1340</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8263,127 +8269,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>1342</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>1345</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="37" t="s">
         <v>1346</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1347</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="37" t="s">
         <v>1350</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1351</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1353</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>1356</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>1359</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1360</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>1362</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8391,34 +8397,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>1374</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>1376</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="189" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B18" s="190"/>
       <c r="C18" s="190"/>
@@ -8431,16 +8437,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8448,10 +8454,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8459,13 +8465,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -8473,10 +8479,10 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8498,9 +8504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8540,13 +8546,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="102" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F2" s="101"/>
     </row>
@@ -10408,13 +10414,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="158" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10542,13 +10548,13 @@
       <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="161" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="163"/>
       <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12487,7 +12493,7 @@
         <v>723</v>
       </c>
       <c r="C139" s="116" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D139" s="125" t="s">
         <v>724</v>
@@ -12577,7 +12583,7 @@
         <v>738</v>
       </c>
       <c r="C145" s="59" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="D145" s="119" t="s">
         <v>739</v>
@@ -12608,14 +12614,14 @@
         <v>37</v>
       </c>
       <c r="B147" s="119" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C147" s="59" t="s">
         <v>1387</v>
-      </c>
-      <c r="C147" s="59" t="s">
-        <v>1389</v>
       </c>
       <c r="D147" s="119"/>
       <c r="E147" s="123" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F147" s="122"/>
     </row>
@@ -12624,14 +12630,14 @@
         <v>37</v>
       </c>
       <c r="B148" s="119" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C148" s="59" t="s">
         <v>1388</v>
-      </c>
-      <c r="C148" s="59" t="s">
-        <v>1390</v>
       </c>
       <c r="D148" s="119"/>
       <c r="E148" s="123" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F148" s="122"/>
     </row>
@@ -12850,13 +12856,13 @@
       <c r="F162" s="122"/>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="158" t="s">
+      <c r="A163" s="164" t="s">
         <v>778</v>
       </c>
-      <c r="B163" s="159"/>
-      <c r="C163" s="159"/>
-      <c r="D163" s="159"/>
-      <c r="E163" s="160"/>
+      <c r="B163" s="165"/>
+      <c r="C163" s="165"/>
+      <c r="D163" s="165"/>
+      <c r="E163" s="166"/>
       <c r="F163" s="132" t="s">
         <v>779</v>
       </c>
@@ -14725,18 +14731,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A210:E210"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A172:E172"/>
     <mergeCell ref="A155:E155"/>
     <mergeCell ref="A61:E61"/>
@@ -14747,6 +14741,18 @@
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A210:E210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14757,8 +14763,8 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15009,21 +15015,21 @@
         <v>961</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="94" t="s">
         <v>84</v>
       </c>
       <c r="B17" s="95" t="s">
         <v>962</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>963</v>
+      <c r="C17" s="191" t="s">
+        <v>1393</v>
       </c>
       <c r="D17" s="95" t="s">
         <v>954</v>
       </c>
-      <c r="E17" s="87" t="s">
-        <v>964</v>
+      <c r="E17" s="192" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15031,11 +15037,11 @@
         <v>421</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15043,16 +15049,16 @@
         <v>424</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="179" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B20" s="180"/>
       <c r="C20" s="180"/>
@@ -15061,52 +15067,52 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>969</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>970</v>
-      </c>
-      <c r="B21" s="94" t="s">
-        <v>971</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>972</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="82" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
+        <v>972</v>
+      </c>
+      <c r="B22" s="97" t="s">
+        <v>973</v>
+      </c>
+      <c r="C22" s="83" t="s">
         <v>974</v>
-      </c>
-      <c r="B22" s="97" t="s">
-        <v>975</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>976</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="82" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
+        <v>976</v>
+      </c>
+      <c r="B23" s="97" t="s">
+        <v>977</v>
+      </c>
+      <c r="C23" s="83" t="s">
         <v>978</v>
-      </c>
-      <c r="B23" s="97" t="s">
-        <v>979</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>980</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="82" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="176" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B24" s="177"/>
       <c r="C24" s="177"/>
@@ -15118,19 +15124,19 @@
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="167" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B26" s="168"/>
       <c r="C26" s="168"/>
@@ -15142,19 +15148,19 @@
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="167" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B28" s="168"/>
       <c r="C28" s="168"/>
@@ -15166,53 +15172,53 @@
         <v>243</v>
       </c>
       <c r="B29" s="95" t="s">
+        <v>989</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="D29" s="95" t="s">
         <v>991</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="E29" s="87" t="s">
         <v>992</v>
       </c>
-      <c r="D29" s="95" t="s">
+      <c r="F29" s="72" t="s">
         <v>993</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>994</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="97" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B30" s="98" t="s">
+        <v>994</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>995</v>
+      </c>
+      <c r="D30" s="98" t="s">
         <v>996</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="E30" s="92" t="s">
         <v>997</v>
-      </c>
-      <c r="D30" s="98" t="s">
-        <v>998</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="s">
+        <v>998</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>999</v>
+      </c>
+      <c r="C31" s="99" t="s">
         <v>1000</v>
-      </c>
-      <c r="B31" s="98" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C31" s="99" t="s">
-        <v>1002</v>
       </c>
       <c r="D31" s="98" t="s">
         <v>414</v>
       </c>
       <c r="E31" s="92" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15220,13 +15226,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>1004</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15234,16 +15240,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>1007</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="E33" s="46" t="s">
         <v>1008</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15251,11 +15257,11 @@
         <v>421</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15263,11 +15269,11 @@
         <v>421</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15275,16 +15281,16 @@
         <v>424</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="167" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B37" s="168"/>
       <c r="C37" s="168"/>
@@ -15296,16 +15302,16 @@
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="E38" s="46" t="s">
         <v>1019</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15313,11 +15319,11 @@
         <v>421</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15325,16 +15331,16 @@
         <v>424</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="173" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B41" s="174"/>
       <c r="C41" s="174"/>
@@ -15346,19 +15352,19 @@
         <v>243</v>
       </c>
       <c r="B42" s="119" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>876</v>
       </c>
       <c r="D42" s="119" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E42" s="46" t="s">
         <v>878</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15366,13 +15372,13 @@
         <v>375</v>
       </c>
       <c r="B43" s="119" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>936</v>
       </c>
       <c r="D43" s="119" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E43" s="46" t="s">
         <v>937</v>
@@ -15383,16 +15389,16 @@
         <v>261</v>
       </c>
       <c r="B44" s="119" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D44" s="119" t="s">
         <v>1031</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="E44" s="46" t="s">
         <v>1032</v>
-      </c>
-      <c r="D44" s="119" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15400,16 +15406,16 @@
         <v>389</v>
       </c>
       <c r="B45" s="119" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D45" s="124" t="s">
         <v>1035</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D45" s="124" t="s">
-        <v>1037</v>
-      </c>
       <c r="E45" s="46" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15417,16 +15423,16 @@
         <v>389</v>
       </c>
       <c r="B46" s="119" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D46" s="124" t="s">
         <v>1038</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="E46" s="46" t="s">
         <v>1039</v>
-      </c>
-      <c r="D46" s="124" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15434,16 +15440,16 @@
         <v>389</v>
       </c>
       <c r="B47" s="119" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D47" s="124" t="s">
         <v>1042</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="E47" s="46" t="s">
         <v>1043</v>
-      </c>
-      <c r="D47" s="124" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15451,16 +15457,16 @@
         <v>389</v>
       </c>
       <c r="B48" s="119" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D48" s="124" t="s">
         <v>1046</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="E48" s="46" t="s">
         <v>1047</v>
-      </c>
-      <c r="D48" s="124" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15468,16 +15474,16 @@
         <v>389</v>
       </c>
       <c r="B49" s="95" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D49" s="104" t="s">
         <v>414</v>
       </c>
       <c r="E49" s="87" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15485,7 +15491,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -15496,16 +15502,16 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>1054</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>1055</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1057</v>
       </c>
       <c r="F51" s="72" t="s">
         <v>924</v>
@@ -15513,16 +15519,16 @@
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F52" s="72" t="s">
         <v>924</v>
@@ -15533,13 +15539,13 @@
         <v>389</v>
       </c>
       <c r="B53" s="119" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D53" s="124" t="s">
         <v>1060</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D53" s="124" t="s">
-        <v>1062</v>
       </c>
       <c r="F53" s="72" t="s">
         <v>924</v>
@@ -15550,13 +15556,13 @@
         <v>389</v>
       </c>
       <c r="B54" s="119" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D54" s="124" t="s">
         <v>1063</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D54" s="124" t="s">
-        <v>1065</v>
       </c>
       <c r="F54" s="72" t="s">
         <v>924</v>
@@ -15622,52 +15628,52 @@
         <v>243</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D2" s="139" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="141" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="139" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B3" s="139" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D3" s="139" t="s">
         <v>1069</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="E3" s="141" t="s">
         <v>1070</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E3" s="141" t="s">
-        <v>1072</v>
       </c>
       <c r="F3" s="138"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="139" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B4" s="139" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C4" s="140" t="s">
         <v>1073</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="D4" s="139" t="s">
         <v>1074</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="E4" s="141" t="s">
         <v>1075</v>
-      </c>
-      <c r="D4" s="139" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E4" s="141" t="s">
-        <v>1077</v>
       </c>
       <c r="F4" s="138"/>
     </row>
@@ -15676,11 +15682,11 @@
         <v>421</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="139" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E5" s="141"/>
       <c r="F5" s="138"/>
@@ -15690,84 +15696,84 @@
         <v>424</v>
       </c>
       <c r="B6" s="142" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="139" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E6" s="141"/>
       <c r="F6" s="138"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B7" s="139" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C7" s="140" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D7" s="139" t="s">
         <v>1082</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="E7" s="141" t="s">
         <v>1083</v>
-      </c>
-      <c r="D7" s="139" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>1085</v>
       </c>
       <c r="F7" s="138"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B8" s="139" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D8" s="139" t="s">
         <v>1086</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="E8" s="141" t="s">
         <v>1087</v>
-      </c>
-      <c r="D8" s="139" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E8" s="141" t="s">
-        <v>1089</v>
       </c>
       <c r="F8" s="138"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B9" s="139" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D9" s="139" t="s">
         <v>1090</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="E9" s="141" t="s">
         <v>1091</v>
-      </c>
-      <c r="D9" s="139" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E9" s="141" t="s">
-        <v>1093</v>
       </c>
       <c r="F9" s="138"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B10" s="139" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D10" s="139" t="s">
         <v>1094</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="E10" s="141" t="s">
         <v>1095</v>
-      </c>
-      <c r="D10" s="139" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E10" s="141" t="s">
-        <v>1097</v>
       </c>
       <c r="F10" s="138"/>
     </row>
@@ -15776,32 +15782,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="139" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D11" s="139" t="s">
         <v>1098</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D11" s="139" t="s">
-        <v>1100</v>
       </c>
       <c r="E11" s="141"/>
       <c r="F11" s="138"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B12" s="139" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D12" s="139" t="s">
         <v>1101</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="E12" s="141" t="s">
         <v>1102</v>
-      </c>
-      <c r="D12" s="139" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E12" s="141" t="s">
-        <v>1104</v>
       </c>
       <c r="F12" s="138"/>
     </row>
@@ -15810,11 +15816,11 @@
         <v>421</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C13" s="141"/>
       <c r="D13" s="139" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E13" s="141"/>
       <c r="F13" s="138"/>
@@ -15824,83 +15830,83 @@
         <v>424</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C14" s="141"/>
       <c r="D14" s="139" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E14" s="141"/>
       <c r="F14" s="138"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B15" s="139" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D15" s="139" t="s">
         <v>1108</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="E15" s="141" t="s">
         <v>1109</v>
-      </c>
-      <c r="D15" s="139" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E15" s="141" t="s">
-        <v>1111</v>
       </c>
       <c r="F15" s="138"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B16" s="139" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D16" s="139" t="s">
         <v>1112</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="E16" s="141" t="s">
         <v>1113</v>
-      </c>
-      <c r="D16" s="139" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E16" s="141" t="s">
-        <v>1115</v>
       </c>
       <c r="F16" s="138"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B17" s="139" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C17" s="140" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D17" s="139" t="s">
         <v>1116</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="E17" s="141" t="s">
         <v>1117</v>
-      </c>
-      <c r="D17" s="139" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E17" s="141" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B18" s="139" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>1120</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="E18" s="141" t="s">
         <v>1121</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E18" s="141" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -15908,11 +15914,11 @@
         <v>421</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E19" s="141"/>
     </row>
@@ -15921,11 +15927,11 @@
         <v>424</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E20" s="141"/>
     </row>
@@ -15934,29 +15940,29 @@
         <v>424</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E21" s="141"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="139" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C22" s="140" t="s">
         <v>1129</v>
       </c>
-      <c r="B22" s="139" t="s">
+      <c r="D22" s="139" t="s">
         <v>1130</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="E22" s="141" t="s">
         <v>1131</v>
-      </c>
-      <c r="D22" s="139" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E22" s="141" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -15964,11 +15970,11 @@
         <v>421</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="139" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E23" s="141"/>
     </row>
@@ -15977,11 +15983,11 @@
         <v>424</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="139" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E24" s="141"/>
     </row>
@@ -15990,11 +15996,11 @@
         <v>424</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="E25" s="141"/>
     </row>
@@ -16003,38 +16009,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="139" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D26" s="139" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E26" s="141" t="s">
         <v>1140</v>
-      </c>
-      <c r="C26" s="140" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D26" s="139" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E26" s="141" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="139" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B27" s="139" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D27" s="139" t="s">
         <v>1143</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="E27" s="141" t="s">
         <v>1144</v>
-      </c>
-      <c r="D27" s="139" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E27" s="141" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="182" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B28" s="183"/>
       <c r="C28" s="183"/>
@@ -16046,33 +16052,33 @@
         <v>243</v>
       </c>
       <c r="B29" s="144" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C29" s="145" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="E29" s="146" t="s">
         <v>1149</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E29" s="146" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="147" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B30" s="147" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C30" s="148" t="s">
         <v>1152</v>
       </c>
-      <c r="B30" s="147" t="s">
+      <c r="D30" s="147" t="s">
         <v>1153</v>
       </c>
-      <c r="C30" s="148" t="s">
+      <c r="E30" s="149" t="s">
         <v>1154</v>
-      </c>
-      <c r="D30" s="147" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E30" s="149" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16080,11 +16086,11 @@
         <v>421</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E31" s="149"/>
     </row>
@@ -16093,17 +16099,17 @@
         <v>424</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E32" s="149"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="185" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B33" s="186"/>
       <c r="C33" s="187"/>
@@ -16115,121 +16121,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="150" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C34" s="148" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D34" s="50" t="s">
         <v>1160</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="E34" s="149" t="s">
         <v>1161</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E34" s="149" t="s">
-        <v>1163</v>
       </c>
       <c r="F34" s="138"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B35" s="151" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C35" s="148" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D35" s="152" t="s">
         <v>1164</v>
       </c>
-      <c r="C35" s="148" t="s">
+      <c r="E35" s="149" t="s">
         <v>1165</v>
-      </c>
-      <c r="D35" s="152" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E35" s="149" t="s">
-        <v>1167</v>
       </c>
       <c r="F35" s="138"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B36" s="151" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C36" s="148" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E36" s="149" t="s">
         <v>1168</v>
-      </c>
-      <c r="C36" s="148" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D36" s="152" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E36" s="149" t="s">
-        <v>1170</v>
       </c>
       <c r="F36" s="138"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B37" s="151" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E37" s="149" t="s">
         <v>1171</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D37" s="152" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E37" s="149" t="s">
-        <v>1173</v>
       </c>
       <c r="F37" s="138"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B38" s="151" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E38" s="149" t="s">
         <v>1174</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D38" s="152" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E38" s="149" t="s">
-        <v>1176</v>
       </c>
       <c r="F38" s="138"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B39" s="151" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E39" s="149" t="s">
         <v>1177</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D39" s="152" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E39" s="149" t="s">
-        <v>1179</v>
       </c>
       <c r="F39" s="138"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="147" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B40" s="151" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="152" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E40" s="149" t="s">
         <v>95</v>
@@ -16241,11 +16247,11 @@
         <v>421</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E41" s="149"/>
       <c r="F41" s="138"/>
@@ -16255,11 +16261,11 @@
         <v>424</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E42" s="149"/>
       <c r="F42" s="138"/>
@@ -16269,16 +16275,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="139" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="E43" s="149" t="s">
         <v>1184</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E43" s="149" t="s">
-        <v>1186</v>
       </c>
       <c r="F43" s="138"/>
     </row>
@@ -16287,11 +16293,11 @@
         <v>421</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E44" s="149"/>
       <c r="F44" s="138"/>
@@ -16301,18 +16307,18 @@
         <v>424</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E45" s="149"/>
       <c r="F45" s="138"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="182" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B46" s="183"/>
       <c r="C46" s="183"/>
@@ -16324,33 +16330,33 @@
         <v>243</v>
       </c>
       <c r="B47" s="147" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D47" s="119" t="s">
         <v>1190</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D47" s="119" t="s">
-        <v>1192</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>878</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="147" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B48" s="147" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C48" s="62" t="s">
         <v>1194</v>
       </c>
-      <c r="B48" s="147" t="s">
+      <c r="D48" s="119" t="s">
         <v>1195</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D48" s="119" t="s">
-        <v>1197</v>
       </c>
       <c r="E48" s="63" t="s">
         <v>943</v>
@@ -16358,19 +16364,19 @@
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="147" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B49" s="147" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D49" s="119" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16378,19 +16384,19 @@
         <v>389</v>
       </c>
       <c r="B50" s="139" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C50" s="148" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D50" s="124" t="s">
         <v>1200</v>
       </c>
-      <c r="C50" s="148" t="s">
+      <c r="E50" s="63" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F50" s="74" t="s">
         <v>1201</v>
-      </c>
-      <c r="D50" s="124" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16398,16 +16404,16 @@
         <v>389</v>
       </c>
       <c r="B51" s="139" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C51" s="148" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D51" s="124" t="s">
         <v>1204</v>
       </c>
-      <c r="C51" s="148" t="s">
+      <c r="E51" s="63" t="s">
         <v>1205</v>
-      </c>
-      <c r="D51" s="124" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16415,16 +16421,16 @@
         <v>389</v>
       </c>
       <c r="B52" s="139" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C52" s="148" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D52" s="124" t="s">
         <v>1208</v>
       </c>
-      <c r="C52" s="148" t="s">
+      <c r="E52" s="63" t="s">
         <v>1209</v>
-      </c>
-      <c r="D52" s="124" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16432,16 +16438,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="139" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C53" s="148" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D53" s="124" t="s">
         <v>1212</v>
       </c>
-      <c r="C53" s="148" t="s">
+      <c r="E53" s="63" t="s">
         <v>1213</v>
-      </c>
-      <c r="D53" s="124" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16449,16 +16455,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="139" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C54" s="148" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D54" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="C54" s="148" t="s">
+      <c r="E54" s="63" t="s">
         <v>1217</v>
-      </c>
-      <c r="D54" s="124" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16466,19 +16472,19 @@
         <v>389</v>
       </c>
       <c r="B55" s="139" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C55" s="148" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D55" s="124" t="s">
         <v>1220</v>
       </c>
-      <c r="C55" s="148" t="s">
+      <c r="E55" s="63" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F55" s="74" t="s">
         <v>1221</v>
-      </c>
-      <c r="D55" s="124" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16486,19 +16492,19 @@
         <v>389</v>
       </c>
       <c r="B56" s="139" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C56" s="148" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D56" s="124" t="s">
         <v>1224</v>
       </c>
-      <c r="C56" s="148" t="s">
+      <c r="E56" s="63" t="s">
         <v>1225</v>
       </c>
-      <c r="D56" s="124" t="s">
+      <c r="F56" s="74" t="s">
         <v>1226</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16506,19 +16512,19 @@
         <v>389</v>
       </c>
       <c r="B57" s="139" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C57" s="148" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D57" s="124" t="s">
         <v>1229</v>
       </c>
-      <c r="C57" s="148" t="s">
+      <c r="E57" s="63" t="s">
         <v>1230</v>
       </c>
-      <c r="D57" s="124" t="s">
+      <c r="F57" s="74" t="s">
         <v>1231</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16526,19 +16532,19 @@
         <v>389</v>
       </c>
       <c r="B58" s="139" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C58" s="148" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D58" s="124" t="s">
         <v>1234</v>
       </c>
-      <c r="C58" s="148" t="s">
+      <c r="E58" s="63" t="s">
         <v>1235</v>
       </c>
-      <c r="D58" s="124" t="s">
+      <c r="F58" s="74" t="s">
         <v>1236</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>1237</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16546,16 +16552,16 @@
         <v>389</v>
       </c>
       <c r="B59" s="139" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C59" s="148" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D59" s="124" t="s">
         <v>1239</v>
       </c>
-      <c r="C59" s="148" t="s">
+      <c r="E59" s="63" t="s">
         <v>1240</v>
-      </c>
-      <c r="D59" s="124" t="s">
-        <v>1241</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16563,16 +16569,16 @@
         <v>389</v>
       </c>
       <c r="B60" s="139" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C60" s="148" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D60" s="124" t="s">
         <v>1243</v>
       </c>
-      <c r="C60" s="148" t="s">
+      <c r="E60" s="63" t="s">
         <v>1244</v>
-      </c>
-      <c r="D60" s="124" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16580,16 +16586,16 @@
         <v>389</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C61" s="148" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D61" s="124" t="s">
         <v>1247</v>
       </c>
-      <c r="C61" s="148" t="s">
+      <c r="E61" s="63" t="s">
         <v>1248</v>
-      </c>
-      <c r="D61" s="124" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16597,16 +16603,16 @@
         <v>389</v>
       </c>
       <c r="B62" s="139" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C62" s="148" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D62" s="124" t="s">
         <v>1251</v>
       </c>
-      <c r="C62" s="148" t="s">
+      <c r="E62" s="80" t="s">
         <v>1252</v>
-      </c>
-      <c r="D62" s="124" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16614,14 +16620,14 @@
         <v>745</v>
       </c>
       <c r="B63" s="147" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C63" s="148" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D63" s="151"/>
       <c r="E63" s="79" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="F63" s="138"/>
     </row>
@@ -16630,14 +16636,14 @@
         <v>745</v>
       </c>
       <c r="B64" s="147" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C64" s="148" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D64" s="151"/>
       <c r="E64" s="79" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F64" s="138"/>
     </row>
@@ -16646,14 +16652,14 @@
         <v>745</v>
       </c>
       <c r="B65" s="139" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C65" s="148" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D65" s="151"/>
       <c r="E65" s="79" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F65" s="138"/>
     </row>
@@ -16768,16 +16774,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="68" t="s">
         <v>1261</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16785,13 +16791,13 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>930</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>931</v>
@@ -16802,13 +16808,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>881</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>883</v>
@@ -16816,36 +16822,36 @@
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16853,13 +16859,13 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>933</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>934</v>
@@ -16870,7 +16876,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>936</v>
@@ -16882,10 +16888,10 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>942</v>
@@ -16897,22 +16903,22 @@
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1275</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="75" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -16945,15 +16951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -16992,6 +16989,15 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17272,14 +17278,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17288,6 +17286,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB276E68-948D-1F48-A916-DDB231A499F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B99C47-98E5-7D45-872F-FE02B3190973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1400">
   <si>
     <r>
       <rPr>
@@ -5755,7 +5755,19 @@
     <t>Hysbyswyd y crwner am y farwolaeth hon ac nid oedd ei ddyletswydd i ymchwilio o dan adran 1 o Ddeddf Crwneriaid a Chyfiawnder 2009 yn gymwys</t>
   </si>
   <si>
-    <t>009</t>
+    <t>globalSelectDifferentAddress</t>
+  </si>
+  <si>
+    <t>Select a different address</t>
+  </si>
+  <si>
+    <t>globalEnterAddressManually</t>
+  </si>
+  <si>
+    <t>Dewiswch gyfeiriad gwahanol</t>
+  </si>
+  <si>
+    <t>010</t>
   </si>
 </sst>
 </file>
@@ -6678,6 +6690,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6690,6 +6708,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6708,15 +6735,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6788,12 +6806,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7178,538 +7190,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="154"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="154"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="154"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="154"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="154"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="154"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="154"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="154"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="154"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="154"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
+      <c r="A28" s="156"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="154"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="154"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="154"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="154"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="154"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="154"/>
+      <c r="A32" s="156"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="154"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="154"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="154"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="154"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="154"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="154"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="154"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
+      <c r="A38" s="156"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8196,14 +8208,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="191" t="s">
         <v>1327</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -8423,14 +8435,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="191" t="s">
         <v>1376</v>
       </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -8502,11 +8514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8546,13 +8558,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="103" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D2" s="101" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="102" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="F2" s="101"/>
     </row>
@@ -9619,6 +9631,28 @@
       <c r="D66" s="88"/>
       <c r="E66" s="106" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10414,13 +10448,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="163" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10548,13 +10582,13 @@
       <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="166" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="163"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
       <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10612,13 +10646,13 @@
       <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="157" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
       <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10762,13 +10796,13 @@
       <c r="F23" s="122"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="157" t="s">
         <v>446</v>
       </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="158"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="159"/>
       <c r="F24" s="122"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11040,13 +11074,13 @@
       <c r="F42" s="122"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="157" t="s">
         <v>490</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="159"/>
       <c r="F43" s="122"/>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11248,13 +11282,13 @@
       <c r="F56" s="122"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="157" t="s">
         <v>521</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="157"/>
+      <c r="B57" s="158"/>
+      <c r="C57" s="158"/>
+      <c r="D57" s="158"/>
+      <c r="E57" s="159"/>
       <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -11312,13 +11346,13 @@
       <c r="F60" s="122"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="157" t="s">
         <v>536</v>
       </c>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="158"/>
+      <c r="D61" s="158"/>
+      <c r="E61" s="159"/>
       <c r="F61" s="122"/>
     </row>
     <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11368,13 +11402,13 @@
       <c r="F64" s="122"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="157" t="s">
         <v>541</v>
       </c>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="157"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="158"/>
+      <c r="D65" s="158"/>
+      <c r="E65" s="159"/>
       <c r="F65" s="122"/>
     </row>
     <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11606,13 +11640,13 @@
       <c r="F79" s="122"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="155" t="s">
+      <c r="A80" s="157" t="s">
         <v>580</v>
       </c>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="157"/>
+      <c r="B80" s="158"/>
+      <c r="C80" s="158"/>
+      <c r="D80" s="158"/>
+      <c r="E80" s="159"/>
       <c r="F80" s="122"/>
     </row>
     <row r="81" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11764,13 +11798,13 @@
       <c r="F89" s="122"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="155" t="s">
+      <c r="A90" s="157" t="s">
         <v>607</v>
       </c>
-      <c r="B90" s="156"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="157"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="158"/>
+      <c r="D90" s="158"/>
+      <c r="E90" s="159"/>
       <c r="F90" s="122"/>
     </row>
     <row r="91" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12236,13 +12270,13 @@
       <c r="F120" s="122"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="155" t="s">
+      <c r="A121" s="157" t="s">
         <v>694</v>
       </c>
-      <c r="B121" s="156"/>
-      <c r="C121" s="156"/>
-      <c r="D121" s="156"/>
-      <c r="E121" s="157"/>
+      <c r="B121" s="158"/>
+      <c r="C121" s="158"/>
+      <c r="D121" s="158"/>
+      <c r="E121" s="159"/>
       <c r="F121" s="122"/>
     </row>
     <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12430,13 +12464,13 @@
       <c r="F134" s="122"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="155" t="s">
+      <c r="A135" s="157" t="s">
         <v>716</v>
       </c>
-      <c r="B135" s="156"/>
-      <c r="C135" s="156"/>
-      <c r="D135" s="156"/>
-      <c r="E135" s="157"/>
+      <c r="B135" s="158"/>
+      <c r="C135" s="158"/>
+      <c r="D135" s="158"/>
+      <c r="E135" s="159"/>
       <c r="F135" s="122"/>
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12566,13 +12600,13 @@
       <c r="F143" s="122"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="155" t="s">
+      <c r="A144" s="157" t="s">
         <v>737</v>
       </c>
-      <c r="B144" s="156"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="157"/>
+      <c r="B144" s="158"/>
+      <c r="C144" s="158"/>
+      <c r="D144" s="158"/>
+      <c r="E144" s="159"/>
       <c r="F144" s="122"/>
     </row>
     <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12732,13 +12766,13 @@
       <c r="F154" s="122"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="155" t="s">
+      <c r="A155" s="157" t="s">
         <v>758</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="157"/>
+      <c r="B155" s="158"/>
+      <c r="C155" s="158"/>
+      <c r="D155" s="158"/>
+      <c r="E155" s="159"/>
       <c r="F155" s="122"/>
     </row>
     <row r="156" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12856,13 +12890,13 @@
       <c r="F162" s="122"/>
     </row>
     <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="164" t="s">
+      <c r="A163" s="160" t="s">
         <v>778</v>
       </c>
-      <c r="B163" s="165"/>
-      <c r="C163" s="165"/>
-      <c r="D163" s="165"/>
-      <c r="E163" s="166"/>
+      <c r="B163" s="161"/>
+      <c r="C163" s="161"/>
+      <c r="D163" s="161"/>
+      <c r="E163" s="162"/>
       <c r="F163" s="132" t="s">
         <v>779</v>
       </c>
@@ -12988,13 +13022,13 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="155" t="s">
+      <c r="A172" s="157" t="s">
         <v>790</v>
       </c>
-      <c r="B172" s="156"/>
-      <c r="C172" s="156"/>
-      <c r="D172" s="156"/>
-      <c r="E172" s="157"/>
+      <c r="B172" s="158"/>
+      <c r="C172" s="158"/>
+      <c r="D172" s="158"/>
+      <c r="E172" s="159"/>
       <c r="F172" s="122"/>
     </row>
     <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13180,13 +13214,13 @@
       <c r="F183" s="122"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="155" t="s">
+      <c r="A184" s="157" t="s">
         <v>811</v>
       </c>
-      <c r="B184" s="156"/>
-      <c r="C184" s="156"/>
-      <c r="D184" s="156"/>
-      <c r="E184" s="157"/>
+      <c r="B184" s="158"/>
+      <c r="C184" s="158"/>
+      <c r="D184" s="158"/>
+      <c r="E184" s="159"/>
       <c r="F184" s="122"/>
     </row>
     <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13236,13 +13270,13 @@
       <c r="F187" s="122"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="155" t="s">
+      <c r="A188" s="157" t="s">
         <v>819</v>
       </c>
-      <c r="B188" s="156"/>
-      <c r="C188" s="156"/>
-      <c r="D188" s="156"/>
-      <c r="E188" s="157"/>
+      <c r="B188" s="158"/>
+      <c r="C188" s="158"/>
+      <c r="D188" s="158"/>
+      <c r="E188" s="159"/>
       <c r="F188" s="122"/>
     </row>
     <row r="189" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -13328,13 +13362,13 @@
       <c r="F193" s="122"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="155" t="s">
+      <c r="A194" s="157" t="s">
         <v>836</v>
       </c>
-      <c r="B194" s="156"/>
-      <c r="C194" s="156"/>
-      <c r="D194" s="156"/>
-      <c r="E194" s="157"/>
+      <c r="B194" s="158"/>
+      <c r="C194" s="158"/>
+      <c r="D194" s="158"/>
+      <c r="E194" s="159"/>
       <c r="F194" s="122"/>
     </row>
     <row r="195" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13474,13 +13508,13 @@
       <c r="F203" s="122"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="155" t="s">
+      <c r="A204" s="157" t="s">
         <v>850</v>
       </c>
-      <c r="B204" s="156"/>
-      <c r="C204" s="156"/>
-      <c r="D204" s="156"/>
-      <c r="E204" s="157"/>
+      <c r="B204" s="158"/>
+      <c r="C204" s="158"/>
+      <c r="D204" s="158"/>
+      <c r="E204" s="159"/>
       <c r="F204" s="122"/>
     </row>
     <row r="205" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13566,13 +13600,13 @@
       <c r="F209" s="122"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="155" t="s">
+      <c r="A210" s="157" t="s">
         <v>860</v>
       </c>
-      <c r="B210" s="156"/>
-      <c r="C210" s="156"/>
-      <c r="D210" s="156"/>
-      <c r="E210" s="157"/>
+      <c r="B210" s="158"/>
+      <c r="C210" s="158"/>
+      <c r="D210" s="158"/>
+      <c r="E210" s="159"/>
       <c r="F210" s="122"/>
     </row>
     <row r="211" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13730,13 +13764,13 @@
       <c r="F220" s="122"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="155" t="s">
+      <c r="A221" s="157" t="s">
         <v>874</v>
       </c>
-      <c r="B221" s="156"/>
-      <c r="C221" s="156"/>
-      <c r="D221" s="156"/>
-      <c r="E221" s="157"/>
+      <c r="B221" s="158"/>
+      <c r="C221" s="158"/>
+      <c r="D221" s="158"/>
+      <c r="E221" s="159"/>
       <c r="F221" s="122"/>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14731,6 +14765,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A221:E221"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A194:E194"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A172:E172"/>
     <mergeCell ref="A155:E155"/>
     <mergeCell ref="A61:E61"/>
@@ -14741,18 +14787,6 @@
     <mergeCell ref="A144:E144"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A210:E210"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14799,13 +14833,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="172" t="s">
         <v>925</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
@@ -14939,13 +14973,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170" t="s">
+      <c r="A12" s="172" t="s">
         <v>947</v>
       </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="174"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
@@ -15022,13 +15056,13 @@
       <c r="B17" s="95" t="s">
         <v>962</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="154" t="s">
         <v>1393</v>
       </c>
       <c r="D17" s="95" t="s">
         <v>954</v>
       </c>
-      <c r="E17" s="192" t="s">
+      <c r="E17" s="155" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -15057,13 +15091,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="181" t="s">
         <v>967</v>
       </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="181"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="183"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -15111,13 +15145,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="178" t="s">
         <v>980</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="180"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
@@ -15135,13 +15169,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="167" t="s">
+      <c r="A26" s="169" t="s">
         <v>984</v>
       </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="171"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
@@ -15159,13 +15193,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="169" t="s">
         <v>988</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
     </row>
     <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="94" t="s">
@@ -15289,13 +15323,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="167" t="s">
+      <c r="A37" s="169" t="s">
         <v>1015</v>
       </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="171"/>
     </row>
     <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
@@ -15339,13 +15373,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="175" t="s">
         <v>1023</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="175"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="177"/>
     </row>
     <row r="42" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="119" t="s">
@@ -16039,13 +16073,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="184" t="s">
         <v>1145</v>
       </c>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
     </row>
     <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="143" t="s">
@@ -16108,13 +16142,13 @@
       <c r="E32" s="149"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="187" t="s">
         <v>1157</v>
       </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="188"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="190"/>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="147" t="s">
@@ -16317,13 +16351,13 @@
       <c r="F45" s="138"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="182" t="s">
+      <c r="A46" s="184" t="s">
         <v>1187</v>
       </c>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
     </row>
     <row r="47" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="147" t="s">
@@ -16951,6 +16985,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -16989,15 +17032,6 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17278,6 +17312,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17286,14 +17328,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FDCCE7-683C-D348-AA19-E33AC21BD6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F62DB-7B51-3148-9304-189BED334D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1406">
   <si>
     <r>
       <rPr>
@@ -2402,9 +2402,6 @@
     <t>Hint text giving an example of the type of response expected for place of birth</t>
   </si>
   <si>
-    <t>Er enghraifft, Ysbyty Brenhinol Victoria, Newcastle</t>
-  </si>
-  <si>
     <t>Triage under 24 hours (U28 form)</t>
   </si>
   <si>
@@ -3734,33 +3731,7 @@
     <t>dpdApproximateLocationHint</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">For example, in Castle Park, Bingley near the fountain </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(updated content)</t>
-    </r>
-  </si>
-  <si>
     <t>Hint text giving an example of the type of response expected for approximate place of death</t>
-  </si>
-  <si>
-    <t>Er enghraifft, ym Mharc y Castell, Bingley ger y ffynnon</t>
   </si>
   <si>
     <t>dpdApproximateLocationValidationSummaryEmpty</t>
@@ -5767,7 +5738,34 @@
     <t>Na, roedd yr ymadawedig yn oedolyn neu'n blentyn 28 diwrnod oed neu drosodd</t>
   </si>
   <si>
-    <t>011</t>
+    <t xml:space="preserve">For example, in Castle Park, Bingley near the fountain </t>
+  </si>
+  <si>
+    <t>dpdApproximateLocationHintWelsh</t>
+  </si>
+  <si>
+    <t>For example, in Parc Llyn Hendre, Caerdydd yn agos at mannau gwylio</t>
+  </si>
+  <si>
+    <t>Er enghraifft, in Parc Llyn Hendre, Caerdydd yn agos at mannau gwylio</t>
+  </si>
+  <si>
+    <t>Er enghraifft, in Castle Park, Bingley near the fountain</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>dpdPlaceOfBirthHintWelsh</t>
+  </si>
+  <si>
+    <t>Er enghraifft, Ysbyty Athrofaol Cymru (YAC), Caerdydd</t>
+  </si>
+  <si>
+    <t>For example, Ysbyty Athrofaol Cymru (YAC), Caerdydd</t>
+  </si>
+  <si>
+    <t>Er enghraifft, Royal Victoria Infirmary, Newcastle</t>
   </si>
 </sst>
 </file>
@@ -6690,6 +6688,15 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6800,15 +6807,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7193,538 +7191,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="154" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="154"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
+      <c r="A2" s="157"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="157"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
+      <c r="I4" s="157"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="157"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="154"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
-      <c r="K5" s="154"/>
-      <c r="L5" s="154"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="157"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="154"/>
-      <c r="L6" s="154"/>
+      <c r="A6" s="157"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="154"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="157"/>
+      <c r="C8" s="157"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="154"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="154"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="154"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="154"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="157"/>
+      <c r="L18" s="157"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="154"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="154"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="154"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="154"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="154"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="154"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="154"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="154"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="154"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="154"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
+      <c r="A24" s="157"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="154"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
+      <c r="L25" s="157"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="154"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="154"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="154"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="154"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="157"/>
+      <c r="L27" s="157"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="154"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="154"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="154"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="157"/>
+      <c r="C28" s="157"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="157"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="154"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="154"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="154"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="154"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="154"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="154"/>
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="157"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="154"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="154"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="154"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="154"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="154"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="154"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="157"/>
+      <c r="L32" s="157"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="154"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="154"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="154"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="157"/>
+      <c r="K33" s="157"/>
+      <c r="L33" s="157"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="154"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="154"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
+      <c r="L34" s="157"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="154"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="154"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="154"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
+      <c r="K35" s="157"/>
+      <c r="L35" s="157"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="154"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="154"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="154"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="154"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="154"/>
-      <c r="L37" s="154"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="154"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="157"/>
+      <c r="L38" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7779,50 +7777,50 @@
         <v>243</v>
       </c>
       <c r="B2" s="93" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E2" s="86" t="s">
         <v>1274</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D3" s="96" t="s">
         <v>1278</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="E3" s="90" t="s">
         <v>1279</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D4" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7830,13 +7828,13 @@
         <v>417</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E5" s="90" t="s">
         <v>411</v>
@@ -7847,13 +7845,13 @@
         <v>420</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E6" s="90" t="s">
         <v>411</v>
@@ -7881,44 +7879,44 @@
         <v>243</v>
       </c>
       <c r="B8" s="96" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E8" s="90" t="s">
         <v>1290</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>1292</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B9" s="96" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E9" s="90" t="s">
         <v>1294</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>411</v>
@@ -7932,13 +7930,13 @@
         <v>417</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E11" s="90" t="s">
         <v>411</v>
@@ -7949,13 +7947,13 @@
         <v>420</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E12" s="90" t="s">
         <v>411</v>
@@ -7983,13 +7981,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E14" s="90" t="s">
         <v>411</v>
@@ -7997,19 +7995,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B15" s="96" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E15" s="90" t="s">
         <v>1305</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8017,13 +8015,13 @@
         <v>417</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E16" s="90" t="s">
         <v>411</v>
@@ -8034,13 +8032,13 @@
         <v>420</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E17" s="90" t="s">
         <v>411</v>
@@ -8051,16 +8049,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D18" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8085,13 +8083,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="E20" s="90" t="s">
         <v>411</v>
@@ -8099,16 +8097,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E21" s="90" t="s">
         <v>411</v>
@@ -8116,13 +8114,13 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>411</v>
@@ -8136,13 +8134,13 @@
         <v>417</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E23" s="90" t="s">
         <v>411</v>
@@ -8153,13 +8151,13 @@
         <v>420</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E24" s="90" t="s">
         <v>411</v>
@@ -8211,30 +8209,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="189" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="A2" s="192" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8242,13 +8240,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8256,13 +8254,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8270,13 +8268,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8284,127 +8282,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>1339</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>1343</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8412,56 +8410,56 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="189" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B18" s="190"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
+      <c r="A18" s="192" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B18" s="193"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8469,10 +8467,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8480,13 +8478,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -8494,10 +8492,10 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8521,7 +8519,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8561,13 +8559,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F2" s="99"/>
     </row>
@@ -9638,18 +9636,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>1391</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10412,11 +10410,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
-  <dimension ref="A1:F341"/>
+  <dimension ref="A1:F343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10451,13 +10449,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="161" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10585,13 +10583,13 @@
       <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="161" t="s">
+      <c r="A10" s="164" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="163"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10619,14 +10617,14 @@
       <c r="B12" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="191" t="s">
-        <v>1395</v>
+      <c r="C12" s="154" t="s">
+        <v>1392</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>409</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="F12" s="87"/>
     </row>
@@ -10637,25 +10635,25 @@
       <c r="B13" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="192" t="s">
-        <v>1397</v>
+      <c r="C13" s="155" t="s">
+        <v>1394</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="E13" s="193" t="s">
-        <v>1398</v>
+      <c r="E13" s="156" t="s">
+        <v>1395</v>
       </c>
       <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="158" t="s">
         <v>412</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="160"/>
       <c r="F14" s="120"/>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10799,13 +10797,13 @@
       <c r="F23" s="120"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="155" t="s">
+      <c r="A24" s="158" t="s">
         <v>442</v>
       </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="160"/>
       <c r="F24" s="120"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11077,13 +11075,13 @@
       <c r="F42" s="120"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="158" t="s">
         <v>486</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="157"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="160"/>
       <c r="F43" s="120"/>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11285,13 +11283,13 @@
       <c r="F56" s="120"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="155" t="s">
+      <c r="A57" s="158" t="s">
         <v>517</v>
       </c>
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="157"/>
+      <c r="B57" s="159"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="160"/>
       <c r="F57" s="120"/>
     </row>
     <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -11344,127 +11342,125 @@
         <v>530</v>
       </c>
       <c r="E60" s="121" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F60" s="120"/>
+    </row>
+    <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="117" t="s">
+        <v>527</v>
+      </c>
+      <c r="B61" s="117" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C61" s="118" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D61" s="117"/>
+      <c r="E61" s="121" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F61" s="120"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="158" t="s">
         <v>531</v>
       </c>
-      <c r="F60" s="120"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="155" t="s">
-        <v>532</v>
-      </c>
-      <c r="B61" s="156"/>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="120"/>
-    </row>
-    <row r="62" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A62" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B62" s="117" t="s">
-        <v>533</v>
-      </c>
-      <c r="C62" s="118" t="s">
-        <v>534</v>
-      </c>
-      <c r="D62" s="117" t="s">
-        <v>535</v>
-      </c>
-      <c r="E62" s="121" t="s">
-        <v>536</v>
-      </c>
+      <c r="B62" s="159"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="160"/>
       <c r="F62" s="120"/>
     </row>
     <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A63" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="117" t="s">
+        <v>532</v>
+      </c>
+      <c r="C63" s="118" t="s">
+        <v>533</v>
+      </c>
+      <c r="D63" s="117" t="s">
+        <v>534</v>
+      </c>
+      <c r="E63" s="121" t="s">
+        <v>535</v>
+      </c>
+      <c r="F63" s="120"/>
+    </row>
+    <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B63" s="117" t="s">
+      <c r="B64" s="117" t="s">
         <v>418</v>
-      </c>
-      <c r="C63" s="121"/>
-      <c r="D63" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="E63" s="121"/>
-      <c r="F63" s="120"/>
-    </row>
-    <row r="64" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A64" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B64" s="117" t="s">
-        <v>421</v>
       </c>
       <c r="C64" s="121"/>
       <c r="D64" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E64" s="121"/>
       <c r="F64" s="120"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="155" t="s">
+    <row r="65" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A65" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B65" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="C65" s="121"/>
+      <c r="D65" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E65" s="121"/>
+      <c r="F65" s="120"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="158" t="s">
+        <v>536</v>
+      </c>
+      <c r="B66" s="159"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="160"/>
+      <c r="F66" s="120"/>
+    </row>
+    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A67" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="117" t="s">
         <v>537</v>
       </c>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="120"/>
-    </row>
-    <row r="66" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A66" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="117" t="s">
+      <c r="C67" s="118" t="s">
         <v>538</v>
       </c>
-      <c r="C66" s="118" t="s">
+      <c r="D67" s="117" t="s">
         <v>539</v>
       </c>
-      <c r="D66" s="117" t="s">
+      <c r="E67" s="121" t="s">
         <v>540</v>
       </c>
-      <c r="E66" s="121" t="s">
+      <c r="F67" s="120"/>
+    </row>
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="B68" s="93" t="s">
         <v>541</v>
       </c>
-      <c r="F66" s="120"/>
-    </row>
-    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="92" t="s">
-        <v>423</v>
-      </c>
-      <c r="B67" s="93" t="s">
+      <c r="C68" s="94" t="s">
         <v>542</v>
       </c>
-      <c r="C67" s="94" t="s">
+      <c r="D68" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E68" s="86" t="s">
         <v>543</v>
-      </c>
-      <c r="D67" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E67" s="86" t="s">
-        <v>544</v>
-      </c>
-      <c r="F67" s="120"/>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="B68" s="96" t="s">
-        <v>545</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>546</v>
-      </c>
-      <c r="D68" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E68" s="90" t="s">
-        <v>547</v>
       </c>
       <c r="F68" s="120"/>
     </row>
@@ -11473,16 +11469,16 @@
         <v>423</v>
       </c>
       <c r="B69" s="96" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D69" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E69" s="90" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F69" s="120"/>
     </row>
@@ -11491,16 +11487,16 @@
         <v>423</v>
       </c>
       <c r="B70" s="96" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D70" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E70" s="90" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F70" s="120"/>
     </row>
@@ -11509,214 +11505,216 @@
         <v>423</v>
       </c>
       <c r="B71" s="96" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D71" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E71" s="90" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="95" t="s">
-        <v>557</v>
+        <v>423</v>
       </c>
       <c r="B72" s="96" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D72" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E72" s="90" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="F72" s="120"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="95" t="s">
+        <v>556</v>
+      </c>
+      <c r="B73" s="96" t="s">
         <v>557</v>
       </c>
-      <c r="B73" s="96" t="s">
-        <v>561</v>
-      </c>
       <c r="C73" s="97" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D73" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E73" s="90" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F73" s="120"/>
     </row>
-    <row r="74" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A74" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B74" s="117" t="s">
-        <v>564</v>
-      </c>
-      <c r="C74" s="121"/>
-      <c r="D74" s="20" t="s">
-        <v>565</v>
-      </c>
-      <c r="E74" s="121"/>
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="95" t="s">
+        <v>556</v>
+      </c>
+      <c r="B74" s="96" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>561</v>
+      </c>
+      <c r="D74" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="E74" s="90" t="s">
+        <v>562</v>
+      </c>
       <c r="F74" s="120"/>
     </row>
     <row r="75" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B75" s="117" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C75" s="121"/>
       <c r="D75" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E75" s="121"/>
       <c r="F75" s="120"/>
     </row>
-    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C76" s="121"/>
       <c r="D76" s="20" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E76" s="121"/>
       <c r="F76" s="120"/>
     </row>
-    <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C77" s="121"/>
       <c r="D77" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="120"/>
     </row>
-    <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C78" s="121"/>
       <c r="D78" s="20" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E78" s="121"/>
       <c r="F78" s="120"/>
     </row>
-    <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C79" s="121"/>
       <c r="D79" s="20" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E79" s="121"/>
       <c r="F79" s="120"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="155" t="s">
-        <v>576</v>
-      </c>
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
-      <c r="E80" s="157"/>
+    <row r="80" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A80" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B80" s="117" t="s">
+        <v>573</v>
+      </c>
+      <c r="C80" s="121"/>
+      <c r="D80" s="20" t="s">
+        <v>574</v>
+      </c>
+      <c r="E80" s="121"/>
       <c r="F80" s="120"/>
     </row>
-    <row r="81" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B81" s="117" t="s">
-        <v>577</v>
-      </c>
-      <c r="C81" s="118" t="s">
-        <v>578</v>
-      </c>
-      <c r="D81" s="117" t="s">
-        <v>579</v>
-      </c>
-      <c r="E81" s="121" t="s">
-        <v>580</v>
-      </c>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="158" t="s">
+        <v>575</v>
+      </c>
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="159"/>
+      <c r="E81" s="160"/>
       <c r="F81" s="120"/>
     </row>
     <row r="82" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="117" t="s">
-        <v>527</v>
+        <v>243</v>
       </c>
       <c r="B82" s="117" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C82" s="118" t="s">
-        <v>582</v>
-      </c>
-      <c r="D82" s="117"/>
+        <v>577</v>
+      </c>
+      <c r="D82" s="117" t="s">
+        <v>578</v>
+      </c>
       <c r="E82" s="121" t="s">
-        <v>583</v>
-      </c>
-      <c r="F82" s="120" t="s">
-        <v>584</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="F82" s="120"/>
     </row>
     <row r="83" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="117" t="s">
-        <v>84</v>
+        <v>527</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C83" s="118" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D83" s="117"/>
       <c r="E83" s="121" t="s">
-        <v>587</v>
-      </c>
-      <c r="F83" s="120"/>
+        <v>582</v>
+      </c>
+      <c r="F83" s="120" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="84" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>588</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>589</v>
+        <v>584</v>
+      </c>
+      <c r="C84" s="118" t="s">
+        <v>585</v>
       </c>
       <c r="D84" s="117"/>
       <c r="E84" s="121" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F84" s="120"/>
     </row>
@@ -11725,14 +11723,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>591</v>
-      </c>
-      <c r="C85" s="118" t="s">
-        <v>592</v>
+        <v>587</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>588</v>
       </c>
       <c r="D85" s="117"/>
       <c r="E85" s="121" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F85" s="120"/>
     </row>
@@ -11741,14 +11739,14 @@
         <v>84</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C86" s="118" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D86" s="117"/>
       <c r="E86" s="121" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F86" s="120"/>
     </row>
@@ -11757,166 +11755,164 @@
         <v>84</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C87" s="118" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D87" s="117"/>
       <c r="E87" s="121" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F87" s="120"/>
     </row>
     <row r="88" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="117" t="s">
-        <v>498</v>
+        <v>84</v>
       </c>
       <c r="B88" s="117" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C88" s="118" t="s">
-        <v>500</v>
+        <v>597</v>
       </c>
       <c r="D88" s="117"/>
       <c r="E88" s="121" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F88" s="120"/>
     </row>
     <row r="89" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="117" t="s">
-        <v>84</v>
+        <v>498</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C89" s="118" t="s">
-        <v>93</v>
+        <v>500</v>
       </c>
       <c r="D89" s="117"/>
       <c r="E89" s="121" t="s">
+        <v>600</v>
+      </c>
+      <c r="F89" s="120"/>
+    </row>
+    <row r="90" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="C90" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="117"/>
+      <c r="E90" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="F89" s="120"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="155" t="s">
+      <c r="F90" s="120"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="158" t="s">
+        <v>602</v>
+      </c>
+      <c r="B91" s="159"/>
+      <c r="C91" s="159"/>
+      <c r="D91" s="159"/>
+      <c r="E91" s="160"/>
+      <c r="F91" s="120"/>
+    </row>
+    <row r="92" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="117" t="s">
         <v>603</v>
       </c>
-      <c r="B90" s="156"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
-      <c r="E90" s="157"/>
-      <c r="F90" s="120"/>
-    </row>
-    <row r="91" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A91" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B91" s="117" t="s">
+      <c r="C92" s="118" t="s">
         <v>604</v>
       </c>
-      <c r="C91" s="118" t="s">
+      <c r="D92" s="117" t="s">
         <v>605</v>
       </c>
-      <c r="D91" s="117" t="s">
+      <c r="E92" s="121" t="s">
         <v>606</v>
       </c>
-      <c r="E91" s="121" t="s">
+      <c r="F92" s="120"/>
+    </row>
+    <row r="93" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="117" t="s">
+        <v>527</v>
+      </c>
+      <c r="B93" s="117" t="s">
         <v>607</v>
       </c>
-      <c r="F91" s="120"/>
-    </row>
-    <row r="92" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="117" t="s">
-        <v>527</v>
-      </c>
-      <c r="B92" s="117" t="s">
+      <c r="C93" s="118" t="s">
+        <v>581</v>
+      </c>
+      <c r="D93" s="117"/>
+      <c r="E93" s="121" t="s">
+        <v>582</v>
+      </c>
+      <c r="F93" s="120" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="93" t="s">
         <v>608</v>
       </c>
-      <c r="C92" s="118" t="s">
-        <v>582</v>
-      </c>
-      <c r="D92" s="117"/>
-      <c r="E92" s="121" t="s">
-        <v>583</v>
-      </c>
-      <c r="F92" s="120" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="93" t="s">
+      <c r="C94" s="94" t="s">
         <v>609</v>
       </c>
-      <c r="C93" s="94" t="s">
+      <c r="D94" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E94" s="86" t="s">
         <v>610</v>
       </c>
-      <c r="D93" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E93" s="86" t="s">
+      <c r="F94" s="87" t="s">
         <v>611</v>
       </c>
-      <c r="F93" s="87" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A94" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="117" t="s">
-        <v>613</v>
-      </c>
-      <c r="C94" s="118" t="s">
-        <v>614</v>
-      </c>
-      <c r="D94" s="117" t="s">
-        <v>615</v>
-      </c>
-      <c r="E94" s="121" t="s">
-        <v>616</v>
-      </c>
-      <c r="F94" s="120"/>
-    </row>
-    <row r="95" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B95" s="117" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C95" s="118" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D95" s="117" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E95" s="121" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F95" s="120"/>
     </row>
-    <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>621</v>
-      </c>
-      <c r="C96" s="61" t="s">
-        <v>622</v>
+        <v>616</v>
+      </c>
+      <c r="C96" s="118" t="s">
+        <v>617</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E96" s="121" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F96" s="120"/>
     </row>
@@ -11925,43 +11921,43 @@
         <v>84</v>
       </c>
       <c r="B97" s="117" t="s">
+        <v>620</v>
+      </c>
+      <c r="C97" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="D97" s="117" t="s">
+        <v>622</v>
+      </c>
+      <c r="E97" s="121" t="s">
+        <v>623</v>
+      </c>
+      <c r="F97" s="120"/>
+    </row>
+    <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A98" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="117" t="s">
+        <v>624</v>
+      </c>
+      <c r="C98" s="118" t="s">
         <v>625</v>
       </c>
-      <c r="C97" s="118" t="s">
+      <c r="D98" s="117" t="s">
         <v>626</v>
       </c>
-      <c r="D97" s="117" t="s">
+      <c r="E98" s="121" t="s">
         <v>627</v>
       </c>
-      <c r="E97" s="121" t="s">
-        <v>628</v>
-      </c>
-      <c r="F97" s="120"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="117"/>
-      <c r="B98" s="117"/>
-      <c r="C98" s="118"/>
-      <c r="D98" s="117"/>
-      <c r="E98" s="121"/>
       <c r="F98" s="120"/>
     </row>
-    <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A99" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B99" s="117" t="s">
-        <v>629</v>
-      </c>
-      <c r="C99" s="118" t="s">
-        <v>630</v>
-      </c>
-      <c r="D99" s="117" t="s">
-        <v>631</v>
-      </c>
-      <c r="E99" s="121" t="s">
-        <v>632</v>
-      </c>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="117"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="121"/>
       <c r="F99" s="120"/>
     </row>
     <row r="100" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11969,16 +11965,16 @@
         <v>84</v>
       </c>
       <c r="B100" s="117" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C100" s="118" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E100" s="121" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F100" s="120"/>
     </row>
@@ -11987,16 +11983,16 @@
         <v>84</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C101" s="118" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E101" s="121" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F101" s="120"/>
     </row>
@@ -12005,43 +12001,43 @@
         <v>84</v>
       </c>
       <c r="B102" s="117" t="s">
+        <v>636</v>
+      </c>
+      <c r="C102" s="118" t="s">
+        <v>637</v>
+      </c>
+      <c r="D102" s="117" t="s">
+        <v>638</v>
+      </c>
+      <c r="E102" s="121" t="s">
+        <v>639</v>
+      </c>
+      <c r="F102" s="120"/>
+    </row>
+    <row r="103" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A103" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="117" t="s">
+        <v>640</v>
+      </c>
+      <c r="C103" s="118" t="s">
         <v>641</v>
       </c>
-      <c r="C102" s="118" t="s">
+      <c r="D103" s="117" t="s">
         <v>642</v>
       </c>
-      <c r="D102" s="117" t="s">
+      <c r="E103" s="121" t="s">
         <v>643</v>
       </c>
-      <c r="E102" s="121" t="s">
-        <v>644</v>
-      </c>
-      <c r="F102" s="120"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="117"/>
-      <c r="B103" s="117"/>
-      <c r="C103" s="118"/>
-      <c r="D103" s="117"/>
-      <c r="E103" s="121"/>
       <c r="F103" s="120"/>
     </row>
-    <row r="104" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B104" s="117" t="s">
-        <v>645</v>
-      </c>
-      <c r="C104" s="118" t="s">
-        <v>646</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>647</v>
-      </c>
-      <c r="E104" s="121" t="s">
-        <v>648</v>
-      </c>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="117"/>
+      <c r="B104" s="117"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="121"/>
       <c r="F104" s="120"/>
     </row>
     <row r="105" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12049,16 +12045,16 @@
         <v>84</v>
       </c>
       <c r="B105" s="117" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C105" s="118" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E105" s="121" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F105" s="120"/>
     </row>
@@ -12067,16 +12063,16 @@
         <v>84</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C106" s="118" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E106" s="121" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F106" s="120"/>
     </row>
@@ -12085,261 +12081,263 @@
         <v>84</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C107" s="118" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E107" s="121" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F107" s="120"/>
     </row>
-    <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B108" s="117" t="s">
+        <v>656</v>
+      </c>
+      <c r="C108" s="118" t="s">
+        <v>657</v>
+      </c>
+      <c r="D108" s="117" t="s">
+        <v>658</v>
+      </c>
+      <c r="E108" s="121" t="s">
+        <v>659</v>
+      </c>
+      <c r="F108" s="120"/>
+    </row>
+    <row r="109" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A109" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="117" t="s">
+        <v>660</v>
+      </c>
+      <c r="C109" s="118" t="s">
         <v>661</v>
       </c>
-      <c r="C108" s="118" t="s">
+      <c r="D109" s="117" t="s">
         <v>662</v>
       </c>
-      <c r="D108" s="117" t="s">
+      <c r="E109" s="121" t="s">
         <v>663</v>
       </c>
-      <c r="E108" s="121" t="s">
-        <v>664</v>
-      </c>
-      <c r="F108" s="120"/>
-    </row>
-    <row r="110" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A110" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B110" s="117" t="s">
-        <v>665</v>
-      </c>
-      <c r="C110" s="118" t="s">
-        <v>666</v>
-      </c>
-      <c r="D110" s="117" t="s">
-        <v>667</v>
-      </c>
-      <c r="E110" s="121" t="s">
-        <v>668</v>
-      </c>
-      <c r="F110" s="120"/>
+      <c r="F109" s="120"/>
     </row>
     <row r="111" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B111" s="117" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C111" s="118" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E111" s="121" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F111" s="120"/>
     </row>
-    <row r="112" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B112" s="117" t="s">
+        <v>668</v>
+      </c>
+      <c r="C112" s="118" t="s">
+        <v>669</v>
+      </c>
+      <c r="D112" s="117" t="s">
+        <v>670</v>
+      </c>
+      <c r="E112" s="121" t="s">
+        <v>671</v>
+      </c>
+      <c r="F112" s="120"/>
+    </row>
+    <row r="113" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A113" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="117" t="s">
+        <v>672</v>
+      </c>
+      <c r="C113" s="118" t="s">
         <v>673</v>
       </c>
-      <c r="C112" s="118" t="s">
+      <c r="D113" s="117" t="s">
         <v>674</v>
       </c>
-      <c r="D112" s="117" t="s">
+      <c r="E113" s="121" t="s">
         <v>675</v>
       </c>
-      <c r="E112" s="121" t="s">
-        <v>676</v>
-      </c>
-      <c r="F112" s="120"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="117"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="118"/>
-      <c r="D113" s="117"/>
-      <c r="E113" s="121"/>
       <c r="F113" s="120"/>
     </row>
-    <row r="114" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A114" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B114" s="117" t="s">
-        <v>677</v>
-      </c>
-      <c r="C114" s="118" t="s">
-        <v>678</v>
-      </c>
-      <c r="D114" s="117" t="s">
-        <v>679</v>
-      </c>
-      <c r="E114" s="121" t="s">
-        <v>680</v>
-      </c>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="117"/>
+      <c r="B114" s="117"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="117"/>
+      <c r="E114" s="121"/>
       <c r="F114" s="120"/>
     </row>
-    <row r="115" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B115" s="117" t="s">
+        <v>676</v>
+      </c>
+      <c r="C115" s="118" t="s">
+        <v>677</v>
+      </c>
+      <c r="D115" s="117" t="s">
+        <v>678</v>
+      </c>
+      <c r="E115" s="121" t="s">
+        <v>679</v>
+      </c>
+      <c r="F115" s="120"/>
+    </row>
+    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A116" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="117" t="s">
+        <v>680</v>
+      </c>
+      <c r="C116" s="118" t="s">
         <v>681</v>
       </c>
-      <c r="C115" s="118" t="s">
+      <c r="D116" s="117" t="s">
         <v>682</v>
       </c>
-      <c r="D115" s="117" t="s">
+      <c r="E116" s="121" t="s">
         <v>683</v>
       </c>
-      <c r="E115" s="121" t="s">
-        <v>684</v>
-      </c>
-      <c r="F115" s="120"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="117"/>
-      <c r="B116" s="117"/>
-      <c r="C116" s="118"/>
-      <c r="D116" s="117"/>
-      <c r="E116" s="121"/>
       <c r="F116" s="120"/>
     </row>
-    <row r="117" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A117" s="121"/>
-      <c r="B117" s="121"/>
-      <c r="C117" s="121"/>
-      <c r="D117" s="117" t="s">
-        <v>685</v>
-      </c>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="117"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="117"/>
       <c r="E117" s="121"/>
-      <c r="F117" s="120" t="s">
-        <v>686</v>
-      </c>
+      <c r="F117" s="120"/>
     </row>
     <row r="118" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A118" s="121"/>
       <c r="B118" s="121"/>
       <c r="C118" s="121"/>
       <c r="D118" s="117" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E118" s="121"/>
-      <c r="F118" s="120"/>
-    </row>
-    <row r="119" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A119" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B119" s="117" t="s">
-        <v>688</v>
-      </c>
+      <c r="F118" s="120" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A119" s="121"/>
+      <c r="B119" s="121"/>
       <c r="C119" s="121"/>
-      <c r="D119" s="20" t="s">
-        <v>419</v>
+      <c r="D119" s="117" t="s">
+        <v>686</v>
       </c>
       <c r="E119" s="121"/>
       <c r="F119" s="120"/>
     </row>
-    <row r="120" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A120" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B120" s="117" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C120" s="121"/>
       <c r="D120" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E120" s="121"/>
       <c r="F120" s="120"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="155" t="s">
+    <row r="121" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A121" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B121" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="C121" s="121"/>
+      <c r="D121" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E121" s="121"/>
+      <c r="F121" s="120"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="158" t="s">
+        <v>689</v>
+      </c>
+      <c r="B122" s="159"/>
+      <c r="C122" s="159"/>
+      <c r="D122" s="159"/>
+      <c r="E122" s="160"/>
+      <c r="F122" s="120"/>
+    </row>
+    <row r="123" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A123" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="117" t="s">
         <v>690</v>
       </c>
-      <c r="B121" s="156"/>
-      <c r="C121" s="156"/>
-      <c r="D121" s="156"/>
-      <c r="E121" s="157"/>
-      <c r="F121" s="120"/>
-    </row>
-    <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A122" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B122" s="117" t="s">
+      <c r="C123" s="118" t="s">
         <v>691</v>
       </c>
-      <c r="C122" s="118" t="s">
+      <c r="D123" s="117" t="s">
         <v>692</v>
       </c>
-      <c r="D122" s="117" t="s">
+      <c r="E123" s="121" t="s">
         <v>693</v>
       </c>
-      <c r="E122" s="121" t="s">
+      <c r="F123" s="120"/>
+    </row>
+    <row r="124" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A124" s="117" t="s">
+        <v>491</v>
+      </c>
+      <c r="B124" s="117" t="s">
         <v>694</v>
       </c>
-      <c r="F122" s="120"/>
-    </row>
-    <row r="123" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A123" s="117" t="s">
-        <v>491</v>
-      </c>
-      <c r="B123" s="117" t="s">
+      <c r="C124" s="118" t="s">
         <v>695</v>
       </c>
-      <c r="C123" s="118" t="s">
+      <c r="D124" s="117" t="s">
         <v>696</v>
       </c>
-      <c r="D123" s="117" t="s">
+      <c r="E124" s="121" t="s">
         <v>697</v>
       </c>
-      <c r="E123" s="121" t="s">
-        <v>698</v>
-      </c>
-      <c r="F123" s="120"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="117"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="118"/>
-      <c r="D124" s="117"/>
-      <c r="E124" s="121"/>
       <c r="F124" s="120"/>
     </row>
-    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B125" s="117" t="s">
-        <v>699</v>
-      </c>
-      <c r="C125" s="59" t="s">
-        <v>156</v>
-      </c>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="117"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="118"/>
       <c r="D125" s="117"/>
-      <c r="E125" s="121" t="s">
-        <v>158</v>
-      </c>
+      <c r="E125" s="121"/>
       <c r="F125" s="120"/>
     </row>
     <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12347,14 +12345,14 @@
         <v>423</v>
       </c>
       <c r="B126" s="117" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C126" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D126" s="117"/>
       <c r="E126" s="121" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F126" s="120"/>
     </row>
@@ -12363,302 +12361,302 @@
         <v>423</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C127" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D127" s="117"/>
       <c r="E127" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="F127" s="120"/>
+    </row>
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B128" s="117" t="s">
+        <v>700</v>
+      </c>
+      <c r="C128" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="117"/>
+      <c r="E128" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F127" s="120"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="117"/>
-      <c r="B128" s="117"/>
-      <c r="C128" s="118"/>
-      <c r="D128" s="117"/>
-      <c r="E128" s="121"/>
       <c r="F128" s="120"/>
     </row>
-    <row r="129" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A129" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B129" s="117" t="s">
-        <v>702</v>
-      </c>
-      <c r="C129" s="121"/>
-      <c r="D129" s="20" t="s">
-        <v>703</v>
-      </c>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="117"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="118"/>
+      <c r="D129" s="117"/>
       <c r="E129" s="121"/>
       <c r="F129" s="120"/>
     </row>
-    <row r="130" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B130" s="117" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C130" s="121"/>
       <c r="D130" s="20" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E130" s="121"/>
       <c r="F130" s="120"/>
     </row>
-    <row r="131" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C131" s="121"/>
       <c r="D131" s="20" t="s">
-        <v>510</v>
+        <v>704</v>
       </c>
       <c r="E131" s="121"/>
       <c r="F131" s="120"/>
     </row>
-    <row r="132" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C132" s="121"/>
       <c r="D132" s="20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E132" s="121"/>
       <c r="F132" s="120"/>
     </row>
-    <row r="133" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C133" s="121"/>
       <c r="D133" s="20" t="s">
-        <v>709</v>
+        <v>512</v>
       </c>
       <c r="E133" s="121"/>
       <c r="F133" s="120"/>
     </row>
-    <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C134" s="121"/>
       <c r="D134" s="20" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="E134" s="121"/>
       <c r="F134" s="120"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="155" t="s">
+    <row r="135" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A135" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B135" s="117" t="s">
+        <v>709</v>
+      </c>
+      <c r="C135" s="121"/>
+      <c r="D135" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="E135" s="121"/>
+      <c r="F135" s="120"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="158" t="s">
+        <v>711</v>
+      </c>
+      <c r="B136" s="159"/>
+      <c r="C136" s="159"/>
+      <c r="D136" s="159"/>
+      <c r="E136" s="160"/>
+      <c r="F136" s="120"/>
+    </row>
+    <row r="137" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A137" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="B135" s="156"/>
-      <c r="C135" s="156"/>
-      <c r="D135" s="156"/>
-      <c r="E135" s="157"/>
-      <c r="F135" s="120"/>
-    </row>
-    <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A136" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B136" s="117" t="s">
+      <c r="C137" s="118" t="s">
         <v>713</v>
       </c>
-      <c r="C136" s="118" t="s">
+      <c r="D137" s="117" t="s">
         <v>714</v>
       </c>
-      <c r="D136" s="117" t="s">
+      <c r="E137" s="121" t="s">
         <v>715</v>
       </c>
-      <c r="E136" s="121" t="s">
+      <c r="F137" s="120"/>
+    </row>
+    <row r="138" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A138" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B138" s="117" t="s">
         <v>716</v>
-      </c>
-      <c r="F136" s="120"/>
-    </row>
-    <row r="137" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A137" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B137" s="117" t="s">
-        <v>717</v>
-      </c>
-      <c r="C137" s="121"/>
-      <c r="D137" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="E137" s="121"/>
-      <c r="F137" s="120"/>
-    </row>
-    <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A138" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B138" s="117" t="s">
-        <v>718</v>
       </c>
       <c r="C138" s="121"/>
       <c r="D138" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E138" s="121"/>
       <c r="F138" s="120"/>
     </row>
-    <row r="139" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A139" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="B139" s="123" t="s">
-        <v>719</v>
-      </c>
-      <c r="C139" s="114" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D139" s="123" t="s">
-        <v>720</v>
-      </c>
-      <c r="E139" s="123" t="s">
-        <v>721</v>
-      </c>
-      <c r="F139" s="124" t="s">
-        <v>722</v>
-      </c>
+    <row r="139" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A139" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B139" s="117" t="s">
+        <v>717</v>
+      </c>
+      <c r="C139" s="121"/>
+      <c r="D139" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E139" s="121"/>
+      <c r="F139" s="120"/>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A140" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B140" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="C140" s="114" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D140" s="123" t="s">
+        <v>719</v>
+      </c>
+      <c r="E140" s="123" t="s">
+        <v>720</v>
+      </c>
+      <c r="F140" s="124" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="123" t="s">
         <v>417</v>
       </c>
-      <c r="B140" s="123" t="s">
-        <v>723</v>
-      </c>
-      <c r="C140" s="123"/>
-      <c r="D140" s="114" t="s">
-        <v>724</v>
-      </c>
-      <c r="E140" s="123"/>
-      <c r="F140" s="124" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A141" s="123" t="s">
-        <v>420</v>
-      </c>
       <c r="B141" s="123" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C141" s="123"/>
       <c r="D141" s="114" t="s">
+        <v>723</v>
+      </c>
+      <c r="E141" s="123"/>
+      <c r="F141" s="124" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A142" s="123" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="123" t="s">
+        <v>725</v>
+      </c>
+      <c r="C142" s="123"/>
+      <c r="D142" s="114" t="s">
+        <v>726</v>
+      </c>
+      <c r="E142" s="123"/>
+      <c r="F142" s="124"/>
+    </row>
+    <row r="143" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A143" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B143" s="117" t="s">
         <v>727</v>
-      </c>
-      <c r="E141" s="123"/>
-      <c r="F141" s="124"/>
-    </row>
-    <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A142" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B142" s="117" t="s">
-        <v>728</v>
-      </c>
-      <c r="C142" s="121"/>
-      <c r="D142" s="20" t="s">
-        <v>729</v>
-      </c>
-      <c r="E142" s="121"/>
-      <c r="F142" s="120" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A143" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B143" s="117" t="s">
-        <v>731</v>
       </c>
       <c r="C143" s="121"/>
       <c r="D143" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="E143" s="121"/>
+      <c r="F143" s="120" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A144" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" s="117" t="s">
+        <v>730</v>
+      </c>
+      <c r="C144" s="121"/>
+      <c r="D144" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="E144" s="121"/>
+      <c r="F144" s="120"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="158" t="s">
         <v>732</v>
       </c>
-      <c r="E143" s="121"/>
-      <c r="F143" s="120"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="155" t="s">
+      <c r="B145" s="159"/>
+      <c r="C145" s="159"/>
+      <c r="D145" s="159"/>
+      <c r="E145" s="160"/>
+      <c r="F145" s="120"/>
+    </row>
+    <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A146" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" s="117" t="s">
         <v>733</v>
       </c>
-      <c r="B144" s="156"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="157"/>
-      <c r="F144" s="120"/>
-    </row>
-    <row r="145" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A145" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B145" s="117" t="s">
+      <c r="C146" s="59" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D146" s="117" t="s">
         <v>734</v>
       </c>
-      <c r="C145" s="59" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D145" s="117" t="s">
+      <c r="E146" s="121" t="s">
         <v>735</v>
       </c>
-      <c r="E145" s="121" t="s">
+      <c r="F146" s="120"/>
+    </row>
+    <row r="147" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A147" s="117" t="s">
         <v>736</v>
       </c>
-      <c r="F145" s="120"/>
-    </row>
-    <row r="146" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A146" s="117" t="s">
+      <c r="B147" s="117" t="s">
         <v>737</v>
       </c>
-      <c r="B146" s="117" t="s">
+      <c r="C147" s="59" t="s">
         <v>738</v>
-      </c>
-      <c r="C146" s="59" t="s">
-        <v>739</v>
-      </c>
-      <c r="D146" s="117"/>
-      <c r="E146" s="121" t="s">
-        <v>740</v>
-      </c>
-      <c r="F146" s="120"/>
-    </row>
-    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="B147" s="117" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C147" s="59" t="s">
-        <v>1383</v>
       </c>
       <c r="D147" s="117"/>
       <c r="E147" s="121" t="s">
-        <v>1385</v>
+        <v>739</v>
       </c>
       <c r="F147" s="120"/>
     </row>
@@ -12667,406 +12665,404 @@
         <v>37</v>
       </c>
       <c r="B148" s="117" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C148" s="59" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="121" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="F148" s="120"/>
     </row>
     <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="117" t="s">
-        <v>741</v>
+        <v>37</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>742</v>
-      </c>
-      <c r="C149" s="118" t="s">
-        <v>76</v>
+        <v>1379</v>
+      </c>
+      <c r="C149" s="59" t="s">
+        <v>1381</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="121" t="s">
-        <v>78</v>
+        <v>1383</v>
       </c>
       <c r="F149" s="120"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="117" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C150" s="118" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F150" s="120"/>
+    </row>
+    <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="117" t="s">
+        <v>742</v>
+      </c>
+      <c r="B151" s="117" t="s">
+        <v>743</v>
+      </c>
+      <c r="C151" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D151" s="117"/>
+      <c r="E151" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F150" s="120"/>
-    </row>
-    <row r="151" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A151" s="117" t="s">
+      <c r="F151" s="120"/>
+    </row>
+    <row r="152" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A152" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B151" s="117" t="s">
-        <v>745</v>
-      </c>
-      <c r="C151" s="121"/>
-      <c r="D151" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="E151" s="121"/>
-      <c r="F151" s="120"/>
-    </row>
-    <row r="152" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A152" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B152" s="117" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C152" s="121"/>
       <c r="D152" s="20" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E152" s="121"/>
       <c r="F152" s="120"/>
     </row>
     <row r="153" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A153" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B153" s="117" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C153" s="121"/>
       <c r="D153" s="20" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E153" s="121"/>
-      <c r="F153" s="120" t="s">
-        <v>751</v>
-      </c>
+      <c r="F153" s="120"/>
     </row>
     <row r="154" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B154" s="117" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C154" s="121"/>
       <c r="D154" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="E154" s="121"/>
+      <c r="F154" s="120" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A155" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B155" s="117" t="s">
+        <v>751</v>
+      </c>
+      <c r="C155" s="121"/>
+      <c r="D155" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E155" s="121"/>
+      <c r="F155" s="120"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="158" t="s">
         <v>753</v>
       </c>
-      <c r="E154" s="121"/>
-      <c r="F154" s="120"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="155" t="s">
+      <c r="B156" s="159"/>
+      <c r="C156" s="159"/>
+      <c r="D156" s="159"/>
+      <c r="E156" s="160"/>
+      <c r="F156" s="120"/>
+    </row>
+    <row r="157" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A157" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B157" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
-      <c r="E155" s="157"/>
-      <c r="F155" s="120"/>
-    </row>
-    <row r="156" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A156" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B156" s="117" t="s">
+      <c r="C157" s="125" t="s">
         <v>755</v>
       </c>
-      <c r="C156" s="125" t="s">
+      <c r="D157" s="117" t="s">
         <v>756</v>
       </c>
-      <c r="D156" s="117" t="s">
+      <c r="E157" s="121" t="s">
         <v>757</v>
       </c>
-      <c r="E156" s="121" t="s">
+      <c r="F157" s="120"/>
+    </row>
+    <row r="158" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A158" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B158" s="117" t="s">
         <v>758</v>
       </c>
-      <c r="F156" s="120"/>
-    </row>
-    <row r="157" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A157" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B157" s="117" t="s">
+      <c r="C158" s="118" t="s">
         <v>759</v>
       </c>
-      <c r="C157" s="118" t="s">
+      <c r="D158" s="126" t="s">
         <v>760</v>
       </c>
-      <c r="D157" s="126" t="s">
+      <c r="E158" s="121" t="s">
         <v>761</v>
       </c>
-      <c r="E157" s="121" t="s">
+      <c r="F158" s="120"/>
+    </row>
+    <row r="159" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A159" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159" s="117" t="s">
         <v>762</v>
       </c>
-      <c r="F157" s="120"/>
-    </row>
-    <row r="158" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A158" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="B158" s="117" t="s">
+      <c r="C159" s="118" t="s">
         <v>763</v>
       </c>
-      <c r="C158" s="118" t="s">
+      <c r="D159" s="126" t="s">
         <v>764</v>
       </c>
-      <c r="D158" s="126" t="s">
+      <c r="E159" s="121" t="s">
         <v>765</v>
       </c>
-      <c r="E158" s="121" t="s">
+      <c r="F159" s="120"/>
+    </row>
+    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="127" t="s">
         <v>766</v>
       </c>
-      <c r="F158" s="120"/>
-    </row>
-    <row r="159" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="127" t="s">
+      <c r="B160" s="117" t="s">
         <v>767</v>
       </c>
-      <c r="B159" s="117" t="s">
+      <c r="C160" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="126"/>
+      <c r="E160" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="F160" s="120"/>
+    </row>
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="117" t="s">
+        <v>740</v>
+      </c>
+      <c r="B161" s="117" t="s">
         <v>768</v>
       </c>
-      <c r="C159" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D159" s="126"/>
-      <c r="E159" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="F159" s="120"/>
-    </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="B160" s="117" t="s">
+      <c r="C161" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D161" s="117"/>
+      <c r="E161" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F161" s="120"/>
+    </row>
+    <row r="162" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A162" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B162" s="117" t="s">
         <v>769</v>
       </c>
-      <c r="C160" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D160" s="117"/>
-      <c r="E160" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F160" s="120"/>
-    </row>
-    <row r="161" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A161" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B161" s="117" t="s">
+      <c r="C162" s="129"/>
+      <c r="D162" s="20" t="s">
         <v>770</v>
-      </c>
-      <c r="C161" s="129"/>
-      <c r="D161" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="E161" s="121"/>
-      <c r="F161" s="120"/>
-    </row>
-    <row r="162" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A162" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B162" s="117" t="s">
-        <v>772</v>
-      </c>
-      <c r="C162" s="121"/>
-      <c r="D162" s="20" t="s">
-        <v>773</v>
       </c>
       <c r="E162" s="121"/>
       <c r="F162" s="120"/>
     </row>
-    <row r="163" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="164" t="s">
+    <row r="163" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A163" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B163" s="117" t="s">
+        <v>771</v>
+      </c>
+      <c r="C163" s="121"/>
+      <c r="D163" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E163" s="121"/>
+      <c r="F163" s="120"/>
+    </row>
+    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="167" t="s">
+        <v>773</v>
+      </c>
+      <c r="B164" s="168"/>
+      <c r="C164" s="168"/>
+      <c r="D164" s="168"/>
+      <c r="E164" s="169"/>
+      <c r="F164" s="130" t="s">
         <v>774</v>
       </c>
-      <c r="B163" s="165"/>
-      <c r="C163" s="165"/>
-      <c r="D163" s="165"/>
-      <c r="E163" s="166"/>
-      <c r="F163" s="130" t="s">
+    </row>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B165" s="117" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B164" s="117" t="s">
+      <c r="C165" s="131" t="s">
         <v>776</v>
-      </c>
-      <c r="C164" s="131" t="s">
-        <v>777</v>
-      </c>
-      <c r="D164" s="115"/>
-      <c r="E164" s="132"/>
-      <c r="F164" s="130" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A165" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B165" s="117" t="s">
-        <v>779</v>
-      </c>
-      <c r="C165" s="118" t="s">
-        <v>760</v>
       </c>
       <c r="D165" s="115"/>
       <c r="E165" s="132"/>
       <c r="F165" s="130" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A166" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B166" s="117" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A166" s="127" t="s">
-        <v>780</v>
-      </c>
-      <c r="B166" s="117" t="s">
-        <v>781</v>
-      </c>
-      <c r="C166" s="116" t="s">
-        <v>782</v>
+      <c r="C166" s="118" t="s">
+        <v>759</v>
       </c>
       <c r="D166" s="115"/>
       <c r="E166" s="132"/>
       <c r="F166" s="130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="127" t="s">
-        <v>32</v>
+        <v>779</v>
       </c>
       <c r="B167" s="117" t="s">
-        <v>783</v>
-      </c>
-      <c r="C167" s="131" t="s">
-        <v>784</v>
+        <v>780</v>
+      </c>
+      <c r="C167" s="116" t="s">
+        <v>781</v>
       </c>
       <c r="D167" s="115"/>
       <c r="E167" s="132"/>
       <c r="F167" s="130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B168" s="60" t="s">
-        <v>785</v>
+      <c r="B168" s="117" t="s">
+        <v>782</v>
       </c>
       <c r="C168" s="131" t="s">
-        <v>76</v>
+        <v>783</v>
       </c>
       <c r="D168" s="115"/>
       <c r="E168" s="132"/>
       <c r="F168" s="130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="117" t="s">
-        <v>743</v>
-      </c>
-      <c r="B169" s="117" t="s">
-        <v>768</v>
+      <c r="A169" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="60" t="s">
+        <v>784</v>
       </c>
       <c r="C169" s="131" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D169" s="115"/>
       <c r="E169" s="132"/>
       <c r="F169" s="130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B170" s="133"/>
-      <c r="C170" s="134"/>
+        <v>742</v>
+      </c>
+      <c r="B170" s="117" t="s">
+        <v>767</v>
+      </c>
+      <c r="C170" s="131" t="s">
+        <v>47</v>
+      </c>
       <c r="D170" s="115"/>
       <c r="E170" s="132"/>
       <c r="F170" s="130" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B171" s="133"/>
       <c r="C171" s="134"/>
       <c r="D171" s="115"/>
       <c r="E171" s="132"/>
       <c r="F171" s="130" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="155" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B172" s="133"/>
+      <c r="C172" s="134"/>
+      <c r="D172" s="115"/>
+      <c r="E172" s="132"/>
+      <c r="F172" s="130" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="158" t="s">
+        <v>785</v>
+      </c>
+      <c r="B173" s="159"/>
+      <c r="C173" s="159"/>
+      <c r="D173" s="159"/>
+      <c r="E173" s="160"/>
+      <c r="F173" s="120"/>
+    </row>
+    <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A174" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B174" s="93" t="s">
         <v>786</v>
       </c>
-      <c r="B172" s="156"/>
-      <c r="C172" s="156"/>
-      <c r="D172" s="156"/>
-      <c r="E172" s="157"/>
-      <c r="F172" s="120"/>
-    </row>
-    <row r="173" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A173" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="B173" s="93" t="s">
+      <c r="C174" s="94" t="s">
         <v>787</v>
       </c>
-      <c r="C173" s="94" t="s">
+      <c r="D174" s="93" t="s">
         <v>788</v>
       </c>
-      <c r="D173" s="93" t="s">
+      <c r="E174" s="86" t="s">
         <v>789</v>
-      </c>
-      <c r="E173" s="86" t="s">
-        <v>790</v>
-      </c>
-      <c r="F173" s="120"/>
-    </row>
-    <row r="174" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A174" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="B174" s="96" t="s">
-        <v>791</v>
-      </c>
-      <c r="C174" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D174" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E174" s="90" t="s">
-        <v>58</v>
       </c>
       <c r="F174" s="120"/>
     </row>
@@ -13075,16 +13071,16 @@
         <v>423</v>
       </c>
       <c r="B175" s="96" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C175" s="97" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D175" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E175" s="90" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F175" s="120"/>
     </row>
@@ -13093,16 +13089,16 @@
         <v>423</v>
       </c>
       <c r="B176" s="96" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C176" s="97" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D176" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E176" s="90" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F176" s="120"/>
     </row>
@@ -13111,16 +13107,16 @@
         <v>423</v>
       </c>
       <c r="B177" s="96" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C177" s="97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D177" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E177" s="90" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F177" s="120"/>
     </row>
@@ -13129,356 +13125,362 @@
         <v>423</v>
       </c>
       <c r="B178" s="96" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C178" s="97" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D178" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E178" s="90" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F178" s="120"/>
     </row>
-    <row r="179" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="95" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
       <c r="B179" s="96" t="s">
-        <v>796</v>
-      </c>
-      <c r="C179" s="98" t="s">
-        <v>797</v>
+        <v>794</v>
+      </c>
+      <c r="C179" s="97" t="s">
+        <v>39</v>
       </c>
       <c r="D179" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E179" s="90" t="s">
-        <v>798</v>
+        <v>41</v>
       </c>
       <c r="F179" s="120"/>
     </row>
-    <row r="180" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A180" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B180" s="117" t="s">
-        <v>799</v>
-      </c>
-      <c r="C180" s="121"/>
-      <c r="D180" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="E180" s="121"/>
+    <row r="180" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B180" s="96" t="s">
+        <v>795</v>
+      </c>
+      <c r="C180" s="98" t="s">
+        <v>796</v>
+      </c>
+      <c r="D180" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="E180" s="90" t="s">
+        <v>797</v>
+      </c>
       <c r="F180" s="120"/>
     </row>
     <row r="181" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A181" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B181" s="117" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C181" s="121"/>
       <c r="D181" s="20" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E181" s="121"/>
       <c r="F181" s="120"/>
     </row>
-    <row r="182" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B182" s="117" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C182" s="121"/>
       <c r="D182" s="20" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E182" s="121"/>
       <c r="F182" s="120"/>
     </row>
-    <row r="183" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B183" s="117" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C183" s="121"/>
       <c r="D183" s="20" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E183" s="121"/>
       <c r="F183" s="120"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="155" t="s">
+    <row r="184" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A184" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B184" s="117" t="s">
+        <v>804</v>
+      </c>
+      <c r="C184" s="121"/>
+      <c r="D184" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="E184" s="121"/>
+      <c r="F184" s="120"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="158" t="s">
+        <v>806</v>
+      </c>
+      <c r="B185" s="159"/>
+      <c r="C185" s="159"/>
+      <c r="D185" s="159"/>
+      <c r="E185" s="160"/>
+      <c r="F185" s="120"/>
+    </row>
+    <row r="186" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A186" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B186" s="117" t="s">
         <v>807</v>
       </c>
-      <c r="B184" s="156"/>
-      <c r="C184" s="156"/>
-      <c r="D184" s="156"/>
-      <c r="E184" s="157"/>
-      <c r="F184" s="120"/>
-    </row>
-    <row r="185" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A185" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B185" s="117" t="s">
+      <c r="C186" s="118" t="s">
         <v>808</v>
       </c>
-      <c r="C185" s="118" t="s">
+      <c r="D186" s="117" t="s">
+        <v>788</v>
+      </c>
+      <c r="E186" s="121" t="s">
         <v>809</v>
       </c>
-      <c r="D185" s="117" t="s">
-        <v>789</v>
-      </c>
-      <c r="E185" s="121" t="s">
+      <c r="F186" s="120"/>
+    </row>
+    <row r="187" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A187" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B187" s="117" t="s">
         <v>810</v>
-      </c>
-      <c r="F185" s="120"/>
-    </row>
-    <row r="186" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A186" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B186" s="117" t="s">
-        <v>811</v>
-      </c>
-      <c r="C186" s="121"/>
-      <c r="D186" s="20" t="s">
-        <v>812</v>
-      </c>
-      <c r="E186" s="121"/>
-      <c r="F186" s="120"/>
-    </row>
-    <row r="187" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A187" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B187" s="117" t="s">
-        <v>813</v>
       </c>
       <c r="C187" s="121"/>
       <c r="D187" s="20" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E187" s="121"/>
       <c r="F187" s="120"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="155" t="s">
+    <row r="188" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A188" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B188" s="117" t="s">
+        <v>812</v>
+      </c>
+      <c r="C188" s="121"/>
+      <c r="D188" s="20" t="s">
+        <v>813</v>
+      </c>
+      <c r="E188" s="121"/>
+      <c r="F188" s="120"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="158" t="s">
+        <v>814</v>
+      </c>
+      <c r="B189" s="159"/>
+      <c r="C189" s="159"/>
+      <c r="D189" s="159"/>
+      <c r="E189" s="160"/>
+      <c r="F189" s="120"/>
+    </row>
+    <row r="190" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A190" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B190" s="117" t="s">
         <v>815</v>
       </c>
-      <c r="B188" s="156"/>
-      <c r="C188" s="156"/>
-      <c r="D188" s="156"/>
-      <c r="E188" s="157"/>
-      <c r="F188" s="120"/>
-    </row>
-    <row r="189" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A189" s="117" t="s">
+      <c r="C190" s="118" t="s">
+        <v>816</v>
+      </c>
+      <c r="D190" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="E190" s="121" t="s">
+        <v>818</v>
+      </c>
+      <c r="F190" s="120"/>
+    </row>
+    <row r="191" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A191" s="117" t="s">
+        <v>556</v>
+      </c>
+      <c r="B191" s="117" t="s">
+        <v>819</v>
+      </c>
+      <c r="C191" s="118" t="s">
+        <v>820</v>
+      </c>
+      <c r="D191" s="117" t="s">
+        <v>821</v>
+      </c>
+      <c r="E191" s="121" t="s">
+        <v>822</v>
+      </c>
+      <c r="F191" s="120"/>
+    </row>
+    <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A192" s="117" t="s">
+        <v>491</v>
+      </c>
+      <c r="B192" s="117" t="s">
+        <v>823</v>
+      </c>
+      <c r="C192" s="59" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D192" s="117" t="s">
+        <v>824</v>
+      </c>
+      <c r="E192" s="121" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F192" s="120"/>
+    </row>
+    <row r="193" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A193" s="117" t="s">
+        <v>491</v>
+      </c>
+      <c r="B193" s="117" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C193" s="59" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D193" s="117"/>
+      <c r="E193" s="121" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F193" s="120"/>
+    </row>
+    <row r="194" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A194" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B194" s="117" t="s">
+        <v>825</v>
+      </c>
+      <c r="C194" s="121"/>
+      <c r="D194" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="E194" s="121"/>
+      <c r="F194" s="120"/>
+    </row>
+    <row r="195" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A195" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B195" s="117" t="s">
+        <v>827</v>
+      </c>
+      <c r="C195" s="121"/>
+      <c r="D195" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="E195" s="121"/>
+      <c r="F195" s="120"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="158" t="s">
+        <v>829</v>
+      </c>
+      <c r="B196" s="159"/>
+      <c r="C196" s="159"/>
+      <c r="D196" s="159"/>
+      <c r="E196" s="160"/>
+      <c r="F196" s="120"/>
+    </row>
+    <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A197" s="117" t="s">
         <v>243</v>
       </c>
-      <c r="B189" s="117" t="s">
-        <v>816</v>
-      </c>
-      <c r="C189" s="118" t="s">
-        <v>817</v>
-      </c>
-      <c r="D189" s="117" t="s">
-        <v>818</v>
-      </c>
-      <c r="E189" s="121" t="s">
-        <v>819</v>
-      </c>
-      <c r="F189" s="120"/>
-    </row>
-    <row r="190" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A190" s="117" t="s">
-        <v>557</v>
-      </c>
-      <c r="B190" s="117" t="s">
-        <v>820</v>
-      </c>
-      <c r="C190" s="118" t="s">
-        <v>821</v>
-      </c>
-      <c r="D190" s="117" t="s">
-        <v>822</v>
-      </c>
-      <c r="E190" s="121" t="s">
-        <v>823</v>
-      </c>
-      <c r="F190" s="120"/>
-    </row>
-    <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A191" s="117" t="s">
-        <v>491</v>
-      </c>
-      <c r="B191" s="117" t="s">
-        <v>824</v>
-      </c>
-      <c r="C191" s="59" t="s">
-        <v>825</v>
-      </c>
-      <c r="D191" s="117" t="s">
-        <v>826</v>
-      </c>
-      <c r="E191" s="121" t="s">
-        <v>827</v>
-      </c>
-      <c r="F191" s="120"/>
-    </row>
-    <row r="192" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A192" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B192" s="117" t="s">
-        <v>828</v>
-      </c>
-      <c r="C192" s="121"/>
-      <c r="D192" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="E192" s="121"/>
-      <c r="F192" s="120"/>
-    </row>
-    <row r="193" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A193" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B193" s="117" t="s">
+      <c r="B197" s="117" t="s">
         <v>830</v>
       </c>
-      <c r="C193" s="121"/>
-      <c r="D193" s="20" t="s">
+      <c r="C197" s="118" t="s">
         <v>831</v>
       </c>
-      <c r="E193" s="121"/>
-      <c r="F193" s="120"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="155" t="s">
+      <c r="D197" s="117" t="s">
         <v>832</v>
       </c>
-      <c r="B194" s="156"/>
-      <c r="C194" s="156"/>
-      <c r="D194" s="156"/>
-      <c r="E194" s="157"/>
-      <c r="F194" s="120"/>
-    </row>
-    <row r="195" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A195" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B195" s="117" t="s">
+      <c r="E197" s="121" t="s">
         <v>833</v>
-      </c>
-      <c r="C195" s="118" t="s">
-        <v>834</v>
-      </c>
-      <c r="D195" s="117" t="s">
-        <v>835</v>
-      </c>
-      <c r="E195" s="121" t="s">
-        <v>836</v>
-      </c>
-      <c r="F195" s="120"/>
-    </row>
-    <row r="196" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A196" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B196" s="117" t="s">
-        <v>837</v>
-      </c>
-      <c r="C196" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="D196" s="117"/>
-      <c r="E196" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="F196" s="120"/>
-    </row>
-    <row r="197" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="B197" s="117" t="s">
-        <v>838</v>
-      </c>
-      <c r="C197" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D197" s="117"/>
-      <c r="E197" s="121" t="s">
-        <v>78</v>
       </c>
       <c r="F197" s="120"/>
     </row>
     <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="117" t="s">
-        <v>743</v>
+        <v>423</v>
       </c>
       <c r="B198" s="117" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C198" s="118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D198" s="117"/>
       <c r="E198" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" s="120"/>
+    </row>
+    <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="117" t="s">
+        <v>740</v>
+      </c>
+      <c r="B199" s="117" t="s">
+        <v>835</v>
+      </c>
+      <c r="C199" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" s="117"/>
+      <c r="E199" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F199" s="120"/>
+    </row>
+    <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="117" t="s">
+        <v>742</v>
+      </c>
+      <c r="B200" s="117" t="s">
+        <v>836</v>
+      </c>
+      <c r="C200" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D200" s="117"/>
+      <c r="E200" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F198" s="120"/>
-    </row>
-    <row r="199" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A199" s="117" t="s">
+      <c r="F200" s="120"/>
+    </row>
+    <row r="201" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="B199" s="117" t="s">
-        <v>840</v>
-      </c>
-      <c r="C199" s="135" t="s">
-        <v>841</v>
-      </c>
-      <c r="D199" s="117"/>
-      <c r="E199" s="121"/>
-      <c r="F199" s="120"/>
-    </row>
-    <row r="200" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A200" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B200" s="117" t="s">
-        <v>842</v>
-      </c>
-      <c r="C200" s="121"/>
-      <c r="D200" s="20" t="s">
-        <v>746</v>
-      </c>
-      <c r="E200" s="121"/>
-      <c r="F200" s="120"/>
-    </row>
-    <row r="201" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A201" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B201" s="117" t="s">
-        <v>843</v>
-      </c>
-      <c r="C201" s="121"/>
-      <c r="D201" s="20" t="s">
-        <v>748</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="C201" s="135" t="s">
+        <v>838</v>
+      </c>
+      <c r="D201" s="117"/>
       <c r="E201" s="121"/>
       <c r="F201" s="120"/>
     </row>
@@ -13487,11 +13489,11 @@
         <v>417</v>
       </c>
       <c r="B202" s="117" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C202" s="121"/>
       <c r="D202" s="20" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E202" s="121"/>
       <c r="F202" s="120"/>
@@ -13501,164 +13503,160 @@
         <v>420</v>
       </c>
       <c r="B203" s="117" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C203" s="121"/>
       <c r="D203" s="20" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E203" s="121"/>
       <c r="F203" s="120"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="155" t="s">
-        <v>846</v>
-      </c>
-      <c r="B204" s="156"/>
-      <c r="C204" s="156"/>
-      <c r="D204" s="156"/>
-      <c r="E204" s="157"/>
+    <row r="204" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A204" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B204" s="117" t="s">
+        <v>841</v>
+      </c>
+      <c r="C204" s="121"/>
+      <c r="D204" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="E204" s="121"/>
       <c r="F204" s="120"/>
     </row>
-    <row r="205" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="117" t="s">
-        <v>243</v>
+        <v>420</v>
       </c>
       <c r="B205" s="117" t="s">
-        <v>847</v>
-      </c>
-      <c r="C205" s="118" t="s">
-        <v>848</v>
-      </c>
-      <c r="D205" s="117" t="s">
-        <v>849</v>
-      </c>
-      <c r="E205" s="121" t="s">
-        <v>54</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="C205" s="121"/>
+      <c r="D205" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E205" s="121"/>
       <c r="F205" s="120"/>
     </row>
-    <row r="206" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A206" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B206" s="117" t="s">
-        <v>850</v>
-      </c>
-      <c r="C206" s="118" t="s">
-        <v>760</v>
-      </c>
-      <c r="D206" s="126" t="s">
-        <v>851</v>
-      </c>
-      <c r="E206" s="121" t="s">
-        <v>762</v>
-      </c>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="158" t="s">
+        <v>843</v>
+      </c>
+      <c r="B206" s="159"/>
+      <c r="C206" s="159"/>
+      <c r="D206" s="159"/>
+      <c r="E206" s="160"/>
       <c r="F206" s="120"/>
     </row>
     <row r="207" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A207" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B207" s="117" t="s">
+        <v>844</v>
+      </c>
+      <c r="C207" s="118" t="s">
+        <v>845</v>
+      </c>
+      <c r="D207" s="117" t="s">
+        <v>846</v>
+      </c>
+      <c r="E207" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="F207" s="120"/>
+    </row>
+    <row r="208" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A208" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B208" s="117" t="s">
+        <v>847</v>
+      </c>
+      <c r="C208" s="118" t="s">
+        <v>759</v>
+      </c>
+      <c r="D208" s="126" t="s">
+        <v>848</v>
+      </c>
+      <c r="E208" s="121" t="s">
+        <v>761</v>
+      </c>
+      <c r="F208" s="120"/>
+    </row>
+    <row r="209" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A209" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="B207" s="117" t="s">
+      <c r="B209" s="117" t="s">
+        <v>849</v>
+      </c>
+      <c r="C209" s="118" t="s">
+        <v>763</v>
+      </c>
+      <c r="D209" s="126" t="s">
+        <v>850</v>
+      </c>
+      <c r="E209" s="121" t="s">
+        <v>765</v>
+      </c>
+      <c r="F209" s="120"/>
+    </row>
+    <row r="210" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A210" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" s="117" t="s">
+        <v>851</v>
+      </c>
+      <c r="C210" s="129"/>
+      <c r="D210" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E210" s="121"/>
+      <c r="F210" s="120"/>
+    </row>
+    <row r="211" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A211" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B211" s="117" t="s">
         <v>852</v>
       </c>
-      <c r="C207" s="118" t="s">
-        <v>764</v>
-      </c>
-      <c r="D207" s="126" t="s">
+      <c r="C211" s="121"/>
+      <c r="D211" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E211" s="121"/>
+      <c r="F211" s="120"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="158" t="s">
         <v>853</v>
       </c>
-      <c r="E207" s="121" t="s">
-        <v>766</v>
-      </c>
-      <c r="F207" s="120"/>
-    </row>
-    <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A208" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B208" s="117" t="s">
+      <c r="B212" s="159"/>
+      <c r="C212" s="159"/>
+      <c r="D212" s="159"/>
+      <c r="E212" s="160"/>
+      <c r="F212" s="120"/>
+    </row>
+    <row r="213" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B213" s="117" t="s">
         <v>854</v>
       </c>
-      <c r="C208" s="129"/>
-      <c r="D208" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="E208" s="121"/>
-      <c r="F208" s="120"/>
-    </row>
-    <row r="209" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A209" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B209" s="117" t="s">
+      <c r="C213" s="118" t="s">
         <v>855</v>
       </c>
-      <c r="C209" s="121"/>
-      <c r="D209" s="20" t="s">
-        <v>773</v>
-      </c>
-      <c r="E209" s="121"/>
-      <c r="F209" s="120"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="155" t="s">
+      <c r="D213" s="117" t="s">
         <v>856</v>
       </c>
-      <c r="B210" s="156"/>
-      <c r="C210" s="156"/>
-      <c r="D210" s="156"/>
-      <c r="E210" s="157"/>
-      <c r="F210" s="120"/>
-    </row>
-    <row r="211" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A211" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B211" s="117" t="s">
+      <c r="E213" s="121" t="s">
         <v>857</v>
-      </c>
-      <c r="C211" s="118" t="s">
-        <v>858</v>
-      </c>
-      <c r="D211" s="117" t="s">
-        <v>859</v>
-      </c>
-      <c r="E211" s="121" t="s">
-        <v>860</v>
-      </c>
-      <c r="F211" s="120"/>
-    </row>
-    <row r="212" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A212" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B212" s="117" t="s">
-        <v>861</v>
-      </c>
-      <c r="C212" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="D212" s="117"/>
-      <c r="E212" s="121" t="s">
-        <v>58</v>
-      </c>
-      <c r="F212" s="120"/>
-    </row>
-    <row r="213" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A213" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B213" s="117" t="s">
-        <v>862</v>
-      </c>
-      <c r="C213" s="118" t="s">
-        <v>60</v>
-      </c>
-      <c r="D213" s="117"/>
-      <c r="E213" s="121" t="s">
-        <v>62</v>
       </c>
       <c r="F213" s="120"/>
     </row>
@@ -13667,14 +13665,14 @@
         <v>423</v>
       </c>
       <c r="B214" s="117" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C214" s="118" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D214" s="117"/>
       <c r="E214" s="121" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F214" s="120"/>
     </row>
@@ -13683,14 +13681,14 @@
         <v>423</v>
       </c>
       <c r="B215" s="117" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C215" s="118" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D215" s="117"/>
       <c r="E215" s="121" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F215" s="120"/>
     </row>
@@ -13699,55 +13697,59 @@
         <v>423</v>
       </c>
       <c r="B216" s="117" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C216" s="118" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D216" s="117"/>
       <c r="E216" s="121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F216" s="120"/>
+    </row>
+    <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B217" s="117" t="s">
+        <v>861</v>
+      </c>
+      <c r="C217" s="118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" s="117"/>
+      <c r="E217" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F217" s="120"/>
+    </row>
+    <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B218" s="117" t="s">
+        <v>862</v>
+      </c>
+      <c r="C218" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218" s="117"/>
+      <c r="E218" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="F216" s="120"/>
-    </row>
-    <row r="217" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A217" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B217" s="117" t="s">
-        <v>866</v>
-      </c>
-      <c r="C217" s="121"/>
-      <c r="D217" s="20" t="s">
-        <v>800</v>
-      </c>
-      <c r="E217" s="121"/>
-      <c r="F217" s="120"/>
-    </row>
-    <row r="218" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A218" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B218" s="117" t="s">
-        <v>867</v>
-      </c>
-      <c r="C218" s="121"/>
-      <c r="D218" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="E218" s="121"/>
       <c r="F218" s="120"/>
     </row>
-    <row r="219" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A219" s="117" t="s">
         <v>417</v>
       </c>
       <c r="B219" s="117" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C219" s="121"/>
       <c r="D219" s="20" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E219" s="121"/>
       <c r="F219" s="120"/>
@@ -13757,114 +13759,106 @@
         <v>420</v>
       </c>
       <c r="B220" s="117" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C220" s="121"/>
       <c r="D220" s="20" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E220" s="121"/>
       <c r="F220" s="120"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="155" t="s">
+    <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A221" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B221" s="117" t="s">
+        <v>865</v>
+      </c>
+      <c r="C221" s="121"/>
+      <c r="D221" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="E221" s="121"/>
+      <c r="F221" s="120"/>
+    </row>
+    <row r="222" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A222" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B222" s="117" t="s">
+        <v>866</v>
+      </c>
+      <c r="C222" s="121"/>
+      <c r="D222" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="E222" s="121"/>
+      <c r="F222" s="120"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="158" t="s">
+        <v>867</v>
+      </c>
+      <c r="B223" s="159"/>
+      <c r="C223" s="159"/>
+      <c r="D223" s="159"/>
+      <c r="E223" s="160"/>
+      <c r="F223" s="120"/>
+    </row>
+    <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A224" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B224" s="117" t="s">
+        <v>868</v>
+      </c>
+      <c r="C224" s="118" t="s">
+        <v>869</v>
+      </c>
+      <c r="D224" s="117" t="s">
         <v>870</v>
       </c>
-      <c r="B221" s="156"/>
-      <c r="C221" s="156"/>
-      <c r="D221" s="156"/>
-      <c r="E221" s="157"/>
-      <c r="F221" s="120"/>
-    </row>
-    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A222" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B222" s="117" t="s">
+      <c r="E224" s="121" t="s">
         <v>871</v>
       </c>
-      <c r="C222" s="118" t="s">
+      <c r="F224" s="38" t="s">
         <v>872</v>
       </c>
-      <c r="D222" s="117" t="s">
+    </row>
+    <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A225" s="117" t="s">
+        <v>375</v>
+      </c>
+      <c r="B225" s="117" t="s">
         <v>873</v>
       </c>
-      <c r="E222" s="121" t="s">
+      <c r="C225" s="118" t="s">
         <v>874</v>
       </c>
-      <c r="F222" s="38" t="s">
+      <c r="D225" s="117" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A223" s="117" t="s">
-        <v>375</v>
-      </c>
-      <c r="B223" s="117" t="s">
+      <c r="E225" s="121" t="s">
         <v>876</v>
       </c>
-      <c r="C223" s="118" t="s">
+      <c r="F225" s="120"/>
+    </row>
+    <row r="226" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A226" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B226" s="117" t="s">
         <v>877</v>
       </c>
-      <c r="D223" s="117" t="s">
+      <c r="C226" s="59" t="s">
         <v>878</v>
       </c>
-      <c r="E223" s="121" t="s">
+      <c r="D226" s="117" t="s">
         <v>879</v>
       </c>
-      <c r="F223" s="120"/>
-    </row>
-    <row r="224" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A224" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B224" s="117" t="s">
+      <c r="E226" s="121" t="s">
         <v>880</v>
-      </c>
-      <c r="C224" s="59" t="s">
-        <v>881</v>
-      </c>
-      <c r="D224" s="117" t="s">
-        <v>882</v>
-      </c>
-      <c r="E224" s="121" t="s">
-        <v>883</v>
-      </c>
-      <c r="F224" s="120"/>
-    </row>
-    <row r="225" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A225" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B225" s="117" t="s">
-        <v>884</v>
-      </c>
-      <c r="C225" s="118" t="s">
-        <v>885</v>
-      </c>
-      <c r="D225" s="122" t="s">
-        <v>886</v>
-      </c>
-      <c r="E225" s="121" t="s">
-        <v>887</v>
-      </c>
-      <c r="F225" s="120"/>
-    </row>
-    <row r="226" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A226" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B226" s="117" t="s">
-        <v>888</v>
-      </c>
-      <c r="C226" s="118" t="s">
-        <v>391</v>
-      </c>
-      <c r="D226" s="122" t="s">
-        <v>889</v>
-      </c>
-      <c r="E226" s="121" t="s">
-        <v>393</v>
       </c>
       <c r="F226" s="120"/>
     </row>
@@ -13873,34 +13867,34 @@
         <v>389</v>
       </c>
       <c r="B227" s="117" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C227" s="118" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="D227" s="122" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="E227" s="121" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F227" s="120"/>
     </row>
-    <row r="228" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B228" s="117" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C228" s="118" t="s">
-        <v>895</v>
+        <v>391</v>
       </c>
       <c r="D228" s="122" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E228" s="121" t="s">
-        <v>897</v>
+        <v>393</v>
       </c>
       <c r="F228" s="120"/>
     </row>
@@ -13909,70 +13903,70 @@
         <v>389</v>
       </c>
       <c r="B229" s="117" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C229" s="118" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="D229" s="122" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="E229" s="121" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F229" s="120"/>
     </row>
-    <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A230" s="117" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="B230" s="117" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="C230" s="118" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="D230" s="122" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="E230" s="121" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="F230" s="120"/>
     </row>
-    <row r="231" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B231" s="117" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="C231" s="118" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="D231" s="122" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E231" s="121" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="F231" s="120"/>
     </row>
     <row r="232" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="117" t="s">
-        <v>389</v>
+        <v>498</v>
       </c>
       <c r="B232" s="117" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="C232" s="118" t="s">
-        <v>323</v>
+        <v>900</v>
       </c>
       <c r="D232" s="122" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="E232" s="121" t="s">
-        <v>325</v>
+        <v>901</v>
       </c>
       <c r="F232" s="120"/>
     </row>
@@ -13981,62 +13975,84 @@
         <v>389</v>
       </c>
       <c r="B233" s="117" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="C233" s="118" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D233" s="122" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="E233" s="121" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="F233" s="120"/>
     </row>
-    <row r="234" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B234" s="117" t="s">
+        <v>906</v>
+      </c>
+      <c r="C234" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="D234" s="122" t="s">
+        <v>907</v>
+      </c>
+      <c r="E234" s="121" t="s">
+        <v>325</v>
+      </c>
+      <c r="F234" s="120"/>
+    </row>
+    <row r="235" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A235" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="B235" s="117" t="s">
+        <v>908</v>
+      </c>
+      <c r="C235" s="118" t="s">
+        <v>909</v>
+      </c>
+      <c r="D235" s="122" t="s">
+        <v>910</v>
+      </c>
+      <c r="E235" s="121" t="s">
+        <v>911</v>
+      </c>
+      <c r="F235" s="120"/>
+    </row>
+    <row r="236" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A236" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="B236" s="117" t="s">
+        <v>912</v>
+      </c>
+      <c r="C236" s="118" t="s">
+        <v>913</v>
+      </c>
+      <c r="D236" s="122" t="s">
+        <v>914</v>
+      </c>
+      <c r="E236" s="121" t="s">
         <v>915</v>
       </c>
-      <c r="C234" s="118" t="s">
-        <v>916</v>
-      </c>
-      <c r="D234" s="122" t="s">
-        <v>917</v>
-      </c>
-      <c r="E234" s="121" t="s">
-        <v>918</v>
-      </c>
-      <c r="F234" s="120"/>
-    </row>
-    <row r="235" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="D235" s="5"/>
-      <c r="E235" s="37"/>
-      <c r="F235" s="68" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="37"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F236" s="120"/>
+    </row>
+    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
-      <c r="C237" s="6"/>
+      <c r="C237" s="6" t="s">
+        <v>916</v>
+      </c>
       <c r="D237" s="5"/>
       <c r="E237" s="37"/>
+      <c r="F237" s="68" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
@@ -14766,30 +14782,44 @@
       <c r="D341" s="5"/>
       <c r="E341" s="37"/>
     </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="5"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="5"/>
+      <c r="E342" s="37"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="5"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="5"/>
+      <c r="E343" s="37"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A135:E135"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A164:E164"/>
     <mergeCell ref="A57:E57"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A221:E221"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="A188:E188"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="A210:E210"/>
+    <mergeCell ref="A223:E223"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="A212:E212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14836,123 +14866,123 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170" t="s">
-        <v>921</v>
-      </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172"/>
+      <c r="A2" s="173" t="s">
+        <v>918</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>411</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -14963,10 +14993,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -14976,29 +15006,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="170" t="s">
-        <v>943</v>
-      </c>
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="172"/>
+      <c r="A12" s="173" t="s">
+        <v>940</v>
+      </c>
+      <c r="B12" s="174"/>
+      <c r="C12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="175"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>942</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>944</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>945</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15006,16 +15036,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>946</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>948</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>949</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>950</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15023,16 +15053,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15040,16 +15070,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15057,16 +15087,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C17" s="152" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E17" s="153" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15074,11 +15104,11 @@
         <v>417</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15086,176 +15116,176 @@
         <v>420</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="179" t="s">
-        <v>963</v>
-      </c>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="181"/>
+      <c r="A20" s="182" t="s">
+        <v>960</v>
+      </c>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="184"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="82" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="82" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="82" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="176" t="s">
-        <v>976</v>
-      </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="178"/>
+      <c r="A24" s="179" t="s">
+        <v>973</v>
+      </c>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="181"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="167" t="s">
-        <v>980</v>
-      </c>
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
+      <c r="A26" s="170" t="s">
+        <v>977</v>
+      </c>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="172"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="167" t="s">
-        <v>984</v>
-      </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
+      <c r="A28" s="170" t="s">
+        <v>981</v>
+      </c>
+      <c r="B28" s="171"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="172"/>
     </row>
     <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="92" t="s">
         <v>243</v>
       </c>
       <c r="B29" s="93" t="s">
+        <v>982</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>983</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>984</v>
+      </c>
+      <c r="E29" s="86" t="s">
         <v>985</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="F29" s="72" t="s">
         <v>986</v>
-      </c>
-      <c r="D29" s="93" t="s">
-        <v>987</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>988</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="95" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B30" s="96" t="s">
+        <v>987</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>988</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>989</v>
+      </c>
+      <c r="E30" s="90" t="s">
         <v>990</v>
-      </c>
-      <c r="C30" s="97" t="s">
-        <v>991</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>992</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="D31" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15263,13 +15293,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15277,16 +15307,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>998</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>999</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="46" t="s">
         <v>1001</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15294,11 +15324,11 @@
         <v>417</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15306,11 +15336,11 @@
         <v>417</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15318,37 +15348,37 @@
         <v>420</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="167" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="169"/>
+      <c r="A37" s="170" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="172"/>
     </row>
     <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E38" s="46" t="s">
         <v>1012</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15356,11 +15386,11 @@
         <v>417</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15368,40 +15398,40 @@
         <v>420</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="173" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="174"/>
-      <c r="E41" s="175"/>
+      <c r="A41" s="176" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="178"/>
     </row>
     <row r="42" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
         <v>243</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15409,16 +15439,16 @@
         <v>375</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15426,16 +15456,16 @@
         <v>261</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D44" s="117" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>1025</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15443,16 +15473,16 @@
         <v>389</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D45" s="122" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15460,16 +15490,16 @@
         <v>389</v>
       </c>
       <c r="B46" s="117" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D46" s="122" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>1032</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D46" s="122" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15477,16 +15507,16 @@
         <v>389</v>
       </c>
       <c r="B47" s="117" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E47" s="46" t="s">
         <v>1036</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D47" s="122" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15494,16 +15524,16 @@
         <v>389</v>
       </c>
       <c r="B48" s="117" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D48" s="122" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E48" s="46" t="s">
         <v>1040</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D48" s="122" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15511,16 +15541,16 @@
         <v>389</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D49" s="102" t="s">
         <v>411</v>
       </c>
       <c r="E49" s="86" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15528,7 +15558,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -15539,36 +15569,36 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1051</v>
-      </c>
       <c r="F51" s="72" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>1051</v>
-      </c>
       <c r="F52" s="72" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15576,16 +15606,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D53" s="122" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15593,16 +15623,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -15665,52 +15695,52 @@
         <v>243</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B3" s="137" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E3" s="139" t="s">
         <v>1063</v>
-      </c>
-      <c r="C3" s="138" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E3" s="139" t="s">
-        <v>1066</v>
       </c>
       <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D4" s="137" t="s">
         <v>1067</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="E4" s="139" t="s">
         <v>1068</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>1071</v>
       </c>
       <c r="F4" s="136"/>
     </row>
@@ -15719,11 +15749,11 @@
         <v>417</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="137" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E5" s="139"/>
       <c r="F5" s="136"/>
@@ -15733,84 +15763,84 @@
         <v>420</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="137" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E6" s="139"/>
       <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B7" s="137" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E7" s="139" t="s">
         <v>1076</v>
-      </c>
-      <c r="C7" s="138" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>1079</v>
       </c>
       <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B8" s="137" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E8" s="139" t="s">
         <v>1080</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>1083</v>
       </c>
       <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B9" s="137" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E9" s="139" t="s">
         <v>1084</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>1087</v>
       </c>
       <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B10" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E10" s="139" t="s">
         <v>1088</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>1091</v>
       </c>
       <c r="F10" s="136"/>
     </row>
@@ -15819,32 +15849,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E11" s="139"/>
       <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B12" s="137" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E12" s="139" t="s">
         <v>1095</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>1098</v>
       </c>
       <c r="F12" s="136"/>
     </row>
@@ -15853,11 +15883,11 @@
         <v>417</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="C13" s="139"/>
       <c r="D13" s="137" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E13" s="139"/>
       <c r="F13" s="136"/>
@@ -15867,83 +15897,83 @@
         <v>420</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C14" s="139"/>
       <c r="D14" s="137" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E14" s="139"/>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B15" s="137" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E15" s="139" t="s">
         <v>1102</v>
-      </c>
-      <c r="C15" s="138" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>1105</v>
       </c>
       <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E16" s="139" t="s">
         <v>1106</v>
-      </c>
-      <c r="C16" s="138" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>1109</v>
       </c>
       <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B17" s="137" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E17" s="139" t="s">
         <v>1110</v>
-      </c>
-      <c r="C17" s="138" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B18" s="137" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>1114</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -15951,11 +15981,11 @@
         <v>417</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E19" s="139"/>
     </row>
@@ -15964,11 +15994,11 @@
         <v>420</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="E20" s="139"/>
     </row>
@@ -15977,29 +16007,29 @@
         <v>420</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E21" s="139"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="137" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D22" s="137" t="s">
         <v>1123</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="E22" s="139" t="s">
         <v>1124</v>
-      </c>
-      <c r="C22" s="138" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D22" s="137" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16007,11 +16037,11 @@
         <v>417</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="137" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="E23" s="139"/>
     </row>
@@ -16020,11 +16050,11 @@
         <v>420</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="137" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="E24" s="139"/>
     </row>
@@ -16033,11 +16063,11 @@
         <v>420</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E25" s="139"/>
     </row>
@@ -16046,76 +16076,76 @@
         <v>254</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E26" s="139" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="137" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B27" s="137" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D27" s="137" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E27" s="139" t="s">
         <v>1137</v>
       </c>
-      <c r="C27" s="138" t="s">
+    </row>
+    <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="185" t="s">
         <v>1138</v>
       </c>
-      <c r="D27" s="137" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E27" s="139" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="182" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B28" s="183"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="187"/>
     </row>
     <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="141" t="s">
         <v>243</v>
       </c>
       <c r="B29" s="142" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C29" s="143" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E29" s="144" t="s">
         <v>1142</v>
-      </c>
-      <c r="C29" s="143" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="145" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B30" s="145" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D30" s="145" t="s">
         <v>1146</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="E30" s="147" t="s">
         <v>1147</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D30" s="145" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16123,11 +16153,11 @@
         <v>417</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E31" s="147"/>
     </row>
@@ -16136,143 +16166,143 @@
         <v>420</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E32" s="147"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="185" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="188"/>
+      <c r="A33" s="188" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="191"/>
     </row>
     <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="145" t="s">
         <v>243</v>
       </c>
       <c r="B34" s="148" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E34" s="147" t="s">
         <v>1154</v>
-      </c>
-      <c r="C34" s="146" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E34" s="147" t="s">
-        <v>1157</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="145" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B35" s="149" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C35" s="146" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E35" s="147" t="s">
         <v>1158</v>
-      </c>
-      <c r="C35" s="146" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D35" s="150" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E35" s="147" t="s">
-        <v>1161</v>
       </c>
       <c r="F35" s="136"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="145" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C36" s="146" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D36" s="150" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E36" s="147" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F36" s="136"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="145" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D37" s="150" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E37" s="147" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F37" s="136"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="145" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D38" s="150" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E38" s="147" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="145" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D39" s="150" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E39" s="147" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F39" s="136"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="145" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="150" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="E40" s="147" t="s">
         <v>95</v>
@@ -16284,11 +16314,11 @@
         <v>417</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E41" s="147"/>
       <c r="F41" s="136"/>
@@ -16298,11 +16328,11 @@
         <v>420</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E42" s="147"/>
       <c r="F42" s="136"/>
@@ -16312,16 +16342,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="137" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E43" s="147" t="s">
         <v>1177</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E43" s="147" t="s">
-        <v>1180</v>
       </c>
       <c r="F43" s="136"/>
     </row>
@@ -16330,11 +16360,11 @@
         <v>417</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E44" s="147"/>
       <c r="F44" s="136"/>
@@ -16344,76 +16374,76 @@
         <v>420</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E45" s="147"/>
       <c r="F45" s="136"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="182" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
+      <c r="A46" s="185" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B46" s="186"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="187"/>
     </row>
     <row r="47" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="145" t="s">
         <v>243</v>
       </c>
       <c r="B47" s="145" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D47" s="117" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>871</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>1184</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>874</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="145" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B48" s="145" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D48" s="117" t="s">
         <v>1188</v>
       </c>
-      <c r="B48" s="145" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D48" s="117" t="s">
-        <v>1191</v>
-      </c>
       <c r="E48" s="63" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="145" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B49" s="145" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D49" s="117" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16421,19 +16451,19 @@
         <v>389</v>
       </c>
       <c r="B50" s="137" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C50" s="146" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D50" s="122" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F50" s="74" t="s">
         <v>1194</v>
-      </c>
-      <c r="C50" s="146" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D50" s="122" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16441,16 +16471,16 @@
         <v>389</v>
       </c>
       <c r="B51" s="137" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C51" s="146" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D51" s="122" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E51" s="63" t="s">
         <v>1198</v>
-      </c>
-      <c r="C51" s="146" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D51" s="122" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16458,16 +16488,16 @@
         <v>389</v>
       </c>
       <c r="B52" s="137" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C52" s="146" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D52" s="122" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="63" t="s">
         <v>1202</v>
-      </c>
-      <c r="C52" s="146" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D52" s="122" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16475,16 +16505,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="137" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C53" s="146" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D53" s="122" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E53" s="63" t="s">
         <v>1206</v>
-      </c>
-      <c r="C53" s="146" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D53" s="122" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16492,16 +16522,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="137" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C54" s="146" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D54" s="122" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E54" s="63" t="s">
         <v>1210</v>
-      </c>
-      <c r="C54" s="146" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D54" s="122" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16509,19 +16539,19 @@
         <v>389</v>
       </c>
       <c r="B55" s="137" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C55" s="146" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D55" s="122" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F55" s="74" t="s">
         <v>1214</v>
-      </c>
-      <c r="C55" s="146" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D55" s="122" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16529,19 +16559,19 @@
         <v>389</v>
       </c>
       <c r="B56" s="137" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C56" s="146" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D56" s="122" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E56" s="63" t="s">
         <v>1218</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="F56" s="74" t="s">
         <v>1219</v>
-      </c>
-      <c r="D56" s="122" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16549,19 +16579,19 @@
         <v>389</v>
       </c>
       <c r="B57" s="137" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C57" s="146" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D57" s="122" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E57" s="63" t="s">
         <v>1223</v>
       </c>
-      <c r="C57" s="146" t="s">
+      <c r="F57" s="74" t="s">
         <v>1224</v>
-      </c>
-      <c r="D57" s="122" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16569,19 +16599,19 @@
         <v>389</v>
       </c>
       <c r="B58" s="137" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C58" s="146" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D58" s="122" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E58" s="63" t="s">
         <v>1228</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="F58" s="74" t="s">
         <v>1229</v>
-      </c>
-      <c r="D58" s="122" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16589,16 +16619,16 @@
         <v>389</v>
       </c>
       <c r="B59" s="137" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C59" s="146" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D59" s="122" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E59" s="63" t="s">
         <v>1233</v>
-      </c>
-      <c r="C59" s="146" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16606,16 +16636,16 @@
         <v>389</v>
       </c>
       <c r="B60" s="137" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C60" s="146" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D60" s="122" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E60" s="63" t="s">
         <v>1237</v>
-      </c>
-      <c r="C60" s="146" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D60" s="122" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16623,16 +16653,16 @@
         <v>389</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C61" s="146" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D61" s="122" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E61" s="63" t="s">
         <v>1241</v>
-      </c>
-      <c r="C61" s="146" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D61" s="122" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16640,63 +16670,63 @@
         <v>389</v>
       </c>
       <c r="B62" s="137" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C62" s="146" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D62" s="122" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E62" s="80" t="s">
         <v>1245</v>
-      </c>
-      <c r="C62" s="146" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D62" s="122" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="145" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B63" s="145" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C63" s="146" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D63" s="149"/>
       <c r="E63" s="79" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="F63" s="136"/>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="145" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B64" s="145" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C64" s="146" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D64" s="149"/>
       <c r="E64" s="79" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="F64" s="136"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="145" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B65" s="137" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C65" s="146" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D65" s="149"/>
       <c r="E65" s="79" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F65" s="136"/>
     </row>
@@ -16811,16 +16841,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>1254</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16828,16 +16858,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16845,50 +16875,50 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1262</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1265</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16896,16 +16926,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16913,49 +16943,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="75" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2F62DB-7B51-3148-9304-189BED334D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BDF17E-F5E6-534B-A2AE-42A18653E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="1406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1409">
   <si>
     <r>
       <rPr>
@@ -3807,15 +3807,6 @@
     <t>dpdOtherLocationPostcodeLink</t>
   </si>
   <si>
-    <t>dpdOtherLocationsFindAddress</t>
-  </si>
-  <si>
-    <t>dpdOtherLocationsLink</t>
-  </si>
-  <si>
-    <t>Or find the address using hospital name or postcode (new content)</t>
-  </si>
-  <si>
     <t>dpdOtherLocationPostcodeSearchValidationSummaryEmpty</t>
   </si>
   <si>
@@ -5753,9 +5744,6 @@
     <t>Er enghraifft, in Castle Park, Bingley near the fountain</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
     <t>dpdPlaceOfBirthHintWelsh</t>
   </si>
   <si>
@@ -5766,6 +5754,27 @@
   </si>
   <si>
     <t>Er enghraifft, Royal Victoria Infirmary, Newcastle</t>
+  </si>
+  <si>
+    <t>Find the address using hospital name or postcode</t>
+  </si>
+  <si>
+    <t>Dewch o hyd i'r cyfeiriad gan ddefnyddio enw ysbyty neu côd post</t>
+  </si>
+  <si>
+    <t>Find the address using postcode</t>
+  </si>
+  <si>
+    <t>dpdOtherLocationHospitalPostcodeLink</t>
+  </si>
+  <si>
+    <t>dpdOtherLocationFindAddress</t>
+  </si>
+  <si>
+    <t>Dod o hyd i'r cyfeiriad gan ddefnyddio côd post</t>
+  </si>
+  <si>
+    <t>014</t>
   </si>
 </sst>
 </file>
@@ -6709,6 +6718,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6725,15 +6743,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7777,33 +7786,33 @@
         <v>243</v>
       </c>
       <c r="B2" s="93" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E2" s="86" t="s">
         <v>1271</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D3" s="96" t="s">
         <v>1275</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="E3" s="90" t="s">
         <v>1276</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D3" s="96" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7811,16 +7820,16 @@
         <v>766</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D4" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7828,13 +7837,13 @@
         <v>417</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E5" s="90" t="s">
         <v>411</v>
@@ -7845,13 +7854,13 @@
         <v>420</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E6" s="90" t="s">
         <v>411</v>
@@ -7879,33 +7888,33 @@
         <v>243</v>
       </c>
       <c r="B8" s="96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E8" s="90" t="s">
         <v>1287</v>
-      </c>
-      <c r="C8" s="97" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B9" s="96" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E9" s="90" t="s">
         <v>1291</v>
-      </c>
-      <c r="C9" s="97" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7913,10 +7922,10 @@
         <v>766</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>411</v>
@@ -7930,13 +7939,13 @@
         <v>417</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E11" s="90" t="s">
         <v>411</v>
@@ -7947,13 +7956,13 @@
         <v>420</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E12" s="90" t="s">
         <v>411</v>
@@ -7981,13 +7990,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E14" s="90" t="s">
         <v>411</v>
@@ -7995,19 +8004,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B15" s="96" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E15" s="90" t="s">
         <v>1302</v>
-      </c>
-      <c r="C15" s="97" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D15" s="96" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8015,13 +8024,13 @@
         <v>417</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E16" s="90" t="s">
         <v>411</v>
@@ -8032,13 +8041,13 @@
         <v>420</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E17" s="90" t="s">
         <v>411</v>
@@ -8049,16 +8058,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D18" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8083,13 +8092,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E20" s="90" t="s">
         <v>411</v>
@@ -8097,16 +8106,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="E21" s="90" t="s">
         <v>411</v>
@@ -8117,10 +8126,10 @@
         <v>766</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>411</v>
@@ -8134,13 +8143,13 @@
         <v>417</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E23" s="90" t="s">
         <v>411</v>
@@ -8151,13 +8160,13 @@
         <v>420</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E24" s="90" t="s">
         <v>411</v>
@@ -8210,7 +8219,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="192" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B2" s="193"/>
       <c r="C2" s="193"/>
@@ -8223,16 +8232,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8240,13 +8249,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8254,13 +8263,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8268,13 +8277,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8282,127 +8291,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>1336</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>1340</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8410,34 +8419,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="192" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B18" s="193"/>
       <c r="C18" s="193"/>
@@ -8450,16 +8459,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8467,10 +8476,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8478,13 +8487,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -8492,10 +8501,10 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8519,7 +8528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8559,13 +8568,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
       <c r="F2" s="99"/>
     </row>
@@ -9636,18 +9645,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>1388</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10410,11 +10419,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
-  <dimension ref="A1:F343"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10449,13 +10458,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10583,13 +10592,13 @@
       <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10618,13 +10627,13 @@
         <v>408</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>409</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="F12" s="87"/>
     </row>
@@ -10636,13 +10645,13 @@
         <v>410</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>411</v>
       </c>
       <c r="E13" s="156" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="F13" s="87"/>
     </row>
@@ -11342,7 +11351,7 @@
         <v>530</v>
       </c>
       <c r="E60" s="121" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="F60" s="120"/>
     </row>
@@ -11351,14 +11360,14 @@
         <v>527</v>
       </c>
       <c r="B61" s="117" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C61" s="118" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="D61" s="117"/>
       <c r="E61" s="121" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="F61" s="120"/>
     </row>
@@ -12544,7 +12553,7 @@
         <v>718</v>
       </c>
       <c r="C140" s="114" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D140" s="123" t="s">
         <v>719</v>
@@ -12634,7 +12643,7 @@
         <v>733</v>
       </c>
       <c r="C146" s="59" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="D146" s="117" t="s">
         <v>734</v>
@@ -12665,14 +12674,14 @@
         <v>37</v>
       </c>
       <c r="B148" s="117" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C148" s="59" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="121" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="F148" s="120"/>
     </row>
@@ -12681,14 +12690,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="121" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F149" s="120"/>
     </row>
@@ -12907,13 +12916,13 @@
       <c r="F163" s="120"/>
     </row>
     <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="167" t="s">
+      <c r="A164" s="161" t="s">
         <v>773</v>
       </c>
-      <c r="B164" s="168"/>
-      <c r="C164" s="168"/>
-      <c r="D164" s="168"/>
-      <c r="E164" s="169"/>
+      <c r="B164" s="162"/>
+      <c r="C164" s="162"/>
+      <c r="D164" s="162"/>
+      <c r="E164" s="163"/>
       <c r="F164" s="130" t="s">
         <v>774</v>
       </c>
@@ -13340,13 +13349,13 @@
         <v>823</v>
       </c>
       <c r="C192" s="59" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D192" s="117" t="s">
         <v>824</v>
       </c>
       <c r="E192" s="121" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="F192" s="120"/>
     </row>
@@ -13355,14 +13364,14 @@
         <v>491</v>
       </c>
       <c r="B193" s="117" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D193" s="117"/>
       <c r="E193" s="121" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="F193" s="120"/>
     </row>
@@ -13456,223 +13465,225 @@
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="117" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B200" s="117" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C200" s="118" t="s">
-        <v>43</v>
+        <v>1404</v>
       </c>
       <c r="D200" s="117"/>
       <c r="E200" s="121" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F200" s="120"/>
+    </row>
+    <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="117" t="s">
+        <v>742</v>
+      </c>
+      <c r="B201" s="117" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C201" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D201" s="117"/>
+      <c r="E201" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F200" s="120"/>
-    </row>
-    <row r="201" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A201" s="117" t="s">
+      <c r="F201" s="120"/>
+    </row>
+    <row r="202" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="B201" s="117" t="s">
-        <v>837</v>
-      </c>
-      <c r="C201" s="135" t="s">
-        <v>838</v>
-      </c>
-      <c r="D201" s="117"/>
-      <c r="E201" s="121"/>
-      <c r="F201" s="120"/>
-    </row>
-    <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A202" s="117" t="s">
+      <c r="B202" s="117" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C202" s="135" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D202" s="117"/>
+      <c r="E202" s="121" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F202" s="120"/>
+    </row>
+    <row r="203" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A203" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B202" s="117" t="s">
-        <v>839</v>
-      </c>
-      <c r="C202" s="121"/>
-      <c r="D202" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="E202" s="121"/>
-      <c r="F202" s="120"/>
-    </row>
-    <row r="203" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A203" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B203" s="117" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C203" s="121"/>
       <c r="D203" s="20" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E203" s="121"/>
       <c r="F203" s="120"/>
     </row>
-    <row r="204" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A204" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B204" s="117" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C204" s="121"/>
       <c r="D204" s="20" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E204" s="121"/>
       <c r="F204" s="120"/>
     </row>
-    <row r="205" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A205" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B205" s="117" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C205" s="121"/>
       <c r="D205" s="20" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E205" s="121"/>
       <c r="F205" s="120"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="158" t="s">
+    <row r="206" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A206" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B206" s="117" t="s">
+        <v>839</v>
+      </c>
+      <c r="C206" s="121"/>
+      <c r="D206" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E206" s="121"/>
+      <c r="F206" s="120"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="158" t="s">
+        <v>840</v>
+      </c>
+      <c r="B207" s="159"/>
+      <c r="C207" s="159"/>
+      <c r="D207" s="159"/>
+      <c r="E207" s="160"/>
+      <c r="F207" s="120"/>
+    </row>
+    <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A208" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B208" s="117" t="s">
+        <v>841</v>
+      </c>
+      <c r="C208" s="118" t="s">
+        <v>842</v>
+      </c>
+      <c r="D208" s="117" t="s">
         <v>843</v>
       </c>
-      <c r="B206" s="159"/>
-      <c r="C206" s="159"/>
-      <c r="D206" s="159"/>
-      <c r="E206" s="160"/>
-      <c r="F206" s="120"/>
-    </row>
-    <row r="207" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A207" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B207" s="117" t="s">
+      <c r="E208" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="F208" s="120"/>
+    </row>
+    <row r="209" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A209" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B209" s="117" t="s">
         <v>844</v>
       </c>
-      <c r="C207" s="118" t="s">
+      <c r="C209" s="118" t="s">
+        <v>759</v>
+      </c>
+      <c r="D209" s="126" t="s">
         <v>845</v>
       </c>
-      <c r="D207" s="117" t="s">
-        <v>846</v>
-      </c>
-      <c r="E207" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="F207" s="120"/>
-    </row>
-    <row r="208" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A208" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B208" s="117" t="s">
-        <v>847</v>
-      </c>
-      <c r="C208" s="118" t="s">
-        <v>759</v>
-      </c>
-      <c r="D208" s="126" t="s">
-        <v>848</v>
-      </c>
-      <c r="E208" s="121" t="s">
+      <c r="E209" s="121" t="s">
         <v>761</v>
-      </c>
-      <c r="F208" s="120"/>
-    </row>
-    <row r="209" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A209" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B209" s="117" t="s">
-        <v>849</v>
-      </c>
-      <c r="C209" s="118" t="s">
-        <v>763</v>
-      </c>
-      <c r="D209" s="126" t="s">
-        <v>850</v>
-      </c>
-      <c r="E209" s="121" t="s">
-        <v>765</v>
       </c>
       <c r="F209" s="120"/>
     </row>
     <row r="210" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A210" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B210" s="117" t="s">
+        <v>846</v>
+      </c>
+      <c r="C210" s="118" t="s">
+        <v>763</v>
+      </c>
+      <c r="D210" s="126" t="s">
+        <v>847</v>
+      </c>
+      <c r="E210" s="121" t="s">
+        <v>765</v>
+      </c>
+      <c r="F210" s="120"/>
+    </row>
+    <row r="211" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A211" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B210" s="117" t="s">
-        <v>851</v>
-      </c>
-      <c r="C210" s="129"/>
-      <c r="D210" s="20" t="s">
+      <c r="B211" s="117" t="s">
+        <v>848</v>
+      </c>
+      <c r="C211" s="129"/>
+      <c r="D211" s="20" t="s">
         <v>770</v>
-      </c>
-      <c r="E210" s="121"/>
-      <c r="F210" s="120"/>
-    </row>
-    <row r="211" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A211" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B211" s="117" t="s">
-        <v>852</v>
-      </c>
-      <c r="C211" s="121"/>
-      <c r="D211" s="20" t="s">
-        <v>772</v>
       </c>
       <c r="E211" s="121"/>
       <c r="F211" s="120"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="158" t="s">
+    <row r="212" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A212" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B212" s="117" t="s">
+        <v>849</v>
+      </c>
+      <c r="C212" s="121"/>
+      <c r="D212" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="E212" s="121"/>
+      <c r="F212" s="120"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="158" t="s">
+        <v>850</v>
+      </c>
+      <c r="B213" s="159"/>
+      <c r="C213" s="159"/>
+      <c r="D213" s="159"/>
+      <c r="E213" s="160"/>
+      <c r="F213" s="120"/>
+    </row>
+    <row r="214" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B214" s="117" t="s">
+        <v>851</v>
+      </c>
+      <c r="C214" s="118" t="s">
+        <v>852</v>
+      </c>
+      <c r="D214" s="117" t="s">
         <v>853</v>
       </c>
-      <c r="B212" s="159"/>
-      <c r="C212" s="159"/>
-      <c r="D212" s="159"/>
-      <c r="E212" s="160"/>
-      <c r="F212" s="120"/>
-    </row>
-    <row r="213" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A213" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B213" s="117" t="s">
+      <c r="E214" s="121" t="s">
         <v>854</v>
-      </c>
-      <c r="C213" s="118" t="s">
-        <v>855</v>
-      </c>
-      <c r="D213" s="117" t="s">
-        <v>856</v>
-      </c>
-      <c r="E213" s="121" t="s">
-        <v>857</v>
-      </c>
-      <c r="F213" s="120"/>
-    </row>
-    <row r="214" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A214" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B214" s="117" t="s">
-        <v>858</v>
-      </c>
-      <c r="C214" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="D214" s="117"/>
-      <c r="E214" s="121" t="s">
-        <v>58</v>
       </c>
       <c r="F214" s="120"/>
     </row>
@@ -13681,14 +13692,14 @@
         <v>423</v>
       </c>
       <c r="B215" s="117" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C215" s="118" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D215" s="117"/>
       <c r="E215" s="121" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F215" s="120"/>
     </row>
@@ -13697,14 +13708,14 @@
         <v>423</v>
       </c>
       <c r="B216" s="117" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C216" s="118" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D216" s="117"/>
       <c r="E216" s="121" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F216" s="120"/>
     </row>
@@ -13713,14 +13724,14 @@
         <v>423</v>
       </c>
       <c r="B217" s="117" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C217" s="118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D217" s="117"/>
       <c r="E217" s="121" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F217" s="120"/>
     </row>
@@ -13729,154 +13740,152 @@
         <v>423</v>
       </c>
       <c r="B218" s="117" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C218" s="118" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D218" s="117"/>
       <c r="E218" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F218" s="120"/>
+    </row>
+    <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B219" s="117" t="s">
+        <v>859</v>
+      </c>
+      <c r="C219" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D219" s="117"/>
+      <c r="E219" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="F218" s="120"/>
-    </row>
-    <row r="219" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A219" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B219" s="117" t="s">
-        <v>863</v>
-      </c>
-      <c r="C219" s="121"/>
-      <c r="D219" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="E219" s="121"/>
       <c r="F219" s="120"/>
     </row>
     <row r="220" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A220" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B220" s="117" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C220" s="121"/>
       <c r="D220" s="20" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E220" s="121"/>
       <c r="F220" s="120"/>
     </row>
-    <row r="221" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B221" s="117" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C221" s="121"/>
       <c r="D221" s="20" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E221" s="121"/>
       <c r="F221" s="120"/>
     </row>
-    <row r="222" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A222" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B222" s="117" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C222" s="121"/>
       <c r="D222" s="20" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E222" s="121"/>
       <c r="F222" s="120"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="158" t="s">
-        <v>867</v>
-      </c>
-      <c r="B223" s="159"/>
-      <c r="C223" s="159"/>
-      <c r="D223" s="159"/>
-      <c r="E223" s="160"/>
+    <row r="223" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A223" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B223" s="117" t="s">
+        <v>863</v>
+      </c>
+      <c r="C223" s="121"/>
+      <c r="D223" s="20" t="s">
+        <v>805</v>
+      </c>
+      <c r="E223" s="121"/>
       <c r="F223" s="120"/>
     </row>
-    <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A224" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B224" s="117" t="s">
-        <v>868</v>
-      </c>
-      <c r="C224" s="118" t="s">
-        <v>869</v>
-      </c>
-      <c r="D224" s="117" t="s">
-        <v>870</v>
-      </c>
-      <c r="E224" s="121" t="s">
-        <v>871</v>
-      </c>
-      <c r="F224" s="38" t="s">
-        <v>872</v>
-      </c>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="158" t="s">
+        <v>864</v>
+      </c>
+      <c r="B224" s="159"/>
+      <c r="C224" s="159"/>
+      <c r="D224" s="159"/>
+      <c r="E224" s="160"/>
+      <c r="F224" s="120"/>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A225" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B225" s="117" t="s">
+        <v>865</v>
+      </c>
+      <c r="C225" s="118" t="s">
+        <v>866</v>
+      </c>
+      <c r="D225" s="117" t="s">
+        <v>867</v>
+      </c>
+      <c r="E225" s="121" t="s">
+        <v>868</v>
+      </c>
+      <c r="F225" s="38" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A226" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="B225" s="117" t="s">
+      <c r="B226" s="117" t="s">
+        <v>870</v>
+      </c>
+      <c r="C226" s="118" t="s">
+        <v>871</v>
+      </c>
+      <c r="D226" s="117" t="s">
+        <v>872</v>
+      </c>
+      <c r="E226" s="121" t="s">
         <v>873</v>
       </c>
-      <c r="C225" s="118" t="s">
+      <c r="F226" s="120"/>
+    </row>
+    <row r="227" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A227" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B227" s="117" t="s">
         <v>874</v>
       </c>
-      <c r="D225" s="117" t="s">
+      <c r="C227" s="59" t="s">
         <v>875</v>
       </c>
-      <c r="E225" s="121" t="s">
+      <c r="D227" s="117" t="s">
         <v>876</v>
       </c>
-      <c r="F225" s="120"/>
-    </row>
-    <row r="226" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A226" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B226" s="117" t="s">
+      <c r="E227" s="121" t="s">
         <v>877</v>
-      </c>
-      <c r="C226" s="59" t="s">
-        <v>878</v>
-      </c>
-      <c r="D226" s="117" t="s">
-        <v>879</v>
-      </c>
-      <c r="E226" s="121" t="s">
-        <v>880</v>
-      </c>
-      <c r="F226" s="120"/>
-    </row>
-    <row r="227" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A227" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B227" s="117" t="s">
-        <v>881</v>
-      </c>
-      <c r="C227" s="118" t="s">
-        <v>882</v>
-      </c>
-      <c r="D227" s="122" t="s">
-        <v>883</v>
-      </c>
-      <c r="E227" s="121" t="s">
-        <v>884</v>
       </c>
       <c r="F227" s="120"/>
     </row>
@@ -13885,16 +13894,16 @@
         <v>389</v>
       </c>
       <c r="B228" s="117" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="C228" s="118" t="s">
-        <v>391</v>
+        <v>879</v>
       </c>
       <c r="D228" s="122" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E228" s="121" t="s">
-        <v>393</v>
+        <v>881</v>
       </c>
       <c r="F228" s="120"/>
     </row>
@@ -13903,163 +13912,174 @@
         <v>389</v>
       </c>
       <c r="B229" s="117" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C229" s="118" t="s">
-        <v>888</v>
+        <v>391</v>
       </c>
       <c r="D229" s="122" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E229" s="121" t="s">
-        <v>890</v>
+        <v>393</v>
       </c>
       <c r="F229" s="120"/>
     </row>
-    <row r="230" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B230" s="117" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="C230" s="118" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="D230" s="122" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="E230" s="121" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="F230" s="120"/>
     </row>
-    <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A231" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B231" s="117" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="C231" s="118" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="D231" s="122" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E231" s="121" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="F231" s="120"/>
     </row>
     <row r="232" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="B232" s="117" t="s">
+        <v>892</v>
+      </c>
+      <c r="C232" s="118" t="s">
+        <v>893</v>
+      </c>
+      <c r="D232" s="122" t="s">
+        <v>894</v>
+      </c>
+      <c r="E232" s="121" t="s">
+        <v>895</v>
+      </c>
+      <c r="F232" s="120"/>
+    </row>
+    <row r="233" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A233" s="117" t="s">
         <v>498</v>
       </c>
-      <c r="B232" s="117" t="s">
-        <v>899</v>
-      </c>
-      <c r="C232" s="118" t="s">
-        <v>900</v>
-      </c>
-      <c r="D232" s="122" t="s">
+      <c r="B233" s="117" t="s">
+        <v>896</v>
+      </c>
+      <c r="C233" s="118" t="s">
         <v>897</v>
       </c>
-      <c r="E232" s="121" t="s">
-        <v>901</v>
-      </c>
-      <c r="F232" s="120"/>
-    </row>
-    <row r="233" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A233" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B233" s="117" t="s">
-        <v>902</v>
-      </c>
-      <c r="C233" s="118" t="s">
-        <v>903</v>
-      </c>
       <c r="D233" s="122" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="E233" s="121" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F233" s="120"/>
     </row>
-    <row r="234" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A234" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B234" s="117" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="C234" s="118" t="s">
-        <v>323</v>
+        <v>900</v>
       </c>
       <c r="D234" s="122" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E234" s="121" t="s">
-        <v>325</v>
+        <v>902</v>
       </c>
       <c r="F234" s="120"/>
     </row>
-    <row r="235" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A235" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B235" s="117" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C235" s="118" t="s">
-        <v>909</v>
+        <v>323</v>
       </c>
       <c r="D235" s="122" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E235" s="121" t="s">
-        <v>911</v>
+        <v>325</v>
       </c>
       <c r="F235" s="120"/>
     </row>
-    <row r="236" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A236" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B236" s="117" t="s">
+        <v>905</v>
+      </c>
+      <c r="C236" s="118" t="s">
+        <v>906</v>
+      </c>
+      <c r="D236" s="122" t="s">
+        <v>907</v>
+      </c>
+      <c r="E236" s="121" t="s">
+        <v>908</v>
+      </c>
+      <c r="F236" s="120"/>
+    </row>
+    <row r="237" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A237" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="B237" s="117" t="s">
+        <v>909</v>
+      </c>
+      <c r="C237" s="118" t="s">
+        <v>910</v>
+      </c>
+      <c r="D237" s="122" t="s">
+        <v>911</v>
+      </c>
+      <c r="E237" s="121" t="s">
         <v>912</v>
       </c>
-      <c r="C236" s="118" t="s">
-        <v>913</v>
-      </c>
-      <c r="D236" s="122" t="s">
-        <v>914</v>
-      </c>
-      <c r="E236" s="121" t="s">
-        <v>915</v>
-      </c>
-      <c r="F236" s="120"/>
-    </row>
-    <row r="237" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="6" t="s">
-        <v>916</v>
-      </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="37"/>
-      <c r="F237" s="68" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F237" s="120"/>
+    </row>
+    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
-      <c r="C238" s="6"/>
+      <c r="C238" s="6" t="s">
+        <v>913</v>
+      </c>
       <c r="D238" s="5"/>
       <c r="E238" s="37"/>
+      <c r="F238" s="68" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
@@ -14796,8 +14816,27 @@
       <c r="D343" s="5"/>
       <c r="E343" s="37"/>
     </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="5"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="5"/>
+      <c r="E344" s="37"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A189:E189"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A173:E173"/>
     <mergeCell ref="A156:E156"/>
     <mergeCell ref="A62:E62"/>
@@ -14808,18 +14847,6 @@
     <mergeCell ref="A145:E145"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A223:E223"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="A212:E212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14830,7 +14857,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -14867,7 +14894,7 @@
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="173" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B2" s="174"/>
       <c r="C2" s="174"/>
@@ -14879,28 +14906,28 @@
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14908,27 +14935,27 @@
         <v>740</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14936,30 +14963,30 @@
         <v>740</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B8" s="93" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="C8" s="94" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>411</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -14967,22 +14994,22 @@
         <v>740</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -14993,10 +15020,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -15007,7 +15034,7 @@
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B12" s="174"/>
       <c r="C12" s="174"/>
@@ -15019,16 +15046,16 @@
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>938</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>939</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>941</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>942</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15036,16 +15063,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>942</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>943</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>945</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>947</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15053,16 +15080,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15070,16 +15097,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15087,16 +15114,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C17" s="152" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E17" s="153" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15104,11 +15131,11 @@
         <v>417</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15116,16 +15143,16 @@
         <v>420</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="182" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B20" s="183"/>
       <c r="C20" s="183"/>
@@ -15134,52 +15161,52 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="82" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C22" s="83" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="82" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B23" s="95" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C23" s="83" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="82" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="179" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B24" s="180"/>
       <c r="C24" s="180"/>
@@ -15191,19 +15218,19 @@
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="170" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B26" s="171"/>
       <c r="C26" s="171"/>
@@ -15215,19 +15242,19 @@
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="170" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="171"/>
@@ -15239,53 +15266,53 @@
         <v>243</v>
       </c>
       <c r="B29" s="93" t="s">
+        <v>979</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>980</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>981</v>
+      </c>
+      <c r="E29" s="86" t="s">
         <v>982</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="F29" s="72" t="s">
         <v>983</v>
-      </c>
-      <c r="D29" s="93" t="s">
-        <v>984</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>985</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="95" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B30" s="96" t="s">
+        <v>984</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>985</v>
+      </c>
+      <c r="D30" s="96" t="s">
+        <v>986</v>
+      </c>
+      <c r="E30" s="90" t="s">
         <v>987</v>
-      </c>
-      <c r="C30" s="97" t="s">
-        <v>988</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>989</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D31" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15293,13 +15320,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15307,16 +15334,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>995</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="E33" s="46" t="s">
         <v>998</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>999</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15324,11 +15351,11 @@
         <v>417</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15336,11 +15363,11 @@
         <v>417</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15348,16 +15375,16 @@
         <v>420</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="170" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B37" s="171"/>
       <c r="C37" s="171"/>
@@ -15369,16 +15396,16 @@
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E38" s="46" t="s">
         <v>1009</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15386,11 +15413,11 @@
         <v>417</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15398,16 +15425,16 @@
         <v>420</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="176" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B41" s="177"/>
       <c r="C41" s="177"/>
@@ -15419,19 +15446,19 @@
         <v>243</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="E42" s="46" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="F42" s="73" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15439,16 +15466,16 @@
         <v>375</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15456,16 +15483,16 @@
         <v>261</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D44" s="117" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>1022</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>1024</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15473,16 +15500,16 @@
         <v>389</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D45" s="122" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15490,16 +15517,16 @@
         <v>389</v>
       </c>
       <c r="B46" s="117" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D46" s="122" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>1029</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D46" s="122" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15507,16 +15534,16 @@
         <v>389</v>
       </c>
       <c r="B47" s="117" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E47" s="46" t="s">
         <v>1033</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D47" s="122" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15524,16 +15551,16 @@
         <v>389</v>
       </c>
       <c r="B48" s="117" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D48" s="122" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E48" s="46" t="s">
         <v>1037</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D48" s="122" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15541,16 +15568,16 @@
         <v>389</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D49" s="102" t="s">
         <v>411</v>
       </c>
       <c r="E49" s="86" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15558,7 +15585,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -15569,36 +15596,36 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>1045</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1048</v>
-      </c>
       <c r="F51" s="72" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>1045</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>1048</v>
-      </c>
       <c r="F52" s="72" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15606,16 +15633,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D53" s="122" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15623,16 +15650,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -15695,52 +15722,52 @@
         <v>243</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B3" s="137" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E3" s="139" t="s">
         <v>1060</v>
-      </c>
-      <c r="C3" s="138" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E3" s="139" t="s">
-        <v>1063</v>
       </c>
       <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D4" s="137" t="s">
         <v>1064</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="E4" s="139" t="s">
         <v>1065</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>1068</v>
       </c>
       <c r="F4" s="136"/>
     </row>
@@ -15749,11 +15776,11 @@
         <v>417</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="137" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E5" s="139"/>
       <c r="F5" s="136"/>
@@ -15763,84 +15790,84 @@
         <v>420</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="137" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E6" s="139"/>
       <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B7" s="137" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E7" s="139" t="s">
         <v>1073</v>
-      </c>
-      <c r="C7" s="138" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>1076</v>
       </c>
       <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B8" s="137" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E8" s="139" t="s">
         <v>1077</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>1080</v>
       </c>
       <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B9" s="137" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E9" s="139" t="s">
         <v>1081</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>1084</v>
       </c>
       <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B10" s="137" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E10" s="139" t="s">
         <v>1085</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>1088</v>
       </c>
       <c r="F10" s="136"/>
     </row>
@@ -15849,32 +15876,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E11" s="139"/>
       <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B12" s="137" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E12" s="139" t="s">
         <v>1092</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>1095</v>
       </c>
       <c r="F12" s="136"/>
     </row>
@@ -15883,11 +15910,11 @@
         <v>417</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C13" s="139"/>
       <c r="D13" s="137" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E13" s="139"/>
       <c r="F13" s="136"/>
@@ -15897,83 +15924,83 @@
         <v>420</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C14" s="139"/>
       <c r="D14" s="137" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E14" s="139"/>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B15" s="137" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E15" s="139" t="s">
         <v>1099</v>
-      </c>
-      <c r="C15" s="138" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>1102</v>
       </c>
       <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E16" s="139" t="s">
         <v>1103</v>
-      </c>
-      <c r="C16" s="138" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>1106</v>
       </c>
       <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B17" s="137" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E17" s="139" t="s">
         <v>1107</v>
-      </c>
-      <c r="C17" s="138" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B18" s="137" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>1111</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -15981,11 +16008,11 @@
         <v>417</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="E19" s="139"/>
     </row>
@@ -15994,11 +16021,11 @@
         <v>420</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E20" s="139"/>
     </row>
@@ -16007,29 +16034,29 @@
         <v>420</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="E21" s="139"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="137" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D22" s="137" t="s">
         <v>1120</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="E22" s="139" t="s">
         <v>1121</v>
-      </c>
-      <c r="C22" s="138" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D22" s="137" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16037,11 +16064,11 @@
         <v>417</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="137" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E23" s="139"/>
     </row>
@@ -16050,11 +16077,11 @@
         <v>420</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="137" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="E24" s="139"/>
     </row>
@@ -16063,11 +16090,11 @@
         <v>420</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E25" s="139"/>
     </row>
@@ -16076,38 +16103,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E26" s="139" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="137" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B27" s="137" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D27" s="137" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E27" s="139" t="s">
         <v>1134</v>
-      </c>
-      <c r="C27" s="138" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E27" s="139" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="185" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B28" s="186"/>
       <c r="C28" s="186"/>
@@ -16119,33 +16146,33 @@
         <v>243</v>
       </c>
       <c r="B29" s="142" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C29" s="143" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E29" s="144" t="s">
         <v>1139</v>
-      </c>
-      <c r="C29" s="143" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="145" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B30" s="145" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D30" s="145" t="s">
         <v>1143</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="E30" s="147" t="s">
         <v>1144</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D30" s="145" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16153,11 +16180,11 @@
         <v>417</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E31" s="147"/>
     </row>
@@ -16166,17 +16193,17 @@
         <v>420</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E32" s="147"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="188" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B33" s="189"/>
       <c r="C33" s="190"/>
@@ -16188,121 +16215,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="148" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E34" s="147" t="s">
         <v>1151</v>
-      </c>
-      <c r="C34" s="146" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E34" s="147" t="s">
-        <v>1154</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="145" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B35" s="149" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C35" s="146" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E35" s="147" t="s">
         <v>1155</v>
-      </c>
-      <c r="C35" s="146" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D35" s="150" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E35" s="147" t="s">
-        <v>1158</v>
       </c>
       <c r="F35" s="136"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="145" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C36" s="146" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D36" s="150" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E36" s="147" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F36" s="136"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="145" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D37" s="150" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E37" s="147" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F37" s="136"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="145" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D38" s="150" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E38" s="147" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="145" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D39" s="150" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E39" s="147" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F39" s="136"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="145" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="150" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="E40" s="147" t="s">
         <v>95</v>
@@ -16314,11 +16341,11 @@
         <v>417</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E41" s="147"/>
       <c r="F41" s="136"/>
@@ -16328,11 +16355,11 @@
         <v>420</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E42" s="147"/>
       <c r="F42" s="136"/>
@@ -16342,16 +16369,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="137" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E43" s="147" t="s">
         <v>1174</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E43" s="147" t="s">
-        <v>1177</v>
       </c>
       <c r="F43" s="136"/>
     </row>
@@ -16360,11 +16387,11 @@
         <v>417</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E44" s="147"/>
       <c r="F44" s="136"/>
@@ -16374,18 +16401,18 @@
         <v>420</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="E45" s="147"/>
       <c r="F45" s="136"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="185" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="B46" s="186"/>
       <c r="C46" s="186"/>
@@ -16397,53 +16424,53 @@
         <v>243</v>
       </c>
       <c r="B47" s="145" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D47" s="117" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>1181</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>871</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="145" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B48" s="145" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D48" s="117" t="s">
         <v>1185</v>
       </c>
-      <c r="B48" s="145" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D48" s="117" t="s">
-        <v>1188</v>
-      </c>
       <c r="E48" s="63" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="145" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B49" s="145" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D49" s="117" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16451,19 +16478,19 @@
         <v>389</v>
       </c>
       <c r="B50" s="137" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C50" s="146" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D50" s="122" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F50" s="74" t="s">
         <v>1191</v>
-      </c>
-      <c r="C50" s="146" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D50" s="122" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16471,16 +16498,16 @@
         <v>389</v>
       </c>
       <c r="B51" s="137" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C51" s="146" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D51" s="122" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E51" s="63" t="s">
         <v>1195</v>
-      </c>
-      <c r="C51" s="146" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D51" s="122" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16488,16 +16515,16 @@
         <v>389</v>
       </c>
       <c r="B52" s="137" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C52" s="146" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D52" s="122" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E52" s="63" t="s">
         <v>1199</v>
-      </c>
-      <c r="C52" s="146" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D52" s="122" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16505,16 +16532,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="137" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C53" s="146" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D53" s="122" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E53" s="63" t="s">
         <v>1203</v>
-      </c>
-      <c r="C53" s="146" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D53" s="122" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16522,16 +16549,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="137" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C54" s="146" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D54" s="122" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E54" s="63" t="s">
         <v>1207</v>
-      </c>
-      <c r="C54" s="146" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D54" s="122" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16539,19 +16566,19 @@
         <v>389</v>
       </c>
       <c r="B55" s="137" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C55" s="146" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D55" s="122" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E55" s="63" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F55" s="74" t="s">
         <v>1211</v>
-      </c>
-      <c r="C55" s="146" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D55" s="122" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16559,19 +16586,19 @@
         <v>389</v>
       </c>
       <c r="B56" s="137" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C56" s="146" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D56" s="122" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E56" s="63" t="s">
         <v>1215</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="F56" s="74" t="s">
         <v>1216</v>
-      </c>
-      <c r="D56" s="122" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16579,19 +16606,19 @@
         <v>389</v>
       </c>
       <c r="B57" s="137" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C57" s="146" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D57" s="122" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E57" s="63" t="s">
         <v>1220</v>
       </c>
-      <c r="C57" s="146" t="s">
+      <c r="F57" s="74" t="s">
         <v>1221</v>
-      </c>
-      <c r="D57" s="122" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16599,19 +16626,19 @@
         <v>389</v>
       </c>
       <c r="B58" s="137" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C58" s="146" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D58" s="122" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E58" s="63" t="s">
         <v>1225</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="F58" s="74" t="s">
         <v>1226</v>
-      </c>
-      <c r="D58" s="122" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>1228</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16619,16 +16646,16 @@
         <v>389</v>
       </c>
       <c r="B59" s="137" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C59" s="146" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D59" s="122" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E59" s="63" t="s">
         <v>1230</v>
-      </c>
-      <c r="C59" s="146" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D59" s="122" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16636,16 +16663,16 @@
         <v>389</v>
       </c>
       <c r="B60" s="137" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C60" s="146" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D60" s="122" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E60" s="63" t="s">
         <v>1234</v>
-      </c>
-      <c r="C60" s="146" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D60" s="122" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16653,16 +16680,16 @@
         <v>389</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C61" s="146" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D61" s="122" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E61" s="63" t="s">
         <v>1238</v>
-      </c>
-      <c r="C61" s="146" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D61" s="122" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16670,16 +16697,16 @@
         <v>389</v>
       </c>
       <c r="B62" s="137" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C62" s="146" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D62" s="122" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E62" s="80" t="s">
         <v>1242</v>
-      </c>
-      <c r="C62" s="146" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D62" s="122" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16687,14 +16714,14 @@
         <v>740</v>
       </c>
       <c r="B63" s="145" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C63" s="146" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D63" s="149"/>
       <c r="E63" s="79" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="F63" s="136"/>
     </row>
@@ -16703,14 +16730,14 @@
         <v>740</v>
       </c>
       <c r="B64" s="145" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C64" s="146" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D64" s="149"/>
       <c r="E64" s="79" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="F64" s="136"/>
     </row>
@@ -16719,14 +16746,14 @@
         <v>740</v>
       </c>
       <c r="B65" s="137" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C65" s="146" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D65" s="149"/>
       <c r="E65" s="79" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F65" s="136"/>
     </row>
@@ -16841,16 +16868,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>1251</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16858,16 +16885,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16875,50 +16902,50 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1259</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1262</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16926,16 +16953,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16943,49 +16970,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="75" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -17018,6 +17045,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -17056,15 +17092,6 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17345,6 +17372,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17353,14 +17388,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BDF17E-F5E6-534B-A2AE-42A18653E0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817A5AC-338C-8647-B0AE-F971B8C4BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="1409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1412">
   <si>
     <r>
       <rPr>
@@ -2190,29 +2190,6 @@
     <t>dpdDoBHint</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">For example, 21 8 2021 or 8 2021 if day of month is not known </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(update content)</t>
-    </r>
-  </si>
-  <si>
     <t>Er enghraifft, 21 8 2021 neu 8 2021 os nad yw diwrnod y mis yn hysbys</t>
   </si>
   <si>
@@ -5775,6 +5752,18 @@
   </si>
   <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>For example, 21 8 2021 or 8 2021 if day of month is not known</t>
+  </si>
+  <si>
+    <t>For example, 21 8 2021</t>
+  </si>
+  <si>
+    <t>Er enghraifft, 21 8 2021</t>
+  </si>
+  <si>
+    <t>dpdDoBHintNeoNatal</t>
   </si>
 </sst>
 </file>
@@ -6718,6 +6707,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6725,24 +6732,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7786,50 +7775,50 @@
         <v>243</v>
       </c>
       <c r="B2" s="93" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C2" s="94" t="s">
         <v>1268</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="D2" s="93" t="s">
         <v>1269</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="E2" s="86" t="s">
         <v>1270</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B3" s="96" t="s">
         <v>1272</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="C3" s="97" t="s">
         <v>1273</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="D3" s="96" t="s">
         <v>1274</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="E3" s="90" t="s">
         <v>1275</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>1276</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B4" s="96" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C4" s="97" t="s">
         <v>1277</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>1278</v>
       </c>
       <c r="D4" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7837,13 +7826,13 @@
         <v>417</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E5" s="90" t="s">
         <v>411</v>
@@ -7854,13 +7843,13 @@
         <v>420</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C6" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E6" s="90" t="s">
         <v>411</v>
@@ -7888,44 +7877,44 @@
         <v>243</v>
       </c>
       <c r="B8" s="96" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C8" s="97" t="s">
         <v>1284</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="D8" s="96" t="s">
         <v>1285</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="E8" s="90" t="s">
         <v>1286</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B9" s="96" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C9" s="97" t="s">
         <v>1288</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="D9" s="96" t="s">
         <v>1289</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="E9" s="90" t="s">
         <v>1290</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B10" s="96" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C10" s="97" t="s">
         <v>1292</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>1293</v>
       </c>
       <c r="D10" s="96" t="s">
         <v>411</v>
@@ -7939,13 +7928,13 @@
         <v>417</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C11" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E11" s="90" t="s">
         <v>411</v>
@@ -7956,13 +7945,13 @@
         <v>420</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C12" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E12" s="90" t="s">
         <v>411</v>
@@ -7990,13 +7979,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="96" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C14" s="97" t="s">
         <v>1296</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="D14" s="96" t="s">
         <v>1297</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>1298</v>
       </c>
       <c r="E14" s="90" t="s">
         <v>411</v>
@@ -8004,19 +7993,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B15" s="96" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C15" s="97" t="s">
         <v>1299</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="D15" s="96" t="s">
         <v>1300</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="E15" s="90" t="s">
         <v>1301</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8024,13 +8013,13 @@
         <v>417</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C16" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E16" s="90" t="s">
         <v>411</v>
@@ -8041,13 +8030,13 @@
         <v>420</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C17" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E17" s="90" t="s">
         <v>411</v>
@@ -8058,16 +8047,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C18" s="97" t="s">
         <v>1305</v>
-      </c>
-      <c r="C18" s="97" t="s">
-        <v>1306</v>
       </c>
       <c r="D18" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8092,13 +8081,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C20" s="97" t="s">
         <v>1308</v>
       </c>
-      <c r="C20" s="97" t="s">
-        <v>1309</v>
-      </c>
       <c r="D20" s="96" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E20" s="90" t="s">
         <v>411</v>
@@ -8106,16 +8095,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B21" s="96" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C21" s="97" t="s">
         <v>1310</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="D21" s="96" t="s">
         <v>1311</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>1312</v>
       </c>
       <c r="E21" s="90" t="s">
         <v>411</v>
@@ -8123,13 +8112,13 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B22" s="96" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C22" s="97" t="s">
         <v>1313</v>
-      </c>
-      <c r="C22" s="97" t="s">
-        <v>1314</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>411</v>
@@ -8143,13 +8132,13 @@
         <v>417</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E23" s="90" t="s">
         <v>411</v>
@@ -8160,13 +8149,13 @@
         <v>420</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C24" s="107" t="s">
         <v>411</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E24" s="90" t="s">
         <v>411</v>
@@ -8219,7 +8208,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="192" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B2" s="193"/>
       <c r="C2" s="193"/>
@@ -8232,16 +8221,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1318</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>1319</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8249,13 +8238,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>1321</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="E4" s="37" t="s">
         <v>1322</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8263,13 +8252,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1324</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="37" t="s">
         <v>1325</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8277,13 +8266,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>1327</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="37" t="s">
         <v>1328</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8291,127 +8280,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>1330</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="37" t="s">
         <v>1331</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>1334</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="37" t="s">
         <v>1335</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>1338</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="37" t="s">
         <v>1339</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E10" s="37" t="s">
         <v>1342</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>1344</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="37" t="s">
         <v>1345</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>1347</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E12" s="37" t="s">
         <v>1348</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>1350</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="E13" s="37" t="s">
         <v>1351</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>1353</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1354</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>1356</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1357</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8419,34 +8408,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C16" s="75" t="s">
         <v>1359</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>1362</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="76" t="s">
         <v>1363</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>1364</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="192" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B18" s="193"/>
       <c r="C18" s="193"/>
@@ -8459,16 +8448,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>1367</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8476,10 +8465,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8487,13 +8476,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>1325</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -8501,10 +8490,10 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8526,7 +8515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -8568,13 +8557,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F2" s="99"/>
     </row>
@@ -9645,18 +9634,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>1386</v>
-      </c>
       <c r="E67" s="40" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10419,11 +10408,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
-  <dimension ref="A1:F344"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E203" sqref="E203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10458,13 +10447,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="161" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10592,13 +10581,13 @@
       <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167" t="s">
+      <c r="A10" s="164" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10627,13 +10616,13 @@
         <v>408</v>
       </c>
       <c r="C12" s="154" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D12" s="85" t="s">
         <v>409</v>
       </c>
       <c r="E12" s="153" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F12" s="87"/>
     </row>
@@ -10645,13 +10634,13 @@
         <v>410</v>
       </c>
       <c r="C13" s="155" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>411</v>
       </c>
       <c r="E13" s="156" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F13" s="87"/>
     </row>
@@ -11119,27 +11108,27 @@
         <v>492</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>493</v>
+        <v>1408</v>
       </c>
       <c r="D45" s="117"/>
       <c r="E45" s="121" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F45" s="120"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>495</v>
+        <v>1411</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>156</v>
+        <v>1409</v>
       </c>
       <c r="D46" s="117"/>
       <c r="E46" s="121" t="s">
-        <v>158</v>
+        <v>1410</v>
       </c>
       <c r="F46" s="120"/>
     </row>
@@ -11148,14 +11137,14 @@
         <v>423</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D47" s="117"/>
       <c r="E47" s="121" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F47" s="120"/>
     </row>
@@ -11164,330 +11153,328 @@
         <v>423</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D48" s="117"/>
       <c r="E48" s="121" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F48" s="120"/>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
       <c r="D49" s="117"/>
       <c r="E49" s="121" t="s">
-        <v>501</v>
+        <v>166</v>
       </c>
       <c r="F49" s="120"/>
     </row>
-    <row r="50" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="B50" s="117" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D50" s="117"/>
       <c r="E50" s="121" t="s">
+        <v>500</v>
+      </c>
+      <c r="F50" s="120"/>
+    </row>
+    <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B51" s="117" t="s">
+        <v>501</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="D51" s="117"/>
+      <c r="E51" s="121" t="s">
+        <v>503</v>
+      </c>
+      <c r="F51" s="120"/>
+    </row>
+    <row r="52" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B52" s="117" t="s">
         <v>504</v>
-      </c>
-      <c r="F50" s="120"/>
-    </row>
-    <row r="51" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A51" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>505</v>
-      </c>
-      <c r="C51" s="121"/>
-      <c r="D51" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="E51" s="121"/>
-      <c r="F51" s="120"/>
-    </row>
-    <row r="52" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A52" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B52" s="117" t="s">
-        <v>507</v>
       </c>
       <c r="C52" s="121"/>
       <c r="D52" s="20" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E52" s="121"/>
       <c r="F52" s="120"/>
     </row>
-    <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C53" s="121"/>
       <c r="D53" s="20" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E53" s="121"/>
       <c r="F53" s="120"/>
     </row>
-    <row r="54" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C54" s="121"/>
       <c r="D54" s="20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E54" s="121"/>
       <c r="F54" s="120"/>
     </row>
-    <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C55" s="121"/>
       <c r="D55" s="20" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E55" s="121"/>
       <c r="F55" s="120"/>
     </row>
-    <row r="56" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C56" s="121"/>
       <c r="D56" s="20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E56" s="121"/>
       <c r="F56" s="120"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="158" t="s">
+    <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A57" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B57" s="117" t="s">
+        <v>514</v>
+      </c>
+      <c r="C57" s="121"/>
+      <c r="D57" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="E57" s="121"/>
+      <c r="F57" s="120"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="158" t="s">
+        <v>516</v>
+      </c>
+      <c r="B58" s="159"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="160"/>
+      <c r="F58" s="120"/>
+    </row>
+    <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A59" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="B57" s="159"/>
-      <c r="C57" s="159"/>
-      <c r="D57" s="159"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="120"/>
-    </row>
-    <row r="58" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A58" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B58" s="117" t="s">
+      <c r="C59" s="118" t="s">
         <v>518</v>
       </c>
-      <c r="C58" s="118" t="s">
+      <c r="D59" s="117" t="s">
         <v>519</v>
       </c>
-      <c r="D58" s="117" t="s">
+      <c r="E59" s="121" t="s">
         <v>520</v>
       </c>
-      <c r="E58" s="121" t="s">
+      <c r="F59" s="120"/>
+    </row>
+    <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A60" s="117" t="s">
         <v>521</v>
       </c>
-      <c r="F58" s="120"/>
-    </row>
-    <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="117" t="s">
+      <c r="B60" s="117" t="s">
         <v>522</v>
       </c>
-      <c r="B59" s="117" t="s">
+      <c r="C60" s="118" t="s">
         <v>523</v>
       </c>
-      <c r="C59" s="118" t="s">
+      <c r="D60" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="D59" s="117" t="s">
+      <c r="E60" s="121" t="s">
         <v>525</v>
-      </c>
-      <c r="E59" s="121" t="s">
-        <v>526</v>
-      </c>
-      <c r="F59" s="120"/>
-    </row>
-    <row r="60" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="117" t="s">
-        <v>527</v>
-      </c>
-      <c r="B60" s="117" t="s">
-        <v>528</v>
-      </c>
-      <c r="C60" s="118" t="s">
-        <v>529</v>
-      </c>
-      <c r="D60" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="E60" s="121" t="s">
-        <v>1401</v>
       </c>
       <c r="F60" s="120"/>
     </row>
     <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="117" t="s">
+        <v>526</v>
+      </c>
+      <c r="B61" s="117" t="s">
         <v>527</v>
       </c>
-      <c r="B61" s="117" t="s">
+      <c r="C61" s="118" t="s">
+        <v>528</v>
+      </c>
+      <c r="D61" s="117" t="s">
+        <v>529</v>
+      </c>
+      <c r="E61" s="121" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="120"/>
+    </row>
+    <row r="62" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A62" s="117" t="s">
+        <v>526</v>
+      </c>
+      <c r="B62" s="117" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C62" s="118" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D62" s="117"/>
+      <c r="E62" s="121" t="s">
         <v>1398</v>
       </c>
-      <c r="C61" s="118" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D61" s="117"/>
-      <c r="E61" s="121" t="s">
-        <v>1399</v>
-      </c>
-      <c r="F61" s="120"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="158" t="s">
-        <v>531</v>
-      </c>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="160"/>
       <c r="F62" s="120"/>
     </row>
-    <row r="63" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A63" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B63" s="117" t="s">
-        <v>532</v>
-      </c>
-      <c r="C63" s="118" t="s">
-        <v>533</v>
-      </c>
-      <c r="D63" s="117" t="s">
-        <v>534</v>
-      </c>
-      <c r="E63" s="121" t="s">
-        <v>535</v>
-      </c>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="158" t="s">
+        <v>530</v>
+      </c>
+      <c r="B63" s="159"/>
+      <c r="C63" s="159"/>
+      <c r="D63" s="159"/>
+      <c r="E63" s="160"/>
       <c r="F63" s="120"/>
     </row>
     <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" s="117" t="s">
+        <v>531</v>
+      </c>
+      <c r="C64" s="118" t="s">
+        <v>532</v>
+      </c>
+      <c r="D64" s="117" t="s">
+        <v>533</v>
+      </c>
+      <c r="E64" s="121" t="s">
+        <v>534</v>
+      </c>
+      <c r="F64" s="120"/>
+    </row>
+    <row r="65" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A65" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B64" s="117" t="s">
+      <c r="B65" s="117" t="s">
         <v>418</v>
-      </c>
-      <c r="C64" s="121"/>
-      <c r="D64" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="E64" s="121"/>
-      <c r="F64" s="120"/>
-    </row>
-    <row r="65" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A65" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B65" s="117" t="s">
-        <v>421</v>
       </c>
       <c r="C65" s="121"/>
       <c r="D65" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E65" s="121"/>
       <c r="F65" s="120"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="158" t="s">
+    <row r="66" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A66" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B66" s="117" t="s">
+        <v>421</v>
+      </c>
+      <c r="C66" s="121"/>
+      <c r="D66" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E66" s="121"/>
+      <c r="F66" s="120"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="158" t="s">
+        <v>535</v>
+      </c>
+      <c r="B67" s="159"/>
+      <c r="C67" s="159"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="120"/>
+    </row>
+    <row r="68" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A68" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="B66" s="159"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="160"/>
-      <c r="F66" s="120"/>
-    </row>
-    <row r="67" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B67" s="117" t="s">
+      <c r="C68" s="118" t="s">
         <v>537</v>
       </c>
-      <c r="C67" s="118" t="s">
+      <c r="D68" s="117" t="s">
         <v>538</v>
       </c>
-      <c r="D67" s="117" t="s">
+      <c r="E68" s="121" t="s">
         <v>539</v>
       </c>
-      <c r="E67" s="121" t="s">
+      <c r="F68" s="120"/>
+    </row>
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="B69" s="93" t="s">
         <v>540</v>
       </c>
-      <c r="F67" s="120"/>
-    </row>
-    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="92" t="s">
-        <v>423</v>
-      </c>
-      <c r="B68" s="93" t="s">
+      <c r="C69" s="94" t="s">
         <v>541</v>
       </c>
-      <c r="C68" s="94" t="s">
+      <c r="D69" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="86" t="s">
         <v>542</v>
-      </c>
-      <c r="D68" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E68" s="86" t="s">
-        <v>543</v>
-      </c>
-      <c r="F68" s="120"/>
-    </row>
-    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="B69" s="96" t="s">
-        <v>544</v>
-      </c>
-      <c r="C69" s="97" t="s">
-        <v>545</v>
-      </c>
-      <c r="D69" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E69" s="90" t="s">
-        <v>546</v>
       </c>
       <c r="F69" s="120"/>
     </row>
@@ -11496,16 +11483,16 @@
         <v>423</v>
       </c>
       <c r="B70" s="96" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D70" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E70" s="90" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F70" s="120"/>
     </row>
@@ -11514,16 +11501,16 @@
         <v>423</v>
       </c>
       <c r="B71" s="96" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D71" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E71" s="90" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F71" s="120"/>
     </row>
@@ -11532,214 +11519,216 @@
         <v>423</v>
       </c>
       <c r="B72" s="96" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D72" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E72" s="90" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F72" s="120"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="95" t="s">
-        <v>556</v>
+        <v>423</v>
       </c>
       <c r="B73" s="96" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D73" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E73" s="90" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F73" s="120"/>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="B74" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="B74" s="96" t="s">
-        <v>560</v>
-      </c>
       <c r="C74" s="97" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D74" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E74" s="90" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F74" s="120"/>
     </row>
-    <row r="75" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A75" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B75" s="117" t="s">
-        <v>563</v>
-      </c>
-      <c r="C75" s="121"/>
-      <c r="D75" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="E75" s="121"/>
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="95" t="s">
+        <v>555</v>
+      </c>
+      <c r="B75" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="D75" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="90" t="s">
+        <v>561</v>
+      </c>
       <c r="F75" s="120"/>
     </row>
     <row r="76" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C76" s="121"/>
       <c r="D76" s="20" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E76" s="121"/>
       <c r="F76" s="120"/>
     </row>
-    <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C77" s="121"/>
       <c r="D77" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="120"/>
     </row>
-    <row r="78" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C78" s="121"/>
       <c r="D78" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E78" s="121"/>
       <c r="F78" s="120"/>
     </row>
-    <row r="79" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C79" s="121"/>
       <c r="D79" s="20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E79" s="121"/>
       <c r="F79" s="120"/>
     </row>
-    <row r="80" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C80" s="121"/>
       <c r="D80" s="20" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E80" s="121"/>
       <c r="F80" s="120"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="158" t="s">
-        <v>575</v>
-      </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
-      <c r="E81" s="160"/>
+    <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A81" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B81" s="117" t="s">
+        <v>572</v>
+      </c>
+      <c r="C81" s="121"/>
+      <c r="D81" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="E81" s="121"/>
       <c r="F81" s="120"/>
     </row>
-    <row r="82" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B82" s="117" t="s">
-        <v>576</v>
-      </c>
-      <c r="C82" s="118" t="s">
-        <v>577</v>
-      </c>
-      <c r="D82" s="117" t="s">
-        <v>578</v>
-      </c>
-      <c r="E82" s="121" t="s">
-        <v>579</v>
-      </c>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="158" t="s">
+        <v>574</v>
+      </c>
+      <c r="B82" s="159"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="159"/>
+      <c r="E82" s="160"/>
       <c r="F82" s="120"/>
     </row>
     <row r="83" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="117" t="s">
-        <v>527</v>
+        <v>243</v>
       </c>
       <c r="B83" s="117" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C83" s="118" t="s">
-        <v>581</v>
-      </c>
-      <c r="D83" s="117"/>
+        <v>576</v>
+      </c>
+      <c r="D83" s="117" t="s">
+        <v>577</v>
+      </c>
       <c r="E83" s="121" t="s">
-        <v>582</v>
-      </c>
-      <c r="F83" s="120" t="s">
-        <v>583</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="F83" s="120"/>
     </row>
     <row r="84" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
-        <v>84</v>
+        <v>526</v>
       </c>
       <c r="B84" s="117" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C84" s="118" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D84" s="117"/>
       <c r="E84" s="121" t="s">
-        <v>586</v>
-      </c>
-      <c r="F84" s="120"/>
+        <v>581</v>
+      </c>
+      <c r="F84" s="120" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="85" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="117" t="s">
-        <v>587</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>588</v>
+        <v>583</v>
+      </c>
+      <c r="C85" s="118" t="s">
+        <v>584</v>
       </c>
       <c r="D85" s="117"/>
       <c r="E85" s="121" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F85" s="120"/>
     </row>
@@ -11748,14 +11737,14 @@
         <v>84</v>
       </c>
       <c r="B86" s="117" t="s">
-        <v>590</v>
-      </c>
-      <c r="C86" s="118" t="s">
-        <v>591</v>
+        <v>586</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>587</v>
       </c>
       <c r="D86" s="117"/>
       <c r="E86" s="121" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F86" s="120"/>
     </row>
@@ -11764,14 +11753,14 @@
         <v>84</v>
       </c>
       <c r="B87" s="117" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C87" s="118" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D87" s="117"/>
       <c r="E87" s="121" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F87" s="120"/>
     </row>
@@ -11780,166 +11769,164 @@
         <v>84</v>
       </c>
       <c r="B88" s="117" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C88" s="118" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D88" s="117"/>
       <c r="E88" s="121" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F88" s="120"/>
     </row>
     <row r="89" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="117" t="s">
-        <v>498</v>
+        <v>84</v>
       </c>
       <c r="B89" s="117" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C89" s="118" t="s">
-        <v>500</v>
+        <v>596</v>
       </c>
       <c r="D89" s="117"/>
       <c r="E89" s="121" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F89" s="120"/>
     </row>
     <row r="90" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="117" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C90" s="118" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="D90" s="117"/>
       <c r="E90" s="121" t="s">
+        <v>599</v>
+      </c>
+      <c r="F90" s="120"/>
+    </row>
+    <row r="91" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="117" t="s">
+        <v>600</v>
+      </c>
+      <c r="C91" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="117"/>
+      <c r="E91" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="F90" s="120"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="158" t="s">
+      <c r="F91" s="120"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="158" t="s">
+        <v>601</v>
+      </c>
+      <c r="B92" s="159"/>
+      <c r="C92" s="159"/>
+      <c r="D92" s="159"/>
+      <c r="E92" s="160"/>
+      <c r="F92" s="120"/>
+    </row>
+    <row r="93" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A93" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" s="117" t="s">
         <v>602</v>
       </c>
-      <c r="B91" s="159"/>
-      <c r="C91" s="159"/>
-      <c r="D91" s="159"/>
-      <c r="E91" s="160"/>
-      <c r="F91" s="120"/>
-    </row>
-    <row r="92" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A92" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B92" s="117" t="s">
+      <c r="C93" s="118" t="s">
         <v>603</v>
       </c>
-      <c r="C92" s="118" t="s">
+      <c r="D93" s="117" t="s">
         <v>604</v>
       </c>
-      <c r="D92" s="117" t="s">
+      <c r="E93" s="121" t="s">
         <v>605</v>
       </c>
-      <c r="E92" s="121" t="s">
+      <c r="F93" s="120"/>
+    </row>
+    <row r="94" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="117" t="s">
+        <v>526</v>
+      </c>
+      <c r="B94" s="117" t="s">
         <v>606</v>
       </c>
-      <c r="F92" s="120"/>
-    </row>
-    <row r="93" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="117" t="s">
-        <v>527</v>
-      </c>
-      <c r="B93" s="117" t="s">
+      <c r="C94" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="D94" s="117"/>
+      <c r="E94" s="121" t="s">
+        <v>581</v>
+      </c>
+      <c r="F94" s="120" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="93" t="s">
         <v>607</v>
       </c>
-      <c r="C93" s="118" t="s">
-        <v>581</v>
-      </c>
-      <c r="D93" s="117"/>
-      <c r="E93" s="121" t="s">
-        <v>582</v>
-      </c>
-      <c r="F93" s="120" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="93" t="s">
+      <c r="C95" s="94" t="s">
         <v>608</v>
       </c>
-      <c r="C94" s="94" t="s">
+      <c r="D95" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="E95" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="D94" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E94" s="86" t="s">
+      <c r="F95" s="87" t="s">
         <v>610</v>
       </c>
-      <c r="F94" s="87" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A95" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" s="117" t="s">
-        <v>612</v>
-      </c>
-      <c r="C95" s="118" t="s">
-        <v>613</v>
-      </c>
-      <c r="D95" s="117" t="s">
-        <v>614</v>
-      </c>
-      <c r="E95" s="121" t="s">
-        <v>615</v>
-      </c>
-      <c r="F95" s="120"/>
-    </row>
-    <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B96" s="117" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C96" s="118" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E96" s="121" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F96" s="120"/>
     </row>
-    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B97" s="117" t="s">
-        <v>620</v>
-      </c>
-      <c r="C97" s="61" t="s">
-        <v>621</v>
+        <v>615</v>
+      </c>
+      <c r="C97" s="118" t="s">
+        <v>616</v>
       </c>
       <c r="D97" s="117" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E97" s="121" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F97" s="120"/>
     </row>
@@ -11948,43 +11935,43 @@
         <v>84</v>
       </c>
       <c r="B98" s="117" t="s">
+        <v>619</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="D98" s="117" t="s">
+        <v>621</v>
+      </c>
+      <c r="E98" s="121" t="s">
+        <v>622</v>
+      </c>
+      <c r="F98" s="120"/>
+    </row>
+    <row r="99" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A99" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="117" t="s">
+        <v>623</v>
+      </c>
+      <c r="C99" s="118" t="s">
         <v>624</v>
       </c>
-      <c r="C98" s="118" t="s">
+      <c r="D99" s="117" t="s">
         <v>625</v>
       </c>
-      <c r="D98" s="117" t="s">
+      <c r="E99" s="121" t="s">
         <v>626</v>
       </c>
-      <c r="E98" s="121" t="s">
-        <v>627</v>
-      </c>
-      <c r="F98" s="120"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="117"/>
-      <c r="B99" s="117"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="121"/>
       <c r="F99" s="120"/>
     </row>
-    <row r="100" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B100" s="117" t="s">
-        <v>628</v>
-      </c>
-      <c r="C100" s="118" t="s">
-        <v>629</v>
-      </c>
-      <c r="D100" s="117" t="s">
-        <v>630</v>
-      </c>
-      <c r="E100" s="121" t="s">
-        <v>631</v>
-      </c>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="117"/>
+      <c r="B100" s="117"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="121"/>
       <c r="F100" s="120"/>
     </row>
     <row r="101" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11992,16 +11979,16 @@
         <v>84</v>
       </c>
       <c r="B101" s="117" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C101" s="118" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E101" s="121" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F101" s="120"/>
     </row>
@@ -12010,16 +11997,16 @@
         <v>84</v>
       </c>
       <c r="B102" s="117" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C102" s="118" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E102" s="121" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F102" s="120"/>
     </row>
@@ -12028,43 +12015,43 @@
         <v>84</v>
       </c>
       <c r="B103" s="117" t="s">
+        <v>635</v>
+      </c>
+      <c r="C103" s="118" t="s">
+        <v>636</v>
+      </c>
+      <c r="D103" s="117" t="s">
+        <v>637</v>
+      </c>
+      <c r="E103" s="121" t="s">
+        <v>638</v>
+      </c>
+      <c r="F103" s="120"/>
+    </row>
+    <row r="104" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A104" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="117" t="s">
+        <v>639</v>
+      </c>
+      <c r="C104" s="118" t="s">
         <v>640</v>
       </c>
-      <c r="C103" s="118" t="s">
+      <c r="D104" s="117" t="s">
         <v>641</v>
       </c>
-      <c r="D103" s="117" t="s">
+      <c r="E104" s="121" t="s">
         <v>642</v>
       </c>
-      <c r="E103" s="121" t="s">
-        <v>643</v>
-      </c>
-      <c r="F103" s="120"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="117"/>
-      <c r="B104" s="117"/>
-      <c r="C104" s="118"/>
-      <c r="D104" s="117"/>
-      <c r="E104" s="121"/>
       <c r="F104" s="120"/>
     </row>
-    <row r="105" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A105" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B105" s="117" t="s">
-        <v>644</v>
-      </c>
-      <c r="C105" s="118" t="s">
-        <v>645</v>
-      </c>
-      <c r="D105" s="117" t="s">
-        <v>646</v>
-      </c>
-      <c r="E105" s="121" t="s">
-        <v>647</v>
-      </c>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="117"/>
+      <c r="B105" s="117"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="121"/>
       <c r="F105" s="120"/>
     </row>
     <row r="106" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12072,16 +12059,16 @@
         <v>84</v>
       </c>
       <c r="B106" s="117" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C106" s="118" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E106" s="121" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F106" s="120"/>
     </row>
@@ -12090,16 +12077,16 @@
         <v>84</v>
       </c>
       <c r="B107" s="117" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C107" s="118" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E107" s="121" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F107" s="120"/>
     </row>
@@ -12108,261 +12095,263 @@
         <v>84</v>
       </c>
       <c r="B108" s="117" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C108" s="118" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D108" s="117" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E108" s="121" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F108" s="120"/>
     </row>
-    <row r="109" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B109" s="117" t="s">
+        <v>655</v>
+      </c>
+      <c r="C109" s="118" t="s">
+        <v>656</v>
+      </c>
+      <c r="D109" s="117" t="s">
+        <v>657</v>
+      </c>
+      <c r="E109" s="121" t="s">
+        <v>658</v>
+      </c>
+      <c r="F109" s="120"/>
+    </row>
+    <row r="110" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A110" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="117" t="s">
+        <v>659</v>
+      </c>
+      <c r="C110" s="118" t="s">
         <v>660</v>
       </c>
-      <c r="C109" s="118" t="s">
+      <c r="D110" s="117" t="s">
         <v>661</v>
       </c>
-      <c r="D109" s="117" t="s">
+      <c r="E110" s="121" t="s">
         <v>662</v>
       </c>
-      <c r="E109" s="121" t="s">
-        <v>663</v>
-      </c>
-      <c r="F109" s="120"/>
-    </row>
-    <row r="111" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B111" s="117" t="s">
-        <v>664</v>
-      </c>
-      <c r="C111" s="118" t="s">
-        <v>665</v>
-      </c>
-      <c r="D111" s="117" t="s">
-        <v>666</v>
-      </c>
-      <c r="E111" s="121" t="s">
-        <v>667</v>
-      </c>
-      <c r="F111" s="120"/>
+      <c r="F110" s="120"/>
     </row>
     <row r="112" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B112" s="117" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C112" s="118" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E112" s="121" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F112" s="120"/>
     </row>
-    <row r="113" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B113" s="117" t="s">
+        <v>667</v>
+      </c>
+      <c r="C113" s="118" t="s">
+        <v>668</v>
+      </c>
+      <c r="D113" s="117" t="s">
+        <v>669</v>
+      </c>
+      <c r="E113" s="121" t="s">
+        <v>670</v>
+      </c>
+      <c r="F113" s="120"/>
+    </row>
+    <row r="114" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A114" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="117" t="s">
+        <v>671</v>
+      </c>
+      <c r="C114" s="118" t="s">
         <v>672</v>
       </c>
-      <c r="C113" s="118" t="s">
+      <c r="D114" s="117" t="s">
         <v>673</v>
       </c>
-      <c r="D113" s="117" t="s">
+      <c r="E114" s="121" t="s">
         <v>674</v>
       </c>
-      <c r="E113" s="121" t="s">
-        <v>675</v>
-      </c>
-      <c r="F113" s="120"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="117"/>
-      <c r="B114" s="117"/>
-      <c r="C114" s="118"/>
-      <c r="D114" s="117"/>
-      <c r="E114" s="121"/>
       <c r="F114" s="120"/>
     </row>
-    <row r="115" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A115" s="117" t="s">
-        <v>84</v>
-      </c>
-      <c r="B115" s="117" t="s">
-        <v>676</v>
-      </c>
-      <c r="C115" s="118" t="s">
-        <v>677</v>
-      </c>
-      <c r="D115" s="117" t="s">
-        <v>678</v>
-      </c>
-      <c r="E115" s="121" t="s">
-        <v>679</v>
-      </c>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="117"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="117"/>
+      <c r="E115" s="121"/>
       <c r="F115" s="120"/>
     </row>
-    <row r="116" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="117" t="s">
         <v>84</v>
       </c>
       <c r="B116" s="117" t="s">
+        <v>675</v>
+      </c>
+      <c r="C116" s="118" t="s">
+        <v>676</v>
+      </c>
+      <c r="D116" s="117" t="s">
+        <v>677</v>
+      </c>
+      <c r="E116" s="121" t="s">
+        <v>678</v>
+      </c>
+      <c r="F116" s="120"/>
+    </row>
+    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A117" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="117" t="s">
+        <v>679</v>
+      </c>
+      <c r="C117" s="118" t="s">
         <v>680</v>
       </c>
-      <c r="C116" s="118" t="s">
+      <c r="D117" s="117" t="s">
         <v>681</v>
       </c>
-      <c r="D116" s="117" t="s">
+      <c r="E117" s="121" t="s">
         <v>682</v>
       </c>
-      <c r="E116" s="121" t="s">
-        <v>683</v>
-      </c>
-      <c r="F116" s="120"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="117"/>
-      <c r="B117" s="117"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="117"/>
-      <c r="E117" s="121"/>
       <c r="F117" s="120"/>
     </row>
-    <row r="118" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A118" s="121"/>
-      <c r="B118" s="121"/>
-      <c r="C118" s="121"/>
-      <c r="D118" s="117" t="s">
-        <v>684</v>
-      </c>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="117"/>
+      <c r="B118" s="117"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="117"/>
       <c r="E118" s="121"/>
-      <c r="F118" s="120" t="s">
-        <v>685</v>
-      </c>
+      <c r="F118" s="120"/>
     </row>
     <row r="119" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A119" s="121"/>
       <c r="B119" s="121"/>
       <c r="C119" s="121"/>
       <c r="D119" s="117" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E119" s="121"/>
-      <c r="F119" s="120"/>
-    </row>
-    <row r="120" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A120" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B120" s="117" t="s">
-        <v>687</v>
-      </c>
+      <c r="F119" s="120" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A120" s="121"/>
+      <c r="B120" s="121"/>
       <c r="C120" s="121"/>
-      <c r="D120" s="20" t="s">
-        <v>419</v>
+      <c r="D120" s="117" t="s">
+        <v>685</v>
       </c>
       <c r="E120" s="121"/>
       <c r="F120" s="120"/>
     </row>
-    <row r="121" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C121" s="121"/>
       <c r="D121" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E121" s="121"/>
       <c r="F121" s="120"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="158" t="s">
+    <row r="122" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A122" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B122" s="117" t="s">
+        <v>687</v>
+      </c>
+      <c r="C122" s="121"/>
+      <c r="D122" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E122" s="121"/>
+      <c r="F122" s="120"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="158" t="s">
+        <v>688</v>
+      </c>
+      <c r="B123" s="159"/>
+      <c r="C123" s="159"/>
+      <c r="D123" s="159"/>
+      <c r="E123" s="160"/>
+      <c r="F123" s="120"/>
+    </row>
+    <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A124" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="117" t="s">
         <v>689</v>
       </c>
-      <c r="B122" s="159"/>
-      <c r="C122" s="159"/>
-      <c r="D122" s="159"/>
-      <c r="E122" s="160"/>
-      <c r="F122" s="120"/>
-    </row>
-    <row r="123" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A123" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" s="117" t="s">
+      <c r="C124" s="118" t="s">
         <v>690</v>
       </c>
-      <c r="C123" s="118" t="s">
+      <c r="D124" s="117" t="s">
         <v>691</v>
       </c>
-      <c r="D123" s="117" t="s">
+      <c r="E124" s="121" t="s">
         <v>692</v>
       </c>
-      <c r="E123" s="121" t="s">
+      <c r="F124" s="120"/>
+    </row>
+    <row r="125" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A125" s="117" t="s">
+        <v>491</v>
+      </c>
+      <c r="B125" s="117" t="s">
         <v>693</v>
       </c>
-      <c r="F123" s="120"/>
-    </row>
-    <row r="124" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A124" s="117" t="s">
-        <v>491</v>
-      </c>
-      <c r="B124" s="117" t="s">
+      <c r="C125" s="118" t="s">
         <v>694</v>
       </c>
-      <c r="C124" s="118" t="s">
+      <c r="D125" s="117" t="s">
         <v>695</v>
       </c>
-      <c r="D124" s="117" t="s">
+      <c r="E125" s="121" t="s">
         <v>696</v>
       </c>
-      <c r="E124" s="121" t="s">
-        <v>697</v>
-      </c>
-      <c r="F124" s="120"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="117"/>
-      <c r="B125" s="117"/>
-      <c r="C125" s="118"/>
-      <c r="D125" s="117"/>
-      <c r="E125" s="121"/>
       <c r="F125" s="120"/>
     </row>
-    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B126" s="117" t="s">
-        <v>698</v>
-      </c>
-      <c r="C126" s="59" t="s">
-        <v>156</v>
-      </c>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="117"/>
+      <c r="B126" s="117"/>
+      <c r="C126" s="118"/>
       <c r="D126" s="117"/>
-      <c r="E126" s="121" t="s">
-        <v>158</v>
-      </c>
+      <c r="E126" s="121"/>
       <c r="F126" s="120"/>
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -12370,14 +12359,14 @@
         <v>423</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C127" s="59" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D127" s="117"/>
       <c r="E127" s="121" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F127" s="120"/>
     </row>
@@ -12386,302 +12375,302 @@
         <v>423</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C128" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D128" s="117"/>
       <c r="E128" s="121" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" s="120"/>
+    </row>
+    <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B129" s="117" t="s">
+        <v>699</v>
+      </c>
+      <c r="C129" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="117"/>
+      <c r="E129" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="120"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="117"/>
-      <c r="B129" s="117"/>
-      <c r="C129" s="118"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="121"/>
       <c r="F129" s="120"/>
     </row>
-    <row r="130" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A130" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B130" s="117" t="s">
-        <v>701</v>
-      </c>
-      <c r="C130" s="121"/>
-      <c r="D130" s="20" t="s">
-        <v>702</v>
-      </c>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="117"/>
+      <c r="B130" s="117"/>
+      <c r="C130" s="118"/>
+      <c r="D130" s="117"/>
       <c r="E130" s="121"/>
       <c r="F130" s="120"/>
     </row>
-    <row r="131" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C131" s="121"/>
       <c r="D131" s="20" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E131" s="121"/>
       <c r="F131" s="120"/>
     </row>
-    <row r="132" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C132" s="121"/>
       <c r="D132" s="20" t="s">
-        <v>510</v>
+        <v>703</v>
       </c>
       <c r="E132" s="121"/>
       <c r="F132" s="120"/>
     </row>
-    <row r="133" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C133" s="121"/>
       <c r="D133" s="20" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E133" s="121"/>
       <c r="F133" s="120"/>
     </row>
-    <row r="134" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C134" s="121"/>
       <c r="D134" s="20" t="s">
-        <v>708</v>
+        <v>511</v>
       </c>
       <c r="E134" s="121"/>
       <c r="F134" s="120"/>
     </row>
-    <row r="135" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C135" s="121"/>
       <c r="D135" s="20" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E135" s="121"/>
       <c r="F135" s="120"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="158" t="s">
+    <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A136" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B136" s="117" t="s">
+        <v>708</v>
+      </c>
+      <c r="C136" s="121"/>
+      <c r="D136" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="E136" s="121"/>
+      <c r="F136" s="120"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="158" t="s">
+        <v>710</v>
+      </c>
+      <c r="B137" s="159"/>
+      <c r="C137" s="159"/>
+      <c r="D137" s="159"/>
+      <c r="E137" s="160"/>
+      <c r="F137" s="120"/>
+    </row>
+    <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A138" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="B136" s="159"/>
-      <c r="C136" s="159"/>
-      <c r="D136" s="159"/>
-      <c r="E136" s="160"/>
-      <c r="F136" s="120"/>
-    </row>
-    <row r="137" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A137" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B137" s="117" t="s">
+      <c r="C138" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C137" s="118" t="s">
+      <c r="D138" s="117" t="s">
         <v>713</v>
       </c>
-      <c r="D137" s="117" t="s">
+      <c r="E138" s="121" t="s">
         <v>714</v>
       </c>
-      <c r="E137" s="121" t="s">
+      <c r="F138" s="120"/>
+    </row>
+    <row r="139" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A139" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B139" s="117" t="s">
         <v>715</v>
-      </c>
-      <c r="F137" s="120"/>
-    </row>
-    <row r="138" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A138" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B138" s="117" t="s">
-        <v>716</v>
-      </c>
-      <c r="C138" s="121"/>
-      <c r="D138" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="E138" s="121"/>
-      <c r="F138" s="120"/>
-    </row>
-    <row r="139" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A139" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B139" s="117" t="s">
-        <v>717</v>
       </c>
       <c r="C139" s="121"/>
       <c r="D139" s="20" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E139" s="121"/>
       <c r="F139" s="120"/>
     </row>
-    <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A140" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="B140" s="123" t="s">
-        <v>718</v>
-      </c>
-      <c r="C140" s="114" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D140" s="123" t="s">
-        <v>719</v>
-      </c>
-      <c r="E140" s="123" t="s">
-        <v>720</v>
-      </c>
-      <c r="F140" s="124" t="s">
-        <v>721</v>
-      </c>
+    <row r="140" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A140" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B140" s="117" t="s">
+        <v>716</v>
+      </c>
+      <c r="C140" s="121"/>
+      <c r="D140" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E140" s="121"/>
+      <c r="F140" s="120"/>
     </row>
     <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A141" s="123" t="s">
+        <v>37</v>
+      </c>
+      <c r="B141" s="123" t="s">
+        <v>717</v>
+      </c>
+      <c r="C141" s="114" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D141" s="123" t="s">
+        <v>718</v>
+      </c>
+      <c r="E141" s="123" t="s">
+        <v>719</v>
+      </c>
+      <c r="F141" s="124" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A142" s="123" t="s">
         <v>417</v>
       </c>
-      <c r="B141" s="123" t="s">
-        <v>722</v>
-      </c>
-      <c r="C141" s="123"/>
-      <c r="D141" s="114" t="s">
-        <v>723</v>
-      </c>
-      <c r="E141" s="123"/>
-      <c r="F141" s="124" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A142" s="123" t="s">
-        <v>420</v>
-      </c>
       <c r="B142" s="123" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C142" s="123"/>
       <c r="D142" s="114" t="s">
+        <v>722</v>
+      </c>
+      <c r="E142" s="123"/>
+      <c r="F142" s="124" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A143" s="123" t="s">
+        <v>420</v>
+      </c>
+      <c r="B143" s="123" t="s">
+        <v>724</v>
+      </c>
+      <c r="C143" s="123"/>
+      <c r="D143" s="114" t="s">
+        <v>725</v>
+      </c>
+      <c r="E143" s="123"/>
+      <c r="F143" s="124"/>
+    </row>
+    <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A144" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B144" s="117" t="s">
         <v>726</v>
-      </c>
-      <c r="E142" s="123"/>
-      <c r="F142" s="124"/>
-    </row>
-    <row r="143" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A143" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B143" s="117" t="s">
-        <v>727</v>
-      </c>
-      <c r="C143" s="121"/>
-      <c r="D143" s="20" t="s">
-        <v>728</v>
-      </c>
-      <c r="E143" s="121"/>
-      <c r="F143" s="120" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A144" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B144" s="117" t="s">
-        <v>730</v>
       </c>
       <c r="C144" s="121"/>
       <c r="D144" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="E144" s="121"/>
+      <c r="F144" s="120" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A145" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B145" s="117" t="s">
+        <v>729</v>
+      </c>
+      <c r="C145" s="121"/>
+      <c r="D145" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="E145" s="121"/>
+      <c r="F145" s="120"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="158" t="s">
         <v>731</v>
       </c>
-      <c r="E144" s="121"/>
-      <c r="F144" s="120"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="158" t="s">
+      <c r="B146" s="159"/>
+      <c r="C146" s="159"/>
+      <c r="D146" s="159"/>
+      <c r="E146" s="160"/>
+      <c r="F146" s="120"/>
+    </row>
+    <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A147" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="117" t="s">
         <v>732</v>
       </c>
-      <c r="B145" s="159"/>
-      <c r="C145" s="159"/>
-      <c r="D145" s="159"/>
-      <c r="E145" s="160"/>
-      <c r="F145" s="120"/>
-    </row>
-    <row r="146" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A146" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B146" s="117" t="s">
+      <c r="C147" s="59" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D147" s="117" t="s">
         <v>733</v>
       </c>
-      <c r="C146" s="59" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D146" s="117" t="s">
+      <c r="E147" s="121" t="s">
         <v>734</v>
       </c>
-      <c r="E146" s="121" t="s">
+      <c r="F147" s="120"/>
+    </row>
+    <row r="148" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A148" s="117" t="s">
         <v>735</v>
       </c>
-      <c r="F146" s="120"/>
-    </row>
-    <row r="147" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A147" s="117" t="s">
+      <c r="B148" s="117" t="s">
         <v>736</v>
       </c>
-      <c r="B147" s="117" t="s">
+      <c r="C148" s="59" t="s">
         <v>737</v>
-      </c>
-      <c r="C147" s="59" t="s">
-        <v>738</v>
-      </c>
-      <c r="D147" s="117"/>
-      <c r="E147" s="121" t="s">
-        <v>739</v>
-      </c>
-      <c r="F147" s="120"/>
-    </row>
-    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="117" t="s">
-        <v>37</v>
-      </c>
-      <c r="B148" s="117" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C148" s="59" t="s">
-        <v>1377</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="121" t="s">
-        <v>1379</v>
+        <v>738</v>
       </c>
       <c r="F148" s="120"/>
     </row>
@@ -12690,406 +12679,404 @@
         <v>37</v>
       </c>
       <c r="B149" s="117" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C149" s="59" t="s">
         <v>1376</v>
-      </c>
-      <c r="C149" s="59" t="s">
-        <v>1378</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="121" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F149" s="120"/>
     </row>
     <row r="150" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="117" t="s">
-        <v>740</v>
+        <v>37</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>741</v>
-      </c>
-      <c r="C150" s="118" t="s">
-        <v>76</v>
+        <v>1375</v>
+      </c>
+      <c r="C150" s="59" t="s">
+        <v>1377</v>
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="121" t="s">
-        <v>78</v>
+        <v>1379</v>
       </c>
       <c r="F150" s="120"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="117" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B151" s="117" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C151" s="118" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D151" s="117"/>
       <c r="E151" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F151" s="120"/>
+    </row>
+    <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="117" t="s">
+        <v>741</v>
+      </c>
+      <c r="B152" s="117" t="s">
+        <v>742</v>
+      </c>
+      <c r="C152" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="D152" s="117"/>
+      <c r="E152" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="F151" s="120"/>
-    </row>
-    <row r="152" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A152" s="117" t="s">
+      <c r="F152" s="120"/>
+    </row>
+    <row r="153" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A153" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B152" s="117" t="s">
-        <v>744</v>
-      </c>
-      <c r="C152" s="121"/>
-      <c r="D152" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="E152" s="121"/>
-      <c r="F152" s="120"/>
-    </row>
-    <row r="153" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A153" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B153" s="117" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C153" s="121"/>
       <c r="D153" s="20" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E153" s="121"/>
       <c r="F153" s="120"/>
     </row>
     <row r="154" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B154" s="117" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C154" s="121"/>
       <c r="D154" s="20" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E154" s="121"/>
-      <c r="F154" s="120" t="s">
-        <v>750</v>
-      </c>
+      <c r="F154" s="120"/>
     </row>
     <row r="155" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B155" s="117" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C155" s="121"/>
       <c r="D155" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="E155" s="121"/>
+      <c r="F155" s="120" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A156" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B156" s="117" t="s">
+        <v>750</v>
+      </c>
+      <c r="C156" s="121"/>
+      <c r="D156" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E156" s="121"/>
+      <c r="F156" s="120"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="158" t="s">
         <v>752</v>
       </c>
-      <c r="E155" s="121"/>
-      <c r="F155" s="120"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="158" t="s">
+      <c r="B157" s="159"/>
+      <c r="C157" s="159"/>
+      <c r="D157" s="159"/>
+      <c r="E157" s="160"/>
+      <c r="F157" s="120"/>
+    </row>
+    <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A158" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B158" s="117" t="s">
         <v>753</v>
       </c>
-      <c r="B156" s="159"/>
-      <c r="C156" s="159"/>
-      <c r="D156" s="159"/>
-      <c r="E156" s="160"/>
-      <c r="F156" s="120"/>
-    </row>
-    <row r="157" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A157" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B157" s="117" t="s">
+      <c r="C158" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="C157" s="125" t="s">
+      <c r="D158" s="117" t="s">
         <v>755</v>
       </c>
-      <c r="D157" s="117" t="s">
+      <c r="E158" s="121" t="s">
         <v>756</v>
       </c>
-      <c r="E157" s="121" t="s">
+      <c r="F158" s="120"/>
+    </row>
+    <row r="159" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A159" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B159" s="117" t="s">
         <v>757</v>
       </c>
-      <c r="F157" s="120"/>
-    </row>
-    <row r="158" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A158" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B158" s="117" t="s">
+      <c r="C159" s="118" t="s">
         <v>758</v>
       </c>
-      <c r="C158" s="118" t="s">
+      <c r="D159" s="126" t="s">
         <v>759</v>
       </c>
-      <c r="D158" s="126" t="s">
+      <c r="E159" s="121" t="s">
         <v>760</v>
       </c>
-      <c r="E158" s="121" t="s">
+      <c r="F159" s="120"/>
+    </row>
+    <row r="160" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A160" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B160" s="117" t="s">
         <v>761</v>
       </c>
-      <c r="F158" s="120"/>
-    </row>
-    <row r="159" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A159" s="127" t="s">
-        <v>32</v>
-      </c>
-      <c r="B159" s="117" t="s">
+      <c r="C160" s="118" t="s">
         <v>762</v>
       </c>
-      <c r="C159" s="118" t="s">
+      <c r="D160" s="126" t="s">
         <v>763</v>
       </c>
-      <c r="D159" s="126" t="s">
+      <c r="E160" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="E159" s="121" t="s">
+      <c r="F160" s="120"/>
+    </row>
+    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="127" t="s">
         <v>765</v>
       </c>
-      <c r="F159" s="120"/>
-    </row>
-    <row r="160" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="127" t="s">
+      <c r="B161" s="117" t="s">
         <v>766</v>
       </c>
-      <c r="B160" s="117" t="s">
+      <c r="C161" s="128" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="126"/>
+      <c r="E161" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="F161" s="120"/>
+    </row>
+    <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="117" t="s">
+        <v>739</v>
+      </c>
+      <c r="B162" s="117" t="s">
         <v>767</v>
       </c>
-      <c r="C160" s="128" t="s">
-        <v>47</v>
-      </c>
-      <c r="D160" s="126"/>
-      <c r="E160" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="F160" s="120"/>
-    </row>
-    <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="117" t="s">
-        <v>740</v>
-      </c>
-      <c r="B161" s="117" t="s">
+      <c r="C162" s="118" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" s="117"/>
+      <c r="E162" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="F162" s="120"/>
+    </row>
+    <row r="163" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A163" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B163" s="117" t="s">
         <v>768</v>
       </c>
-      <c r="C161" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="D161" s="117"/>
-      <c r="E161" s="121" t="s">
-        <v>78</v>
-      </c>
-      <c r="F161" s="120"/>
-    </row>
-    <row r="162" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A162" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B162" s="117" t="s">
+      <c r="C163" s="129"/>
+      <c r="D163" s="20" t="s">
         <v>769</v>
-      </c>
-      <c r="C162" s="129"/>
-      <c r="D162" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="E162" s="121"/>
-      <c r="F162" s="120"/>
-    </row>
-    <row r="163" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A163" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B163" s="117" t="s">
-        <v>771</v>
-      </c>
-      <c r="C163" s="121"/>
-      <c r="D163" s="20" t="s">
-        <v>772</v>
       </c>
       <c r="E163" s="121"/>
       <c r="F163" s="120"/>
     </row>
-    <row r="164" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="161" t="s">
+    <row r="164" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A164" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B164" s="117" t="s">
+        <v>770</v>
+      </c>
+      <c r="C164" s="121"/>
+      <c r="D164" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E164" s="121"/>
+      <c r="F164" s="120"/>
+    </row>
+    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="167" t="s">
+        <v>772</v>
+      </c>
+      <c r="B165" s="168"/>
+      <c r="C165" s="168"/>
+      <c r="D165" s="168"/>
+      <c r="E165" s="169"/>
+      <c r="F165" s="130" t="s">
         <v>773</v>
       </c>
-      <c r="B164" s="162"/>
-      <c r="C164" s="162"/>
-      <c r="D164" s="162"/>
-      <c r="E164" s="163"/>
-      <c r="F164" s="130" t="s">
+    </row>
+    <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B166" s="117" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B165" s="117" t="s">
+      <c r="C166" s="131" t="s">
         <v>775</v>
-      </c>
-      <c r="C165" s="131" t="s">
-        <v>776</v>
-      </c>
-      <c r="D165" s="115"/>
-      <c r="E165" s="132"/>
-      <c r="F165" s="130" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A166" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B166" s="117" t="s">
-        <v>778</v>
-      </c>
-      <c r="C166" s="118" t="s">
-        <v>759</v>
       </c>
       <c r="D166" s="115"/>
       <c r="E166" s="132"/>
       <c r="F166" s="130" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A167" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" s="117" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="127" t="s">
-        <v>779</v>
-      </c>
-      <c r="B167" s="117" t="s">
-        <v>780</v>
-      </c>
-      <c r="C167" s="116" t="s">
-        <v>781</v>
+      <c r="C167" s="118" t="s">
+        <v>758</v>
       </c>
       <c r="D167" s="115"/>
       <c r="E167" s="132"/>
       <c r="F167" s="130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="127" t="s">
-        <v>32</v>
+        <v>778</v>
       </c>
       <c r="B168" s="117" t="s">
-        <v>782</v>
-      </c>
-      <c r="C168" s="131" t="s">
-        <v>783</v>
+        <v>779</v>
+      </c>
+      <c r="C168" s="116" t="s">
+        <v>780</v>
       </c>
       <c r="D168" s="115"/>
       <c r="E168" s="132"/>
       <c r="F168" s="130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B169" s="60" t="s">
-        <v>784</v>
+      <c r="B169" s="117" t="s">
+        <v>781</v>
       </c>
       <c r="C169" s="131" t="s">
-        <v>76</v>
+        <v>782</v>
       </c>
       <c r="D169" s="115"/>
       <c r="E169" s="132"/>
       <c r="F169" s="130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="117" t="s">
-        <v>742</v>
-      </c>
-      <c r="B170" s="117" t="s">
-        <v>767</v>
+      <c r="A170" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="60" t="s">
+        <v>783</v>
       </c>
       <c r="C170" s="131" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D170" s="115"/>
       <c r="E170" s="132"/>
       <c r="F170" s="130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B171" s="133"/>
-      <c r="C171" s="134"/>
+        <v>741</v>
+      </c>
+      <c r="B171" s="117" t="s">
+        <v>766</v>
+      </c>
+      <c r="C171" s="131" t="s">
+        <v>47</v>
+      </c>
       <c r="D171" s="115"/>
       <c r="E171" s="132"/>
       <c r="F171" s="130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B172" s="133"/>
       <c r="C172" s="134"/>
       <c r="D172" s="115"/>
       <c r="E172" s="132"/>
       <c r="F172" s="130" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="158" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B173" s="133"/>
+      <c r="C173" s="134"/>
+      <c r="D173" s="115"/>
+      <c r="E173" s="132"/>
+      <c r="F173" s="130" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="158" t="s">
+        <v>784</v>
+      </c>
+      <c r="B174" s="159"/>
+      <c r="C174" s="159"/>
+      <c r="D174" s="159"/>
+      <c r="E174" s="160"/>
+      <c r="F174" s="120"/>
+    </row>
+    <row r="175" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A175" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B175" s="93" t="s">
         <v>785</v>
       </c>
-      <c r="B173" s="159"/>
-      <c r="C173" s="159"/>
-      <c r="D173" s="159"/>
-      <c r="E173" s="160"/>
-      <c r="F173" s="120"/>
-    </row>
-    <row r="174" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A174" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="B174" s="93" t="s">
+      <c r="C175" s="94" t="s">
         <v>786</v>
       </c>
-      <c r="C174" s="94" t="s">
+      <c r="D175" s="93" t="s">
         <v>787</v>
       </c>
-      <c r="D174" s="93" t="s">
+      <c r="E175" s="86" t="s">
         <v>788</v>
-      </c>
-      <c r="E174" s="86" t="s">
-        <v>789</v>
-      </c>
-      <c r="F174" s="120"/>
-    </row>
-    <row r="175" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A175" s="95" t="s">
-        <v>423</v>
-      </c>
-      <c r="B175" s="96" t="s">
-        <v>790</v>
-      </c>
-      <c r="C175" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="D175" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E175" s="90" t="s">
-        <v>58</v>
       </c>
       <c r="F175" s="120"/>
     </row>
@@ -13098,16 +13085,16 @@
         <v>423</v>
       </c>
       <c r="B176" s="96" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C176" s="97" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D176" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E176" s="90" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F176" s="120"/>
     </row>
@@ -13116,16 +13103,16 @@
         <v>423</v>
       </c>
       <c r="B177" s="96" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C177" s="97" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D177" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E177" s="90" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F177" s="120"/>
     </row>
@@ -13134,16 +13121,16 @@
         <v>423</v>
       </c>
       <c r="B178" s="96" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C178" s="97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D178" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E178" s="90" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F178" s="120"/>
     </row>
@@ -13152,554 +13139,556 @@
         <v>423</v>
       </c>
       <c r="B179" s="96" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C179" s="97" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D179" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E179" s="90" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F179" s="120"/>
     </row>
-    <row r="180" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="95" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
       <c r="B180" s="96" t="s">
-        <v>795</v>
-      </c>
-      <c r="C180" s="98" t="s">
-        <v>796</v>
+        <v>793</v>
+      </c>
+      <c r="C180" s="97" t="s">
+        <v>39</v>
       </c>
       <c r="D180" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E180" s="90" t="s">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="F180" s="120"/>
     </row>
-    <row r="181" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A181" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B181" s="117" t="s">
-        <v>798</v>
-      </c>
-      <c r="C181" s="121"/>
-      <c r="D181" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="E181" s="121"/>
+    <row r="181" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A181" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="96" t="s">
+        <v>794</v>
+      </c>
+      <c r="C181" s="98" t="s">
+        <v>795</v>
+      </c>
+      <c r="D181" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="E181" s="90" t="s">
+        <v>796</v>
+      </c>
       <c r="F181" s="120"/>
     </row>
     <row r="182" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B182" s="117" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C182" s="121"/>
       <c r="D182" s="20" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E182" s="121"/>
       <c r="F182" s="120"/>
     </row>
-    <row r="183" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B183" s="117" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C183" s="121"/>
       <c r="D183" s="20" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E183" s="121"/>
       <c r="F183" s="120"/>
     </row>
-    <row r="184" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B184" s="117" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C184" s="121"/>
       <c r="D184" s="20" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E184" s="121"/>
       <c r="F184" s="120"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="158" t="s">
+    <row r="185" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A185" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B185" s="117" t="s">
+        <v>803</v>
+      </c>
+      <c r="C185" s="121"/>
+      <c r="D185" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="E185" s="121"/>
+      <c r="F185" s="120"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="158" t="s">
+        <v>805</v>
+      </c>
+      <c r="B186" s="159"/>
+      <c r="C186" s="159"/>
+      <c r="D186" s="159"/>
+      <c r="E186" s="160"/>
+      <c r="F186" s="120"/>
+    </row>
+    <row r="187" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A187" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B187" s="117" t="s">
         <v>806</v>
       </c>
-      <c r="B185" s="159"/>
-      <c r="C185" s="159"/>
-      <c r="D185" s="159"/>
-      <c r="E185" s="160"/>
-      <c r="F185" s="120"/>
-    </row>
-    <row r="186" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A186" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B186" s="117" t="s">
+      <c r="C187" s="118" t="s">
         <v>807</v>
       </c>
-      <c r="C186" s="118" t="s">
+      <c r="D187" s="117" t="s">
+        <v>787</v>
+      </c>
+      <c r="E187" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="D186" s="117" t="s">
-        <v>788</v>
-      </c>
-      <c r="E186" s="121" t="s">
+      <c r="F187" s="120"/>
+    </row>
+    <row r="188" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A188" s="117" t="s">
+        <v>417</v>
+      </c>
+      <c r="B188" s="117" t="s">
         <v>809</v>
-      </c>
-      <c r="F186" s="120"/>
-    </row>
-    <row r="187" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A187" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B187" s="117" t="s">
-        <v>810</v>
-      </c>
-      <c r="C187" s="121"/>
-      <c r="D187" s="20" t="s">
-        <v>811</v>
-      </c>
-      <c r="E187" s="121"/>
-      <c r="F187" s="120"/>
-    </row>
-    <row r="188" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A188" s="117" t="s">
-        <v>420</v>
-      </c>
-      <c r="B188" s="117" t="s">
-        <v>812</v>
       </c>
       <c r="C188" s="121"/>
       <c r="D188" s="20" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E188" s="121"/>
       <c r="F188" s="120"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="158" t="s">
+    <row r="189" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A189" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B189" s="117" t="s">
+        <v>811</v>
+      </c>
+      <c r="C189" s="121"/>
+      <c r="D189" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="E189" s="121"/>
+      <c r="F189" s="120"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="158" t="s">
+        <v>813</v>
+      </c>
+      <c r="B190" s="159"/>
+      <c r="C190" s="159"/>
+      <c r="D190" s="159"/>
+      <c r="E190" s="160"/>
+      <c r="F190" s="120"/>
+    </row>
+    <row r="191" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A191" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B191" s="117" t="s">
         <v>814</v>
       </c>
-      <c r="B189" s="159"/>
-      <c r="C189" s="159"/>
-      <c r="D189" s="159"/>
-      <c r="E189" s="160"/>
-      <c r="F189" s="120"/>
-    </row>
-    <row r="190" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A190" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B190" s="117" t="s">
+      <c r="C191" s="118" t="s">
         <v>815</v>
       </c>
-      <c r="C190" s="118" t="s">
+      <c r="D191" s="117" t="s">
         <v>816</v>
       </c>
-      <c r="D190" s="117" t="s">
+      <c r="E191" s="121" t="s">
         <v>817</v>
       </c>
-      <c r="E190" s="121" t="s">
+      <c r="F191" s="120"/>
+    </row>
+    <row r="192" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A192" s="117" t="s">
+        <v>555</v>
+      </c>
+      <c r="B192" s="117" t="s">
         <v>818</v>
       </c>
-      <c r="F190" s="120"/>
-    </row>
-    <row r="191" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A191" s="117" t="s">
-        <v>556</v>
-      </c>
-      <c r="B191" s="117" t="s">
+      <c r="C192" s="118" t="s">
         <v>819</v>
       </c>
-      <c r="C191" s="118" t="s">
+      <c r="D192" s="117" t="s">
         <v>820</v>
       </c>
-      <c r="D191" s="117" t="s">
+      <c r="E192" s="121" t="s">
         <v>821</v>
       </c>
-      <c r="E191" s="121" t="s">
-        <v>822</v>
-      </c>
-      <c r="F191" s="120"/>
-    </row>
-    <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A192" s="117" t="s">
-        <v>491</v>
-      </c>
-      <c r="B192" s="117" t="s">
-        <v>823</v>
-      </c>
-      <c r="C192" s="59" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D192" s="117" t="s">
-        <v>824</v>
-      </c>
-      <c r="E192" s="121" t="s">
-        <v>1397</v>
-      </c>
       <c r="F192" s="120"/>
     </row>
-    <row r="193" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="117" t="s">
         <v>491</v>
       </c>
       <c r="B193" s="117" t="s">
-        <v>1394</v>
+        <v>822</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D193" s="117"/>
+        <v>1392</v>
+      </c>
+      <c r="D193" s="117" t="s">
+        <v>823</v>
+      </c>
       <c r="E193" s="121" t="s">
         <v>1396</v>
       </c>
       <c r="F193" s="120"/>
     </row>
-    <row r="194" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="117" t="s">
+        <v>491</v>
+      </c>
+      <c r="B194" s="117" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C194" s="59" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D194" s="117"/>
+      <c r="E194" s="121" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F194" s="120"/>
+    </row>
+    <row r="195" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A195" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="117" t="s">
-        <v>825</v>
-      </c>
-      <c r="C194" s="121"/>
-      <c r="D194" s="20" t="s">
-        <v>826</v>
-      </c>
-      <c r="E194" s="121"/>
-      <c r="F194" s="120"/>
-    </row>
-    <row r="195" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A195" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B195" s="117" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C195" s="121"/>
       <c r="D195" s="20" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E195" s="121"/>
       <c r="F195" s="120"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="158" t="s">
+    <row r="196" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A196" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B196" s="117" t="s">
+        <v>826</v>
+      </c>
+      <c r="C196" s="121"/>
+      <c r="D196" s="20" t="s">
+        <v>827</v>
+      </c>
+      <c r="E196" s="121"/>
+      <c r="F196" s="120"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="158" t="s">
+        <v>828</v>
+      </c>
+      <c r="B197" s="159"/>
+      <c r="C197" s="159"/>
+      <c r="D197" s="159"/>
+      <c r="E197" s="160"/>
+      <c r="F197" s="120"/>
+    </row>
+    <row r="198" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A198" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B198" s="117" t="s">
         <v>829</v>
       </c>
-      <c r="B196" s="159"/>
-      <c r="C196" s="159"/>
-      <c r="D196" s="159"/>
-      <c r="E196" s="160"/>
-      <c r="F196" s="120"/>
-    </row>
-    <row r="197" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A197" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B197" s="117" t="s">
+      <c r="C198" s="118" t="s">
         <v>830</v>
       </c>
-      <c r="C197" s="118" t="s">
+      <c r="D198" s="117" t="s">
         <v>831</v>
       </c>
-      <c r="D197" s="117" t="s">
+      <c r="E198" s="121" t="s">
         <v>832</v>
-      </c>
-      <c r="E197" s="121" t="s">
-        <v>833</v>
-      </c>
-      <c r="F197" s="120"/>
-    </row>
-    <row r="198" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A198" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B198" s="117" t="s">
-        <v>834</v>
-      </c>
-      <c r="C198" s="118" t="s">
-        <v>39</v>
-      </c>
-      <c r="D198" s="117"/>
-      <c r="E198" s="121" t="s">
-        <v>41</v>
       </c>
       <c r="F198" s="120"/>
     </row>
     <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="117" t="s">
-        <v>740</v>
+        <v>423</v>
       </c>
       <c r="B199" s="117" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C199" s="118" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D199" s="117"/>
       <c r="E199" s="121" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F199" s="120"/>
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="117" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B200" s="117" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C200" s="118" t="s">
-        <v>1404</v>
+        <v>76</v>
       </c>
       <c r="D200" s="117"/>
       <c r="E200" s="121" t="s">
-        <v>1407</v>
+        <v>78</v>
       </c>
       <c r="F200" s="120"/>
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="117" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B201" s="117" t="s">
-        <v>1406</v>
+        <v>834</v>
       </c>
       <c r="C201" s="118" t="s">
-        <v>43</v>
+        <v>1403</v>
       </c>
       <c r="D201" s="117"/>
       <c r="E201" s="121" t="s">
-        <v>45</v>
+        <v>1406</v>
       </c>
       <c r="F201" s="120"/>
     </row>
-    <row r="202" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="117" t="s">
-        <v>32</v>
+        <v>741</v>
       </c>
       <c r="B202" s="117" t="s">
         <v>1405</v>
       </c>
-      <c r="C202" s="135" t="s">
-        <v>1402</v>
+      <c r="C202" s="118" t="s">
+        <v>43</v>
       </c>
       <c r="D202" s="117"/>
       <c r="E202" s="121" t="s">
-        <v>1403</v>
+        <v>45</v>
       </c>
       <c r="F202" s="120"/>
     </row>
-    <row r="203" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B203" s="117" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C203" s="135" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D203" s="117"/>
+      <c r="E203" s="121" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F203" s="120"/>
+    </row>
+    <row r="204" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A204" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B203" s="117" t="s">
-        <v>836</v>
-      </c>
-      <c r="C203" s="121"/>
-      <c r="D203" s="20" t="s">
-        <v>745</v>
-      </c>
-      <c r="E203" s="121"/>
-      <c r="F203" s="120"/>
-    </row>
-    <row r="204" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A204" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B204" s="117" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C204" s="121"/>
       <c r="D204" s="20" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E204" s="121"/>
       <c r="F204" s="120"/>
     </row>
-    <row r="205" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B205" s="117" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C205" s="121"/>
       <c r="D205" s="20" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E205" s="121"/>
       <c r="F205" s="120"/>
     </row>
-    <row r="206" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A206" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B206" s="117" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C206" s="121"/>
       <c r="D206" s="20" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E206" s="121"/>
       <c r="F206" s="120"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="158" t="s">
+    <row r="207" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A207" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="117" t="s">
+        <v>838</v>
+      </c>
+      <c r="C207" s="121"/>
+      <c r="D207" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="E207" s="121"/>
+      <c r="F207" s="120"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="158" t="s">
+        <v>839</v>
+      </c>
+      <c r="B208" s="159"/>
+      <c r="C208" s="159"/>
+      <c r="D208" s="159"/>
+      <c r="E208" s="160"/>
+      <c r="F208" s="120"/>
+    </row>
+    <row r="209" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A209" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B209" s="117" t="s">
         <v>840</v>
       </c>
-      <c r="B207" s="159"/>
-      <c r="C207" s="159"/>
-      <c r="D207" s="159"/>
-      <c r="E207" s="160"/>
-      <c r="F207" s="120"/>
-    </row>
-    <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A208" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B208" s="117" t="s">
+      <c r="C209" s="118" t="s">
         <v>841</v>
       </c>
-      <c r="C208" s="118" t="s">
+      <c r="D209" s="117" t="s">
         <v>842</v>
       </c>
-      <c r="D208" s="117" t="s">
+      <c r="E209" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="F209" s="120"/>
+    </row>
+    <row r="210" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A210" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B210" s="117" t="s">
         <v>843</v>
       </c>
-      <c r="E208" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="F208" s="120"/>
-    </row>
-    <row r="209" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A209" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B209" s="117" t="s">
+      <c r="C210" s="118" t="s">
+        <v>758</v>
+      </c>
+      <c r="D210" s="126" t="s">
         <v>844</v>
       </c>
-      <c r="C209" s="118" t="s">
-        <v>759</v>
-      </c>
-      <c r="D209" s="126" t="s">
-        <v>845</v>
-      </c>
-      <c r="E209" s="121" t="s">
-        <v>761</v>
-      </c>
-      <c r="F209" s="120"/>
-    </row>
-    <row r="210" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A210" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="B210" s="117" t="s">
-        <v>846</v>
-      </c>
-      <c r="C210" s="118" t="s">
-        <v>763</v>
-      </c>
-      <c r="D210" s="126" t="s">
-        <v>847</v>
-      </c>
       <c r="E210" s="121" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="F210" s="120"/>
     </row>
     <row r="211" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A211" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="B211" s="117" t="s">
+        <v>845</v>
+      </c>
+      <c r="C211" s="118" t="s">
+        <v>762</v>
+      </c>
+      <c r="D211" s="126" t="s">
+        <v>846</v>
+      </c>
+      <c r="E211" s="121" t="s">
+        <v>764</v>
+      </c>
+      <c r="F211" s="120"/>
+    </row>
+    <row r="212" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A212" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="B211" s="117" t="s">
-        <v>848</v>
-      </c>
-      <c r="C211" s="129"/>
-      <c r="D211" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="E211" s="121"/>
-      <c r="F211" s="120"/>
-    </row>
-    <row r="212" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A212" s="117" t="s">
-        <v>420</v>
-      </c>
       <c r="B212" s="117" t="s">
-        <v>849</v>
-      </c>
-      <c r="C212" s="121"/>
+        <v>847</v>
+      </c>
+      <c r="C212" s="129"/>
       <c r="D212" s="20" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E212" s="121"/>
       <c r="F212" s="120"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="158" t="s">
+    <row r="213" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A213" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B213" s="117" t="s">
+        <v>848</v>
+      </c>
+      <c r="C213" s="121"/>
+      <c r="D213" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="E213" s="121"/>
+      <c r="F213" s="120"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="158" t="s">
+        <v>849</v>
+      </c>
+      <c r="B214" s="159"/>
+      <c r="C214" s="159"/>
+      <c r="D214" s="159"/>
+      <c r="E214" s="160"/>
+      <c r="F214" s="120"/>
+    </row>
+    <row r="215" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B215" s="117" t="s">
         <v>850</v>
       </c>
-      <c r="B213" s="159"/>
-      <c r="C213" s="159"/>
-      <c r="D213" s="159"/>
-      <c r="E213" s="160"/>
-      <c r="F213" s="120"/>
-    </row>
-    <row r="214" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A214" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B214" s="117" t="s">
+      <c r="C215" s="118" t="s">
         <v>851</v>
       </c>
-      <c r="C214" s="118" t="s">
+      <c r="D215" s="117" t="s">
         <v>852</v>
       </c>
-      <c r="D214" s="117" t="s">
+      <c r="E215" s="121" t="s">
         <v>853</v>
-      </c>
-      <c r="E214" s="121" t="s">
-        <v>854</v>
-      </c>
-      <c r="F214" s="120"/>
-    </row>
-    <row r="215" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A215" s="117" t="s">
-        <v>423</v>
-      </c>
-      <c r="B215" s="117" t="s">
-        <v>855</v>
-      </c>
-      <c r="C215" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="D215" s="117"/>
-      <c r="E215" s="121" t="s">
-        <v>58</v>
       </c>
       <c r="F215" s="120"/>
     </row>
@@ -13708,14 +13697,14 @@
         <v>423</v>
       </c>
       <c r="B216" s="117" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C216" s="118" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D216" s="117"/>
       <c r="E216" s="121" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F216" s="120"/>
     </row>
@@ -13724,14 +13713,14 @@
         <v>423</v>
       </c>
       <c r="B217" s="117" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C217" s="118" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D217" s="117"/>
       <c r="E217" s="121" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F217" s="120"/>
     </row>
@@ -13740,14 +13729,14 @@
         <v>423</v>
       </c>
       <c r="B218" s="117" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C218" s="118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D218" s="117"/>
       <c r="E218" s="121" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F218" s="120"/>
     </row>
@@ -13756,154 +13745,152 @@
         <v>423</v>
       </c>
       <c r="B219" s="117" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C219" s="118" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D219" s="117"/>
       <c r="E219" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="F219" s="120"/>
+    </row>
+    <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="117" t="s">
+        <v>423</v>
+      </c>
+      <c r="B220" s="117" t="s">
+        <v>858</v>
+      </c>
+      <c r="C220" s="118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D220" s="117"/>
+      <c r="E220" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="F219" s="120"/>
-    </row>
-    <row r="220" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A220" s="117" t="s">
-        <v>417</v>
-      </c>
-      <c r="B220" s="117" t="s">
-        <v>860</v>
-      </c>
-      <c r="C220" s="121"/>
-      <c r="D220" s="20" t="s">
-        <v>799</v>
-      </c>
-      <c r="E220" s="121"/>
       <c r="F220" s="120"/>
     </row>
     <row r="221" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B221" s="117" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C221" s="121"/>
       <c r="D221" s="20" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E221" s="121"/>
       <c r="F221" s="120"/>
     </row>
-    <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" s="117" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B222" s="117" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C222" s="121"/>
       <c r="D222" s="20" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E222" s="121"/>
       <c r="F222" s="120"/>
     </row>
-    <row r="223" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" s="117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B223" s="117" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C223" s="121"/>
       <c r="D223" s="20" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E223" s="121"/>
       <c r="F223" s="120"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="158" t="s">
-        <v>864</v>
-      </c>
-      <c r="B224" s="159"/>
-      <c r="C224" s="159"/>
-      <c r="D224" s="159"/>
-      <c r="E224" s="160"/>
+    <row r="224" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A224" s="117" t="s">
+        <v>420</v>
+      </c>
+      <c r="B224" s="117" t="s">
+        <v>862</v>
+      </c>
+      <c r="C224" s="121"/>
+      <c r="D224" s="20" t="s">
+        <v>804</v>
+      </c>
+      <c r="E224" s="121"/>
       <c r="F224" s="120"/>
     </row>
-    <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A225" s="117" t="s">
-        <v>243</v>
-      </c>
-      <c r="B225" s="117" t="s">
-        <v>865</v>
-      </c>
-      <c r="C225" s="118" t="s">
-        <v>866</v>
-      </c>
-      <c r="D225" s="117" t="s">
-        <v>867</v>
-      </c>
-      <c r="E225" s="121" t="s">
-        <v>868</v>
-      </c>
-      <c r="F225" s="38" t="s">
-        <v>869</v>
-      </c>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="158" t="s">
+        <v>863</v>
+      </c>
+      <c r="B225" s="159"/>
+      <c r="C225" s="159"/>
+      <c r="D225" s="159"/>
+      <c r="E225" s="160"/>
+      <c r="F225" s="120"/>
     </row>
     <row r="226" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A226" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B226" s="117" t="s">
+        <v>864</v>
+      </c>
+      <c r="C226" s="118" t="s">
+        <v>865</v>
+      </c>
+      <c r="D226" s="117" t="s">
+        <v>866</v>
+      </c>
+      <c r="E226" s="121" t="s">
+        <v>867</v>
+      </c>
+      <c r="F226" s="38" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A227" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="B226" s="117" t="s">
+      <c r="B227" s="117" t="s">
+        <v>869</v>
+      </c>
+      <c r="C227" s="118" t="s">
         <v>870</v>
       </c>
-      <c r="C226" s="118" t="s">
+      <c r="D227" s="117" t="s">
         <v>871</v>
       </c>
-      <c r="D226" s="117" t="s">
+      <c r="E227" s="121" t="s">
         <v>872</v>
       </c>
-      <c r="E226" s="121" t="s">
+      <c r="F227" s="120"/>
+    </row>
+    <row r="228" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A228" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="B228" s="117" t="s">
         <v>873</v>
       </c>
-      <c r="F226" s="120"/>
-    </row>
-    <row r="227" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A227" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="B227" s="117" t="s">
+      <c r="C228" s="59" t="s">
         <v>874</v>
       </c>
-      <c r="C227" s="59" t="s">
+      <c r="D228" s="117" t="s">
         <v>875</v>
       </c>
-      <c r="D227" s="117" t="s">
+      <c r="E228" s="121" t="s">
         <v>876</v>
-      </c>
-      <c r="E227" s="121" t="s">
-        <v>877</v>
-      </c>
-      <c r="F227" s="120"/>
-    </row>
-    <row r="228" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A228" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B228" s="117" t="s">
-        <v>878</v>
-      </c>
-      <c r="C228" s="118" t="s">
-        <v>879</v>
-      </c>
-      <c r="D228" s="122" t="s">
-        <v>880</v>
-      </c>
-      <c r="E228" s="121" t="s">
-        <v>881</v>
       </c>
       <c r="F228" s="120"/>
     </row>
@@ -13912,16 +13899,16 @@
         <v>389</v>
       </c>
       <c r="B229" s="117" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C229" s="118" t="s">
-        <v>391</v>
+        <v>878</v>
       </c>
       <c r="D229" s="122" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E229" s="121" t="s">
-        <v>393</v>
+        <v>880</v>
       </c>
       <c r="F229" s="120"/>
     </row>
@@ -13930,163 +13917,174 @@
         <v>389</v>
       </c>
       <c r="B230" s="117" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C230" s="118" t="s">
-        <v>885</v>
+        <v>391</v>
       </c>
       <c r="D230" s="122" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E230" s="121" t="s">
-        <v>887</v>
+        <v>393</v>
       </c>
       <c r="F230" s="120"/>
     </row>
-    <row r="231" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B231" s="117" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C231" s="118" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D231" s="122" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E231" s="121" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F231" s="120"/>
     </row>
-    <row r="232" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A232" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B232" s="117" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C232" s="118" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="D232" s="122" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E232" s="121" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F232" s="120"/>
     </row>
     <row r="233" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="117" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
       <c r="B233" s="117" t="s">
+        <v>891</v>
+      </c>
+      <c r="C233" s="118" t="s">
+        <v>892</v>
+      </c>
+      <c r="D233" s="122" t="s">
+        <v>893</v>
+      </c>
+      <c r="E233" s="121" t="s">
+        <v>894</v>
+      </c>
+      <c r="F233" s="120"/>
+    </row>
+    <row r="234" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A234" s="117" t="s">
+        <v>497</v>
+      </c>
+      <c r="B234" s="117" t="s">
+        <v>895</v>
+      </c>
+      <c r="C234" s="118" t="s">
         <v>896</v>
       </c>
-      <c r="C233" s="118" t="s">
+      <c r="D234" s="122" t="s">
+        <v>893</v>
+      </c>
+      <c r="E234" s="121" t="s">
         <v>897</v>
       </c>
-      <c r="D233" s="122" t="s">
-        <v>894</v>
-      </c>
-      <c r="E233" s="121" t="s">
-        <v>898</v>
-      </c>
-      <c r="F233" s="120"/>
-    </row>
-    <row r="234" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A234" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="B234" s="117" t="s">
-        <v>899</v>
-      </c>
-      <c r="C234" s="118" t="s">
-        <v>900</v>
-      </c>
-      <c r="D234" s="122" t="s">
-        <v>901</v>
-      </c>
-      <c r="E234" s="121" t="s">
-        <v>902</v>
-      </c>
       <c r="F234" s="120"/>
     </row>
-    <row r="235" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A235" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B235" s="117" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C235" s="118" t="s">
-        <v>323</v>
+        <v>899</v>
       </c>
       <c r="D235" s="122" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E235" s="121" t="s">
-        <v>325</v>
+        <v>901</v>
       </c>
       <c r="F235" s="120"/>
     </row>
-    <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B236" s="117" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C236" s="118" t="s">
-        <v>906</v>
+        <v>323</v>
       </c>
       <c r="D236" s="122" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E236" s="121" t="s">
-        <v>908</v>
+        <v>325</v>
       </c>
       <c r="F236" s="120"/>
     </row>
-    <row r="237" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A237" s="117" t="s">
         <v>389</v>
       </c>
       <c r="B237" s="117" t="s">
+        <v>904</v>
+      </c>
+      <c r="C237" s="118" t="s">
+        <v>905</v>
+      </c>
+      <c r="D237" s="122" t="s">
+        <v>906</v>
+      </c>
+      <c r="E237" s="121" t="s">
+        <v>907</v>
+      </c>
+      <c r="F237" s="120"/>
+    </row>
+    <row r="238" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A238" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="B238" s="117" t="s">
+        <v>908</v>
+      </c>
+      <c r="C238" s="118" t="s">
         <v>909</v>
       </c>
-      <c r="C237" s="118" t="s">
+      <c r="D238" s="122" t="s">
         <v>910</v>
       </c>
-      <c r="D237" s="122" t="s">
+      <c r="E238" s="121" t="s">
         <v>911</v>
       </c>
-      <c r="E237" s="121" t="s">
-        <v>912</v>
-      </c>
-      <c r="F237" s="120"/>
-    </row>
-    <row r="238" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="6" t="s">
-        <v>913</v>
-      </c>
-      <c r="D238" s="5"/>
-      <c r="E238" s="37"/>
-      <c r="F238" s="68" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F238" s="120"/>
+    </row>
+    <row r="239" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
-      <c r="C239" s="6"/>
+      <c r="C239" s="6" t="s">
+        <v>912</v>
+      </c>
       <c r="D239" s="5"/>
       <c r="E239" s="37"/>
+      <c r="F239" s="68" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
@@ -14823,30 +14821,37 @@
       <c r="D344" s="5"/>
       <c r="E344" s="37"/>
     </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="5"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="5"/>
+      <c r="E345" s="37"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A224:E224"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A189:E189"/>
-    <mergeCell ref="A196:E196"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A58:E58"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A136:E136"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14894,7 +14899,7 @@
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="173" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B2" s="174"/>
       <c r="C2" s="174"/>
@@ -14906,110 +14911,110 @@
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>916</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>917</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>916</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="46" t="s">
         <v>920</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>923</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="46" t="s">
         <v>926</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B8" s="93" t="s">
+        <v>927</v>
+      </c>
+      <c r="C8" s="94" t="s">
         <v>928</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>929</v>
       </c>
       <c r="D8" s="93" t="s">
         <v>411</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>930</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>931</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>932</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>934</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>935</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -15020,10 +15025,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -15034,7 +15039,7 @@
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B12" s="174"/>
       <c r="C12" s="174"/>
@@ -15046,16 +15051,16 @@
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>938</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="46" t="s">
         <v>940</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15063,16 +15068,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>942</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>943</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="46" t="s">
         <v>944</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15080,16 +15085,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>945</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>946</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>947</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>944</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15097,16 +15102,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>949</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>950</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>944</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15114,16 +15119,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C17" s="152" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>943</v>
+      </c>
+      <c r="E17" s="153" t="s">
         <v>1383</v>
-      </c>
-      <c r="D17" s="93" t="s">
-        <v>944</v>
-      </c>
-      <c r="E17" s="153" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15131,11 +15136,11 @@
         <v>417</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15143,16 +15148,16 @@
         <v>420</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="182" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B20" s="183"/>
       <c r="C20" s="183"/>
@@ -15161,52 +15166,52 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="B21" s="92" t="s">
         <v>958</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="C21" s="6" t="s">
         <v>959</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>960</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="82" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
+        <v>961</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>962</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="C22" s="83" t="s">
         <v>963</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>964</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="82" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
+        <v>965</v>
+      </c>
+      <c r="B23" s="95" t="s">
         <v>966</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="C23" s="83" t="s">
         <v>967</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>968</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="82" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="179" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B24" s="180"/>
       <c r="C24" s="180"/>
@@ -15218,19 +15223,19 @@
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>970</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>971</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>972</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="170" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B26" s="171"/>
       <c r="C26" s="171"/>
@@ -15242,19 +15247,19 @@
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>974</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>975</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>976</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="170" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="171"/>
@@ -15266,53 +15271,53 @@
         <v>243</v>
       </c>
       <c r="B29" s="93" t="s">
+        <v>978</v>
+      </c>
+      <c r="C29" s="94" t="s">
         <v>979</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="D29" s="93" t="s">
         <v>980</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="E29" s="86" t="s">
         <v>981</v>
       </c>
-      <c r="E29" s="86" t="s">
+      <c r="F29" s="72" t="s">
         <v>982</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="95" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B30" s="96" t="s">
+        <v>983</v>
+      </c>
+      <c r="C30" s="97" t="s">
         <v>984</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="D30" s="96" t="s">
         <v>985</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="E30" s="90" t="s">
         <v>986</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
+        <v>987</v>
+      </c>
+      <c r="B31" s="96" t="s">
         <v>988</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="C31" s="97" t="s">
         <v>989</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>990</v>
       </c>
       <c r="D31" s="96" t="s">
         <v>411</v>
       </c>
       <c r="E31" s="90" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15320,13 +15325,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>992</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="46" t="s">
         <v>993</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15334,16 +15339,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>994</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="26" t="s">
         <v>996</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="E33" s="46" t="s">
         <v>997</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15351,11 +15356,11 @@
         <v>417</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15363,11 +15368,11 @@
         <v>417</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15375,16 +15380,16 @@
         <v>420</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="170" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B37" s="171"/>
       <c r="C37" s="171"/>
@@ -15396,16 +15401,16 @@
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>1006</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="46" t="s">
         <v>1008</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15413,11 +15418,11 @@
         <v>417</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15425,16 +15430,16 @@
         <v>420</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="176" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B41" s="177"/>
       <c r="C41" s="177"/>
@@ -15446,19 +15451,19 @@
         <v>243</v>
       </c>
       <c r="B42" s="117" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="D42" s="117" t="s">
         <v>1014</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="D42" s="117" t="s">
+      <c r="E42" s="46" t="s">
+        <v>867</v>
+      </c>
+      <c r="F42" s="73" t="s">
         <v>1015</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>868</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15466,16 +15471,16 @@
         <v>375</v>
       </c>
       <c r="B43" s="117" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>925</v>
+      </c>
+      <c r="D43" s="117" t="s">
         <v>1017</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="E43" s="46" t="s">
         <v>926</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15483,16 +15488,16 @@
         <v>261</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C44" s="62" t="s">
         <v>1019</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="D44" s="117" t="s">
         <v>1020</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="E44" s="46" t="s">
         <v>1021</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15500,16 +15505,16 @@
         <v>389</v>
       </c>
       <c r="B45" s="117" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>1023</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="122" t="s">
         <v>1024</v>
       </c>
-      <c r="D45" s="122" t="s">
-        <v>1025</v>
-      </c>
       <c r="E45" s="46" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15517,16 +15522,16 @@
         <v>389</v>
       </c>
       <c r="B46" s="117" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>1026</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="D46" s="122" t="s">
         <v>1027</v>
       </c>
-      <c r="D46" s="122" t="s">
+      <c r="E46" s="46" t="s">
         <v>1028</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15534,16 +15539,16 @@
         <v>389</v>
       </c>
       <c r="B47" s="117" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="122" t="s">
         <v>1031</v>
       </c>
-      <c r="D47" s="122" t="s">
+      <c r="E47" s="46" t="s">
         <v>1032</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1033</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15551,16 +15556,16 @@
         <v>389</v>
       </c>
       <c r="B48" s="117" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>1034</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="D48" s="122" t="s">
         <v>1035</v>
       </c>
-      <c r="D48" s="122" t="s">
+      <c r="E48" s="46" t="s">
         <v>1036</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15568,16 +15573,16 @@
         <v>389</v>
       </c>
       <c r="B49" s="93" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C49" s="94" t="s">
         <v>1038</v>
-      </c>
-      <c r="C49" s="94" t="s">
-        <v>1039</v>
       </c>
       <c r="D49" s="102" t="s">
         <v>411</v>
       </c>
       <c r="E49" s="86" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15585,7 +15590,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -15596,36 +15601,36 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>1042</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="C51" s="21" t="s">
         <v>1043</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="19" t="s">
         <v>1044</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>1045</v>
-      </c>
       <c r="F51" s="72" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>1046</v>
       </c>
-      <c r="C52" s="21" t="s">
-        <v>1047</v>
-      </c>
       <c r="D52" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F52" s="72" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15633,16 +15638,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="117" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>1048</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="D53" s="122" t="s">
         <v>1049</v>
       </c>
-      <c r="D53" s="122" t="s">
-        <v>1050</v>
-      </c>
       <c r="F53" s="72" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15650,16 +15655,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="117" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>1051</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="D54" s="122" t="s">
         <v>1052</v>
       </c>
-      <c r="D54" s="122" t="s">
-        <v>1053</v>
-      </c>
       <c r="F54" s="72" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -15722,52 +15727,52 @@
         <v>243</v>
       </c>
       <c r="B2" s="137" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C2" s="138" t="s">
         <v>1054</v>
-      </c>
-      <c r="C2" s="138" t="s">
-        <v>1055</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B3" s="137" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C3" s="138" t="s">
         <v>1057</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="D3" s="137" t="s">
         <v>1058</v>
       </c>
-      <c r="D3" s="137" t="s">
+      <c r="E3" s="139" t="s">
         <v>1059</v>
-      </c>
-      <c r="E3" s="139" t="s">
-        <v>1060</v>
       </c>
       <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B4" s="137" t="s">
         <v>1061</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="C4" s="138" t="s">
         <v>1062</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="D4" s="137" t="s">
         <v>1063</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="E4" s="139" t="s">
         <v>1064</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>1065</v>
       </c>
       <c r="F4" s="136"/>
     </row>
@@ -15776,11 +15781,11 @@
         <v>417</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="137" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E5" s="139"/>
       <c r="F5" s="136"/>
@@ -15790,84 +15795,84 @@
         <v>420</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="137" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E6" s="139"/>
       <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B7" s="137" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C7" s="138" t="s">
         <v>1070</v>
       </c>
-      <c r="C7" s="138" t="s">
+      <c r="D7" s="137" t="s">
         <v>1071</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="E7" s="139" t="s">
         <v>1072</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>1073</v>
       </c>
       <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B8" s="137" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C8" s="138" t="s">
         <v>1074</v>
       </c>
-      <c r="C8" s="138" t="s">
+      <c r="D8" s="137" t="s">
         <v>1075</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="E8" s="139" t="s">
         <v>1076</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>1077</v>
       </c>
       <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B9" s="137" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C9" s="138" t="s">
         <v>1078</v>
       </c>
-      <c r="C9" s="138" t="s">
+      <c r="D9" s="137" t="s">
         <v>1079</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="E9" s="139" t="s">
         <v>1080</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>1081</v>
       </c>
       <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B10" s="137" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="138" t="s">
         <v>1082</v>
       </c>
-      <c r="C10" s="138" t="s">
+      <c r="D10" s="137" t="s">
         <v>1083</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="E10" s="139" t="s">
         <v>1084</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>1085</v>
       </c>
       <c r="F10" s="136"/>
     </row>
@@ -15876,32 +15881,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C11" s="138" t="s">
         <v>1086</v>
       </c>
-      <c r="C11" s="138" t="s">
+      <c r="D11" s="137" t="s">
         <v>1087</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>1088</v>
       </c>
       <c r="E11" s="139"/>
       <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B12" s="137" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C12" s="138" t="s">
         <v>1089</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="D12" s="137" t="s">
         <v>1090</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="E12" s="139" t="s">
         <v>1091</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>1092</v>
       </c>
       <c r="F12" s="136"/>
     </row>
@@ -15910,11 +15915,11 @@
         <v>417</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C13" s="139"/>
       <c r="D13" s="137" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E13" s="139"/>
       <c r="F13" s="136"/>
@@ -15924,83 +15929,83 @@
         <v>420</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C14" s="139"/>
       <c r="D14" s="137" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E14" s="139"/>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B15" s="137" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C15" s="138" t="s">
         <v>1096</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="D15" s="137" t="s">
         <v>1097</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="E15" s="139" t="s">
         <v>1098</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>1099</v>
       </c>
       <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C16" s="138" t="s">
         <v>1100</v>
       </c>
-      <c r="C16" s="138" t="s">
+      <c r="D16" s="137" t="s">
         <v>1101</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="E16" s="139" t="s">
         <v>1102</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>1103</v>
       </c>
       <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B17" s="137" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C17" s="138" t="s">
         <v>1104</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="D17" s="137" t="s">
         <v>1105</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="E17" s="139" t="s">
         <v>1106</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B18" s="137" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C18" s="138" t="s">
         <v>1108</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="D18" s="29" t="s">
         <v>1109</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="E18" s="139" t="s">
         <v>1110</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -16008,11 +16013,11 @@
         <v>417</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E19" s="139"/>
     </row>
@@ -16021,11 +16026,11 @@
         <v>420</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E20" s="139"/>
     </row>
@@ -16034,29 +16039,29 @@
         <v>420</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E21" s="139"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="137" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B22" s="137" t="s">
         <v>1117</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="C22" s="138" t="s">
         <v>1118</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="D22" s="137" t="s">
         <v>1119</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="E22" s="139" t="s">
         <v>1120</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16064,11 +16069,11 @@
         <v>417</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="137" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E23" s="139"/>
     </row>
@@ -16077,11 +16082,11 @@
         <v>420</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="137" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="E24" s="139"/>
     </row>
@@ -16090,11 +16095,11 @@
         <v>420</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E25" s="139"/>
     </row>
@@ -16103,38 +16108,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="137" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C26" s="138" t="s">
         <v>1128</v>
       </c>
-      <c r="C26" s="138" t="s">
+      <c r="D26" s="137" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E26" s="139" t="s">
         <v>1129</v>
-      </c>
-      <c r="D26" s="137" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E26" s="139" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="137" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B27" s="137" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C27" s="138" t="s">
         <v>1131</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="D27" s="137" t="s">
         <v>1132</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="E27" s="139" t="s">
         <v>1133</v>
-      </c>
-      <c r="E27" s="139" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="185" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B28" s="186"/>
       <c r="C28" s="186"/>
@@ -16146,33 +16151,33 @@
         <v>243</v>
       </c>
       <c r="B29" s="142" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C29" s="143" t="s">
         <v>1136</v>
       </c>
-      <c r="C29" s="143" t="s">
+      <c r="D29" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="144" t="s">
         <v>1138</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="145" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B30" s="145" t="s">
         <v>1140</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="C30" s="146" t="s">
         <v>1141</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="D30" s="145" t="s">
         <v>1142</v>
       </c>
-      <c r="D30" s="145" t="s">
+      <c r="E30" s="147" t="s">
         <v>1143</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16180,11 +16185,11 @@
         <v>417</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E31" s="147"/>
     </row>
@@ -16193,17 +16198,17 @@
         <v>420</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E32" s="147"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="188" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B33" s="189"/>
       <c r="C33" s="190"/>
@@ -16215,121 +16220,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="148" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C34" s="146" t="s">
         <v>1148</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="D34" s="50" t="s">
         <v>1149</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="E34" s="147" t="s">
         <v>1150</v>
-      </c>
-      <c r="E34" s="147" t="s">
-        <v>1151</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="145" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B35" s="149" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C35" s="146" t="s">
         <v>1152</v>
       </c>
-      <c r="C35" s="146" t="s">
+      <c r="D35" s="150" t="s">
         <v>1153</v>
       </c>
-      <c r="D35" s="150" t="s">
+      <c r="E35" s="147" t="s">
         <v>1154</v>
-      </c>
-      <c r="E35" s="147" t="s">
-        <v>1155</v>
       </c>
       <c r="F35" s="136"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="145" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B36" s="149" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C36" s="146" t="s">
         <v>1156</v>
       </c>
-      <c r="C36" s="146" t="s">
+      <c r="D36" s="150" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E36" s="147" t="s">
         <v>1157</v>
-      </c>
-      <c r="D36" s="150" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E36" s="147" t="s">
-        <v>1158</v>
       </c>
       <c r="F36" s="136"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="145" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B37" s="149" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C37" s="49" t="s">
         <v>1159</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="D37" s="150" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E37" s="147" t="s">
         <v>1160</v>
-      </c>
-      <c r="D37" s="150" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E37" s="147" t="s">
-        <v>1161</v>
       </c>
       <c r="F37" s="136"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="145" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B38" s="149" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C38" s="49" t="s">
         <v>1162</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="D38" s="150" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E38" s="147" t="s">
         <v>1163</v>
-      </c>
-      <c r="D38" s="150" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E38" s="147" t="s">
-        <v>1164</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="145" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B39" s="149" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C39" s="49" t="s">
         <v>1165</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="D39" s="150" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E39" s="147" t="s">
         <v>1166</v>
-      </c>
-      <c r="D39" s="150" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E39" s="147" t="s">
-        <v>1167</v>
       </c>
       <c r="F39" s="136"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="145" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="150" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E40" s="147" t="s">
         <v>95</v>
@@ -16341,11 +16346,11 @@
         <v>417</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E41" s="147"/>
       <c r="F41" s="136"/>
@@ -16355,11 +16360,11 @@
         <v>420</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E42" s="147"/>
       <c r="F42" s="136"/>
@@ -16369,16 +16374,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="137" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C43" s="62" t="s">
         <v>1171</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="D43" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="147" t="s">
         <v>1173</v>
-      </c>
-      <c r="E43" s="147" t="s">
-        <v>1174</v>
       </c>
       <c r="F43" s="136"/>
     </row>
@@ -16387,11 +16392,11 @@
         <v>417</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E44" s="147"/>
       <c r="F44" s="136"/>
@@ -16401,18 +16406,18 @@
         <v>420</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E45" s="147"/>
       <c r="F45" s="136"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="185" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B46" s="186"/>
       <c r="C46" s="186"/>
@@ -16424,53 +16429,53 @@
         <v>243</v>
       </c>
       <c r="B47" s="145" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C47" s="62" t="s">
         <v>1178</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="D47" s="117" t="s">
         <v>1179</v>
       </c>
-      <c r="D47" s="117" t="s">
+      <c r="E47" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="F47" s="38" t="s">
         <v>1180</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="145" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B48" s="145" t="s">
         <v>1182</v>
       </c>
-      <c r="B48" s="145" t="s">
+      <c r="C48" s="62" t="s">
         <v>1183</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="D48" s="117" t="s">
         <v>1184</v>
       </c>
-      <c r="D48" s="117" t="s">
-        <v>1185</v>
-      </c>
       <c r="E48" s="63" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="145" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B49" s="145" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C49" s="62" t="s">
         <v>1186</v>
       </c>
-      <c r="C49" s="62" t="s">
-        <v>1187</v>
-      </c>
       <c r="D49" s="117" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E49" s="63" t="s">
         <v>1021</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16478,19 +16483,19 @@
         <v>389</v>
       </c>
       <c r="B50" s="137" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C50" s="146" t="s">
         <v>1188</v>
       </c>
-      <c r="C50" s="146" t="s">
+      <c r="D50" s="122" t="s">
         <v>1189</v>
       </c>
-      <c r="D50" s="122" t="s">
+      <c r="E50" s="63" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F50" s="74" t="s">
         <v>1190</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16498,16 +16503,16 @@
         <v>389</v>
       </c>
       <c r="B51" s="137" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C51" s="146" t="s">
         <v>1192</v>
       </c>
-      <c r="C51" s="146" t="s">
+      <c r="D51" s="122" t="s">
         <v>1193</v>
       </c>
-      <c r="D51" s="122" t="s">
+      <c r="E51" s="63" t="s">
         <v>1194</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16515,16 +16520,16 @@
         <v>389</v>
       </c>
       <c r="B52" s="137" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C52" s="146" t="s">
         <v>1196</v>
       </c>
-      <c r="C52" s="146" t="s">
+      <c r="D52" s="122" t="s">
         <v>1197</v>
       </c>
-      <c r="D52" s="122" t="s">
+      <c r="E52" s="63" t="s">
         <v>1198</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16532,16 +16537,16 @@
         <v>389</v>
       </c>
       <c r="B53" s="137" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C53" s="146" t="s">
         <v>1200</v>
       </c>
-      <c r="C53" s="146" t="s">
+      <c r="D53" s="122" t="s">
         <v>1201</v>
       </c>
-      <c r="D53" s="122" t="s">
+      <c r="E53" s="63" t="s">
         <v>1202</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16549,16 +16554,16 @@
         <v>389</v>
       </c>
       <c r="B54" s="137" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C54" s="146" t="s">
         <v>1204</v>
       </c>
-      <c r="C54" s="146" t="s">
+      <c r="D54" s="122" t="s">
         <v>1205</v>
       </c>
-      <c r="D54" s="122" t="s">
+      <c r="E54" s="63" t="s">
         <v>1206</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16566,19 +16571,19 @@
         <v>389</v>
       </c>
       <c r="B55" s="137" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C55" s="146" t="s">
         <v>1208</v>
       </c>
-      <c r="C55" s="146" t="s">
+      <c r="D55" s="122" t="s">
         <v>1209</v>
       </c>
-      <c r="D55" s="122" t="s">
+      <c r="E55" s="63" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F55" s="74" t="s">
         <v>1210</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F55" s="74" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16586,19 +16591,19 @@
         <v>389</v>
       </c>
       <c r="B56" s="137" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C56" s="146" t="s">
         <v>1212</v>
       </c>
-      <c r="C56" s="146" t="s">
+      <c r="D56" s="122" t="s">
         <v>1213</v>
       </c>
-      <c r="D56" s="122" t="s">
+      <c r="E56" s="63" t="s">
         <v>1214</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="F56" s="74" t="s">
         <v>1215</v>
-      </c>
-      <c r="F56" s="74" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16606,19 +16611,19 @@
         <v>389</v>
       </c>
       <c r="B57" s="137" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C57" s="146" t="s">
         <v>1217</v>
       </c>
-      <c r="C57" s="146" t="s">
+      <c r="D57" s="122" t="s">
         <v>1218</v>
       </c>
-      <c r="D57" s="122" t="s">
+      <c r="E57" s="63" t="s">
         <v>1219</v>
       </c>
-      <c r="E57" s="63" t="s">
+      <c r="F57" s="74" t="s">
         <v>1220</v>
-      </c>
-      <c r="F57" s="74" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16626,19 +16631,19 @@
         <v>389</v>
       </c>
       <c r="B58" s="137" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C58" s="146" t="s">
         <v>1222</v>
       </c>
-      <c r="C58" s="146" t="s">
+      <c r="D58" s="122" t="s">
         <v>1223</v>
       </c>
-      <c r="D58" s="122" t="s">
+      <c r="E58" s="63" t="s">
         <v>1224</v>
       </c>
-      <c r="E58" s="63" t="s">
+      <c r="F58" s="74" t="s">
         <v>1225</v>
-      </c>
-      <c r="F58" s="74" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16646,16 +16651,16 @@
         <v>389</v>
       </c>
       <c r="B59" s="137" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C59" s="146" t="s">
         <v>1227</v>
       </c>
-      <c r="C59" s="146" t="s">
+      <c r="D59" s="122" t="s">
         <v>1228</v>
       </c>
-      <c r="D59" s="122" t="s">
+      <c r="E59" s="63" t="s">
         <v>1229</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16663,16 +16668,16 @@
         <v>389</v>
       </c>
       <c r="B60" s="137" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C60" s="146" t="s">
         <v>1231</v>
       </c>
-      <c r="C60" s="146" t="s">
+      <c r="D60" s="122" t="s">
         <v>1232</v>
       </c>
-      <c r="D60" s="122" t="s">
+      <c r="E60" s="63" t="s">
         <v>1233</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16680,16 +16685,16 @@
         <v>389</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C61" s="146" t="s">
         <v>1235</v>
       </c>
-      <c r="C61" s="146" t="s">
+      <c r="D61" s="122" t="s">
         <v>1236</v>
       </c>
-      <c r="D61" s="122" t="s">
+      <c r="E61" s="63" t="s">
         <v>1237</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16697,63 +16702,63 @@
         <v>389</v>
       </c>
       <c r="B62" s="137" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C62" s="146" t="s">
         <v>1239</v>
       </c>
-      <c r="C62" s="146" t="s">
+      <c r="D62" s="122" t="s">
         <v>1240</v>
       </c>
-      <c r="D62" s="122" t="s">
+      <c r="E62" s="80" t="s">
         <v>1241</v>
-      </c>
-      <c r="E62" s="80" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="145" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B63" s="145" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C63" s="146" t="s">
         <v>1243</v>
-      </c>
-      <c r="C63" s="146" t="s">
-        <v>1244</v>
       </c>
       <c r="D63" s="149"/>
       <c r="E63" s="79" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F63" s="136"/>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="145" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B64" s="145" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C64" s="146" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D64" s="149"/>
       <c r="E64" s="79" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F64" s="136"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="145" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B65" s="137" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C65" s="146" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D65" s="149"/>
       <c r="E65" s="79" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F65" s="136"/>
     </row>
@@ -16868,16 +16873,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="68" t="s">
         <v>1250</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16885,16 +16890,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="37" t="s">
         <v>920</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16902,50 +16907,50 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1255</v>
-      </c>
       <c r="E4" s="37" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>1256</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1257</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16953,16 +16958,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>923</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16970,49 +16975,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>1263</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="37" t="s">
         <v>1264</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="75" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -17045,15 +17050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -17092,6 +17088,15 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17372,14 +17377,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17388,6 +17385,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817A5AC-338C-8647-B0AE-F971B8C4BB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29E7A7-4D61-6E48-94C7-2A75ABA09A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
     <sheet name="Global" sheetId="1" r:id="rId2"/>
     <sheet name="Start page" sheetId="7" r:id="rId3"/>
     <sheet name="CIS2 pages" sheetId="9" r:id="rId4"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId5"/>
-    <sheet name="Deceased persons details" sheetId="3" r:id="rId6"/>
-    <sheet name="Actions after death" sheetId="4" r:id="rId7"/>
-    <sheet name="Cause of death" sheetId="5" r:id="rId8"/>
-    <sheet name="MCCD Tasklist" sheetId="10" r:id="rId9"/>
-    <sheet name="Declaration and submission" sheetId="6" r:id="rId10"/>
-    <sheet name="Confirmation page" sheetId="11" r:id="rId11"/>
+    <sheet name="Onboarding" sheetId="12" r:id="rId5"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId6"/>
+    <sheet name="Deceased persons details" sheetId="3" r:id="rId7"/>
+    <sheet name="Actions after death" sheetId="4" r:id="rId8"/>
+    <sheet name="Cause of death" sheetId="5" r:id="rId9"/>
+    <sheet name="MCCD Tasklist" sheetId="10" r:id="rId10"/>
+    <sheet name="Declaration and submission" sheetId="6" r:id="rId11"/>
+    <sheet name="Confirmation page" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1425">
   <si>
     <r>
       <rPr>
@@ -5751,9 +5752,6 @@
     <t>Dod o hyd i'r cyfeiriad gan ddefnyddio côd post</t>
   </si>
   <si>
-    <t>014</t>
-  </si>
-  <si>
     <t>For example, 21 8 2021 or 8 2021 if day of month is not known</t>
   </si>
   <si>
@@ -5764,13 +5762,55 @@
   </si>
   <si>
     <t>dpdDoBHintNeoNatal</t>
+  </si>
+  <si>
+    <t>qualificationPageTitle</t>
+  </si>
+  <si>
+    <t>What is your primary qualification?</t>
+  </si>
+  <si>
+    <t>qualificationPageHint</t>
+  </si>
+  <si>
+    <t>As registered by the GMC, for example MB ChB</t>
+  </si>
+  <si>
+    <t>Contact method</t>
+  </si>
+  <si>
+    <t>contactPageTitle</t>
+  </si>
+  <si>
+    <t>contactPageHint</t>
+  </si>
+  <si>
+    <t>How do you want the medical examiner office to contact you?</t>
+  </si>
+  <si>
+    <t>Following a review of this MCCD, a medical examiner officer or medical examiner may ask you to make an amendment.&lt;br /&gt;&lt;br /&gt;Enter an email address or phone number as your preferred method of contact.</t>
+  </si>
+  <si>
+    <t>Beth yw eich prif gymhwysiad?</t>
+  </si>
+  <si>
+    <t>Fel y cofrestrwyd gan y GMC, er enghraifft MB ChB</t>
+  </si>
+  <si>
+    <t>Sut ydych chi am i'r Swyddfa Arholwr Meddygol gysylltu â chi?</t>
+  </si>
+  <si>
+    <t>Yn dilyn adolygiad o'r MCCD hwn, gall swyddog arholwr meddygol neu arholwr meddygol ofyn i chi wneud diwygiad.&lt;br / &gt;&lt;br /&gt;Rhowch gyfeiriad e-bost neu rif ffôn fel eich dull cyswllt dewisol.</t>
+  </si>
+  <si>
+    <t>015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5966,6 +6006,12 @@
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="16">
@@ -6707,6 +6753,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6723,15 +6778,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7731,6 +7777,227 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609E324E-AF17-46CE-B967-049626EE1948}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="61" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>919</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>925</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="37" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="37" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="C10" s="27" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="C11" s="75" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="37" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E52C375-4A34-4943-A40B-CD02CAD0761B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -8166,7 +8433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124C2F8F-96ED-4E65-B816-FFFEB93DC889}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -8515,9 +8782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8557,13 +8824,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>1407</v>
+        <v>1424</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>1407</v>
+        <v>1424</v>
       </c>
       <c r="F2" s="99"/>
     </row>
@@ -9905,12 +10172,275 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7846F4-4C68-474D-A4ED-20A97546E87B}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="43" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="43" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="158" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="43" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="43" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="43"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344327F7-D7B0-4B8B-A26A-307F32EA23BD}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10406,13 +10936,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63483B8-55BE-4CA0-9111-55E5C0AEF6CB}">
   <dimension ref="A1:F345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10447,13 +10977,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="164" t="s">
         <v>374</v>
       </c>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="163"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="166"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10581,13 +11111,13 @@
       <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="164" t="s">
+      <c r="A10" s="167" t="s">
         <v>403</v>
       </c>
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="169"/>
       <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11108,7 +11638,7 @@
         <v>492</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D45" s="117"/>
       <c r="E45" s="121" t="s">
@@ -11121,14 +11651,14 @@
         <v>491</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D46" s="117"/>
       <c r="E46" s="121" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F46" s="120"/>
     </row>
@@ -12921,13 +13451,13 @@
       <c r="F164" s="120"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="167" t="s">
+      <c r="A165" s="161" t="s">
         <v>772</v>
       </c>
-      <c r="B165" s="168"/>
-      <c r="C165" s="168"/>
-      <c r="D165" s="168"/>
-      <c r="E165" s="169"/>
+      <c r="B165" s="162"/>
+      <c r="C165" s="162"/>
+      <c r="D165" s="162"/>
+      <c r="E165" s="163"/>
       <c r="F165" s="130" t="s">
         <v>773</v>
       </c>
@@ -14830,6 +15360,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -14840,24 +15382,12 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7FE5E2-8B99-45DF-8804-30523FDA4B3A}">
   <dimension ref="A1:F54"/>
   <sheetViews>
@@ -15682,7 +16212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA2FE89-1BCA-4888-9BB6-D7A7737E07E4}">
   <dimension ref="A1:F73"/>
   <sheetViews>
@@ -16828,228 +17358,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609E324E-AF17-46CE-B967-049626EE1948}">
-  <dimension ref="A1:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="61" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37" style="6" customWidth="1"/>
-    <col min="4" max="4" width="36" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="136" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>919</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>925</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="37" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>931</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="37" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="C10" s="27" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="C11" s="75" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="37" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
@@ -17088,15 +17406,6 @@
     <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17377,6 +17686,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17385,14 +17702,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
     <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29E7A7-4D61-6E48-94C7-2A75ABA09A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149017C9-0773-A64E-9809-8E5FF64DC895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="1422">
   <si>
     <r>
       <rPr>
@@ -1458,29 +1458,6 @@
     <t>dashboardTable1Empty</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">You have not created any certificates </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(updated content)</t>
-    </r>
-  </si>
-  <si>
     <t>Placeholder content for when the AP draft MCCD table is displayed empty</t>
   </si>
   <si>
@@ -3900,29 +3877,6 @@
   </si>
   <si>
     <t>dpdCheckAnswersDescription</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (updated content)</t>
-    </r>
   </si>
   <si>
     <t>Provides further context to AP or ME about what they need to do when before continuing</t>
@@ -4397,29 +4351,6 @@
   </si>
   <si>
     <t>aadCheckAnswersDescription</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner. (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updated content)</t>
-    </r>
   </si>
   <si>
     <t>Provides further context to AP or ME about what they need to do before continuing</t>
@@ -4927,29 +4858,6 @@
     <t>pregnancyContributedPageTitle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Did the deceased’s pregnancy contribute to their death? </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(updated content)</t>
-    </r>
-  </si>
-  <si>
     <t>Page heading - describes content on page in regards to pregnancy having contributed to death.</t>
   </si>
   <si>
@@ -4966,29 +4874,6 @@
   </si>
   <si>
     <t>CYAcodPageTitle</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Check your answers (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updated)</t>
-    </r>
   </si>
   <si>
     <t>Page heading - describes content on page checking users responses to cause of death and contributing factors</t>
@@ -5022,56 +4907,10 @@
     <t>CYAcodTitleCaption</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cause of death (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>updated)</t>
-    </r>
-  </si>
-  <si>
     <t>Caption sits above the page title to provide additional context that the information on the page pertains to cause of death and contributing factors</t>
   </si>
   <si>
     <t>CYAcodHint</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(updated)</t>
-    </r>
   </si>
   <si>
     <t>CYAcodU28aMainDisease</t>
@@ -5803,7 +5642,19 @@
     <t>Yn dilyn adolygiad o'r MCCD hwn, gall swyddog arholwr meddygol neu arholwr meddygol ofyn i chi wneud diwygiad.&lt;br / &gt;&lt;br /&gt;Rhowch gyfeiriad e-bost neu rif ffôn fel eich dull cyswllt dewisol.</t>
   </si>
   <si>
-    <t>015</t>
+    <t>You have not created any certificates</t>
+  </si>
+  <si>
+    <t>Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner</t>
+  </si>
+  <si>
+    <t>Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner.</t>
+  </si>
+  <si>
+    <t>Did the deceased’s pregnancy contribute to their death?</t>
+  </si>
+  <si>
+    <t>016</t>
   </si>
 </sst>
 </file>
@@ -6753,6 +6604,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6760,24 +6629,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7821,16 +7672,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7838,16 +7689,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1251</v>
+        <v>1244</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7855,50 +7706,50 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1253</v>
+        <v>1246</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1254</v>
+        <v>1247</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1257</v>
+        <v>1250</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1250</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7906,16 +7757,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1259</v>
+        <v>1252</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1252</v>
+        <v>1245</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7923,49 +7774,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1260</v>
+        <v>1253</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1255</v>
+        <v>1248</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1261</v>
+        <v>1254</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>1262</v>
+        <v>1255</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1263</v>
+        <v>1256</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1264</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="75" t="s">
-        <v>1265</v>
+        <v>1258</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1266</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -8002,7 +7853,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8042,101 +7893,101 @@
         <v>243</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="C2" s="94" t="s">
-        <v>1268</v>
+        <v>1261</v>
       </c>
       <c r="D2" s="93" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="E2" s="86" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="96" t="s">
-        <v>1272</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="97" t="s">
-        <v>1273</v>
+        <v>1266</v>
       </c>
       <c r="D3" s="96" t="s">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="E3" s="90" t="s">
-        <v>1275</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>1276</v>
+        <v>1269</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1277</v>
+        <v>1270</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>1278</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>1281</v>
+        <v>1274</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" s="110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8144,101 +7995,101 @@
         <v>243</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="D8" s="96" t="s">
-        <v>1285</v>
+        <v>1278</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>1286</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="95" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>1287</v>
+        <v>1280</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>1288</v>
+        <v>1281</v>
       </c>
       <c r="D9" s="96" t="s">
-        <v>1289</v>
+        <v>1282</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>1290</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1292</v>
+        <v>1285</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11" s="106" t="s">
-        <v>1293</v>
+        <v>1286</v>
       </c>
       <c r="C11" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="E11" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>1294</v>
+        <v>1287</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8246,67 +8097,67 @@
         <v>243</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>1295</v>
+        <v>1288</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="95" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="D15" s="96" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="E15" s="90" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" s="106" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D16" s="108" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B17" s="106" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D17" s="108" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8314,33 +8165,33 @@
         <v>14</v>
       </c>
       <c r="B18" s="96" t="s">
-        <v>1304</v>
+        <v>1297</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1305</v>
+        <v>1298</v>
       </c>
       <c r="D18" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>1306</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C19" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D19" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -8348,84 +8199,84 @@
         <v>243</v>
       </c>
       <c r="B20" s="96" t="s">
-        <v>1307</v>
+        <v>1300</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>1269</v>
+        <v>1262</v>
       </c>
       <c r="E20" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="95" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="D21" s="96" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="E21" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="D22" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E22" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="106" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="C23" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D23" s="108" t="s">
-        <v>1280</v>
+        <v>1273</v>
       </c>
       <c r="E23" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="105" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B24" s="106" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D24" s="108" t="s">
-        <v>1282</v>
+        <v>1275</v>
       </c>
       <c r="E24" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -8438,7 +8289,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8475,7 +8326,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="192" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="B2" s="193"/>
       <c r="C2" s="193"/>
@@ -8488,16 +8339,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1319</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8505,13 +8356,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1320</v>
+        <v>1313</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1322</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8519,13 +8370,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1323</v>
+        <v>1316</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8533,13 +8384,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1326</v>
+        <v>1319</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>1328</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8547,127 +8398,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1329</v>
+        <v>1322</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1330</v>
+        <v>1323</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>1343</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>1351</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1332</v>
+        <v>1325</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1353</v>
+        <v>1346</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1354</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8675,34 +8526,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="C17" s="76" t="s">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="192" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="B18" s="193"/>
       <c r="C18" s="193"/>
@@ -8715,16 +8566,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8732,10 +8583,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8743,13 +8594,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1324</v>
+        <v>1317</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1325</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -8757,10 +8608,10 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8784,7 +8635,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8824,13 +8675,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="D2" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="100" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="F2" s="99"/>
     </row>
@@ -9901,18 +9752,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1385</v>
+        <v>1378</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -9931,7 +9782,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -10213,35 +10064,35 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1421</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="158" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="B4" s="159"/>
       <c r="C4" s="159"/>
@@ -10253,29 +10104,29 @@
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1422</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1423</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10439,8 +10290,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="A1:F2"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10764,31 +10615,31 @@
         <v>342</v>
       </c>
       <c r="C18" s="64" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="57" t="s">
         <v>344</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="D19" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="F19" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10796,16 +10647,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="55" t="s">
         <v>353</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10813,16 +10664,16 @@
         <v>32</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="53" t="s">
         <v>357</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10830,70 +10681,70 @@
         <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="53" t="s">
         <v>361</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>366</v>
-      </c>
-      <c r="F23" s="68" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>364</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="F25" s="68" t="s">
         <v>372</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -10941,8 +10792,8 @@
   <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43:E43"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10977,30 +10828,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="164" t="s">
-        <v>374</v>
-      </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="166"/>
+      <c r="A2" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="163"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="117" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="C3" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="D3" s="117" t="s">
         <v>377</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="E3" s="119" t="s">
         <v>378</v>
-      </c>
-      <c r="E3" s="119" t="s">
-        <v>379</v>
       </c>
       <c r="F3" s="120"/>
     </row>
@@ -11009,88 +10860,88 @@
         <v>243</v>
       </c>
       <c r="B4" s="117" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="118" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="D4" s="117" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="E4" s="119" t="s">
         <v>382</v>
-      </c>
-      <c r="E4" s="119" t="s">
-        <v>383</v>
       </c>
       <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="117" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="117" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="C5" s="118" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="D5" s="117" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="E5" s="121" t="s">
         <v>387</v>
-      </c>
-      <c r="E5" s="121" t="s">
-        <v>388</v>
       </c>
       <c r="F5" s="120"/>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="117" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="120" t="s">
         <v>389</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="C6" s="118" t="s">
         <v>390</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="D6" s="122" t="s">
         <v>391</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="E6" s="121" t="s">
         <v>392</v>
-      </c>
-      <c r="E6" s="121" t="s">
-        <v>393</v>
       </c>
       <c r="F6" s="120"/>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B7" s="120" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="118" t="s">
         <v>394</v>
       </c>
-      <c r="C7" s="118" t="s">
+      <c r="D7" s="122" t="s">
         <v>395</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="E7" s="121" t="s">
         <v>396</v>
-      </c>
-      <c r="E7" s="121" t="s">
-        <v>397</v>
       </c>
       <c r="F7" s="120"/>
     </row>
     <row r="8" spans="1:6" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B8" s="120" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="118" t="s">
         <v>398</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="D8" s="122" t="s">
         <v>399</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="E8" s="121" t="s">
         <v>400</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>401</v>
       </c>
       <c r="F8" s="120"/>
     </row>
@@ -11099,7 +10950,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C9" s="118" t="s">
         <v>34</v>
@@ -11111,13 +10962,13 @@
       <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="167" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
+      <c r="A10" s="164" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11125,16 +10976,16 @@
         <v>243</v>
       </c>
       <c r="B11" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="C11" s="118" t="s">
         <v>404</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="D11" s="117" t="s">
         <v>405</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="E11" s="121" t="s">
         <v>406</v>
-      </c>
-      <c r="E11" s="121" t="s">
-        <v>407</v>
       </c>
       <c r="F11" s="120"/>
     </row>
@@ -11143,16 +10994,16 @@
         <v>84</v>
       </c>
       <c r="B12" s="85" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="154" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D12" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="154" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D12" s="85" t="s">
-        <v>409</v>
-      </c>
       <c r="E12" s="153" t="s">
-        <v>1389</v>
+        <v>1382</v>
       </c>
       <c r="F12" s="87"/>
     </row>
@@ -11161,22 +11012,22 @@
         <v>84</v>
       </c>
       <c r="B13" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="155" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D13" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="155" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>411</v>
-      </c>
       <c r="E13" s="156" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="158" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B14" s="159"/>
       <c r="C14" s="159"/>
@@ -11189,144 +11040,144 @@
         <v>243</v>
       </c>
       <c r="B15" s="117" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="118" t="s">
         <v>413</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="D15" s="117" t="s">
         <v>414</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="E15" s="121" t="s">
         <v>415</v>
-      </c>
-      <c r="E15" s="121" t="s">
-        <v>416</v>
       </c>
       <c r="F15" s="120"/>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="117" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="117" t="s">
         <v>417</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>418</v>
       </c>
       <c r="C16" s="121"/>
       <c r="D16" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E16" s="121"/>
       <c r="F16" s="120"/>
     </row>
     <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A17" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="117" t="s">
         <v>420</v>
-      </c>
-      <c r="B17" s="117" t="s">
-        <v>421</v>
       </c>
       <c r="C17" s="121"/>
       <c r="D17" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E17" s="121"/>
       <c r="F17" s="120"/>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="117" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="117" t="s">
         <v>423</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="C18" s="118" t="s">
         <v>424</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="D18" s="117" t="s">
         <v>425</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="E18" s="121" t="s">
         <v>426</v>
-      </c>
-      <c r="E18" s="121" t="s">
-        <v>427</v>
       </c>
       <c r="F18" s="120"/>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="B19" s="93" t="s">
         <v>428</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="C19" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="D19" s="93" t="s">
         <v>430</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="E19" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="F19" s="87" t="s">
         <v>432</v>
-      </c>
-      <c r="F19" s="87" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B20" s="117" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C20" s="121"/>
       <c r="D20" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E20" s="121"/>
       <c r="F20" s="120"/>
     </row>
     <row r="21" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="117" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C21" s="121"/>
       <c r="D21" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E21" s="121"/>
       <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B22" s="117" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C22" s="121"/>
       <c r="D22" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E22" s="121"/>
       <c r="F22" s="120"/>
     </row>
     <row r="23" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C23" s="121"/>
       <c r="D23" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E23" s="121"/>
       <c r="F23" s="120"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="158" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" s="159"/>
       <c r="C24" s="159"/>
@@ -11339,272 +11190,272 @@
         <v>243</v>
       </c>
       <c r="B25" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="D25" s="117" t="s">
         <v>444</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="E25" s="121" t="s">
         <v>445</v>
-      </c>
-      <c r="E25" s="121" t="s">
-        <v>446</v>
       </c>
       <c r="F25" s="120"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B26" s="117" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" s="118" t="s">
         <v>447</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="D26" s="117" t="s">
         <v>448</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="E26" s="121" t="s">
         <v>449</v>
-      </c>
-      <c r="E26" s="121" t="s">
-        <v>450</v>
       </c>
       <c r="F26" s="120"/>
     </row>
     <row r="27" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B27" s="117" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C27" s="121"/>
       <c r="D27" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E27" s="121"/>
       <c r="F27" s="120"/>
     </row>
     <row r="28" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B28" s="117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" s="121"/>
       <c r="D28" s="20" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E28" s="121"/>
       <c r="F28" s="120"/>
     </row>
     <row r="29" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B29" s="117" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="121"/>
       <c r="D29" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E29" s="121"/>
       <c r="F29" s="120"/>
     </row>
     <row r="30" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B30" s="117" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C30" s="121"/>
       <c r="D30" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E30" s="121"/>
       <c r="F30" s="120"/>
     </row>
     <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B31" s="117" t="s">
+        <v>458</v>
+      </c>
+      <c r="C31" s="118" t="s">
         <v>459</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="D31" s="117" t="s">
         <v>460</v>
       </c>
-      <c r="D31" s="117" t="s">
+      <c r="E31" s="121" t="s">
         <v>461</v>
-      </c>
-      <c r="E31" s="121" t="s">
-        <v>462</v>
       </c>
       <c r="F31" s="120"/>
     </row>
     <row r="32" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B32" s="117" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C32" s="121"/>
       <c r="D32" s="20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E32" s="121"/>
       <c r="F32" s="120"/>
     </row>
     <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B33" s="117" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C33" s="121"/>
       <c r="D33" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E33" s="121"/>
       <c r="F33" s="120"/>
     </row>
     <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B34" s="117" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34" s="121"/>
       <c r="D34" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E34" s="121"/>
       <c r="F34" s="120"/>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B35" s="117" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C35" s="121"/>
       <c r="D35" s="20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E35" s="121"/>
       <c r="F35" s="120"/>
     </row>
     <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B36" s="117" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C36" s="118" t="s">
         <v>198</v>
       </c>
       <c r="D36" s="117" t="s">
+        <v>471</v>
+      </c>
+      <c r="E36" s="121" t="s">
         <v>472</v>
-      </c>
-      <c r="E36" s="121" t="s">
-        <v>473</v>
       </c>
       <c r="F36" s="120"/>
     </row>
     <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B37" s="117" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C37" s="121"/>
       <c r="D37" s="20" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E37" s="121"/>
       <c r="F37" s="120"/>
     </row>
     <row r="38" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B38" s="117" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C38" s="121"/>
       <c r="D38" s="20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E38" s="121"/>
       <c r="F38" s="120"/>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B39" s="117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C39" s="121"/>
       <c r="D39" s="20" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E39" s="121"/>
       <c r="F39" s="120"/>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B40" s="117" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C40" s="121"/>
       <c r="D40" s="20" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E40" s="121"/>
       <c r="F40" s="120"/>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C41" s="121"/>
       <c r="D41" s="20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E41" s="121"/>
       <c r="F41" s="120"/>
     </row>
     <row r="42" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="117" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C42" s="121"/>
       <c r="D42" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E42" s="121"/>
       <c r="F42" s="120"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="158" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B43" s="159"/>
       <c r="C43" s="159"/>
@@ -11617,57 +11468,57 @@
         <v>243</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>486</v>
+      </c>
+      <c r="C44" s="118" t="s">
         <v>487</v>
       </c>
-      <c r="C44" s="118" t="s">
+      <c r="D44" s="117" t="s">
         <v>488</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="E44" s="121" t="s">
         <v>489</v>
-      </c>
-      <c r="E44" s="121" t="s">
-        <v>490</v>
       </c>
       <c r="F44" s="120"/>
     </row>
     <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" s="117" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="117" t="s">
-        <v>492</v>
-      </c>
       <c r="C45" s="59" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="D45" s="117"/>
       <c r="E45" s="121" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F45" s="120"/>
     </row>
     <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B46" s="117" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="D46" s="117"/>
       <c r="E46" s="121" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="F46" s="120"/>
     </row>
     <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B47" s="117" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C47" s="59" t="s">
         <v>156</v>
@@ -11680,10 +11531,10 @@
     </row>
     <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B48" s="117" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C48" s="59" t="s">
         <v>160</v>
@@ -11696,10 +11547,10 @@
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B49" s="117" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C49" s="59" t="s">
         <v>164</v>
@@ -11712,123 +11563,123 @@
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="117" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="B50" s="117" t="s">
+      <c r="C50" s="59" t="s">
         <v>498</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>499</v>
       </c>
       <c r="D50" s="117"/>
       <c r="E50" s="121" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F50" s="120"/>
     </row>
     <row r="51" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B51" s="117" t="s">
+        <v>500</v>
+      </c>
+      <c r="C51" s="59" t="s">
         <v>501</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>502</v>
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="121" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F51" s="120"/>
     </row>
     <row r="52" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B52" s="117" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C52" s="121"/>
       <c r="D52" s="20" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E52" s="121"/>
       <c r="F52" s="120"/>
     </row>
     <row r="53" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C53" s="121"/>
       <c r="D53" s="20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E53" s="121"/>
       <c r="F53" s="120"/>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C54" s="121"/>
       <c r="D54" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E54" s="121"/>
       <c r="F54" s="120"/>
     </row>
     <row r="55" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="117" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C55" s="121"/>
       <c r="D55" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E55" s="121"/>
       <c r="F55" s="120"/>
     </row>
     <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B56" s="117" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C56" s="121"/>
       <c r="D56" s="20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E56" s="121"/>
       <c r="F56" s="120"/>
     </row>
     <row r="57" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A57" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B57" s="117" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C57" s="121"/>
       <c r="D57" s="20" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E57" s="121"/>
       <c r="F57" s="120"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="158" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B58" s="159"/>
       <c r="C58" s="159"/>
@@ -11841,74 +11692,74 @@
         <v>243</v>
       </c>
       <c r="B59" s="117" t="s">
+        <v>516</v>
+      </c>
+      <c r="C59" s="118" t="s">
         <v>517</v>
       </c>
-      <c r="C59" s="118" t="s">
+      <c r="D59" s="117" t="s">
         <v>518</v>
       </c>
-      <c r="D59" s="117" t="s">
+      <c r="E59" s="121" t="s">
         <v>519</v>
-      </c>
-      <c r="E59" s="121" t="s">
-        <v>520</v>
       </c>
       <c r="F59" s="120"/>
     </row>
     <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="117" t="s">
+        <v>520</v>
+      </c>
+      <c r="B60" s="117" t="s">
         <v>521</v>
       </c>
-      <c r="B60" s="117" t="s">
+      <c r="C60" s="118" t="s">
         <v>522</v>
       </c>
-      <c r="C60" s="118" t="s">
+      <c r="D60" s="117" t="s">
         <v>523</v>
       </c>
-      <c r="D60" s="117" t="s">
+      <c r="E60" s="121" t="s">
         <v>524</v>
-      </c>
-      <c r="E60" s="121" t="s">
-        <v>525</v>
       </c>
       <c r="F60" s="120"/>
     </row>
     <row r="61" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="117" t="s">
+        <v>525</v>
+      </c>
+      <c r="B61" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="B61" s="117" t="s">
+      <c r="C61" s="118" t="s">
         <v>527</v>
       </c>
-      <c r="C61" s="118" t="s">
+      <c r="D61" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="D61" s="117" t="s">
-        <v>529</v>
-      </c>
       <c r="E61" s="121" t="s">
-        <v>1400</v>
+        <v>1393</v>
       </c>
       <c r="F61" s="120"/>
     </row>
     <row r="62" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B62" s="117" t="s">
-        <v>1397</v>
+        <v>1390</v>
       </c>
       <c r="C62" s="118" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="D62" s="117"/>
       <c r="E62" s="121" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="F62" s="120"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="158" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B63" s="159"/>
       <c r="C63" s="159"/>
@@ -11921,50 +11772,50 @@
         <v>243</v>
       </c>
       <c r="B64" s="117" t="s">
+        <v>530</v>
+      </c>
+      <c r="C64" s="118" t="s">
         <v>531</v>
       </c>
-      <c r="C64" s="118" t="s">
+      <c r="D64" s="117" t="s">
         <v>532</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="E64" s="121" t="s">
         <v>533</v>
-      </c>
-      <c r="E64" s="121" t="s">
-        <v>534</v>
       </c>
       <c r="F64" s="120"/>
     </row>
     <row r="65" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="117" t="s">
+        <v>416</v>
+      </c>
+      <c r="B65" s="117" t="s">
         <v>417</v>
-      </c>
-      <c r="B65" s="117" t="s">
-        <v>418</v>
       </c>
       <c r="C65" s="121"/>
       <c r="D65" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E65" s="121"/>
       <c r="F65" s="120"/>
     </row>
     <row r="66" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="117" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" s="117" t="s">
         <v>420</v>
-      </c>
-      <c r="B66" s="117" t="s">
-        <v>421</v>
       </c>
       <c r="C66" s="121"/>
       <c r="D66" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E66" s="121"/>
       <c r="F66" s="120"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="158" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B67" s="159"/>
       <c r="C67" s="159"/>
@@ -11977,232 +11828,232 @@
         <v>243</v>
       </c>
       <c r="B68" s="117" t="s">
+        <v>535</v>
+      </c>
+      <c r="C68" s="118" t="s">
         <v>536</v>
       </c>
-      <c r="C68" s="118" t="s">
+      <c r="D68" s="117" t="s">
         <v>537</v>
       </c>
-      <c r="D68" s="117" t="s">
+      <c r="E68" s="121" t="s">
         <v>538</v>
-      </c>
-      <c r="E68" s="121" t="s">
-        <v>539</v>
       </c>
       <c r="F68" s="120"/>
     </row>
     <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="92" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" s="93" t="s">
+        <v>539</v>
+      </c>
+      <c r="C69" s="94" t="s">
         <v>540</v>
       </c>
-      <c r="C69" s="94" t="s">
+      <c r="D69" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="E69" s="86" t="s">
         <v>541</v>
-      </c>
-      <c r="D69" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E69" s="86" t="s">
-        <v>542</v>
       </c>
       <c r="F69" s="120"/>
     </row>
     <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="96" t="s">
+        <v>542</v>
+      </c>
+      <c r="C70" s="97" t="s">
         <v>543</v>
       </c>
-      <c r="C70" s="97" t="s">
+      <c r="D70" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E70" s="90" t="s">
         <v>544</v>
-      </c>
-      <c r="D70" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E70" s="90" t="s">
-        <v>545</v>
       </c>
       <c r="F70" s="120"/>
     </row>
     <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" s="96" t="s">
+        <v>545</v>
+      </c>
+      <c r="C71" s="97" t="s">
         <v>546</v>
       </c>
-      <c r="C71" s="97" t="s">
+      <c r="D71" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E71" s="90" t="s">
         <v>547</v>
-      </c>
-      <c r="D71" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E71" s="90" t="s">
-        <v>548</v>
       </c>
       <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B72" s="96" t="s">
+        <v>548</v>
+      </c>
+      <c r="C72" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="C72" s="97" t="s">
+      <c r="D72" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E72" s="90" t="s">
         <v>550</v>
-      </c>
-      <c r="D72" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E72" s="90" t="s">
-        <v>551</v>
       </c>
       <c r="F72" s="120"/>
     </row>
     <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B73" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="C73" s="97" t="s">
         <v>552</v>
       </c>
-      <c r="C73" s="97" t="s">
+      <c r="D73" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E73" s="90" t="s">
         <v>553</v>
-      </c>
-      <c r="D73" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E73" s="90" t="s">
-        <v>554</v>
       </c>
       <c r="F73" s="120"/>
     </row>
     <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="95" t="s">
+        <v>554</v>
+      </c>
+      <c r="B74" s="96" t="s">
         <v>555</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="C74" s="97" t="s">
         <v>556</v>
       </c>
-      <c r="C74" s="97" t="s">
+      <c r="D74" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E74" s="90" t="s">
         <v>557</v>
-      </c>
-      <c r="D74" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E74" s="90" t="s">
-        <v>558</v>
       </c>
       <c r="F74" s="120"/>
     </row>
     <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="95" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B75" s="96" t="s">
+        <v>558</v>
+      </c>
+      <c r="C75" s="97" t="s">
         <v>559</v>
       </c>
-      <c r="C75" s="97" t="s">
+      <c r="D75" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E75" s="90" t="s">
         <v>560</v>
-      </c>
-      <c r="D75" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E75" s="90" t="s">
-        <v>561</v>
       </c>
       <c r="F75" s="120"/>
     </row>
     <row r="76" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A76" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B76" s="117" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C76" s="121"/>
       <c r="D76" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E76" s="121"/>
       <c r="F76" s="120"/>
     </row>
     <row r="77" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B77" s="117" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C77" s="121"/>
       <c r="D77" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E77" s="121"/>
       <c r="F77" s="120"/>
     </row>
     <row r="78" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B78" s="117" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C78" s="121"/>
       <c r="D78" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E78" s="121"/>
       <c r="F78" s="120"/>
     </row>
     <row r="79" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A79" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B79" s="117" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C79" s="121"/>
       <c r="D79" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E79" s="121"/>
       <c r="F79" s="120"/>
     </row>
     <row r="80" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B80" s="117" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C80" s="121"/>
       <c r="D80" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E80" s="121"/>
       <c r="F80" s="120"/>
     </row>
     <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B81" s="117" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C81" s="121"/>
       <c r="D81" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E81" s="121"/>
       <c r="F81" s="120"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="158" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B82" s="159"/>
       <c r="C82" s="159"/>
@@ -12215,35 +12066,35 @@
         <v>243</v>
       </c>
       <c r="B83" s="117" t="s">
+        <v>574</v>
+      </c>
+      <c r="C83" s="118" t="s">
         <v>575</v>
       </c>
-      <c r="C83" s="118" t="s">
+      <c r="D83" s="117" t="s">
         <v>576</v>
       </c>
-      <c r="D83" s="117" t="s">
+      <c r="E83" s="121" t="s">
         <v>577</v>
-      </c>
-      <c r="E83" s="121" t="s">
-        <v>578</v>
       </c>
       <c r="F83" s="120"/>
     </row>
     <row r="84" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B84" s="117" t="s">
+        <v>578</v>
+      </c>
+      <c r="C84" s="118" t="s">
         <v>579</v>
-      </c>
-      <c r="C84" s="118" t="s">
-        <v>580</v>
       </c>
       <c r="D84" s="117"/>
       <c r="E84" s="121" t="s">
+        <v>580</v>
+      </c>
+      <c r="F84" s="120" t="s">
         <v>581</v>
-      </c>
-      <c r="F84" s="120" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12251,14 +12102,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="117" t="s">
+        <v>582</v>
+      </c>
+      <c r="C85" s="118" t="s">
         <v>583</v>
-      </c>
-      <c r="C85" s="118" t="s">
-        <v>584</v>
       </c>
       <c r="D85" s="117"/>
       <c r="E85" s="121" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F85" s="120"/>
     </row>
@@ -12267,14 +12118,14 @@
         <v>84</v>
       </c>
       <c r="B86" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="C86" s="60" t="s">
         <v>586</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>587</v>
       </c>
       <c r="D86" s="117"/>
       <c r="E86" s="121" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F86" s="120"/>
     </row>
@@ -12283,14 +12134,14 @@
         <v>84</v>
       </c>
       <c r="B87" s="117" t="s">
+        <v>588</v>
+      </c>
+      <c r="C87" s="118" t="s">
         <v>589</v>
-      </c>
-      <c r="C87" s="118" t="s">
-        <v>590</v>
       </c>
       <c r="D87" s="117"/>
       <c r="E87" s="121" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F87" s="120"/>
     </row>
@@ -12299,14 +12150,14 @@
         <v>84</v>
       </c>
       <c r="B88" s="117" t="s">
+        <v>591</v>
+      </c>
+      <c r="C88" s="118" t="s">
         <v>592</v>
-      </c>
-      <c r="C88" s="118" t="s">
-        <v>593</v>
       </c>
       <c r="D88" s="117"/>
       <c r="E88" s="121" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F88" s="120"/>
     </row>
@@ -12315,30 +12166,30 @@
         <v>84</v>
       </c>
       <c r="B89" s="117" t="s">
+        <v>594</v>
+      </c>
+      <c r="C89" s="118" t="s">
         <v>595</v>
-      </c>
-      <c r="C89" s="118" t="s">
-        <v>596</v>
       </c>
       <c r="D89" s="117"/>
       <c r="E89" s="121" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F89" s="120"/>
     </row>
     <row r="90" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B90" s="117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C90" s="118" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D90" s="117"/>
       <c r="E90" s="121" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F90" s="120"/>
     </row>
@@ -12347,7 +12198,7 @@
         <v>84</v>
       </c>
       <c r="B91" s="117" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C91" s="118" t="s">
         <v>93</v>
@@ -12360,7 +12211,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="158" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B92" s="159"/>
       <c r="C92" s="159"/>
@@ -12373,35 +12224,35 @@
         <v>243</v>
       </c>
       <c r="B93" s="117" t="s">
+        <v>601</v>
+      </c>
+      <c r="C93" s="118" t="s">
         <v>602</v>
       </c>
-      <c r="C93" s="118" t="s">
+      <c r="D93" s="117" t="s">
         <v>603</v>
       </c>
-      <c r="D93" s="117" t="s">
+      <c r="E93" s="121" t="s">
         <v>604</v>
-      </c>
-      <c r="E93" s="121" t="s">
-        <v>605</v>
       </c>
       <c r="F93" s="120"/>
     </row>
     <row r="94" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B94" s="117" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C94" s="118" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D94" s="117"/>
       <c r="E94" s="121" t="s">
+        <v>580</v>
+      </c>
+      <c r="F94" s="120" t="s">
         <v>581</v>
-      </c>
-      <c r="F94" s="120" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12409,19 +12260,19 @@
         <v>84</v>
       </c>
       <c r="B95" s="93" t="s">
+        <v>606</v>
+      </c>
+      <c r="C95" s="94" t="s">
         <v>607</v>
       </c>
-      <c r="C95" s="94" t="s">
+      <c r="D95" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="E95" s="86" t="s">
         <v>608</v>
       </c>
-      <c r="D95" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E95" s="86" t="s">
+      <c r="F95" s="87" t="s">
         <v>609</v>
-      </c>
-      <c r="F95" s="87" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12429,16 +12280,16 @@
         <v>84</v>
       </c>
       <c r="B96" s="117" t="s">
+        <v>610</v>
+      </c>
+      <c r="C96" s="118" t="s">
         <v>611</v>
       </c>
-      <c r="C96" s="118" t="s">
+      <c r="D96" s="117" t="s">
         <v>612</v>
       </c>
-      <c r="D96" s="117" t="s">
+      <c r="E96" s="121" t="s">
         <v>613</v>
-      </c>
-      <c r="E96" s="121" t="s">
-        <v>614</v>
       </c>
       <c r="F96" s="120"/>
     </row>
@@ -12447,16 +12298,16 @@
         <v>84</v>
       </c>
       <c r="B97" s="117" t="s">
+        <v>614</v>
+      </c>
+      <c r="C97" s="118" t="s">
         <v>615</v>
       </c>
-      <c r="C97" s="118" t="s">
+      <c r="D97" s="117" t="s">
         <v>616</v>
       </c>
-      <c r="D97" s="117" t="s">
+      <c r="E97" s="121" t="s">
         <v>617</v>
-      </c>
-      <c r="E97" s="121" t="s">
-        <v>618</v>
       </c>
       <c r="F97" s="120"/>
     </row>
@@ -12465,16 +12316,16 @@
         <v>84</v>
       </c>
       <c r="B98" s="117" t="s">
+        <v>618</v>
+      </c>
+      <c r="C98" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="C98" s="61" t="s">
+      <c r="D98" s="117" t="s">
         <v>620</v>
       </c>
-      <c r="D98" s="117" t="s">
+      <c r="E98" s="121" t="s">
         <v>621</v>
-      </c>
-      <c r="E98" s="121" t="s">
-        <v>622</v>
       </c>
       <c r="F98" s="120"/>
     </row>
@@ -12483,16 +12334,16 @@
         <v>84</v>
       </c>
       <c r="B99" s="117" t="s">
+        <v>622</v>
+      </c>
+      <c r="C99" s="118" t="s">
         <v>623</v>
       </c>
-      <c r="C99" s="118" t="s">
+      <c r="D99" s="117" t="s">
         <v>624</v>
       </c>
-      <c r="D99" s="117" t="s">
+      <c r="E99" s="121" t="s">
         <v>625</v>
-      </c>
-      <c r="E99" s="121" t="s">
-        <v>626</v>
       </c>
       <c r="F99" s="120"/>
     </row>
@@ -12509,16 +12360,16 @@
         <v>84</v>
       </c>
       <c r="B101" s="117" t="s">
+        <v>626</v>
+      </c>
+      <c r="C101" s="118" t="s">
         <v>627</v>
       </c>
-      <c r="C101" s="118" t="s">
+      <c r="D101" s="117" t="s">
         <v>628</v>
       </c>
-      <c r="D101" s="117" t="s">
+      <c r="E101" s="121" t="s">
         <v>629</v>
-      </c>
-      <c r="E101" s="121" t="s">
-        <v>630</v>
       </c>
       <c r="F101" s="120"/>
     </row>
@@ -12527,16 +12378,16 @@
         <v>84</v>
       </c>
       <c r="B102" s="117" t="s">
+        <v>630</v>
+      </c>
+      <c r="C102" s="118" t="s">
         <v>631</v>
       </c>
-      <c r="C102" s="118" t="s">
+      <c r="D102" s="117" t="s">
         <v>632</v>
       </c>
-      <c r="D102" s="117" t="s">
+      <c r="E102" s="121" t="s">
         <v>633</v>
-      </c>
-      <c r="E102" s="121" t="s">
-        <v>634</v>
       </c>
       <c r="F102" s="120"/>
     </row>
@@ -12545,16 +12396,16 @@
         <v>84</v>
       </c>
       <c r="B103" s="117" t="s">
+        <v>634</v>
+      </c>
+      <c r="C103" s="118" t="s">
         <v>635</v>
       </c>
-      <c r="C103" s="118" t="s">
+      <c r="D103" s="117" t="s">
         <v>636</v>
       </c>
-      <c r="D103" s="117" t="s">
+      <c r="E103" s="121" t="s">
         <v>637</v>
-      </c>
-      <c r="E103" s="121" t="s">
-        <v>638</v>
       </c>
       <c r="F103" s="120"/>
     </row>
@@ -12563,16 +12414,16 @@
         <v>84</v>
       </c>
       <c r="B104" s="117" t="s">
+        <v>638</v>
+      </c>
+      <c r="C104" s="118" t="s">
         <v>639</v>
       </c>
-      <c r="C104" s="118" t="s">
+      <c r="D104" s="117" t="s">
         <v>640</v>
       </c>
-      <c r="D104" s="117" t="s">
+      <c r="E104" s="121" t="s">
         <v>641</v>
-      </c>
-      <c r="E104" s="121" t="s">
-        <v>642</v>
       </c>
       <c r="F104" s="120"/>
     </row>
@@ -12589,16 +12440,16 @@
         <v>84</v>
       </c>
       <c r="B106" s="117" t="s">
+        <v>642</v>
+      </c>
+      <c r="C106" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="C106" s="118" t="s">
+      <c r="D106" s="117" t="s">
         <v>644</v>
       </c>
-      <c r="D106" s="117" t="s">
+      <c r="E106" s="121" t="s">
         <v>645</v>
-      </c>
-      <c r="E106" s="121" t="s">
-        <v>646</v>
       </c>
       <c r="F106" s="120"/>
     </row>
@@ -12607,16 +12458,16 @@
         <v>84</v>
       </c>
       <c r="B107" s="117" t="s">
+        <v>646</v>
+      </c>
+      <c r="C107" s="118" t="s">
         <v>647</v>
       </c>
-      <c r="C107" s="118" t="s">
+      <c r="D107" s="117" t="s">
         <v>648</v>
       </c>
-      <c r="D107" s="117" t="s">
+      <c r="E107" s="121" t="s">
         <v>649</v>
-      </c>
-      <c r="E107" s="121" t="s">
-        <v>650</v>
       </c>
       <c r="F107" s="120"/>
     </row>
@@ -12625,16 +12476,16 @@
         <v>84</v>
       </c>
       <c r="B108" s="117" t="s">
+        <v>650</v>
+      </c>
+      <c r="C108" s="118" t="s">
         <v>651</v>
       </c>
-      <c r="C108" s="118" t="s">
+      <c r="D108" s="117" t="s">
         <v>652</v>
       </c>
-      <c r="D108" s="117" t="s">
+      <c r="E108" s="121" t="s">
         <v>653</v>
-      </c>
-      <c r="E108" s="121" t="s">
-        <v>654</v>
       </c>
       <c r="F108" s="120"/>
     </row>
@@ -12643,16 +12494,16 @@
         <v>84</v>
       </c>
       <c r="B109" s="117" t="s">
+        <v>654</v>
+      </c>
+      <c r="C109" s="118" t="s">
         <v>655</v>
       </c>
-      <c r="C109" s="118" t="s">
+      <c r="D109" s="117" t="s">
         <v>656</v>
       </c>
-      <c r="D109" s="117" t="s">
+      <c r="E109" s="121" t="s">
         <v>657</v>
-      </c>
-      <c r="E109" s="121" t="s">
-        <v>658</v>
       </c>
       <c r="F109" s="120"/>
     </row>
@@ -12661,16 +12512,16 @@
         <v>84</v>
       </c>
       <c r="B110" s="117" t="s">
+        <v>658</v>
+      </c>
+      <c r="C110" s="118" t="s">
         <v>659</v>
       </c>
-      <c r="C110" s="118" t="s">
+      <c r="D110" s="117" t="s">
         <v>660</v>
       </c>
-      <c r="D110" s="117" t="s">
+      <c r="E110" s="121" t="s">
         <v>661</v>
-      </c>
-      <c r="E110" s="121" t="s">
-        <v>662</v>
       </c>
       <c r="F110" s="120"/>
     </row>
@@ -12679,16 +12530,16 @@
         <v>84</v>
       </c>
       <c r="B112" s="117" t="s">
+        <v>662</v>
+      </c>
+      <c r="C112" s="118" t="s">
         <v>663</v>
       </c>
-      <c r="C112" s="118" t="s">
+      <c r="D112" s="117" t="s">
         <v>664</v>
       </c>
-      <c r="D112" s="117" t="s">
+      <c r="E112" s="121" t="s">
         <v>665</v>
-      </c>
-      <c r="E112" s="121" t="s">
-        <v>666</v>
       </c>
       <c r="F112" s="120"/>
     </row>
@@ -12697,16 +12548,16 @@
         <v>84</v>
       </c>
       <c r="B113" s="117" t="s">
+        <v>666</v>
+      </c>
+      <c r="C113" s="118" t="s">
         <v>667</v>
       </c>
-      <c r="C113" s="118" t="s">
+      <c r="D113" s="117" t="s">
         <v>668</v>
       </c>
-      <c r="D113" s="117" t="s">
+      <c r="E113" s="121" t="s">
         <v>669</v>
-      </c>
-      <c r="E113" s="121" t="s">
-        <v>670</v>
       </c>
       <c r="F113" s="120"/>
     </row>
@@ -12715,16 +12566,16 @@
         <v>84</v>
       </c>
       <c r="B114" s="117" t="s">
+        <v>670</v>
+      </c>
+      <c r="C114" s="118" t="s">
         <v>671</v>
       </c>
-      <c r="C114" s="118" t="s">
+      <c r="D114" s="117" t="s">
         <v>672</v>
       </c>
-      <c r="D114" s="117" t="s">
+      <c r="E114" s="121" t="s">
         <v>673</v>
-      </c>
-      <c r="E114" s="121" t="s">
-        <v>674</v>
       </c>
       <c r="F114" s="120"/>
     </row>
@@ -12741,16 +12592,16 @@
         <v>84</v>
       </c>
       <c r="B116" s="117" t="s">
+        <v>674</v>
+      </c>
+      <c r="C116" s="118" t="s">
         <v>675</v>
       </c>
-      <c r="C116" s="118" t="s">
+      <c r="D116" s="117" t="s">
         <v>676</v>
       </c>
-      <c r="D116" s="117" t="s">
+      <c r="E116" s="121" t="s">
         <v>677</v>
-      </c>
-      <c r="E116" s="121" t="s">
-        <v>678</v>
       </c>
       <c r="F116" s="120"/>
     </row>
@@ -12759,16 +12610,16 @@
         <v>84</v>
       </c>
       <c r="B117" s="117" t="s">
+        <v>678</v>
+      </c>
+      <c r="C117" s="118" t="s">
         <v>679</v>
       </c>
-      <c r="C117" s="118" t="s">
+      <c r="D117" s="117" t="s">
         <v>680</v>
       </c>
-      <c r="D117" s="117" t="s">
+      <c r="E117" s="121" t="s">
         <v>681</v>
-      </c>
-      <c r="E117" s="121" t="s">
-        <v>682</v>
       </c>
       <c r="F117" s="120"/>
     </row>
@@ -12785,11 +12636,11 @@
       <c r="B119" s="121"/>
       <c r="C119" s="121"/>
       <c r="D119" s="117" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E119" s="121"/>
       <c r="F119" s="120" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12797,42 +12648,42 @@
       <c r="B120" s="121"/>
       <c r="C120" s="121"/>
       <c r="D120" s="117" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E120" s="121"/>
       <c r="F120" s="120"/>
     </row>
     <row r="121" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A121" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B121" s="117" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C121" s="121"/>
       <c r="D121" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E121" s="121"/>
       <c r="F121" s="120"/>
     </row>
     <row r="122" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A122" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B122" s="117" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C122" s="121"/>
       <c r="D122" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E122" s="121"/>
       <c r="F122" s="120"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="158" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B123" s="159"/>
       <c r="C123" s="159"/>
@@ -12845,34 +12696,34 @@
         <v>243</v>
       </c>
       <c r="B124" s="117" t="s">
+        <v>688</v>
+      </c>
+      <c r="C124" s="118" t="s">
         <v>689</v>
       </c>
-      <c r="C124" s="118" t="s">
+      <c r="D124" s="117" t="s">
         <v>690</v>
       </c>
-      <c r="D124" s="117" t="s">
+      <c r="E124" s="121" t="s">
         <v>691</v>
-      </c>
-      <c r="E124" s="121" t="s">
-        <v>692</v>
       </c>
       <c r="F124" s="120"/>
     </row>
     <row r="125" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A125" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B125" s="117" t="s">
+        <v>692</v>
+      </c>
+      <c r="C125" s="118" t="s">
         <v>693</v>
       </c>
-      <c r="C125" s="118" t="s">
+      <c r="D125" s="117" t="s">
         <v>694</v>
       </c>
-      <c r="D125" s="117" t="s">
+      <c r="E125" s="121" t="s">
         <v>695</v>
-      </c>
-      <c r="E125" s="121" t="s">
-        <v>696</v>
       </c>
       <c r="F125" s="120"/>
     </row>
@@ -12886,10 +12737,10 @@
     </row>
     <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B127" s="117" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C127" s="59" t="s">
         <v>156</v>
@@ -12902,10 +12753,10 @@
     </row>
     <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B128" s="117" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C128" s="59" t="s">
         <v>160</v>
@@ -12918,10 +12769,10 @@
     </row>
     <row r="129" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B129" s="117" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C129" s="59" t="s">
         <v>164</v>
@@ -12942,91 +12793,91 @@
     </row>
     <row r="131" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A131" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B131" s="117" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C131" s="121"/>
       <c r="D131" s="20" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E131" s="121"/>
       <c r="F131" s="120"/>
     </row>
     <row r="132" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A132" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B132" s="117" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C132" s="121"/>
       <c r="D132" s="20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E132" s="121"/>
       <c r="F132" s="120"/>
     </row>
     <row r="133" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B133" s="117" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C133" s="121"/>
       <c r="D133" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E133" s="121"/>
       <c r="F133" s="120"/>
     </row>
     <row r="134" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A134" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B134" s="117" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C134" s="121"/>
       <c r="D134" s="20" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E134" s="121"/>
       <c r="F134" s="120"/>
     </row>
     <row r="135" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A135" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B135" s="117" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C135" s="121"/>
       <c r="D135" s="20" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E135" s="121"/>
       <c r="F135" s="120"/>
     </row>
     <row r="136" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A136" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B136" s="117" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C136" s="121"/>
       <c r="D136" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E136" s="121"/>
       <c r="F136" s="120"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="158" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B137" s="159"/>
       <c r="C137" s="159"/>
@@ -13039,43 +12890,43 @@
         <v>243</v>
       </c>
       <c r="B138" s="117" t="s">
+        <v>710</v>
+      </c>
+      <c r="C138" s="118" t="s">
         <v>711</v>
       </c>
-      <c r="C138" s="118" t="s">
+      <c r="D138" s="117" t="s">
         <v>712</v>
       </c>
-      <c r="D138" s="117" t="s">
+      <c r="E138" s="121" t="s">
         <v>713</v>
-      </c>
-      <c r="E138" s="121" t="s">
-        <v>714</v>
       </c>
       <c r="F138" s="120"/>
     </row>
     <row r="139" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B139" s="117" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C139" s="121"/>
       <c r="D139" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E139" s="121"/>
       <c r="F139" s="120"/>
     </row>
     <row r="140" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A140" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B140" s="117" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C140" s="121"/>
       <c r="D140" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E140" s="121"/>
       <c r="F140" s="120"/>
@@ -13085,84 +12936,84 @@
         <v>37</v>
       </c>
       <c r="B141" s="123" t="s">
+        <v>716</v>
+      </c>
+      <c r="C141" s="114" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D141" s="123" t="s">
         <v>717</v>
       </c>
-      <c r="C141" s="114" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D141" s="123" t="s">
+      <c r="E141" s="123" t="s">
         <v>718</v>
       </c>
-      <c r="E141" s="123" t="s">
+      <c r="F141" s="124" t="s">
         <v>719</v>
-      </c>
-      <c r="F141" s="124" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="123" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B142" s="123" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C142" s="123"/>
       <c r="D142" s="114" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E142" s="123"/>
       <c r="F142" s="124" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A143" s="123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B143" s="123" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C143" s="123"/>
       <c r="D143" s="114" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E143" s="123"/>
       <c r="F143" s="124"/>
     </row>
     <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A144" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B144" s="117" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C144" s="121"/>
       <c r="D144" s="20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E144" s="121"/>
       <c r="F144" s="120" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B145" s="117" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C145" s="121"/>
       <c r="D145" s="20" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E145" s="121"/>
       <c r="F145" s="120"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="158" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B146" s="159"/>
       <c r="C146" s="159"/>
@@ -13175,32 +13026,32 @@
         <v>243</v>
       </c>
       <c r="B147" s="117" t="s">
+        <v>731</v>
+      </c>
+      <c r="C147" s="59" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D147" s="117" t="s">
         <v>732</v>
       </c>
-      <c r="C147" s="59" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D147" s="117" t="s">
+      <c r="E147" s="121" t="s">
         <v>733</v>
-      </c>
-      <c r="E147" s="121" t="s">
-        <v>734</v>
       </c>
       <c r="F147" s="120"/>
     </row>
     <row r="148" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="117" t="s">
+        <v>734</v>
+      </c>
+      <c r="B148" s="117" t="s">
         <v>735</v>
       </c>
-      <c r="B148" s="117" t="s">
+      <c r="C148" s="59" t="s">
         <v>736</v>
-      </c>
-      <c r="C148" s="59" t="s">
-        <v>737</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="121" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F148" s="120"/>
     </row>
@@ -13209,14 +13060,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="117" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="121" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="F149" s="120"/>
     </row>
@@ -13225,23 +13076,23 @@
         <v>37</v>
       </c>
       <c r="B150" s="117" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="C150" s="59" t="s">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="121" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="F150" s="120"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="117" t="s">
+        <v>738</v>
+      </c>
+      <c r="B151" s="117" t="s">
         <v>739</v>
-      </c>
-      <c r="B151" s="117" t="s">
-        <v>740</v>
       </c>
       <c r="C151" s="118" t="s">
         <v>76</v>
@@ -13254,10 +13105,10 @@
     </row>
     <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="117" t="s">
+        <v>740</v>
+      </c>
+      <c r="B152" s="117" t="s">
         <v>741</v>
-      </c>
-      <c r="B152" s="117" t="s">
-        <v>742</v>
       </c>
       <c r="C152" s="118" t="s">
         <v>43</v>
@@ -13270,65 +13121,65 @@
     </row>
     <row r="153" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B153" s="117" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C153" s="121"/>
       <c r="D153" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E153" s="121"/>
       <c r="F153" s="120"/>
     </row>
     <row r="154" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B154" s="117" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C154" s="121"/>
       <c r="D154" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E154" s="121"/>
       <c r="F154" s="120"/>
     </row>
     <row r="155" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A155" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B155" s="117" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C155" s="121"/>
       <c r="D155" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E155" s="121"/>
       <c r="F155" s="120" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A156" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B156" s="117" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C156" s="121"/>
       <c r="D156" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E156" s="121"/>
       <c r="F156" s="120"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="158" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B157" s="159"/>
       <c r="C157" s="159"/>
@@ -13341,16 +13192,16 @@
         <v>243</v>
       </c>
       <c r="B158" s="117" t="s">
+        <v>752</v>
+      </c>
+      <c r="C158" s="125" t="s">
         <v>753</v>
       </c>
-      <c r="C158" s="125" t="s">
+      <c r="D158" s="117" t="s">
         <v>754</v>
       </c>
-      <c r="D158" s="117" t="s">
+      <c r="E158" s="121" t="s">
         <v>755</v>
-      </c>
-      <c r="E158" s="121" t="s">
-        <v>756</v>
       </c>
       <c r="F158" s="120"/>
     </row>
@@ -13359,16 +13210,16 @@
         <v>261</v>
       </c>
       <c r="B159" s="117" t="s">
+        <v>756</v>
+      </c>
+      <c r="C159" s="118" t="s">
         <v>757</v>
       </c>
-      <c r="C159" s="118" t="s">
+      <c r="D159" s="126" t="s">
         <v>758</v>
       </c>
-      <c r="D159" s="126" t="s">
+      <c r="E159" s="121" t="s">
         <v>759</v>
-      </c>
-      <c r="E159" s="121" t="s">
-        <v>760</v>
       </c>
       <c r="F159" s="120"/>
     </row>
@@ -13377,25 +13228,25 @@
         <v>32</v>
       </c>
       <c r="B160" s="117" t="s">
+        <v>760</v>
+      </c>
+      <c r="C160" s="118" t="s">
         <v>761</v>
       </c>
-      <c r="C160" s="118" t="s">
+      <c r="D160" s="126" t="s">
         <v>762</v>
       </c>
-      <c r="D160" s="126" t="s">
+      <c r="E160" s="121" t="s">
         <v>763</v>
-      </c>
-      <c r="E160" s="121" t="s">
-        <v>764</v>
       </c>
       <c r="F160" s="120"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="127" t="s">
+        <v>764</v>
+      </c>
+      <c r="B161" s="117" t="s">
         <v>765</v>
-      </c>
-      <c r="B161" s="117" t="s">
-        <v>766</v>
       </c>
       <c r="C161" s="128" t="s">
         <v>47</v>
@@ -13408,10 +13259,10 @@
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="117" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B162" s="117" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C162" s="118" t="s">
         <v>76</v>
@@ -13424,42 +13275,42 @@
     </row>
     <row r="163" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B163" s="117" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C163" s="129"/>
       <c r="D163" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E163" s="121"/>
       <c r="F163" s="120"/>
     </row>
     <row r="164" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A164" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B164" s="117" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C164" s="121"/>
       <c r="D164" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E164" s="121"/>
       <c r="F164" s="120"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="161" t="s">
+      <c r="A165" s="167" t="s">
+        <v>771</v>
+      </c>
+      <c r="B165" s="168"/>
+      <c r="C165" s="168"/>
+      <c r="D165" s="168"/>
+      <c r="E165" s="169"/>
+      <c r="F165" s="130" t="s">
         <v>772</v>
-      </c>
-      <c r="B165" s="162"/>
-      <c r="C165" s="162"/>
-      <c r="D165" s="162"/>
-      <c r="E165" s="163"/>
-      <c r="F165" s="130" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13467,15 +13318,15 @@
         <v>243</v>
       </c>
       <c r="B166" s="117" t="s">
+        <v>773</v>
+      </c>
+      <c r="C166" s="131" t="s">
         <v>774</v>
-      </c>
-      <c r="C166" s="131" t="s">
-        <v>775</v>
       </c>
       <c r="D166" s="115"/>
       <c r="E166" s="132"/>
       <c r="F166" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13483,31 +13334,31 @@
         <v>261</v>
       </c>
       <c r="B167" s="117" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C167" s="118" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D167" s="115"/>
       <c r="E167" s="132"/>
       <c r="F167" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="127" t="s">
+        <v>777</v>
+      </c>
+      <c r="B168" s="117" t="s">
         <v>778</v>
       </c>
-      <c r="B168" s="117" t="s">
+      <c r="C168" s="116" t="s">
         <v>779</v>
-      </c>
-      <c r="C168" s="116" t="s">
-        <v>780</v>
       </c>
       <c r="D168" s="115"/>
       <c r="E168" s="132"/>
       <c r="F168" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13515,15 +13366,15 @@
         <v>32</v>
       </c>
       <c r="B169" s="117" t="s">
+        <v>780</v>
+      </c>
+      <c r="C169" s="131" t="s">
         <v>781</v>
-      </c>
-      <c r="C169" s="131" t="s">
-        <v>782</v>
       </c>
       <c r="D169" s="115"/>
       <c r="E169" s="132"/>
       <c r="F169" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13531,7 +13382,7 @@
         <v>32</v>
       </c>
       <c r="B170" s="60" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C170" s="131" t="s">
         <v>76</v>
@@ -13539,15 +13390,15 @@
       <c r="D170" s="115"/>
       <c r="E170" s="132"/>
       <c r="F170" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="117" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B171" s="117" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C171" s="131" t="s">
         <v>47</v>
@@ -13555,36 +13406,36 @@
       <c r="D171" s="115"/>
       <c r="E171" s="132"/>
       <c r="F171" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B172" s="133"/>
       <c r="C172" s="134"/>
       <c r="D172" s="115"/>
       <c r="E172" s="132"/>
       <c r="F172" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B173" s="133"/>
       <c r="C173" s="134"/>
       <c r="D173" s="115"/>
       <c r="E173" s="132"/>
       <c r="F173" s="130" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="158" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B174" s="159"/>
       <c r="C174" s="159"/>
@@ -13597,31 +13448,31 @@
         <v>243</v>
       </c>
       <c r="B175" s="93" t="s">
+        <v>784</v>
+      </c>
+      <c r="C175" s="94" t="s">
         <v>785</v>
       </c>
-      <c r="C175" s="94" t="s">
+      <c r="D175" s="93" t="s">
         <v>786</v>
       </c>
-      <c r="D175" s="93" t="s">
+      <c r="E175" s="86" t="s">
         <v>787</v>
-      </c>
-      <c r="E175" s="86" t="s">
-        <v>788</v>
       </c>
       <c r="F175" s="120"/>
     </row>
     <row r="176" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B176" s="96" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C176" s="97" t="s">
         <v>56</v>
       </c>
       <c r="D176" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E176" s="90" t="s">
         <v>58</v>
@@ -13630,16 +13481,16 @@
     </row>
     <row r="177" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B177" s="96" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C177" s="97" t="s">
         <v>60</v>
       </c>
       <c r="D177" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E177" s="90" t="s">
         <v>62</v>
@@ -13648,16 +13499,16 @@
     </row>
     <row r="178" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B178" s="96" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C178" s="97" t="s">
         <v>64</v>
       </c>
       <c r="D178" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E178" s="90" t="s">
         <v>66</v>
@@ -13666,16 +13517,16 @@
     </row>
     <row r="179" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B179" s="96" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C179" s="97" t="s">
         <v>68</v>
       </c>
       <c r="D179" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E179" s="90" t="s">
         <v>70</v>
@@ -13684,16 +13535,16 @@
     </row>
     <row r="180" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B180" s="96" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C180" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D180" s="96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E180" s="90" t="s">
         <v>41</v>
@@ -13705,78 +13556,78 @@
         <v>32</v>
       </c>
       <c r="B181" s="96" t="s">
+        <v>793</v>
+      </c>
+      <c r="C181" s="98" t="s">
         <v>794</v>
       </c>
-      <c r="C181" s="98" t="s">
+      <c r="D181" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E181" s="90" t="s">
         <v>795</v>
-      </c>
-      <c r="D181" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E181" s="90" t="s">
-        <v>796</v>
       </c>
       <c r="F181" s="120"/>
     </row>
     <row r="182" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A182" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B182" s="117" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C182" s="121"/>
       <c r="D182" s="20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E182" s="121"/>
       <c r="F182" s="120"/>
     </row>
     <row r="183" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B183" s="117" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C183" s="121"/>
       <c r="D183" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E183" s="121"/>
       <c r="F183" s="120"/>
     </row>
     <row r="184" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A184" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B184" s="117" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C184" s="121"/>
       <c r="D184" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E184" s="121"/>
       <c r="F184" s="120"/>
     </row>
     <row r="185" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A185" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B185" s="117" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C185" s="121"/>
       <c r="D185" s="20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E185" s="121"/>
       <c r="F185" s="120"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="158" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B186" s="159"/>
       <c r="C186" s="159"/>
@@ -13789,50 +13640,50 @@
         <v>243</v>
       </c>
       <c r="B187" s="117" t="s">
+        <v>805</v>
+      </c>
+      <c r="C187" s="118" t="s">
         <v>806</v>
       </c>
-      <c r="C187" s="118" t="s">
+      <c r="D187" s="117" t="s">
+        <v>786</v>
+      </c>
+      <c r="E187" s="121" t="s">
         <v>807</v>
-      </c>
-      <c r="D187" s="117" t="s">
-        <v>787</v>
-      </c>
-      <c r="E187" s="121" t="s">
-        <v>808</v>
       </c>
       <c r="F187" s="120"/>
     </row>
     <row r="188" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A188" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B188" s="117" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C188" s="121"/>
       <c r="D188" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E188" s="121"/>
       <c r="F188" s="120"/>
     </row>
     <row r="189" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A189" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B189" s="117" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C189" s="121"/>
       <c r="D189" s="20" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E189" s="121"/>
       <c r="F189" s="120"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="158" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B190" s="159"/>
       <c r="C190" s="159"/>
@@ -13845,102 +13696,102 @@
         <v>243</v>
       </c>
       <c r="B191" s="117" t="s">
+        <v>813</v>
+      </c>
+      <c r="C191" s="118" t="s">
         <v>814</v>
       </c>
-      <c r="C191" s="118" t="s">
+      <c r="D191" s="117" t="s">
         <v>815</v>
       </c>
-      <c r="D191" s="117" t="s">
+      <c r="E191" s="121" t="s">
         <v>816</v>
-      </c>
-      <c r="E191" s="121" t="s">
-        <v>817</v>
       </c>
       <c r="F191" s="120"/>
     </row>
     <row r="192" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="117" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B192" s="117" t="s">
+        <v>817</v>
+      </c>
+      <c r="C192" s="118" t="s">
         <v>818</v>
       </c>
-      <c r="C192" s="118" t="s">
+      <c r="D192" s="117" t="s">
         <v>819</v>
       </c>
-      <c r="D192" s="117" t="s">
+      <c r="E192" s="121" t="s">
         <v>820</v>
-      </c>
-      <c r="E192" s="121" t="s">
-        <v>821</v>
       </c>
       <c r="F192" s="120"/>
     </row>
     <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A193" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B193" s="117" t="s">
+        <v>821</v>
+      </c>
+      <c r="C193" s="59" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D193" s="117" t="s">
         <v>822</v>
       </c>
-      <c r="C193" s="59" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D193" s="117" t="s">
-        <v>823</v>
-      </c>
       <c r="E193" s="121" t="s">
-        <v>1396</v>
+        <v>1389</v>
       </c>
       <c r="F193" s="120"/>
     </row>
     <row r="194" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="117" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B194" s="117" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="D194" s="117"/>
       <c r="E194" s="121" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="F194" s="120"/>
     </row>
     <row r="195" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A195" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B195" s="117" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C195" s="121"/>
       <c r="D195" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E195" s="121"/>
       <c r="F195" s="120"/>
     </row>
     <row r="196" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A196" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B196" s="117" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C196" s="121"/>
       <c r="D196" s="20" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E196" s="121"/>
       <c r="F196" s="120"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="158" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B197" s="159"/>
       <c r="C197" s="159"/>
@@ -13953,25 +13804,25 @@
         <v>243</v>
       </c>
       <c r="B198" s="117" t="s">
+        <v>828</v>
+      </c>
+      <c r="C198" s="118" t="s">
         <v>829</v>
       </c>
-      <c r="C198" s="118" t="s">
+      <c r="D198" s="117" t="s">
         <v>830</v>
       </c>
-      <c r="D198" s="117" t="s">
+      <c r="E198" s="121" t="s">
         <v>831</v>
-      </c>
-      <c r="E198" s="121" t="s">
-        <v>832</v>
       </c>
       <c r="F198" s="120"/>
     </row>
     <row r="199" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B199" s="117" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C199" s="118" t="s">
         <v>39</v>
@@ -13984,10 +13835,10 @@
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="117" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B200" s="117" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C200" s="118" t="s">
         <v>76</v>
@@ -14000,26 +13851,26 @@
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="117" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B201" s="117" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C201" s="118" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="D201" s="117"/>
       <c r="E201" s="121" t="s">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="F201" s="120"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="117" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B202" s="117" t="s">
-        <v>1405</v>
+        <v>1398</v>
       </c>
       <c r="C202" s="118" t="s">
         <v>43</v>
@@ -14035,76 +13886,76 @@
         <v>32</v>
       </c>
       <c r="B203" s="117" t="s">
-        <v>1404</v>
+        <v>1397</v>
       </c>
       <c r="C203" s="135" t="s">
-        <v>1401</v>
+        <v>1394</v>
       </c>
       <c r="D203" s="117"/>
       <c r="E203" s="121" t="s">
-        <v>1402</v>
+        <v>1395</v>
       </c>
       <c r="F203" s="120"/>
     </row>
     <row r="204" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A204" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B204" s="117" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C204" s="121"/>
       <c r="D204" s="20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E204" s="121"/>
       <c r="F204" s="120"/>
     </row>
     <row r="205" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A205" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B205" s="117" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C205" s="121"/>
       <c r="D205" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E205" s="121"/>
       <c r="F205" s="120"/>
     </row>
     <row r="206" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A206" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B206" s="117" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C206" s="121"/>
       <c r="D206" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E206" s="121"/>
       <c r="F206" s="120"/>
     </row>
     <row r="207" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A207" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B207" s="117" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C207" s="121"/>
       <c r="D207" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E207" s="121"/>
       <c r="F207" s="120"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="158" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B208" s="159"/>
       <c r="C208" s="159"/>
@@ -14117,13 +13968,13 @@
         <v>243</v>
       </c>
       <c r="B209" s="117" t="s">
+        <v>839</v>
+      </c>
+      <c r="C209" s="118" t="s">
         <v>840</v>
       </c>
-      <c r="C209" s="118" t="s">
+      <c r="D209" s="117" t="s">
         <v>841</v>
-      </c>
-      <c r="D209" s="117" t="s">
-        <v>842</v>
       </c>
       <c r="E209" s="121" t="s">
         <v>54</v>
@@ -14135,16 +13986,16 @@
         <v>261</v>
       </c>
       <c r="B210" s="117" t="s">
+        <v>842</v>
+      </c>
+      <c r="C210" s="118" t="s">
+        <v>757</v>
+      </c>
+      <c r="D210" s="126" t="s">
         <v>843</v>
       </c>
-      <c r="C210" s="118" t="s">
-        <v>758</v>
-      </c>
-      <c r="D210" s="126" t="s">
-        <v>844</v>
-      </c>
       <c r="E210" s="121" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F210" s="120"/>
     </row>
@@ -14153,50 +14004,50 @@
         <v>32</v>
       </c>
       <c r="B211" s="117" t="s">
+        <v>844</v>
+      </c>
+      <c r="C211" s="118" t="s">
+        <v>761</v>
+      </c>
+      <c r="D211" s="126" t="s">
         <v>845</v>
       </c>
-      <c r="C211" s="118" t="s">
-        <v>762</v>
-      </c>
-      <c r="D211" s="126" t="s">
-        <v>846</v>
-      </c>
       <c r="E211" s="121" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F211" s="120"/>
     </row>
     <row r="212" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A212" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B212" s="117" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C212" s="129"/>
       <c r="D212" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E212" s="121"/>
       <c r="F212" s="120"/>
     </row>
     <row r="213" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A213" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B213" s="117" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C213" s="121"/>
       <c r="D213" s="20" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E213" s="121"/>
       <c r="F213" s="120"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="158" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B214" s="159"/>
       <c r="C214" s="159"/>
@@ -14209,25 +14060,25 @@
         <v>243</v>
       </c>
       <c r="B215" s="117" t="s">
+        <v>849</v>
+      </c>
+      <c r="C215" s="118" t="s">
         <v>850</v>
       </c>
-      <c r="C215" s="118" t="s">
+      <c r="D215" s="117" t="s">
         <v>851</v>
       </c>
-      <c r="D215" s="117" t="s">
+      <c r="E215" s="121" t="s">
         <v>852</v>
-      </c>
-      <c r="E215" s="121" t="s">
-        <v>853</v>
       </c>
       <c r="F215" s="120"/>
     </row>
     <row r="216" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B216" s="117" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C216" s="118" t="s">
         <v>56</v>
@@ -14240,10 +14091,10 @@
     </row>
     <row r="217" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B217" s="117" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C217" s="118" t="s">
         <v>60</v>
@@ -14256,10 +14107,10 @@
     </row>
     <row r="218" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B218" s="117" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C218" s="118" t="s">
         <v>64</v>
@@ -14272,10 +14123,10 @@
     </row>
     <row r="219" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B219" s="117" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C219" s="118" t="s">
         <v>68</v>
@@ -14288,10 +14139,10 @@
     </row>
     <row r="220" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B220" s="117" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C220" s="118" t="s">
         <v>39</v>
@@ -14304,63 +14155,63 @@
     </row>
     <row r="221" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A221" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B221" s="117" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C221" s="121"/>
       <c r="D221" s="20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E221" s="121"/>
       <c r="F221" s="120"/>
     </row>
     <row r="222" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A222" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B222" s="117" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C222" s="121"/>
       <c r="D222" s="20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E222" s="121"/>
       <c r="F222" s="120"/>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" s="117" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B223" s="117" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C223" s="121"/>
       <c r="D223" s="20" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E223" s="121"/>
       <c r="F223" s="120"/>
     </row>
     <row r="224" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A224" s="117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B224" s="117" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C224" s="121"/>
       <c r="D224" s="20" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E224" s="121"/>
       <c r="F224" s="120"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="158" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B225" s="159"/>
       <c r="C225" s="159"/>
@@ -14373,36 +14224,36 @@
         <v>243</v>
       </c>
       <c r="B226" s="117" t="s">
+        <v>863</v>
+      </c>
+      <c r="C226" s="118" t="s">
         <v>864</v>
       </c>
-      <c r="C226" s="118" t="s">
+      <c r="D226" s="117" t="s">
         <v>865</v>
       </c>
-      <c r="D226" s="117" t="s">
+      <c r="E226" s="121" t="s">
         <v>866</v>
       </c>
-      <c r="E226" s="121" t="s">
+      <c r="F226" s="38" t="s">
         <v>867</v>
-      </c>
-      <c r="F226" s="38" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A227" s="117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B227" s="117" t="s">
+        <v>868</v>
+      </c>
+      <c r="C227" s="118" t="s">
         <v>869</v>
       </c>
-      <c r="C227" s="118" t="s">
+      <c r="D227" s="117" t="s">
         <v>870</v>
       </c>
-      <c r="D227" s="117" t="s">
+      <c r="E227" s="121" t="s">
         <v>871</v>
-      </c>
-      <c r="E227" s="121" t="s">
-        <v>872</v>
       </c>
       <c r="F227" s="120"/>
     </row>
@@ -14411,157 +14262,157 @@
         <v>261</v>
       </c>
       <c r="B228" s="117" t="s">
+        <v>872</v>
+      </c>
+      <c r="C228" s="59" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D228" s="117" t="s">
         <v>873</v>
       </c>
-      <c r="C228" s="59" t="s">
+      <c r="E228" s="121" t="s">
         <v>874</v>
-      </c>
-      <c r="D228" s="117" t="s">
-        <v>875</v>
-      </c>
-      <c r="E228" s="121" t="s">
-        <v>876</v>
       </c>
       <c r="F228" s="120"/>
     </row>
     <row r="229" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B229" s="117" t="s">
+        <v>875</v>
+      </c>
+      <c r="C229" s="118" t="s">
+        <v>876</v>
+      </c>
+      <c r="D229" s="122" t="s">
         <v>877</v>
       </c>
-      <c r="C229" s="118" t="s">
+      <c r="E229" s="121" t="s">
         <v>878</v>
-      </c>
-      <c r="D229" s="122" t="s">
-        <v>879</v>
-      </c>
-      <c r="E229" s="121" t="s">
-        <v>880</v>
       </c>
       <c r="F229" s="120"/>
     </row>
     <row r="230" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B230" s="117" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C230" s="118" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D230" s="122" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E230" s="121" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F230" s="120"/>
     </row>
     <row r="231" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B231" s="117" t="s">
+        <v>881</v>
+      </c>
+      <c r="C231" s="118" t="s">
+        <v>882</v>
+      </c>
+      <c r="D231" s="122" t="s">
         <v>883</v>
       </c>
-      <c r="C231" s="118" t="s">
+      <c r="E231" s="121" t="s">
         <v>884</v>
-      </c>
-      <c r="D231" s="122" t="s">
-        <v>885</v>
-      </c>
-      <c r="E231" s="121" t="s">
-        <v>886</v>
       </c>
       <c r="F231" s="120"/>
     </row>
     <row r="232" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A232" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B232" s="117" t="s">
+        <v>885</v>
+      </c>
+      <c r="C232" s="118" t="s">
+        <v>886</v>
+      </c>
+      <c r="D232" s="122" t="s">
         <v>887</v>
       </c>
-      <c r="C232" s="118" t="s">
+      <c r="E232" s="121" t="s">
         <v>888</v>
-      </c>
-      <c r="D232" s="122" t="s">
-        <v>889</v>
-      </c>
-      <c r="E232" s="121" t="s">
-        <v>890</v>
       </c>
       <c r="F232" s="120"/>
     </row>
     <row r="233" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B233" s="117" t="s">
+        <v>889</v>
+      </c>
+      <c r="C233" s="118" t="s">
+        <v>890</v>
+      </c>
+      <c r="D233" s="122" t="s">
         <v>891</v>
       </c>
-      <c r="C233" s="118" t="s">
+      <c r="E233" s="121" t="s">
         <v>892</v>
-      </c>
-      <c r="D233" s="122" t="s">
-        <v>893</v>
-      </c>
-      <c r="E233" s="121" t="s">
-        <v>894</v>
       </c>
       <c r="F233" s="120"/>
     </row>
     <row r="234" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="117" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B234" s="117" t="s">
+        <v>893</v>
+      </c>
+      <c r="C234" s="118" t="s">
+        <v>894</v>
+      </c>
+      <c r="D234" s="122" t="s">
+        <v>891</v>
+      </c>
+      <c r="E234" s="121" t="s">
         <v>895</v>
-      </c>
-      <c r="C234" s="118" t="s">
-        <v>896</v>
-      </c>
-      <c r="D234" s="122" t="s">
-        <v>893</v>
-      </c>
-      <c r="E234" s="121" t="s">
-        <v>897</v>
       </c>
       <c r="F234" s="120"/>
     </row>
     <row r="235" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A235" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B235" s="117" t="s">
+        <v>896</v>
+      </c>
+      <c r="C235" s="118" t="s">
+        <v>897</v>
+      </c>
+      <c r="D235" s="122" t="s">
         <v>898</v>
       </c>
-      <c r="C235" s="118" t="s">
+      <c r="E235" s="121" t="s">
         <v>899</v>
-      </c>
-      <c r="D235" s="122" t="s">
-        <v>900</v>
-      </c>
-      <c r="E235" s="121" t="s">
-        <v>901</v>
       </c>
       <c r="F235" s="120"/>
     </row>
     <row r="236" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A236" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B236" s="117" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C236" s="118" t="s">
         <v>323</v>
       </c>
       <c r="D236" s="122" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E236" s="121" t="s">
         <v>325</v>
@@ -14570,37 +14421,37 @@
     </row>
     <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A237" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B237" s="117" t="s">
+        <v>902</v>
+      </c>
+      <c r="C237" s="118" t="s">
+        <v>903</v>
+      </c>
+      <c r="D237" s="122" t="s">
         <v>904</v>
       </c>
-      <c r="C237" s="118" t="s">
+      <c r="E237" s="121" t="s">
         <v>905</v>
-      </c>
-      <c r="D237" s="122" t="s">
-        <v>906</v>
-      </c>
-      <c r="E237" s="121" t="s">
-        <v>907</v>
       </c>
       <c r="F237" s="120"/>
     </row>
     <row r="238" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A238" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B238" s="117" t="s">
+        <v>906</v>
+      </c>
+      <c r="C238" s="118" t="s">
+        <v>907</v>
+      </c>
+      <c r="D238" s="122" t="s">
         <v>908</v>
       </c>
-      <c r="C238" s="118" t="s">
+      <c r="E238" s="121" t="s">
         <v>909</v>
-      </c>
-      <c r="D238" s="122" t="s">
-        <v>910</v>
-      </c>
-      <c r="E238" s="121" t="s">
-        <v>911</v>
       </c>
       <c r="F238" s="120"/>
     </row>
@@ -14608,12 +14459,12 @@
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="37"/>
       <c r="F239" s="68" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -15360,18 +15211,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -15382,6 +15221,18 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15392,8 +15243,8 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15429,7 +15280,7 @@
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="173" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B2" s="174"/>
       <c r="C2" s="174"/>
@@ -15441,110 +15292,110 @@
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>916</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>913</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="E4" s="46" t="s">
         <v>918</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>915</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>919</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>922</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>923</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>924</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B8" s="93" t="s">
+        <v>925</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>926</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="86" t="s">
         <v>927</v>
-      </c>
-      <c r="C8" s="94" t="s">
-        <v>928</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -15555,10 +15406,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>933</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>935</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -15569,7 +15420,7 @@
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B12" s="174"/>
       <c r="C12" s="174"/>
@@ -15581,16 +15432,16 @@
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>935</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>936</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="E13" s="46" t="s">
         <v>938</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15598,16 +15449,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>940</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>941</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="E14" s="46" t="s">
         <v>942</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>943</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15615,16 +15466,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>944</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>945</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>946</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>943</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15632,16 +15483,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>947</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>941</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>948</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>949</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>943</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15649,45 +15500,45 @@
         <v>84</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C17" s="152" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="D17" s="93" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E17" s="153" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="182" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B20" s="183"/>
       <c r="C20" s="183"/>
@@ -15696,52 +15547,52 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>956</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>957</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>958</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>959</v>
       </c>
       <c r="D21" s="81"/>
       <c r="E21" s="82" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
+        <v>959</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>960</v>
+      </c>
+      <c r="C22" s="83" t="s">
         <v>961</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>962</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>963</v>
       </c>
       <c r="D22" s="81"/>
       <c r="E22" s="82" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
+        <v>963</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>964</v>
+      </c>
+      <c r="C23" s="83" t="s">
         <v>965</v>
-      </c>
-      <c r="B23" s="95" t="s">
-        <v>966</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>967</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="82" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="179" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B24" s="180"/>
       <c r="C24" s="180"/>
@@ -15753,19 +15604,19 @@
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="170" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B26" s="171"/>
       <c r="C26" s="171"/>
@@ -15777,19 +15628,19 @@
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="170" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B28" s="171"/>
       <c r="C28" s="171"/>
@@ -15801,53 +15652,53 @@
         <v>243</v>
       </c>
       <c r="B29" s="93" t="s">
+        <v>976</v>
+      </c>
+      <c r="C29" s="94" t="s">
+        <v>977</v>
+      </c>
+      <c r="D29" s="93" t="s">
         <v>978</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="E29" s="86" t="s">
         <v>979</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="F29" s="72" t="s">
         <v>980</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>981</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="95" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B30" s="96" t="s">
+        <v>981</v>
+      </c>
+      <c r="C30" s="97" t="s">
+        <v>982</v>
+      </c>
+      <c r="D30" s="96" t="s">
         <v>983</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="E30" s="90" t="s">
         <v>984</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>985</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="95" t="s">
+        <v>985</v>
+      </c>
+      <c r="B31" s="96" t="s">
+        <v>986</v>
+      </c>
+      <c r="C31" s="97" t="s">
         <v>987</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="D31" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="E31" s="90" t="s">
         <v>988</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>989</v>
-      </c>
-      <c r="D31" s="96" t="s">
-        <v>411</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15855,13 +15706,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>989</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>990</v>
+      </c>
+      <c r="E32" s="46" t="s">
         <v>991</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>992</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15869,57 +15720,57 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>992</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>993</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>994</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="E33" s="46" t="s">
         <v>995</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>996</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="170" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B37" s="171"/>
       <c r="C37" s="171"/>
@@ -15931,45 +15782,45 @@
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="E38" s="46" t="s">
         <v>1006</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="176" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B41" s="177"/>
       <c r="C41" s="177"/>
@@ -15981,138 +15832,138 @@
         <v>243</v>
       </c>
       <c r="B42" s="117" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="D42" s="117" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>866</v>
+      </c>
+      <c r="F42" s="73" t="s">
         <v>1013</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>865</v>
-      </c>
-      <c r="D42" s="117" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>867</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="117" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B43" s="117" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E43" s="46" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="117" t="s">
         <v>261</v>
       </c>
       <c r="B44" s="117" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D44" s="117" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E44" s="46" t="s">
         <v>1018</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D44" s="117" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B45" s="117" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="D45" s="122" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B46" s="117" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D46" s="122" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>1025</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D46" s="122" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" s="117" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D47" s="122" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E47" s="46" t="s">
         <v>1029</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D47" s="122" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B48" s="117" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D48" s="122" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E48" s="46" t="s">
         <v>1033</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D48" s="122" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="92" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B49" s="93" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C49" s="94" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E49" s="86" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16120,7 +15971,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -16131,70 +15982,70 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>1041</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1044</v>
-      </c>
       <c r="F51" s="72" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>1041</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>1044</v>
-      </c>
       <c r="F52" s="72" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="117" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D53" s="122" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="117" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" s="117" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -16217,8 +16068,8 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16257,152 +16108,152 @@
         <v>243</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="C2" s="138" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D2" s="137" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F2" s="136"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="137" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B3" s="137" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E3" s="139" t="s">
         <v>1056</v>
-      </c>
-      <c r="C3" s="138" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E3" s="139" t="s">
-        <v>1059</v>
       </c>
       <c r="F3" s="136"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="137" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B4" s="137" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D4" s="137" t="s">
         <v>1060</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="E4" s="139" t="s">
         <v>1061</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D4" s="137" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>1064</v>
       </c>
       <c r="F4" s="136"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="137" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="E5" s="139"/>
       <c r="F5" s="136"/>
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="137" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E6" s="139"/>
       <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B7" s="137" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C7" s="138" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E7" s="139" t="s">
         <v>1069</v>
-      </c>
-      <c r="C7" s="138" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>1072</v>
       </c>
       <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B8" s="137" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C8" s="138" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E8" s="139" t="s">
         <v>1073</v>
-      </c>
-      <c r="C8" s="138" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>1076</v>
       </c>
       <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B9" s="137" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C9" s="138" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E9" s="139" t="s">
         <v>1077</v>
-      </c>
-      <c r="C9" s="138" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>1080</v>
       </c>
       <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B10" s="137" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C10" s="138" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E10" s="139" t="s">
         <v>1081</v>
-      </c>
-      <c r="C10" s="138" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>1084</v>
       </c>
       <c r="F10" s="136"/>
     </row>
@@ -16411,225 +16262,225 @@
         <v>254</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="138" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E11" s="139"/>
       <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B12" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E12" s="139" t="s">
         <v>1088</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>1091</v>
       </c>
       <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C13" s="139"/>
       <c r="D13" s="137" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="E13" s="139"/>
       <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C14" s="139"/>
       <c r="D14" s="137" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E14" s="139"/>
       <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B15" s="137" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D15" s="137" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E15" s="139" t="s">
         <v>1095</v>
-      </c>
-      <c r="C15" s="138" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>1098</v>
       </c>
       <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B16" s="137" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D16" s="137" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E16" s="139" t="s">
         <v>1099</v>
-      </c>
-      <c r="C16" s="138" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>1101</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>1102</v>
       </c>
       <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B17" s="137" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D17" s="137" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E17" s="139" t="s">
         <v>1103</v>
-      </c>
-      <c r="C17" s="138" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E17" s="139" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B18" s="137" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C18" s="138" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E18" s="139" t="s">
         <v>1107</v>
-      </c>
-      <c r="C18" s="138" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A19" s="137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="E19" s="139"/>
     </row>
     <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="E20" s="139"/>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="E21" s="139"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="137" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" s="138" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D22" s="137" t="s">
         <v>1116</v>
       </c>
-      <c r="B22" s="137" t="s">
+      <c r="E22" s="139" t="s">
         <v>1117</v>
-      </c>
-      <c r="C22" s="138" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D22" s="137" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E22" s="139" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="137" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="137" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="E23" s="139"/>
     </row>
     <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="137" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="E24" s="139"/>
     </row>
     <row r="25" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="137" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="E25" s="139"/>
     </row>
@@ -16638,38 +16489,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C26" s="138" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E26" s="139" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="137" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B27" s="137" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C27" s="138" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D27" s="137" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E27" s="139" t="s">
         <v>1130</v>
-      </c>
-      <c r="C27" s="138" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D27" s="137" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E27" s="139" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="185" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B28" s="186"/>
       <c r="C28" s="186"/>
@@ -16681,64 +16532,64 @@
         <v>243</v>
       </c>
       <c r="B29" s="142" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C29" s="143" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E29" s="144" t="s">
         <v>1135</v>
-      </c>
-      <c r="C29" s="143" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="145" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B30" s="145" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C30" s="146" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D30" s="145" t="s">
         <v>1139</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="E30" s="147" t="s">
         <v>1140</v>
-      </c>
-      <c r="C30" s="146" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D30" s="145" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E30" s="147" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E31" s="147"/>
     </row>
     <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E32" s="147"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="188" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B33" s="189"/>
       <c r="C33" s="190"/>
@@ -16750,121 +16601,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="148" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C34" s="146" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E34" s="147" t="s">
         <v>1147</v>
-      </c>
-      <c r="C34" s="146" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E34" s="147" t="s">
-        <v>1150</v>
       </c>
       <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="145" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B35" s="149" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C35" s="146" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D35" s="150" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E35" s="147" t="s">
         <v>1151</v>
-      </c>
-      <c r="C35" s="146" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D35" s="150" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E35" s="147" t="s">
-        <v>1154</v>
       </c>
       <c r="F35" s="136"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="145" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B36" s="149" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C36" s="146" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D36" s="150" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E36" s="147" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F36" s="136"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="145" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B37" s="149" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D37" s="150" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E37" s="147" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F37" s="136"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="145" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B38" s="149" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D38" s="150" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E38" s="147" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="145" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B39" s="149" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D39" s="150" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E39" s="147" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F39" s="136"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="145" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="150" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="E40" s="147" t="s">
         <v>95</v>
@@ -16873,28 +16724,28 @@
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E41" s="147"/>
       <c r="F41" s="136"/>
     </row>
     <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E42" s="147"/>
       <c r="F42" s="136"/>
@@ -16904,50 +16755,50 @@
         <v>243</v>
       </c>
       <c r="B43" s="137" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>1171</v>
+        <v>1420</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="E43" s="147" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F43" s="136"/>
     </row>
     <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E44" s="147"/>
       <c r="F44" s="136"/>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E45" s="147"/>
       <c r="F45" s="136"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="185" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B46" s="186"/>
       <c r="C46" s="186"/>
@@ -16959,336 +16810,336 @@
         <v>243</v>
       </c>
       <c r="B47" s="145" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>1178</v>
+        <v>864</v>
       </c>
       <c r="D47" s="117" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="E47" s="63" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="145" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B48" s="145" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>1183</v>
+        <v>929</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E48" s="63" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="145" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B49" s="145" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1186</v>
+        <v>1419</v>
       </c>
       <c r="D49" s="117" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" s="137" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="C50" s="146" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="D50" s="122" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="E50" s="63" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="F50" s="74" t="s">
-        <v>1190</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B51" s="137" t="s">
-        <v>1191</v>
+        <v>1184</v>
       </c>
       <c r="C51" s="146" t="s">
-        <v>1192</v>
+        <v>1185</v>
       </c>
       <c r="D51" s="122" t="s">
-        <v>1193</v>
+        <v>1186</v>
       </c>
       <c r="E51" s="63" t="s">
-        <v>1194</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" s="137" t="s">
-        <v>1195</v>
+        <v>1188</v>
       </c>
       <c r="C52" s="146" t="s">
-        <v>1196</v>
+        <v>1189</v>
       </c>
       <c r="D52" s="122" t="s">
-        <v>1197</v>
+        <v>1190</v>
       </c>
       <c r="E52" s="63" t="s">
-        <v>1198</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B53" s="137" t="s">
-        <v>1199</v>
+        <v>1192</v>
       </c>
       <c r="C53" s="146" t="s">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="D53" s="122" t="s">
-        <v>1201</v>
+        <v>1194</v>
       </c>
       <c r="E53" s="63" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" s="137" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="C54" s="146" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="D54" s="122" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="E54" s="63" t="s">
-        <v>1206</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B55" s="137" t="s">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="C55" s="146" t="s">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="D55" s="122" t="s">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="E55" s="63" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F55" s="74" t="s">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" s="137" t="s">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="C56" s="146" t="s">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="D56" s="122" t="s">
-        <v>1213</v>
+        <v>1206</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>1214</v>
+        <v>1207</v>
       </c>
       <c r="F56" s="74" t="s">
-        <v>1215</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B57" s="137" t="s">
-        <v>1216</v>
+        <v>1209</v>
       </c>
       <c r="C57" s="146" t="s">
-        <v>1217</v>
+        <v>1210</v>
       </c>
       <c r="D57" s="122" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="F57" s="74" t="s">
-        <v>1220</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" s="137" t="s">
-        <v>1221</v>
+        <v>1214</v>
       </c>
       <c r="C58" s="146" t="s">
-        <v>1222</v>
+        <v>1215</v>
       </c>
       <c r="D58" s="122" t="s">
-        <v>1223</v>
+        <v>1216</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>1224</v>
+        <v>1217</v>
       </c>
       <c r="F58" s="74" t="s">
-        <v>1225</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B59" s="137" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="C59" s="146" t="s">
-        <v>1227</v>
+        <v>1220</v>
       </c>
       <c r="D59" s="122" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="E59" s="63" t="s">
-        <v>1229</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B60" s="137" t="s">
-        <v>1230</v>
+        <v>1223</v>
       </c>
       <c r="C60" s="146" t="s">
-        <v>1231</v>
+        <v>1224</v>
       </c>
       <c r="D60" s="122" t="s">
-        <v>1232</v>
+        <v>1225</v>
       </c>
       <c r="E60" s="63" t="s">
-        <v>1233</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1234</v>
+        <v>1227</v>
       </c>
       <c r="C61" s="146" t="s">
-        <v>1235</v>
+        <v>1228</v>
       </c>
       <c r="D61" s="122" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="E61" s="63" t="s">
-        <v>1237</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B62" s="137" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="C62" s="146" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="D62" s="122" t="s">
-        <v>1240</v>
+        <v>1233</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>1241</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="145" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B63" s="145" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="C63" s="146" t="s">
-        <v>1243</v>
+        <v>1236</v>
       </c>
       <c r="D63" s="149"/>
       <c r="E63" s="79" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="F63" s="136"/>
     </row>
     <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="145" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B64" s="145" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="C64" s="146" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D64" s="149"/>
       <c r="E64" s="79" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="F64" s="136"/>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="145" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B65" s="137" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="C65" s="146" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D65" s="149"/>
       <c r="E65" s="79" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F65" s="136"/>
     </row>
@@ -17368,47 +17219,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
-      <UserInfo>
-        <DisplayName>Erika Osti</DisplayName>
-        <AccountId>534</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Penny Johnson</DisplayName>
-        <AccountId>489</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Childs</DisplayName>
-        <AccountId>643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas Leeds</DisplayName>
-        <AccountId>459</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kasmyn Chen</DisplayName>
-        <AccountId>532</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096D84A54A9CD274097F17166F184737D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd95a4cfdf4f2f51219070f5dff16a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="565e1b1d-057e-4d85-b896-01a5881d8a45" xmlns:ns3="bf601f31-63a1-4825-9216-91d773c5ef9c" xmlns:ns4="2799d30d-6731-4efe-ac9b-c4895a8828d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7499f6f4dc8ad2a533df04863f63fa7" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17685,6 +17495,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
+      <UserInfo>
+        <DisplayName>Erika Osti</DisplayName>
+        <AccountId>534</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Penny Johnson</DisplayName>
+        <AccountId>489</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Childs</DisplayName>
+        <AccountId>643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas Leeds</DisplayName>
+        <AccountId>459</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kasmyn Chen</DisplayName>
+        <AccountId>532</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
   <ds:schemaRefs>
@@ -17694,19 +17545,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
-    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFDB110-4046-4E72-A1EF-1908ABEC3151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17725,4 +17563,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
+    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C8C7A-8A17-E14E-94AC-CB28724ACA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3CB76E-8E81-CE4B-9EEF-46C05EF45A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1427">
   <si>
     <r>
       <rPr>
@@ -3854,9 +3854,6 @@
     <t>Provides further context to AP or ME about what they need to do when before continuing</t>
   </si>
   <si>
-    <t>Gwiriwch fod yr holl fanylion yn gywir cyn i chi gyflwyno'r Dystysgrif Feddygol hon o achos marwolaeth i'w harchwilio gan archwiliwr meddygol</t>
-  </si>
-  <si>
     <t>dpdCheckAnswersNHSNumber</t>
   </si>
   <si>
@@ -4326,9 +4323,6 @@
   </si>
   <si>
     <t>Provides further context to AP or ME about what they need to do before continuing</t>
-  </si>
-  <si>
-    <t>Gwiriwch fod yr holl fanylion yn gywir cyn i chi gyflwyno'r Dystysgrif Feddygol hon o achos marwolaeth i'w harchwilio gan archwiliwr meddygol.</t>
   </si>
   <si>
     <t>aadCheckAnswersPostMortem</t>
@@ -5617,12 +5611,6 @@
     <t>You have not created any certificates</t>
   </si>
   <si>
-    <t>Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner</t>
-  </si>
-  <si>
-    <t>Check that all the details are correct before you submit this Medical certificate of cause of death for scrutiny by a medical examiner.</t>
-  </si>
-  <si>
     <t>Did the deceased’s pregnancy contribute to their death?</t>
   </si>
   <si>
@@ -5662,7 +5650,16 @@
     <t>&lt;p class="govuk-body"&gt;Mae'r dangosfwrdd hwn yn eich galluogi i greu Tystysgrif Feddygol achos marwolaeth (MCCD) newydd a rheoli MCCDs presennol.&lt;/p&gt;&lt;p class="govuk-body"&gt;Bydd y dangosfwrdd hwn yn rhestru MCCDs sydd:&lt;/p&gt;&lt;ul class="govuk-list govuk-list--bullet"&gt;&lt;li&gt;rydych wedi cyflwyno i archwiliwr meddygol i'w gymeradwyo&lt;/li&gt;&lt;li&gt;mae archwiliwr meddygol wedi gwrthod a rhaid i chi nawr ddiwygio&lt;/li&gt;&lt;li&gt;bod archwiliwr meddygol wedi cymeradwyo a bydd yn cael ei anfon ymlaen i swyddfa’r cofrestrydd gan swyddog archwiliwr meddygol&lt;/li&gt;&lt;/ul&gt;&lt;p class="govuk-body"&gt;Bydd MCCDs wedi'u cwblhau yn cael eu dileu ar ôl tri mis.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>018</t>
+    <t>Check that all the details are correct before continuing.</t>
+  </si>
+  <si>
+    <t>Gwiriwch fod yr holl fanylion yn gywir cyn parhau.</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Tystysgrif feddygol achos gwasanaeth marwolaeth</t>
   </si>
 </sst>
 </file>
@@ -6615,6 +6612,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6631,15 +6637,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7683,16 +7680,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="68" t="s">
         <v>1235</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7700,16 +7697,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>911</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7717,13 +7714,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>863</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>865</v>
@@ -7731,36 +7728,36 @@
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7768,16 +7765,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>914</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7785,49 +7782,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1249</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="74" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7904,33 +7901,33 @@
         <v>243</v>
       </c>
       <c r="B2" s="92" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>1254</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="E2" s="85" t="s">
         <v>1255</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>1258</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="D3" s="95" t="s">
         <v>1259</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="E3" s="89" t="s">
         <v>1260</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7938,16 +7935,16 @@
         <v>758</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7955,13 +7952,13 @@
         <v>410</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E5" s="89" t="s">
         <v>404</v>
@@ -7972,13 +7969,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>404</v>
@@ -8006,33 +8003,33 @@
         <v>243</v>
       </c>
       <c r="B8" s="95" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>1270</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="E8" s="89" t="s">
         <v>1271</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B9" s="95" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>1274</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="E9" s="89" t="s">
         <v>1275</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>1276</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8040,10 +8037,10 @@
         <v>758</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>404</v>
@@ -8057,13 +8054,13 @@
         <v>410</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>404</v>
@@ -8074,13 +8071,13 @@
         <v>413</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>404</v>
@@ -8108,13 +8105,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="95" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>1282</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D14" s="95" t="s">
-        <v>1284</v>
       </c>
       <c r="E14" s="89" t="s">
         <v>404</v>
@@ -8122,19 +8119,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B15" s="95" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>1285</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="E15" s="89" t="s">
         <v>1286</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8142,13 +8139,13 @@
         <v>410</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C16" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>404</v>
@@ -8159,13 +8156,13 @@
         <v>413</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C17" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>404</v>
@@ -8176,16 +8173,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D18" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8210,13 +8207,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>404</v>
@@ -8224,16 +8221,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B21" s="95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D21" s="95" t="s">
         <v>1296</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D21" s="95" t="s">
-        <v>1298</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>404</v>
@@ -8244,10 +8241,10 @@
         <v>758</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>404</v>
@@ -8261,13 +8258,13 @@
         <v>410</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C23" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E23" s="89" t="s">
         <v>404</v>
@@ -8278,13 +8275,13 @@
         <v>413</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C24" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>404</v>
@@ -8337,7 +8334,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="193" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B2" s="194"/>
       <c r="C2" s="194"/>
@@ -8350,16 +8347,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>1304</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8367,13 +8364,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>1307</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8381,13 +8378,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>1310</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8395,13 +8392,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>1313</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8409,127 +8406,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>1316</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>1319</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="37" t="s">
         <v>1320</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1323</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="37" t="s">
         <v>1324</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1327</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>1330</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1332</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>1333</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>1336</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8537,34 +8534,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C17" s="75" t="s">
         <v>1348</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>1350</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="193" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
@@ -8577,16 +8574,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -8594,10 +8591,10 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8605,13 +8602,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -8619,10 +8616,10 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8646,7 +8643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8686,13 +8683,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -8709,7 +8706,9 @@
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>1426</v>
+      </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
@@ -9763,18 +9762,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>1372</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10075,14 +10074,14 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10091,19 +10090,19 @@
         <v>484</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="159" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -10115,14 +10114,14 @@
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1403</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1405</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10130,14 +10129,14 @@
         <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>1404</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1406</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10358,7 +10357,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>276</v>
@@ -10382,7 +10381,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>280</v>
@@ -10396,13 +10395,13 @@
         <v>281</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>283</v>
@@ -10416,13 +10415,13 @@
         <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>285</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -10433,13 +10432,13 @@
         <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>288</v>
@@ -10641,7 +10640,7 @@
         <v>336</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>337</v>
@@ -10775,17 +10774,17 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="37" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10826,8 +10825,8 @@
   <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F228" sqref="F228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10862,13 +10861,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10996,13 +10995,13 @@
       <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="168" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11031,13 +11030,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -11049,13 +11048,13 @@
         <v>403</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>404</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -11523,7 +11522,7 @@
         <v>485</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="120" t="s">
@@ -11536,14 +11535,14 @@
         <v>484</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="120" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -11771,7 +11770,7 @@
         <v>522</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -11780,14 +11779,14 @@
         <v>519</v>
       </c>
       <c r="B62" s="116" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C62" s="117" t="s">
         <v>1384</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>1386</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="120" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F62" s="119"/>
     </row>
@@ -12973,7 +12972,7 @@
         <v>710</v>
       </c>
       <c r="C141" s="113" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D141" s="122" t="s">
         <v>711</v>
@@ -13063,7 +13062,7 @@
         <v>725</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="D147" s="116" t="s">
         <v>726</v>
@@ -13094,14 +13093,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="116" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C149" s="59" t="s">
         <v>1361</v>
-      </c>
-      <c r="C149" s="59" t="s">
-        <v>1363</v>
       </c>
       <c r="D149" s="116"/>
       <c r="E149" s="120" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F149" s="119"/>
     </row>
@@ -13110,14 +13109,14 @@
         <v>37</v>
       </c>
       <c r="B150" s="116" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C150" s="59" t="s">
         <v>1362</v>
-      </c>
-      <c r="C150" s="59" t="s">
-        <v>1364</v>
       </c>
       <c r="D150" s="116"/>
       <c r="E150" s="120" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="F150" s="119"/>
     </row>
@@ -13336,13 +13335,13 @@
       <c r="F164" s="119"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="168" t="s">
+      <c r="A165" s="162" t="s">
         <v>765</v>
       </c>
-      <c r="B165" s="169"/>
-      <c r="C165" s="169"/>
-      <c r="D165" s="169"/>
-      <c r="E165" s="170"/>
+      <c r="B165" s="163"/>
+      <c r="C165" s="163"/>
+      <c r="D165" s="163"/>
+      <c r="E165" s="164"/>
       <c r="F165" s="129" t="s">
         <v>766</v>
       </c>
@@ -13769,13 +13768,13 @@
         <v>815</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D193" s="116" t="s">
         <v>816</v>
       </c>
       <c r="E193" s="120" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F193" s="119"/>
     </row>
@@ -13784,14 +13783,14 @@
         <v>484</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D194" s="116"/>
       <c r="E194" s="120" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -13891,11 +13890,11 @@
         <v>827</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D201" s="116"/>
       <c r="E201" s="120" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F201" s="119"/>
     </row>
@@ -13904,7 +13903,7 @@
         <v>734</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C202" s="117" t="s">
         <v>43</v>
@@ -13920,14 +13919,14 @@
         <v>32</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C203" s="134" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D203" s="116"/>
       <c r="E203" s="120" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F203" s="119"/>
     </row>
@@ -14291,7 +14290,7 @@
       </c>
       <c r="F227" s="119"/>
     </row>
-    <row r="228" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A228" s="116" t="s">
         <v>261</v>
       </c>
@@ -14299,13 +14298,13 @@
         <v>866</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1412</v>
+        <v>1423</v>
       </c>
       <c r="D228" s="116" t="s">
         <v>867</v>
       </c>
       <c r="E228" s="120" t="s">
-        <v>868</v>
+        <v>1424</v>
       </c>
       <c r="F228" s="119"/>
     </row>
@@ -14314,16 +14313,16 @@
         <v>382</v>
       </c>
       <c r="B229" s="116" t="s">
+        <v>868</v>
+      </c>
+      <c r="C229" s="117" t="s">
         <v>869</v>
       </c>
-      <c r="C229" s="117" t="s">
+      <c r="D229" s="121" t="s">
         <v>870</v>
       </c>
-      <c r="D229" s="121" t="s">
+      <c r="E229" s="120" t="s">
         <v>871</v>
-      </c>
-      <c r="E229" s="120" t="s">
-        <v>872</v>
       </c>
       <c r="F229" s="119"/>
     </row>
@@ -14332,13 +14331,13 @@
         <v>382</v>
       </c>
       <c r="B230" s="116" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C230" s="117" t="s">
         <v>384</v>
       </c>
       <c r="D230" s="121" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E230" s="120" t="s">
         <v>386</v>
@@ -14350,16 +14349,16 @@
         <v>382</v>
       </c>
       <c r="B231" s="116" t="s">
+        <v>874</v>
+      </c>
+      <c r="C231" s="117" t="s">
         <v>875</v>
       </c>
-      <c r="C231" s="117" t="s">
+      <c r="D231" s="121" t="s">
         <v>876</v>
       </c>
-      <c r="D231" s="121" t="s">
+      <c r="E231" s="120" t="s">
         <v>877</v>
-      </c>
-      <c r="E231" s="120" t="s">
-        <v>878</v>
       </c>
       <c r="F231" s="119"/>
     </row>
@@ -14368,16 +14367,16 @@
         <v>382</v>
       </c>
       <c r="B232" s="116" t="s">
+        <v>878</v>
+      </c>
+      <c r="C232" s="117" t="s">
         <v>879</v>
       </c>
-      <c r="C232" s="117" t="s">
+      <c r="D232" s="121" t="s">
         <v>880</v>
       </c>
-      <c r="D232" s="121" t="s">
+      <c r="E232" s="120" t="s">
         <v>881</v>
-      </c>
-      <c r="E232" s="120" t="s">
-        <v>882</v>
       </c>
       <c r="F232" s="119"/>
     </row>
@@ -14386,16 +14385,16 @@
         <v>382</v>
       </c>
       <c r="B233" s="116" t="s">
+        <v>882</v>
+      </c>
+      <c r="C233" s="117" t="s">
         <v>883</v>
       </c>
-      <c r="C233" s="117" t="s">
+      <c r="D233" s="121" t="s">
         <v>884</v>
       </c>
-      <c r="D233" s="121" t="s">
+      <c r="E233" s="120" t="s">
         <v>885</v>
-      </c>
-      <c r="E233" s="120" t="s">
-        <v>886</v>
       </c>
       <c r="F233" s="119"/>
     </row>
@@ -14404,16 +14403,16 @@
         <v>490</v>
       </c>
       <c r="B234" s="116" t="s">
+        <v>886</v>
+      </c>
+      <c r="C234" s="117" t="s">
         <v>887</v>
       </c>
-      <c r="C234" s="117" t="s">
+      <c r="D234" s="121" t="s">
+        <v>884</v>
+      </c>
+      <c r="E234" s="120" t="s">
         <v>888</v>
-      </c>
-      <c r="D234" s="121" t="s">
-        <v>885</v>
-      </c>
-      <c r="E234" s="120" t="s">
-        <v>889</v>
       </c>
       <c r="F234" s="119"/>
     </row>
@@ -14422,16 +14421,16 @@
         <v>382</v>
       </c>
       <c r="B235" s="116" t="s">
+        <v>889</v>
+      </c>
+      <c r="C235" s="117" t="s">
         <v>890</v>
       </c>
-      <c r="C235" s="117" t="s">
+      <c r="D235" s="121" t="s">
         <v>891</v>
       </c>
-      <c r="D235" s="121" t="s">
+      <c r="E235" s="120" t="s">
         <v>892</v>
-      </c>
-      <c r="E235" s="120" t="s">
-        <v>893</v>
       </c>
       <c r="F235" s="119"/>
     </row>
@@ -14440,13 +14439,13 @@
         <v>382</v>
       </c>
       <c r="B236" s="116" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C236" s="117" t="s">
         <v>317</v>
       </c>
       <c r="D236" s="121" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E236" s="120" t="s">
         <v>319</v>
@@ -14458,16 +14457,16 @@
         <v>382</v>
       </c>
       <c r="B237" s="116" t="s">
+        <v>895</v>
+      </c>
+      <c r="C237" s="117" t="s">
         <v>896</v>
       </c>
-      <c r="C237" s="117" t="s">
+      <c r="D237" s="121" t="s">
         <v>897</v>
       </c>
-      <c r="D237" s="121" t="s">
+      <c r="E237" s="120" t="s">
         <v>898</v>
-      </c>
-      <c r="E237" s="120" t="s">
-        <v>899</v>
       </c>
       <c r="F237" s="119"/>
     </row>
@@ -14476,16 +14475,16 @@
         <v>382</v>
       </c>
       <c r="B238" s="116" t="s">
+        <v>899</v>
+      </c>
+      <c r="C238" s="117" t="s">
         <v>900</v>
       </c>
-      <c r="C238" s="117" t="s">
+      <c r="D238" s="121" t="s">
         <v>901</v>
       </c>
-      <c r="D238" s="121" t="s">
+      <c r="E238" s="120" t="s">
         <v>902</v>
-      </c>
-      <c r="E238" s="120" t="s">
-        <v>903</v>
       </c>
       <c r="F238" s="119"/>
     </row>
@@ -14493,12 +14492,12 @@
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="37"/>
       <c r="F239" s="68" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -15245,6 +15244,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -15255,18 +15266,6 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15277,8 +15276,8 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15314,7 +15313,7 @@
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="174" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
@@ -15326,28 +15325,28 @@
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>907</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>908</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>906</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>910</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>907</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="E4" s="46" t="s">
         <v>911</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15355,7 +15354,7 @@
         <v>732</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>863</v>
@@ -15366,16 +15365,16 @@
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>914</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15383,30 +15382,30 @@
         <v>732</v>
       </c>
       <c r="B7" s="19" t="s">
+        <v>915</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>916</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="E7" s="46" t="s">
         <v>917</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B8" s="92" t="s">
+        <v>918</v>
+      </c>
+      <c r="C8" s="93" t="s">
         <v>919</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>920</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>404</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15414,22 +15413,22 @@
         <v>732</v>
       </c>
       <c r="B9" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>922</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>923</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>925</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>926</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -15440,10 +15439,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -15454,7 +15453,7 @@
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="174" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B12" s="175"/>
       <c r="C12" s="175"/>
@@ -15466,16 +15465,16 @@
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>929</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="5" t="s">
         <v>930</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="46" t="s">
         <v>931</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15483,16 +15482,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>932</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>933</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>934</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="46" t="s">
         <v>935</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15500,16 +15499,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>937</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="D15" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="E15" s="46" t="s">
         <v>938</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>935</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15517,16 +15516,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>939</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="E16" s="46" t="s">
         <v>941</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>935</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15534,16 +15533,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15551,11 +15550,11 @@
         <v>410</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15563,16 +15562,16 @@
         <v>413</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="183" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B20" s="184"/>
       <c r="C20" s="184"/>
@@ -15581,52 +15580,52 @@
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B21" s="91" t="s">
         <v>949</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="C21" s="6" t="s">
         <v>950</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>951</v>
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="81" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="80" t="s">
+        <v>952</v>
+      </c>
+      <c r="B22" s="94" t="s">
         <v>953</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="C22" s="82" t="s">
         <v>954</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>955</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="81" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="80" t="s">
+        <v>956</v>
+      </c>
+      <c r="B23" s="94" t="s">
         <v>957</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="C23" s="82" t="s">
         <v>958</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>959</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="81" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="180" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B24" s="181"/>
       <c r="C24" s="181"/>
@@ -15638,19 +15637,19 @@
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>961</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>962</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>963</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="171" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B26" s="172"/>
       <c r="C26" s="172"/>
@@ -15662,19 +15661,19 @@
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
+        <v>965</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>966</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>967</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="171" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B28" s="172"/>
       <c r="C28" s="172"/>
@@ -15686,53 +15685,53 @@
         <v>243</v>
       </c>
       <c r="B29" s="92" t="s">
+        <v>969</v>
+      </c>
+      <c r="C29" s="93" t="s">
         <v>970</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="D29" s="92" t="s">
         <v>971</v>
       </c>
-      <c r="D29" s="92" t="s">
+      <c r="E29" s="85" t="s">
         <v>972</v>
       </c>
-      <c r="E29" s="85" t="s">
+      <c r="F29" s="71" t="s">
         <v>973</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="94" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B30" s="95" t="s">
+        <v>974</v>
+      </c>
+      <c r="C30" s="96" t="s">
         <v>975</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="D30" s="95" t="s">
         <v>976</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="E30" s="89" t="s">
         <v>977</v>
-      </c>
-      <c r="E30" s="89" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="94" t="s">
+        <v>978</v>
+      </c>
+      <c r="B31" s="95" t="s">
         <v>979</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="C31" s="96" t="s">
         <v>980</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>981</v>
       </c>
       <c r="D31" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E31" s="89" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15740,13 +15739,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>983</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="E32" s="46" t="s">
         <v>984</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15754,16 +15753,16 @@
         <v>37</v>
       </c>
       <c r="B33" s="19" t="s">
+        <v>985</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>986</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="26" t="s">
         <v>987</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="E33" s="46" t="s">
         <v>988</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15771,11 +15770,11 @@
         <v>410</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="18" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15783,11 +15782,11 @@
         <v>410</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15795,16 +15794,16 @@
         <v>413</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="171" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B37" s="172"/>
       <c r="C37" s="172"/>
@@ -15816,16 +15815,16 @@
         <v>243</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>996</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>997</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="D38" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="46" t="s">
         <v>999</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15833,11 +15832,11 @@
         <v>410</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15845,16 +15844,16 @@
         <v>413</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="177" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B41" s="178"/>
       <c r="C41" s="178"/>
@@ -15866,19 +15865,19 @@
         <v>243</v>
       </c>
       <c r="B42" s="116" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>858</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E42" s="46" t="s">
         <v>860</v>
       </c>
       <c r="F42" s="72" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15886,16 +15885,16 @@
         <v>368</v>
       </c>
       <c r="B43" s="116" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="D43" s="116" t="s">
         <v>1008</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="E43" s="46" t="s">
         <v>917</v>
-      </c>
-      <c r="D43" s="116" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15903,16 +15902,16 @@
         <v>261</v>
       </c>
       <c r="B44" s="116" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D44" s="116" t="s">
         <v>1010</v>
       </c>
-      <c r="C44" s="62" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D44" s="116" t="s">
-        <v>1011</v>
-      </c>
       <c r="E44" s="46" t="s">
-        <v>1012</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15920,16 +15919,16 @@
         <v>382</v>
       </c>
       <c r="B45" s="116" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D45" s="121" t="s">
         <v>1013</v>
       </c>
-      <c r="C45" s="21" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D45" s="121" t="s">
-        <v>1015</v>
-      </c>
       <c r="E45" s="46" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15937,16 +15936,16 @@
         <v>382</v>
       </c>
       <c r="B46" s="116" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D46" s="121" t="s">
         <v>1016</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="E46" s="46" t="s">
         <v>1017</v>
-      </c>
-      <c r="D46" s="121" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E46" s="46" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15954,16 +15953,16 @@
         <v>382</v>
       </c>
       <c r="B47" s="116" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D47" s="121" t="s">
         <v>1020</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="E47" s="46" t="s">
         <v>1021</v>
-      </c>
-      <c r="D47" s="121" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E47" s="46" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15971,16 +15970,16 @@
         <v>382</v>
       </c>
       <c r="B48" s="116" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D48" s="121" t="s">
         <v>1024</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="E48" s="46" t="s">
         <v>1025</v>
-      </c>
-      <c r="D48" s="121" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E48" s="46" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15988,16 +15987,16 @@
         <v>382</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C49" s="93" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D49" s="101" t="s">
         <v>404</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -16005,7 +16004,7 @@
         <v>32</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>34</v>
@@ -16016,36 +16015,36 @@
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>1032</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="D51" s="19" t="s">
         <v>1033</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1035</v>
-      </c>
       <c r="F51" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16053,16 +16052,16 @@
         <v>382</v>
       </c>
       <c r="B53" s="116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D53" s="121" t="s">
         <v>1038</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D53" s="121" t="s">
-        <v>1040</v>
-      </c>
       <c r="F53" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16070,16 +16069,16 @@
         <v>382</v>
       </c>
       <c r="B54" s="116" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D54" s="121" t="s">
         <v>1041</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D54" s="121" t="s">
-        <v>1043</v>
-      </c>
       <c r="F54" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -16102,8 +16101,8 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16142,52 +16141,52 @@
         <v>243</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D2" s="136" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="138" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F2" s="135"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="136" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B3" s="136" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D3" s="136" t="s">
         <v>1047</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="E3" s="138" t="s">
         <v>1048</v>
-      </c>
-      <c r="D3" s="136" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E3" s="138" t="s">
-        <v>1050</v>
       </c>
       <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="136" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C4" s="137" t="s">
         <v>1051</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="D4" s="136" t="s">
         <v>1052</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="E4" s="138" t="s">
         <v>1053</v>
-      </c>
-      <c r="D4" s="136" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E4" s="138" t="s">
-        <v>1055</v>
       </c>
       <c r="F4" s="135"/>
     </row>
@@ -16196,11 +16195,11 @@
         <v>410</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="136" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E5" s="138"/>
       <c r="F5" s="135"/>
@@ -16210,84 +16209,84 @@
         <v>413</v>
       </c>
       <c r="B6" s="139" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="136" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E6" s="138"/>
       <c r="F6" s="135"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="136" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D7" s="136" t="s">
         <v>1060</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="E7" s="138" t="s">
         <v>1061</v>
-      </c>
-      <c r="D7" s="136" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>1063</v>
       </c>
       <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B8" s="136" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D8" s="136" t="s">
         <v>1064</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="E8" s="138" t="s">
         <v>1065</v>
-      </c>
-      <c r="D8" s="136" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E8" s="138" t="s">
-        <v>1067</v>
       </c>
       <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B9" s="136" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D9" s="136" t="s">
         <v>1068</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="E9" s="138" t="s">
         <v>1069</v>
-      </c>
-      <c r="D9" s="136" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E9" s="138" t="s">
-        <v>1071</v>
       </c>
       <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B10" s="136" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D10" s="136" t="s">
         <v>1072</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="E10" s="138" t="s">
         <v>1073</v>
-      </c>
-      <c r="D10" s="136" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>1075</v>
       </c>
       <c r="F10" s="135"/>
     </row>
@@ -16296,32 +16295,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="136" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D11" s="136" t="s">
         <v>1076</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D11" s="136" t="s">
-        <v>1078</v>
       </c>
       <c r="E11" s="138"/>
       <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B12" s="136" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D12" s="136" t="s">
         <v>1079</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="E12" s="138" t="s">
         <v>1080</v>
-      </c>
-      <c r="D12" s="136" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E12" s="138" t="s">
-        <v>1082</v>
       </c>
       <c r="F12" s="135"/>
     </row>
@@ -16330,11 +16329,11 @@
         <v>410</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C13" s="138"/>
       <c r="D13" s="136" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="135"/>
@@ -16344,83 +16343,83 @@
         <v>413</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C14" s="138"/>
       <c r="D14" s="136" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E14" s="138"/>
       <c r="F14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B15" s="136" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D15" s="136" t="s">
         <v>1086</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="E15" s="138" t="s">
         <v>1087</v>
-      </c>
-      <c r="D15" s="136" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>1089</v>
       </c>
       <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B16" s="136" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C16" s="137" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D16" s="136" t="s">
         <v>1090</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="E16" s="138" t="s">
         <v>1091</v>
-      </c>
-      <c r="D16" s="136" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E16" s="138" t="s">
-        <v>1093</v>
       </c>
       <c r="F16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B17" s="136" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D17" s="136" t="s">
         <v>1094</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="E17" s="138" t="s">
         <v>1095</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E17" s="138" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B18" s="136" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>1098</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="E18" s="138" t="s">
         <v>1099</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E18" s="138" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -16428,11 +16427,11 @@
         <v>410</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E19" s="138"/>
     </row>
@@ -16441,11 +16440,11 @@
         <v>413</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E20" s="138"/>
     </row>
@@ -16454,29 +16453,29 @@
         <v>413</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E21" s="138"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="136" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B22" s="136" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C22" s="137" t="s">
         <v>1107</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="D22" s="136" t="s">
         <v>1108</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="E22" s="138" t="s">
         <v>1109</v>
-      </c>
-      <c r="D22" s="136" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E22" s="138" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16484,11 +16483,11 @@
         <v>410</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="136" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E23" s="138"/>
     </row>
@@ -16497,11 +16496,11 @@
         <v>413</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="136" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E24" s="138"/>
     </row>
@@ -16510,11 +16509,11 @@
         <v>413</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E25" s="138"/>
     </row>
@@ -16523,38 +16522,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="136" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D26" s="136" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E26" s="138" t="s">
         <v>1118</v>
-      </c>
-      <c r="C26" s="137" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E26" s="138" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="136" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B27" s="136" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D27" s="136" t="s">
         <v>1121</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="E27" s="138" t="s">
         <v>1122</v>
-      </c>
-      <c r="D27" s="136" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E27" s="138" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="186" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B28" s="187"/>
       <c r="C28" s="187"/>
@@ -16566,33 +16565,33 @@
         <v>243</v>
       </c>
       <c r="B29" s="141" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C29" s="142" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="E29" s="143" t="s">
         <v>1127</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1128</v>
-      </c>
-      <c r="E29" s="143" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="144" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C30" s="145" t="s">
         <v>1130</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="D30" s="144" t="s">
         <v>1131</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="E30" s="146" t="s">
         <v>1132</v>
-      </c>
-      <c r="D30" s="144" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16600,11 +16599,11 @@
         <v>410</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E31" s="146"/>
     </row>
@@ -16613,17 +16612,17 @@
         <v>413</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E32" s="146"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="189" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B33" s="190"/>
       <c r="C33" s="191"/>
@@ -16635,121 +16634,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="147" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C34" s="145" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D34" s="50" t="s">
         <v>1138</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="E34" s="146" t="s">
         <v>1139</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>1141</v>
       </c>
       <c r="F34" s="135"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="144" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B35" s="148" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C35" s="145" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D35" s="149" t="s">
         <v>1142</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="E35" s="146" t="s">
         <v>1143</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E35" s="146" t="s">
-        <v>1145</v>
       </c>
       <c r="F35" s="135"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="144" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B36" s="148" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C36" s="145" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D36" s="149" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E36" s="146" t="s">
         <v>1146</v>
-      </c>
-      <c r="C36" s="145" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D36" s="149" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E36" s="146" t="s">
-        <v>1148</v>
       </c>
       <c r="F36" s="135"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="144" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B37" s="148" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D37" s="149" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E37" s="146" t="s">
         <v>1149</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D37" s="149" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E37" s="146" t="s">
-        <v>1151</v>
       </c>
       <c r="F37" s="135"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="144" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B38" s="148" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D38" s="149" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E38" s="146" t="s">
         <v>1152</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D38" s="149" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E38" s="146" t="s">
-        <v>1154</v>
       </c>
       <c r="F38" s="135"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="144" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B39" s="148" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D39" s="149" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E39" s="146" t="s">
         <v>1155</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D39" s="149" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E39" s="146" t="s">
-        <v>1157</v>
       </c>
       <c r="F39" s="135"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="144" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B40" s="148" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="146" t="s">
         <v>95</v>
@@ -16761,11 +16760,11 @@
         <v>410</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="135"/>
@@ -16775,11 +16774,11 @@
         <v>413</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="135"/>
@@ -16789,16 +16788,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="136" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E43" s="146" t="s">
         <v>1161</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E43" s="146" t="s">
-        <v>1163</v>
       </c>
       <c r="F43" s="135"/>
     </row>
@@ -16807,11 +16806,11 @@
         <v>410</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="135"/>
@@ -16821,18 +16820,18 @@
         <v>413</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="135"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="186" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B46" s="187"/>
       <c r="C46" s="187"/>
@@ -16844,53 +16843,53 @@
         <v>243</v>
       </c>
       <c r="B47" s="144" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C47" s="62" t="s">
         <v>858</v>
       </c>
       <c r="D47" s="116" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>860</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="144" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B48" s="144" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>922</v>
+      </c>
+      <c r="D48" s="116" t="s">
         <v>1170</v>
       </c>
-      <c r="B48" s="144" t="s">
+      <c r="E48" s="63" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A49" s="144" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B49" s="144" t="s">
         <v>1171</v>
       </c>
-      <c r="C48" s="62" t="s">
-        <v>923</v>
-      </c>
-      <c r="D48" s="116" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A49" s="144" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B49" s="144" t="s">
-        <v>1173</v>
-      </c>
       <c r="C49" s="62" t="s">
-        <v>1413</v>
+        <v>1423</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1012</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16898,19 +16897,19 @@
         <v>382</v>
       </c>
       <c r="B50" s="136" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C50" s="145" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D50" s="121" t="s">
         <v>1174</v>
       </c>
-      <c r="C50" s="145" t="s">
+      <c r="E50" s="63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F50" s="73" t="s">
         <v>1175</v>
-      </c>
-      <c r="D50" s="121" t="s">
-        <v>1176</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16918,16 +16917,16 @@
         <v>382</v>
       </c>
       <c r="B51" s="136" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C51" s="145" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D51" s="121" t="s">
         <v>1178</v>
       </c>
-      <c r="C51" s="145" t="s">
+      <c r="E51" s="63" t="s">
         <v>1179</v>
-      </c>
-      <c r="D51" s="121" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16935,16 +16934,16 @@
         <v>382</v>
       </c>
       <c r="B52" s="136" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C52" s="145" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D52" s="121" t="s">
         <v>1182</v>
       </c>
-      <c r="C52" s="145" t="s">
+      <c r="E52" s="63" t="s">
         <v>1183</v>
-      </c>
-      <c r="D52" s="121" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16952,16 +16951,16 @@
         <v>382</v>
       </c>
       <c r="B53" s="136" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C53" s="145" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D53" s="121" t="s">
         <v>1186</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="E53" s="63" t="s">
         <v>1187</v>
-      </c>
-      <c r="D53" s="121" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16969,16 +16968,16 @@
         <v>382</v>
       </c>
       <c r="B54" s="136" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C54" s="145" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D54" s="121" t="s">
         <v>1190</v>
       </c>
-      <c r="C54" s="145" t="s">
+      <c r="E54" s="63" t="s">
         <v>1191</v>
-      </c>
-      <c r="D54" s="121" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16986,19 +16985,19 @@
         <v>382</v>
       </c>
       <c r="B55" s="136" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C55" s="145" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D55" s="121" t="s">
         <v>1194</v>
       </c>
-      <c r="C55" s="145" t="s">
+      <c r="E55" s="63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F55" s="73" t="s">
         <v>1195</v>
-      </c>
-      <c r="D55" s="121" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17006,19 +17005,19 @@
         <v>382</v>
       </c>
       <c r="B56" s="136" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C56" s="145" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D56" s="121" t="s">
         <v>1198</v>
       </c>
-      <c r="C56" s="145" t="s">
+      <c r="E56" s="63" t="s">
         <v>1199</v>
       </c>
-      <c r="D56" s="121" t="s">
+      <c r="F56" s="73" t="s">
         <v>1200</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>1201</v>
-      </c>
-      <c r="F56" s="73" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17026,19 +17025,19 @@
         <v>382</v>
       </c>
       <c r="B57" s="136" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C57" s="145" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D57" s="121" t="s">
         <v>1203</v>
       </c>
-      <c r="C57" s="145" t="s">
+      <c r="E57" s="63" t="s">
         <v>1204</v>
       </c>
-      <c r="D57" s="121" t="s">
+      <c r="F57" s="73" t="s">
         <v>1205</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F57" s="73" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -17046,19 +17045,19 @@
         <v>382</v>
       </c>
       <c r="B58" s="136" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D58" s="121" t="s">
         <v>1208</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="E58" s="63" t="s">
         <v>1209</v>
       </c>
-      <c r="D58" s="121" t="s">
+      <c r="F58" s="73" t="s">
         <v>1210</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F58" s="73" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17066,16 +17065,16 @@
         <v>382</v>
       </c>
       <c r="B59" s="136" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C59" s="145" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D59" s="121" t="s">
         <v>1213</v>
       </c>
-      <c r="C59" s="145" t="s">
+      <c r="E59" s="63" t="s">
         <v>1214</v>
-      </c>
-      <c r="D59" s="121" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17083,16 +17082,16 @@
         <v>382</v>
       </c>
       <c r="B60" s="136" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C60" s="145" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D60" s="121" t="s">
         <v>1217</v>
       </c>
-      <c r="C60" s="145" t="s">
+      <c r="E60" s="63" t="s">
         <v>1218</v>
-      </c>
-      <c r="D60" s="121" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17100,16 +17099,16 @@
         <v>382</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C61" s="145" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D61" s="121" t="s">
         <v>1221</v>
       </c>
-      <c r="C61" s="145" t="s">
+      <c r="E61" s="63" t="s">
         <v>1222</v>
-      </c>
-      <c r="D61" s="121" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17117,16 +17116,16 @@
         <v>382</v>
       </c>
       <c r="B62" s="136" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C62" s="145" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D62" s="121" t="s">
         <v>1225</v>
       </c>
-      <c r="C62" s="145" t="s">
+      <c r="E62" s="79" t="s">
         <v>1226</v>
-      </c>
-      <c r="D62" s="121" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E62" s="79" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17134,14 +17133,14 @@
         <v>732</v>
       </c>
       <c r="B63" s="144" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C63" s="145" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D63" s="148"/>
       <c r="E63" s="78" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F63" s="135"/>
     </row>
@@ -17150,14 +17149,14 @@
         <v>732</v>
       </c>
       <c r="B64" s="144" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D64" s="148"/>
       <c r="E64" s="78" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F64" s="135"/>
     </row>
@@ -17166,14 +17165,14 @@
         <v>732</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C65" s="145" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D65" s="148"/>
       <c r="E65" s="78" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F65" s="135"/>
     </row>
@@ -17253,6 +17252,47 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
+      <UserInfo>
+        <DisplayName>Erika Osti</DisplayName>
+        <AccountId>534</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Penny Johnson</DisplayName>
+        <AccountId>489</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Childs</DisplayName>
+        <AccountId>643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas Leeds</DisplayName>
+        <AccountId>459</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kasmyn Chen</DisplayName>
+        <AccountId>532</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096D84A54A9CD274097F17166F184737D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd95a4cfdf4f2f51219070f5dff16a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="565e1b1d-057e-4d85-b896-01a5881d8a45" xmlns:ns3="bf601f31-63a1-4825-9216-91d773c5ef9c" xmlns:ns4="2799d30d-6731-4efe-ac9b-c4895a8828d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7499f6f4dc8ad2a533df04863f63fa7" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17529,47 +17569,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
-      <UserInfo>
-        <DisplayName>Erika Osti</DisplayName>
-        <AccountId>534</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Penny Johnson</DisplayName>
-        <AccountId>489</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Childs</DisplayName>
-        <AccountId>643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas Leeds</DisplayName>
-        <AccountId>459</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kasmyn Chen</DisplayName>
-        <AccountId>532</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
   <ds:schemaRefs>
@@ -17579,6 +17578,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
+    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFDB110-4046-4E72-A1EF-1908ABEC3151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17597,17 +17609,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
-    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3CB76E-8E81-CE4B-9EEF-46C05EF45A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B743BA-F15E-6346-A52E-E8C7756BC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1429">
   <si>
     <r>
       <rPr>
@@ -5476,12 +5476,6 @@
     <t>Neu rhowch god post ysbyty</t>
   </si>
   <si>
-    <t>This certificate will now be sent to the medical examiner office for review and scrutiny.&lt;br /&gt;&lt;br /&gt;A summary of this certificate can be accessed from your dashboard.</t>
-  </si>
-  <si>
-    <t>You will be contacted by the medical examiner office if, following review and scrutiny of the cause of death the medical examiner requests that you amend this MCCD. You must then sign back in to edit the information on this certificate.&lt;br /&gt;&lt;br /&gt;You will be notified by email when the approved certificate is sent to the local register office.</t>
-  </si>
-  <si>
     <t>This death was reported to the coroner whose duty to investigate under s1 CJA2009 was not engaged</t>
   </si>
   <si>
@@ -5656,10 +5650,22 @@
     <t>Gwiriwch fod yr holl fanylion yn gywir cyn parhau.</t>
   </si>
   <si>
-    <t>019</t>
-  </si>
-  <si>
     <t>Tystysgrif feddygol achos gwasanaeth marwolaeth</t>
+  </si>
+  <si>
+    <t>This Medical certificate of cause of death (MCCD) will be sent to your medical examiner office for review and scrutiny.&lt;br /&gt;&lt;br /&gt;This certificate will be available to view from your dashboard for 3 months.</t>
+  </si>
+  <si>
+    <t>You will be contacted by the medical examiner office if, following review and scrutiny of the cause of death the medical examiner requests that you amend this MCCD.</t>
+  </si>
+  <si>
+    <t>Bydd y dystysgrif feddygol hon o achos marwolaeth (MCCD) yn cael ei hanfon at eich swyddfa arholwr meddygol i'w hadolygu a'i chraffu. &lt;br / &gt;&lt;br / &gt;Bydd y dystysgrif hon ar gael i'w gweld o'ch dangosfwrdd am 3 mis.</t>
+  </si>
+  <si>
+    <t>Bydd swyddfa'r arholwr meddygol yn cysylltu â chi os bydd yr arholwr meddygol, yn dilyn adolygiad a chraffu ar achos y farwolaeth, yn gofyn i chi ddiwygio'r MCCD hwn.</t>
+  </si>
+  <si>
+    <t>020</t>
   </si>
 </sst>
 </file>
@@ -6612,6 +6618,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6619,24 +6643,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7861,7 +7867,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8297,8 +8303,8 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8586,7 +8592,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>261</v>
       </c>
@@ -8594,7 +8600,10 @@
         <v>1354</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1365</v>
+        <v>1424</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8611,7 +8620,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>261</v>
       </c>
@@ -8619,7 +8628,10 @@
         <v>1356</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1366</v>
+        <v>1425</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8643,7 +8655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8683,13 +8695,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -8707,7 +8719,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -9762,18 +9774,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>1370</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10074,14 +10086,14 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10090,19 +10102,19 @@
         <v>484</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="159" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -10114,14 +10126,14 @@
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1401</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1403</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10129,14 +10141,14 @@
         <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>1402</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1404</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10357,7 +10369,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>276</v>
@@ -10381,7 +10393,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>280</v>
@@ -10395,13 +10407,13 @@
         <v>281</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>283</v>
@@ -10415,13 +10427,13 @@
         <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>285</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -10432,13 +10444,13 @@
         <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>288</v>
@@ -10640,7 +10652,7 @@
         <v>336</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>337</v>
@@ -10774,17 +10786,17 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="37" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10861,13 +10873,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="162" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10995,13 +11007,13 @@
       <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="165" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11030,13 +11042,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -11048,13 +11060,13 @@
         <v>403</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>404</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -11522,7 +11534,7 @@
         <v>485</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="120" t="s">
@@ -11535,14 +11547,14 @@
         <v>484</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="120" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -11770,7 +11782,7 @@
         <v>522</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -11779,14 +11791,14 @@
         <v>519</v>
       </c>
       <c r="B62" s="116" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C62" s="117" t="s">
         <v>1382</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>1384</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="120" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F62" s="119"/>
     </row>
@@ -13335,13 +13347,13 @@
       <c r="F164" s="119"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="162" t="s">
+      <c r="A165" s="168" t="s">
         <v>765</v>
       </c>
-      <c r="B165" s="163"/>
-      <c r="C165" s="163"/>
-      <c r="D165" s="163"/>
-      <c r="E165" s="164"/>
+      <c r="B165" s="169"/>
+      <c r="C165" s="169"/>
+      <c r="D165" s="169"/>
+      <c r="E165" s="170"/>
       <c r="F165" s="129" t="s">
         <v>766</v>
       </c>
@@ -13768,13 +13780,13 @@
         <v>815</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D193" s="116" t="s">
         <v>816</v>
       </c>
       <c r="E193" s="120" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F193" s="119"/>
     </row>
@@ -13783,14 +13795,14 @@
         <v>484</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D194" s="116"/>
       <c r="E194" s="120" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -13890,11 +13902,11 @@
         <v>827</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="D201" s="116"/>
       <c r="E201" s="120" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F201" s="119"/>
     </row>
@@ -13903,7 +13915,7 @@
         <v>734</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C202" s="117" t="s">
         <v>43</v>
@@ -13919,14 +13931,14 @@
         <v>32</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C203" s="134" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D203" s="116"/>
       <c r="E203" s="120" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F203" s="119"/>
     </row>
@@ -14298,13 +14310,13 @@
         <v>866</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D228" s="116" t="s">
         <v>867</v>
       </c>
       <c r="E228" s="120" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="F228" s="119"/>
     </row>
@@ -15244,18 +15256,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -15266,6 +15266,18 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15536,13 +15548,13 @@
         <v>942</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>934</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15905,13 +15917,13 @@
         <v>1009</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D44" s="116" t="s">
         <v>1010</v>
       </c>
       <c r="E44" s="46" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16791,7 +16803,7 @@
         <v>1159</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>1160</v>
@@ -16883,13 +16895,13 @@
         <v>1171</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D49" s="116" t="s">
         <v>1010</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17252,47 +17264,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
-      <UserInfo>
-        <DisplayName>Erika Osti</DisplayName>
-        <AccountId>534</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Penny Johnson</DisplayName>
-        <AccountId>489</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Childs</DisplayName>
-        <AccountId>643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas Leeds</DisplayName>
-        <AccountId>459</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kasmyn Chen</DisplayName>
-        <AccountId>532</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096D84A54A9CD274097F17166F184737D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd95a4cfdf4f2f51219070f5dff16a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="565e1b1d-057e-4d85-b896-01a5881d8a45" xmlns:ns3="bf601f31-63a1-4825-9216-91d773c5ef9c" xmlns:ns4="2799d30d-6731-4efe-ac9b-c4895a8828d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7499f6f4dc8ad2a533df04863f63fa7" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17569,6 +17540,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
+      <UserInfo>
+        <DisplayName>Erika Osti</DisplayName>
+        <AccountId>534</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Penny Johnson</DisplayName>
+        <AccountId>489</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Childs</DisplayName>
+        <AccountId>643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas Leeds</DisplayName>
+        <AccountId>459</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kasmyn Chen</DisplayName>
+        <AccountId>532</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
   <ds:schemaRefs>
@@ -17578,19 +17590,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
-    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFDB110-4046-4E72-A1EF-1908ABEC3151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17609,4 +17608,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
+    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B743BA-F15E-6346-A52E-E8C7756BC73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79C97E6-962A-D44F-AF01-A47279EECD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2135" uniqueCount="1429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="1432">
   <si>
     <r>
       <rPr>
@@ -4200,12 +4200,6 @@
     <t>implantsPagePara</t>
   </si>
   <si>
-    <t>In some cases, it may be difficult to know with certainty all of the implantable medical devices that the deceased had fitted. Enter details of any implants using the records and information that you have available.</t>
-  </si>
-  <si>
-    <t>Mewn rhai achosion, gall fod yn anodd gwybod yn bendant am yr holl ddyfeisiau meddygol mewnblanadwy yr oedd yr ymadawedig wedi’u gosod. Rhowch fanylion unrhyw fewnblaniadau gan ddefnyddio'r cofnodion a'r wybodaeth sydd ar gael i chi.</t>
-  </si>
-  <si>
     <t>implantsYesDetails</t>
   </si>
   <si>
@@ -5665,7 +5659,22 @@
     <t>Bydd swyddfa'r arholwr meddygol yn cysylltu â chi os bydd yr arholwr meddygol, yn dilyn adolygiad a chraffu ar achos y farwolaeth, yn gofyn i chi ddiwygio'r MCCD hwn.</t>
   </si>
   <si>
-    <t>020</t>
+    <t>In some cases, it may be difficult to know with certainty all the implantable medical devices the deceased had fitted. Enter details of any implants using the records and information that you have available.</t>
+  </si>
+  <si>
+    <t>Mewn rhai achosion, gall fod yn anodd gwybod yn sicr yr holl ddyfeisiau meddygol mewnblannu yr oedd yr ymadawedig wedi'u ffitio. Rhowch fanylion unrhyw fewnblaniadau gan ddefnyddio'r cofnodion a'r wybodaeth sydd gennych ar gael.</t>
+  </si>
+  <si>
+    <t>implantsPageParaBilingual</t>
+  </si>
+  <si>
+    <t>You must enter details in English and Welsh, or in English only.</t>
+  </si>
+  <si>
+    <t>Rhaid i chi roi manylion yn Gymraeg a Saesneg, neu yn Saesneg yn unig.</t>
+  </si>
+  <si>
+    <t>021</t>
   </si>
 </sst>
 </file>
@@ -6618,6 +6627,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6634,15 +6652,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7686,16 +7695,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="68" t="s">
         <v>1233</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7703,13 +7712,13 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>910</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>911</v>
@@ -7720,13 +7729,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>863</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>865</v>
@@ -7734,36 +7743,36 @@
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7771,13 +7780,13 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>913</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>914</v>
@@ -7788,7 +7797,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>916</v>
@@ -7800,10 +7809,10 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>922</v>
@@ -7815,22 +7824,22 @@
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1247</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="74" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7907,33 +7916,33 @@
         <v>243</v>
       </c>
       <c r="B2" s="92" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>1252</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="E2" s="85" t="s">
         <v>1253</v>
-      </c>
-      <c r="D2" s="92" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>1256</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="D3" s="95" t="s">
         <v>1257</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="E3" s="89" t="s">
         <v>1258</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7941,16 +7950,16 @@
         <v>758</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7958,13 +7967,13 @@
         <v>410</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E5" s="89" t="s">
         <v>404</v>
@@ -7975,13 +7984,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>404</v>
@@ -8009,33 +8018,33 @@
         <v>243</v>
       </c>
       <c r="B8" s="95" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D8" s="95" t="s">
         <v>1268</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="E8" s="89" t="s">
         <v>1269</v>
-      </c>
-      <c r="D8" s="95" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B9" s="95" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>1272</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="E9" s="89" t="s">
         <v>1273</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8043,10 +8052,10 @@
         <v>758</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>404</v>
@@ -8060,13 +8069,13 @@
         <v>410</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>404</v>
@@ -8077,13 +8086,13 @@
         <v>413</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>404</v>
@@ -8111,13 +8120,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="95" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>1280</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D14" s="95" t="s">
-        <v>1282</v>
       </c>
       <c r="E14" s="89" t="s">
         <v>404</v>
@@ -8125,19 +8134,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B15" s="95" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D15" s="95" t="s">
         <v>1283</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="E15" s="89" t="s">
         <v>1284</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8145,13 +8154,13 @@
         <v>410</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C16" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>404</v>
@@ -8162,13 +8171,13 @@
         <v>413</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C17" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>404</v>
@@ -8179,16 +8188,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D18" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8213,13 +8222,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>404</v>
@@ -8227,16 +8236,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B21" s="95" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D21" s="95" t="s">
         <v>1294</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>1295</v>
-      </c>
-      <c r="D21" s="95" t="s">
-        <v>1296</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>404</v>
@@ -8247,10 +8256,10 @@
         <v>758</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>404</v>
@@ -8264,13 +8273,13 @@
         <v>410</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C23" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E23" s="89" t="s">
         <v>404</v>
@@ -8281,13 +8290,13 @@
         <v>413</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C24" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>404</v>
@@ -8340,7 +8349,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="193" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B2" s="194"/>
       <c r="C2" s="194"/>
@@ -8353,16 +8362,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>1302</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8370,13 +8379,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>1305</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8384,13 +8393,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>1308</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8398,13 +8407,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E6" s="37" t="s">
         <v>1311</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8412,112 +8421,112 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>1314</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>1317</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="37" t="s">
         <v>1318</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="37" t="s">
         <v>1322</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1325</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>1328</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>1331</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>1334</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8525,14 +8534,14 @@
         <v>952</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8540,34 +8549,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C17" s="75" t="s">
         <v>1346</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>1348</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="193" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
@@ -8580,16 +8589,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -8597,13 +8606,13 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C20" s="59" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>1424</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8611,13 +8620,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8625,13 +8634,13 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E22" s="37" t="s">
         <v>1425</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8655,7 +8664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8695,13 +8704,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -8719,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -9774,18 +9783,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>1368</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10086,14 +10095,14 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10102,19 +10111,19 @@
         <v>484</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="159" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -10126,14 +10135,14 @@
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>1399</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1401</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10141,14 +10150,14 @@
         <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>1400</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1402</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10369,7 +10378,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>276</v>
@@ -10393,7 +10402,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>280</v>
@@ -10407,13 +10416,13 @@
         <v>281</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>283</v>
@@ -10427,13 +10436,13 @@
         <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>285</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -10444,13 +10453,13 @@
         <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>288</v>
@@ -10652,7 +10661,7 @@
         <v>336</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>337</v>
@@ -10786,17 +10795,17 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="37" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10873,13 +10882,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11007,13 +11016,13 @@
       <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="168" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11042,13 +11051,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -11060,13 +11069,13 @@
         <v>403</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>404</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -11534,7 +11543,7 @@
         <v>485</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="120" t="s">
@@ -11547,14 +11556,14 @@
         <v>484</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="120" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -11782,7 +11791,7 @@
         <v>522</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -11791,14 +11800,14 @@
         <v>519</v>
       </c>
       <c r="B62" s="116" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C62" s="117" t="s">
         <v>1380</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>1382</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="120" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F62" s="119"/>
     </row>
@@ -12984,7 +12993,7 @@
         <v>710</v>
       </c>
       <c r="C141" s="113" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D141" s="122" t="s">
         <v>711</v>
@@ -13074,7 +13083,7 @@
         <v>725</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D147" s="116" t="s">
         <v>726</v>
@@ -13105,14 +13114,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="116" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C149" s="59" t="s">
         <v>1359</v>
-      </c>
-      <c r="C149" s="59" t="s">
-        <v>1361</v>
       </c>
       <c r="D149" s="116"/>
       <c r="E149" s="120" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F149" s="119"/>
     </row>
@@ -13121,14 +13130,14 @@
         <v>37</v>
       </c>
       <c r="B150" s="116" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C150" s="59" t="s">
         <v>1360</v>
-      </c>
-      <c r="C150" s="59" t="s">
-        <v>1362</v>
       </c>
       <c r="D150" s="116"/>
       <c r="E150" s="120" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="F150" s="119"/>
     </row>
@@ -13347,13 +13356,13 @@
       <c r="F164" s="119"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="168" t="s">
+      <c r="A165" s="162" t="s">
         <v>765</v>
       </c>
-      <c r="B165" s="169"/>
-      <c r="C165" s="169"/>
-      <c r="D165" s="169"/>
-      <c r="E165" s="170"/>
+      <c r="B165" s="163"/>
+      <c r="C165" s="163"/>
+      <c r="D165" s="163"/>
+      <c r="E165" s="164"/>
       <c r="F165" s="129" t="s">
         <v>766</v>
       </c>
@@ -13780,13 +13789,13 @@
         <v>815</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D193" s="116" t="s">
         <v>816</v>
       </c>
       <c r="E193" s="120" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F193" s="119"/>
     </row>
@@ -13795,14 +13804,14 @@
         <v>484</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D194" s="116"/>
       <c r="E194" s="120" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -13902,11 +13911,11 @@
         <v>827</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D201" s="116"/>
       <c r="E201" s="120" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F201" s="119"/>
     </row>
@@ -13915,7 +13924,7 @@
         <v>734</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C202" s="117" t="s">
         <v>43</v>
@@ -13931,14 +13940,14 @@
         <v>32</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C203" s="134" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D203" s="116"/>
       <c r="E203" s="120" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F203" s="119"/>
     </row>
@@ -14310,13 +14319,13 @@
         <v>866</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D228" s="116" t="s">
         <v>867</v>
       </c>
       <c r="E228" s="120" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F228" s="119"/>
     </row>
@@ -15256,6 +15265,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -15266,18 +15287,6 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15285,11 +15294,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7FE5E2-8B99-45DF-8804-30523FDA4B3A}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15548,13 +15557,13 @@
         <v>942</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>934</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15746,7 +15755,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>261</v>
       </c>
@@ -15754,227 +15763,224 @@
         <v>982</v>
       </c>
       <c r="C32" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>983</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="C34" s="21" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="D34" s="26" t="s">
         <v>985</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="E34" s="46" t="s">
         <v>986</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>987</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>989</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="18" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>410</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>991</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="18" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="171" t="s">
+        <v>993</v>
+      </c>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="173"/>
+    </row>
+    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="171" t="s">
+      <c r="C39" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="B37" s="172"/>
-      <c r="C37" s="172"/>
-      <c r="D37" s="172"/>
-      <c r="E37" s="173"/>
-    </row>
-    <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="19" t="s">
+      <c r="D39" s="5" t="s">
         <v>996</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="E39" s="46" t="s">
         <v>997</v>
       </c>
-      <c r="D38" s="5" t="s">
+    </row>
+    <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40" s="28" t="s">
         <v>998</v>
-      </c>
-      <c r="E38" s="46" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="18" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>1002</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="177" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="18" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="177" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B42" s="178"/>
+      <c r="C42" s="178"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="179"/>
+    </row>
+    <row r="43" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="A43" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="116" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>858</v>
+      </c>
+      <c r="D43" s="116" t="s">
         <v>1003</v>
       </c>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="179"/>
-    </row>
-    <row r="42" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A42" s="116" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" s="116" t="s">
+      <c r="E43" s="46" t="s">
+        <v>860</v>
+      </c>
+      <c r="F43" s="72" t="s">
         <v>1004</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>858</v>
-      </c>
-      <c r="D42" s="116" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A44" s="116" t="s">
+        <v>368</v>
+      </c>
+      <c r="B44" s="116" t="s">
         <v>1005</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>860</v>
-      </c>
-      <c r="F42" s="72" t="s">
+      <c r="C44" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="D44" s="116" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A43" s="116" t="s">
-        <v>368</v>
-      </c>
-      <c r="B43" s="116" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>916</v>
-      </c>
-      <c r="D43" s="116" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E43" s="46" t="s">
+      <c r="E44" s="46" t="s">
         <v>917</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="116" t="s">
-        <v>261</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D44" s="116" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="116" t="s">
-        <v>382</v>
+        <v>261</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D45" s="121" t="s">
-        <v>1013</v>
+        <v>1007</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D45" s="116" t="s">
+        <v>1008</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="116" t="s">
         <v>382</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="D46" s="121" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="E46" s="46" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="116" t="s">
         <v>382</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D47" s="121" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15982,95 +15988,95 @@
         <v>382</v>
       </c>
       <c r="B48" s="116" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D48" s="121" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E48" s="46" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A49" s="116" t="s">
+        <v>382</v>
+      </c>
+      <c r="B49" s="116" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D49" s="121" t="s">
         <v>1022</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="E49" s="46" t="s">
         <v>1023</v>
       </c>
-      <c r="D48" s="121" t="s">
+    </row>
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" s="92" t="s">
         <v>1024</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="C50" s="93" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="B49" s="92" t="s">
+      <c r="D50" s="101" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" s="85" t="s">
         <v>1026</v>
       </c>
-      <c r="C49" s="93" t="s">
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>1027</v>
       </c>
-      <c r="D49" s="101" t="s">
-        <v>404</v>
-      </c>
-      <c r="E49" s="85" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C50" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E51" s="46" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F51" s="71" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>1035</v>
-      </c>
       <c r="D52" s="19" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F52" s="71" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A53" s="116" t="s">
-        <v>382</v>
-      </c>
-      <c r="B53" s="116" t="s">
-        <v>1036</v>
+      <c r="A53" s="19" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>1032</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D53" s="121" t="s">
-        <v>1038</v>
+        <v>1033</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>1031</v>
       </c>
       <c r="F53" s="71" t="s">
         <v>904</v>
@@ -16081,24 +16087,41 @@
         <v>382</v>
       </c>
       <c r="B54" s="116" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D54" s="121" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F54" s="71" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="116" t="s">
+        <v>382</v>
+      </c>
+      <c r="B55" s="116" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D55" s="121" t="s">
         <v>1039</v>
       </c>
-      <c r="C54" s="21" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D54" s="121" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F54" s="71" t="s">
+      <c r="F55" s="71" t="s">
         <v>904</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A26:E26"/>
@@ -16153,16 +16176,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="136" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D2" s="136" t="s">
         <v>246</v>
       </c>
       <c r="E2" s="138" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F2" s="135"/>
     </row>
@@ -16171,34 +16194,34 @@
         <v>952</v>
       </c>
       <c r="B3" s="136" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D3" s="136" t="s">
         <v>1045</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="E3" s="138" t="s">
         <v>1046</v>
-      </c>
-      <c r="D3" s="136" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E3" s="138" t="s">
-        <v>1048</v>
       </c>
       <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B4" s="136" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C4" s="137" t="s">
         <v>1049</v>
       </c>
-      <c r="B4" s="136" t="s">
+      <c r="D4" s="136" t="s">
         <v>1050</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="E4" s="138" t="s">
         <v>1051</v>
-      </c>
-      <c r="D4" s="136" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E4" s="138" t="s">
-        <v>1053</v>
       </c>
       <c r="F4" s="135"/>
     </row>
@@ -16207,11 +16230,11 @@
         <v>410</v>
       </c>
       <c r="B5" s="139" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="136" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E5" s="138"/>
       <c r="F5" s="135"/>
@@ -16221,84 +16244,84 @@
         <v>413</v>
       </c>
       <c r="B6" s="139" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="136" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E6" s="138"/>
       <c r="F6" s="135"/>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B7" s="136" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D7" s="136" t="s">
         <v>1058</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="E7" s="138" t="s">
         <v>1059</v>
-      </c>
-      <c r="D7" s="136" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E7" s="138" t="s">
-        <v>1061</v>
       </c>
       <c r="F7" s="135"/>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B8" s="136" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D8" s="136" t="s">
         <v>1062</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="E8" s="138" t="s">
         <v>1063</v>
-      </c>
-      <c r="D8" s="136" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E8" s="138" t="s">
-        <v>1065</v>
       </c>
       <c r="F8" s="135"/>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B9" s="136" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D9" s="136" t="s">
         <v>1066</v>
       </c>
-      <c r="C9" s="137" t="s">
+      <c r="E9" s="138" t="s">
         <v>1067</v>
-      </c>
-      <c r="D9" s="136" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E9" s="138" t="s">
-        <v>1069</v>
       </c>
       <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B10" s="136" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D10" s="136" t="s">
         <v>1070</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="E10" s="138" t="s">
         <v>1071</v>
-      </c>
-      <c r="D10" s="136" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E10" s="138" t="s">
-        <v>1073</v>
       </c>
       <c r="F10" s="135"/>
     </row>
@@ -16307,32 +16330,32 @@
         <v>254</v>
       </c>
       <c r="B11" s="136" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D11" s="136" t="s">
         <v>1074</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D11" s="136" t="s">
-        <v>1076</v>
       </c>
       <c r="E11" s="138"/>
       <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B12" s="136" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D12" s="136" t="s">
         <v>1077</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="E12" s="138" t="s">
         <v>1078</v>
-      </c>
-      <c r="D12" s="136" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E12" s="138" t="s">
-        <v>1080</v>
       </c>
       <c r="F12" s="135"/>
     </row>
@@ -16341,11 +16364,11 @@
         <v>410</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C13" s="138"/>
       <c r="D13" s="136" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E13" s="138"/>
       <c r="F13" s="135"/>
@@ -16355,83 +16378,83 @@
         <v>413</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C14" s="138"/>
       <c r="D14" s="136" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E14" s="138"/>
       <c r="F14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B15" s="136" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C15" s="137" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D15" s="136" t="s">
         <v>1084</v>
       </c>
-      <c r="C15" s="137" t="s">
+      <c r="E15" s="138" t="s">
         <v>1085</v>
-      </c>
-      <c r="D15" s="136" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>1087</v>
       </c>
       <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B16" s="136" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C16" s="137" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D16" s="136" t="s">
         <v>1088</v>
       </c>
-      <c r="C16" s="137" t="s">
+      <c r="E16" s="138" t="s">
         <v>1089</v>
-      </c>
-      <c r="D16" s="136" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E16" s="138" t="s">
-        <v>1091</v>
       </c>
       <c r="F16" s="135"/>
     </row>
     <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B17" s="136" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C17" s="137" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D17" s="136" t="s">
         <v>1092</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="E17" s="138" t="s">
         <v>1093</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E17" s="138" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B18" s="136" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>1096</v>
       </c>
-      <c r="C18" s="137" t="s">
+      <c r="E18" s="138" t="s">
         <v>1097</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E18" s="138" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -16439,11 +16462,11 @@
         <v>410</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E19" s="138"/>
     </row>
@@ -16452,11 +16475,11 @@
         <v>413</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E20" s="138"/>
     </row>
@@ -16465,29 +16488,29 @@
         <v>413</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E21" s="138"/>
     </row>
     <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A22" s="136" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B22" s="136" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C22" s="137" t="s">
         <v>1105</v>
       </c>
-      <c r="B22" s="136" t="s">
+      <c r="D22" s="136" t="s">
         <v>1106</v>
       </c>
-      <c r="C22" s="137" t="s">
+      <c r="E22" s="138" t="s">
         <v>1107</v>
-      </c>
-      <c r="D22" s="136" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E22" s="138" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16495,11 +16518,11 @@
         <v>410</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="136" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E23" s="138"/>
     </row>
@@ -16508,11 +16531,11 @@
         <v>413</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="136" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="E24" s="138"/>
     </row>
@@ -16521,11 +16544,11 @@
         <v>413</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E25" s="138"/>
     </row>
@@ -16534,38 +16557,38 @@
         <v>254</v>
       </c>
       <c r="B26" s="136" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D26" s="136" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E26" s="138" t="s">
         <v>1116</v>
-      </c>
-      <c r="C26" s="137" t="s">
-        <v>1117</v>
-      </c>
-      <c r="D26" s="136" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E26" s="138" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="136" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B27" s="136" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D27" s="136" t="s">
         <v>1119</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="E27" s="138" t="s">
         <v>1120</v>
-      </c>
-      <c r="D27" s="136" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E27" s="138" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="186" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B28" s="187"/>
       <c r="C28" s="187"/>
@@ -16577,33 +16600,33 @@
         <v>243</v>
       </c>
       <c r="B29" s="141" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C29" s="142" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="E29" s="143" t="s">
         <v>1125</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E29" s="143" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="144" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B30" s="144" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C30" s="145" t="s">
         <v>1128</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="D30" s="144" t="s">
         <v>1129</v>
       </c>
-      <c r="C30" s="145" t="s">
+      <c r="E30" s="146" t="s">
         <v>1130</v>
-      </c>
-      <c r="D30" s="144" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -16611,11 +16634,11 @@
         <v>410</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E31" s="146"/>
     </row>
@@ -16624,17 +16647,17 @@
         <v>413</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E32" s="146"/>
     </row>
     <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="189" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B33" s="190"/>
       <c r="C33" s="191"/>
@@ -16646,121 +16669,121 @@
         <v>243</v>
       </c>
       <c r="B34" s="147" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C34" s="145" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D34" s="50" t="s">
         <v>1136</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="E34" s="146" t="s">
         <v>1137</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>1139</v>
       </c>
       <c r="F34" s="135"/>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B35" s="148" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C35" s="145" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D35" s="149" t="s">
         <v>1140</v>
       </c>
-      <c r="C35" s="145" t="s">
+      <c r="E35" s="146" t="s">
         <v>1141</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E35" s="146" t="s">
-        <v>1143</v>
       </c>
       <c r="F35" s="135"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B36" s="148" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C36" s="145" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D36" s="149" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E36" s="146" t="s">
         <v>1144</v>
-      </c>
-      <c r="C36" s="145" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D36" s="149" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E36" s="146" t="s">
-        <v>1146</v>
       </c>
       <c r="F36" s="135"/>
     </row>
     <row r="37" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B37" s="148" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D37" s="149" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E37" s="146" t="s">
         <v>1147</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D37" s="149" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E37" s="146" t="s">
-        <v>1149</v>
       </c>
       <c r="F37" s="135"/>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B38" s="148" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D38" s="149" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E38" s="146" t="s">
         <v>1150</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D38" s="149" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E38" s="146" t="s">
-        <v>1152</v>
       </c>
       <c r="F38" s="135"/>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B39" s="148" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D39" s="149" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E39" s="146" t="s">
         <v>1153</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D39" s="149" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E39" s="146" t="s">
-        <v>1155</v>
       </c>
       <c r="F39" s="135"/>
     </row>
     <row r="40" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="144" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B40" s="148" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C40" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D40" s="149" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E40" s="146" t="s">
         <v>95</v>
@@ -16772,11 +16795,11 @@
         <v>410</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C41" s="51"/>
       <c r="D41" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E41" s="146"/>
       <c r="F41" s="135"/>
@@ -16786,11 +16809,11 @@
         <v>413</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C42" s="27"/>
       <c r="D42" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E42" s="146"/>
       <c r="F42" s="135"/>
@@ -16800,16 +16823,16 @@
         <v>243</v>
       </c>
       <c r="B43" s="136" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E43" s="146" t="s">
         <v>1159</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E43" s="146" t="s">
-        <v>1161</v>
       </c>
       <c r="F43" s="135"/>
     </row>
@@ -16818,11 +16841,11 @@
         <v>410</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="135"/>
@@ -16832,18 +16855,18 @@
         <v>413</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C45" s="27"/>
       <c r="D45" s="18" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="135"/>
     </row>
     <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="186" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B46" s="187"/>
       <c r="C46" s="187"/>
@@ -16855,33 +16878,33 @@
         <v>243</v>
       </c>
       <c r="B47" s="144" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C47" s="62" t="s">
         <v>858</v>
       </c>
       <c r="D47" s="116" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>860</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="144" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B48" s="144" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>922</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E48" s="63" t="s">
         <v>923</v>
@@ -16889,19 +16912,19 @@
     </row>
     <row r="49" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="144" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B49" s="144" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E49" s="63" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16909,19 +16932,19 @@
         <v>382</v>
       </c>
       <c r="B50" s="136" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C50" s="145" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D50" s="121" t="s">
         <v>1172</v>
       </c>
-      <c r="C50" s="145" t="s">
+      <c r="E50" s="63" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F50" s="73" t="s">
         <v>1173</v>
-      </c>
-      <c r="D50" s="121" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16929,16 +16952,16 @@
         <v>382</v>
       </c>
       <c r="B51" s="136" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C51" s="145" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D51" s="121" t="s">
         <v>1176</v>
       </c>
-      <c r="C51" s="145" t="s">
+      <c r="E51" s="63" t="s">
         <v>1177</v>
-      </c>
-      <c r="D51" s="121" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E51" s="63" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16946,16 +16969,16 @@
         <v>382</v>
       </c>
       <c r="B52" s="136" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C52" s="145" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D52" s="121" t="s">
         <v>1180</v>
       </c>
-      <c r="C52" s="145" t="s">
+      <c r="E52" s="63" t="s">
         <v>1181</v>
-      </c>
-      <c r="D52" s="121" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E52" s="63" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -16963,16 +16986,16 @@
         <v>382</v>
       </c>
       <c r="B53" s="136" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C53" s="145" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D53" s="121" t="s">
         <v>1184</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="E53" s="63" t="s">
         <v>1185</v>
-      </c>
-      <c r="D53" s="121" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E53" s="63" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -16980,16 +17003,16 @@
         <v>382</v>
       </c>
       <c r="B54" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C54" s="145" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D54" s="121" t="s">
         <v>1188</v>
       </c>
-      <c r="C54" s="145" t="s">
+      <c r="E54" s="63" t="s">
         <v>1189</v>
-      </c>
-      <c r="D54" s="121" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E54" s="63" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -16997,19 +17020,19 @@
         <v>382</v>
       </c>
       <c r="B55" s="136" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C55" s="145" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D55" s="121" t="s">
         <v>1192</v>
       </c>
-      <c r="C55" s="145" t="s">
+      <c r="E55" s="63" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F55" s="73" t="s">
         <v>1193</v>
-      </c>
-      <c r="D55" s="121" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E55" s="63" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17017,19 +17040,19 @@
         <v>382</v>
       </c>
       <c r="B56" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C56" s="145" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D56" s="121" t="s">
         <v>1196</v>
       </c>
-      <c r="C56" s="145" t="s">
+      <c r="E56" s="63" t="s">
         <v>1197</v>
       </c>
-      <c r="D56" s="121" t="s">
+      <c r="F56" s="73" t="s">
         <v>1198</v>
-      </c>
-      <c r="E56" s="63" t="s">
-        <v>1199</v>
-      </c>
-      <c r="F56" s="73" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17037,19 +17060,19 @@
         <v>382</v>
       </c>
       <c r="B57" s="136" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C57" s="145" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D57" s="121" t="s">
         <v>1201</v>
       </c>
-      <c r="C57" s="145" t="s">
+      <c r="E57" s="63" t="s">
         <v>1202</v>
       </c>
-      <c r="D57" s="121" t="s">
+      <c r="F57" s="73" t="s">
         <v>1203</v>
-      </c>
-      <c r="E57" s="63" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F57" s="73" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -17057,19 +17080,19 @@
         <v>382</v>
       </c>
       <c r="B58" s="136" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C58" s="145" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D58" s="121" t="s">
         <v>1206</v>
       </c>
-      <c r="C58" s="145" t="s">
+      <c r="E58" s="63" t="s">
         <v>1207</v>
       </c>
-      <c r="D58" s="121" t="s">
+      <c r="F58" s="73" t="s">
         <v>1208</v>
-      </c>
-      <c r="E58" s="63" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F58" s="73" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17077,16 +17100,16 @@
         <v>382</v>
       </c>
       <c r="B59" s="136" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C59" s="145" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D59" s="121" t="s">
         <v>1211</v>
       </c>
-      <c r="C59" s="145" t="s">
+      <c r="E59" s="63" t="s">
         <v>1212</v>
-      </c>
-      <c r="D59" s="121" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17094,16 +17117,16 @@
         <v>382</v>
       </c>
       <c r="B60" s="136" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C60" s="145" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D60" s="121" t="s">
         <v>1215</v>
       </c>
-      <c r="C60" s="145" t="s">
+      <c r="E60" s="63" t="s">
         <v>1216</v>
-      </c>
-      <c r="D60" s="121" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E60" s="63" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17111,16 +17134,16 @@
         <v>382</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C61" s="145" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D61" s="121" t="s">
         <v>1219</v>
       </c>
-      <c r="C61" s="145" t="s">
+      <c r="E61" s="63" t="s">
         <v>1220</v>
-      </c>
-      <c r="D61" s="121" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17128,16 +17151,16 @@
         <v>382</v>
       </c>
       <c r="B62" s="136" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C62" s="145" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D62" s="121" t="s">
         <v>1223</v>
       </c>
-      <c r="C62" s="145" t="s">
+      <c r="E62" s="79" t="s">
         <v>1224</v>
-      </c>
-      <c r="D62" s="121" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E62" s="79" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -17145,14 +17168,14 @@
         <v>732</v>
       </c>
       <c r="B63" s="144" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C63" s="145" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D63" s="148"/>
       <c r="E63" s="78" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F63" s="135"/>
     </row>
@@ -17161,14 +17184,14 @@
         <v>732</v>
       </c>
       <c r="B64" s="144" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D64" s="148"/>
       <c r="E64" s="78" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F64" s="135"/>
     </row>
@@ -17177,14 +17200,14 @@
         <v>732</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C65" s="145" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D65" s="148"/>
       <c r="E65" s="78" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F65" s="135"/>
     </row>
@@ -17264,6 +17287,47 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
+      <UserInfo>
+        <DisplayName>Erika Osti</DisplayName>
+        <AccountId>534</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Penny Johnson</DisplayName>
+        <AccountId>489</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Childs</DisplayName>
+        <AccountId>643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas Leeds</DisplayName>
+        <AccountId>459</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kasmyn Chen</DisplayName>
+        <AccountId>532</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096D84A54A9CD274097F17166F184737D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd95a4cfdf4f2f51219070f5dff16a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="565e1b1d-057e-4d85-b896-01a5881d8a45" xmlns:ns3="bf601f31-63a1-4825-9216-91d773c5ef9c" xmlns:ns4="2799d30d-6731-4efe-ac9b-c4895a8828d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7499f6f4dc8ad2a533df04863f63fa7" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17540,47 +17604,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
-      <UserInfo>
-        <DisplayName>Erika Osti</DisplayName>
-        <AccountId>534</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Penny Johnson</DisplayName>
-        <AccountId>489</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Childs</DisplayName>
-        <AccountId>643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas Leeds</DisplayName>
-        <AccountId>459</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kasmyn Chen</DisplayName>
-        <AccountId>532</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
   <ds:schemaRefs>
@@ -17590,6 +17613,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
+    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFDB110-4046-4E72-A1EF-1908ABEC3151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17608,17 +17644,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
-    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79C97E6-962A-D44F-AF01-A47279EECD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96718BD-0164-9B41-9958-BEA6AF86793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="1432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="1436">
   <si>
     <r>
       <rPr>
@@ -5674,7 +5674,19 @@
     <t>Rhaid i chi roi manylion yn Gymraeg a Saesneg, neu yn Saesneg yn unig.</t>
   </si>
   <si>
-    <t>021</t>
+    <t>Not known</t>
+  </si>
+  <si>
+    <t>Ddim yn hysbys</t>
+  </si>
+  <si>
+    <t>Select the ethnicity of the deceased person as it is recorded on the patient record. If there is no match with the list, or no ethnicity is recorded on the patient record, select 'not known'.</t>
+  </si>
+  <si>
+    <t>Dewiswch ethnigrwydd yr ymadawedig gan ei fod wedi'i gofnodi ar y cofnod cleifion. Os nad oes unrhyw gyd-fynd â'r rhestr, neu os nad oes unrhyw ethnigrwydd yn cael ei gofnodi ar y cofnod claf, dewiswch 'ddim yn hysbys'.</t>
+  </si>
+  <si>
+    <t>022</t>
   </si>
 </sst>
 </file>
@@ -6627,6 +6639,24 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6634,24 +6664,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8664,7 +8676,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8704,13 +8716,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -10846,8 +10858,8 @@
   <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F228" sqref="F228"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10882,13 +10894,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="162" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11016,13 +11028,13 @@
       <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="165" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12141,11 +12153,11 @@
         <v>572</v>
       </c>
       <c r="C84" s="117" t="s">
-        <v>573</v>
+        <v>1433</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="120" t="s">
-        <v>574</v>
+        <v>1434</v>
       </c>
       <c r="F84" s="119" t="s">
         <v>575</v>
@@ -12255,11 +12267,11 @@
         <v>593</v>
       </c>
       <c r="C91" s="117" t="s">
-        <v>93</v>
+        <v>1431</v>
       </c>
       <c r="D91" s="116"/>
       <c r="E91" s="120" t="s">
-        <v>95</v>
+        <v>1432</v>
       </c>
       <c r="F91" s="119"/>
     </row>
@@ -13356,13 +13368,13 @@
       <c r="F164" s="119"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="162" t="s">
+      <c r="A165" s="168" t="s">
         <v>765</v>
       </c>
-      <c r="B165" s="163"/>
-      <c r="C165" s="163"/>
-      <c r="D165" s="163"/>
-      <c r="E165" s="164"/>
+      <c r="B165" s="169"/>
+      <c r="C165" s="169"/>
+      <c r="D165" s="169"/>
+      <c r="E165" s="170"/>
       <c r="F165" s="129" t="s">
         <v>766</v>
       </c>
@@ -15265,18 +15277,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -15287,6 +15287,18 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17287,47 +17299,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
-      <UserInfo>
-        <DisplayName>Erika Osti</DisplayName>
-        <AccountId>534</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Penny Johnson</DisplayName>
-        <AccountId>489</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Childs</DisplayName>
-        <AccountId>643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas Leeds</DisplayName>
-        <AccountId>459</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kasmyn Chen</DisplayName>
-        <AccountId>532</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096D84A54A9CD274097F17166F184737D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd95a4cfdf4f2f51219070f5dff16a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="565e1b1d-057e-4d85-b896-01a5881d8a45" xmlns:ns3="bf601f31-63a1-4825-9216-91d773c5ef9c" xmlns:ns4="2799d30d-6731-4efe-ac9b-c4895a8828d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7499f6f4dc8ad2a533df04863f63fa7" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17604,6 +17575,47 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
+      <UserInfo>
+        <DisplayName>Erika Osti</DisplayName>
+        <AccountId>534</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Penny Johnson</DisplayName>
+        <AccountId>489</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Childs</DisplayName>
+        <AccountId>643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas Leeds</DisplayName>
+        <AccountId>459</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kasmyn Chen</DisplayName>
+        <AccountId>532</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
   <ds:schemaRefs>
@@ -17613,19 +17625,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
-    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFDB110-4046-4E72-A1EF-1908ABEC3151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17644,4 +17643,17 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
+    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96718BD-0164-9B41-9958-BEA6AF86793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7232F7-6A3F-1947-A2BB-E3D94CF2FDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2139" uniqueCount="1436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1444">
   <si>
     <r>
       <rPr>
@@ -4525,9 +4525,6 @@
     <t>codO281aMainDisease</t>
   </si>
   <si>
-    <t>1(a) disease or condition directly leading to death</t>
-  </si>
-  <si>
     <t>Mandatory field - Captures disease or condition directly leading to death</t>
   </si>
   <si>
@@ -4546,9 +4543,6 @@
     <t>codO281bDiseaseLeadingTo1a</t>
   </si>
   <si>
-    <t>1(b) other disease or condition leading to 1(a) (optional)</t>
-  </si>
-  <si>
     <t>Optional field - Captures disease or condition leading to 1a</t>
   </si>
   <si>
@@ -4558,9 +4552,6 @@
     <t>codO281cDiseaseLeadingTo1b</t>
   </si>
   <si>
-    <t>1(c) other disease or condition leading to 1(b) (optional)</t>
-  </si>
-  <si>
     <t>Optional field - Captures disease or condition leading to 1b</t>
   </si>
   <si>
@@ -4568,9 +4559,6 @@
   </si>
   <si>
     <t>codO281dDiseaseLeadingTo1c</t>
-  </si>
-  <si>
-    <t>1(d) other disease or condition leading to 1(c) (optional)</t>
   </si>
   <si>
     <t>Optional field - Captures disease or condition leading to 1c</t>
@@ -4697,13 +4685,7 @@
     <t>codO282OtherConditions</t>
   </si>
   <si>
-    <t>2 Other significant conditions contributing to their death (optional)</t>
-  </si>
-  <si>
     <t>Optional field - Captures other conditions that contributed to death.</t>
-  </si>
-  <si>
-    <t>2 Cyflyrau arwyddocaol eraill sy'n cyfrannu at eu marwolaeth (dewisol)</t>
   </si>
   <si>
     <t>Employment question</t>
@@ -5686,7 +5668,49 @@
     <t>Dewiswch ethnigrwydd yr ymadawedig gan ei fod wedi'i gofnodi ar y cofnod cleifion. Os nad oes unrhyw gyd-fynd â'r rhestr, neu os nad oes unrhyw ethnigrwydd yn cael ei gofnodi ar y cofnod claf, dewiswch 'ddim yn hysbys'.</t>
   </si>
   <si>
-    <t>022</t>
+    <t>1(b) Other disease or condition leading to 1(a) (optional)</t>
+  </si>
+  <si>
+    <t>1(c) Other disease or condition leading to 1(b) (optional)</t>
+  </si>
+  <si>
+    <t>1(d) Other disease or condition leading to 1(c) (optional)</t>
+  </si>
+  <si>
+    <t>1(a) Disease or condition directly leading to death</t>
+  </si>
+  <si>
+    <t>codO28SectionTitleTwoDescription</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>codO28SectionTitleOneDescription</t>
+  </si>
+  <si>
+    <t>Other significant condition contributing to the death but &lt;strong&gt;not&lt;/strong&gt; relating to the disease or condition causing it.</t>
+  </si>
+  <si>
+    <t>Cyflwr arwyddocaol arall sy'n cyfrannu at y farwolaeth ond &lt;strong&gt;nid yw'n&lt;/strong&gt; ymwneud â'r clefyd na'r cyflwr sy'n ei achosi.</t>
+  </si>
+  <si>
+    <t>The disease or condition thought to be the underlying cause of death should appear in the lowest completed line of part 1.</t>
+  </si>
+  <si>
+    <t>Dylai'r clefyd neu'r cyflwr y credir ei fod yn achos sylfaenol marwolaeth ymddangos yn y llinell isaf a gwblhawyd o ran 1.</t>
+  </si>
+  <si>
+    <t>Achos y farwolaeth (1)</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>2 Other significant condition (optional)</t>
+  </si>
+  <si>
+    <t>2 Cyflwr arwyddocaol arall (dewisol)</t>
   </si>
 </sst>
 </file>
@@ -7707,16 +7731,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="F2" s="68" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7724,13 +7748,13 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>910</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>911</v>
@@ -7741,13 +7765,13 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>863</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>865</v>
@@ -7755,36 +7779,36 @@
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7792,13 +7816,13 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>913</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>914</v>
@@ -7809,7 +7833,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>916</v>
@@ -7821,10 +7845,10 @@
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>1238</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1244</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>922</v>
@@ -7836,22 +7860,22 @@
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="74" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7888,7 +7912,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7928,33 +7952,33 @@
         <v>243</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="C3" s="96" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="D3" s="95" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7962,16 +7986,16 @@
         <v>758</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="C4" s="96" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7979,13 +8003,13 @@
         <v>410</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E5" s="89" t="s">
         <v>404</v>
@@ -7996,13 +8020,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>404</v>
@@ -8030,33 +8054,33 @@
         <v>243</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="C8" s="96" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8064,10 +8088,10 @@
         <v>758</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>404</v>
@@ -8081,13 +8105,13 @@
         <v>410</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>404</v>
@@ -8098,13 +8122,13 @@
         <v>413</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>404</v>
@@ -8132,13 +8156,13 @@
         <v>243</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E14" s="89" t="s">
         <v>404</v>
@@ -8146,19 +8170,19 @@
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8166,13 +8190,13 @@
         <v>410</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C16" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>404</v>
@@ -8183,13 +8207,13 @@
         <v>413</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="C17" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>404</v>
@@ -8200,16 +8224,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="D18" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E18" s="89" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8234,13 +8258,13 @@
         <v>243</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>404</v>
@@ -8248,16 +8272,16 @@
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>404</v>
@@ -8268,10 +8292,10 @@
         <v>758</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C22" s="96" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>404</v>
@@ -8285,13 +8309,13 @@
         <v>410</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C23" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E23" s="89" t="s">
         <v>404</v>
@@ -8302,13 +8326,13 @@
         <v>413</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="C24" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>404</v>
@@ -8361,7 +8385,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="193" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="B2" s="194"/>
       <c r="C2" s="194"/>
@@ -8374,16 +8398,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8391,13 +8415,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8405,13 +8429,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8419,13 +8443,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8433,112 +8457,112 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>1319</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8546,14 +8570,14 @@
         <v>952</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8561,34 +8585,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="193" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
@@ -8601,16 +8625,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -8618,13 +8642,13 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8632,13 +8656,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8646,13 +8670,13 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8674,7 +8698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
@@ -8716,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -8740,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -9795,18 +9819,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -9825,7 +9849,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -10107,14 +10131,14 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10123,19 +10147,19 @@
         <v>484</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="159" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -10147,14 +10171,14 @@
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10162,14 +10186,14 @@
         <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10333,7 +10357,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -10390,7 +10414,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>276</v>
@@ -10414,7 +10438,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>280</v>
@@ -10428,13 +10452,13 @@
         <v>281</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>283</v>
@@ -10448,13 +10472,13 @@
         <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>285</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -10465,13 +10489,13 @@
         <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>288</v>
@@ -10673,7 +10697,7 @@
         <v>336</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>337</v>
@@ -10807,17 +10831,17 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="37" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -11063,13 +11087,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -11081,13 +11105,13 @@
         <v>403</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>404</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -11555,7 +11579,7 @@
         <v>485</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="120" t="s">
@@ -11568,14 +11592,14 @@
         <v>484</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="120" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -11803,7 +11827,7 @@
         <v>522</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -11812,14 +11836,14 @@
         <v>519</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="120" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="F62" s="119"/>
     </row>
@@ -12153,11 +12177,11 @@
         <v>572</v>
       </c>
       <c r="C84" s="117" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="120" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="F84" s="119" t="s">
         <v>575</v>
@@ -12267,11 +12291,11 @@
         <v>593</v>
       </c>
       <c r="C91" s="117" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="D91" s="116"/>
       <c r="E91" s="120" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="F91" s="119"/>
     </row>
@@ -13005,7 +13029,7 @@
         <v>710</v>
       </c>
       <c r="C141" s="113" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="D141" s="122" t="s">
         <v>711</v>
@@ -13095,7 +13119,7 @@
         <v>725</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="D147" s="116" t="s">
         <v>726</v>
@@ -13126,14 +13150,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="116" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="D149" s="116"/>
       <c r="E149" s="120" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="F149" s="119"/>
     </row>
@@ -13142,14 +13166,14 @@
         <v>37</v>
       </c>
       <c r="B150" s="116" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="C150" s="59" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="D150" s="116"/>
       <c r="E150" s="120" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="F150" s="119"/>
     </row>
@@ -13801,13 +13825,13 @@
         <v>815</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="D193" s="116" t="s">
         <v>816</v>
       </c>
       <c r="E193" s="120" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="F193" s="119"/>
     </row>
@@ -13816,14 +13840,14 @@
         <v>484</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="D194" s="116"/>
       <c r="E194" s="120" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -13923,11 +13947,11 @@
         <v>827</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="D201" s="116"/>
       <c r="E201" s="120" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="F201" s="119"/>
     </row>
@@ -13936,7 +13960,7 @@
         <v>734</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="C202" s="117" t="s">
         <v>43</v>
@@ -13952,14 +13976,14 @@
         <v>32</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="C203" s="134" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="D203" s="116"/>
       <c r="E203" s="120" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="F203" s="119"/>
     </row>
@@ -14331,13 +14355,13 @@
         <v>866</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="D228" s="116" t="s">
         <v>867</v>
       </c>
       <c r="E228" s="120" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="F228" s="119"/>
     </row>
@@ -15569,13 +15593,13 @@
         <v>942</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>934</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15775,10 +15799,10 @@
         <v>982</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15786,13 +15810,13 @@
         <v>261</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15952,13 +15976,13 @@
         <v>1007</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="D45" s="116" t="s">
         <v>1008</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16145,11 +16169,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA2FE89-1BCA-4888-9BB6-D7A7737E07E4}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16350,71 +16374,71 @@
       <c r="D11" s="136" t="s">
         <v>1074</v>
       </c>
-      <c r="E11" s="138"/>
+      <c r="E11" s="138" t="s">
+        <v>1440</v>
+      </c>
       <c r="F11" s="135"/>
     </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B12" s="136" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D12" s="136"/>
+      <c r="E12" s="138" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F12" s="135"/>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="136" t="s">
         <v>1047</v>
       </c>
-      <c r="B12" s="136" t="s">
+      <c r="B13" s="136" t="s">
         <v>1075</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C13" s="137" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D13" s="136" t="s">
         <v>1076</v>
       </c>
-      <c r="D12" s="136" t="s">
+      <c r="E13" s="138" t="s">
         <v>1077</v>
       </c>
-      <c r="E12" s="138" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F12" s="135"/>
-    </row>
-    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="136" t="s">
-        <v>410</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="136" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E13" s="138"/>
       <c r="F13" s="135"/>
     </row>
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="136" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C14" s="138"/>
       <c r="D14" s="136" t="s">
-        <v>1055</v>
+        <v>1079</v>
       </c>
       <c r="E14" s="138"/>
       <c r="F14" s="135"/>
     </row>
-    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="136" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B15" s="136" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>1083</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C15" s="138"/>
       <c r="D15" s="136" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E15" s="138" t="s">
-        <v>1085</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="E15" s="138"/>
       <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16422,311 +16446,308 @@
         <v>1047</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>1087</v>
+        <v>1429</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E16" s="138" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F16" s="135"/>
     </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="136" t="s">
         <v>1047</v>
       </c>
       <c r="B17" s="136" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>1091</v>
+        <v>1430</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="E17" s="138" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+        <v>1086</v>
+      </c>
+      <c r="F17" s="135"/>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="136" t="s">
         <v>1047</v>
       </c>
       <c r="B18" s="136" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C18" s="137" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E18" s="138" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A19" s="136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B19" s="136" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E19" s="138" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="136" t="s">
+        <v>410</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>1094</v>
-      </c>
-      <c r="C18" s="137" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E18" s="138" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="136" t="s">
-        <v>410</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="18" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E19" s="138"/>
-    </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="136" t="s">
-        <v>413</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>1100</v>
       </c>
       <c r="C20" s="27"/>
       <c r="D20" s="18" t="s">
-        <v>1055</v>
+        <v>1095</v>
       </c>
       <c r="E20" s="138"/>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="136" t="s">
         <v>413</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E21" s="138"/>
+    </row>
+    <row r="22" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="136" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="18" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E22" s="138"/>
+    </row>
+    <row r="23" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A23" s="136" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B23" s="136" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C23" s="137" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D23" s="136" t="s">
         <v>1102</v>
       </c>
-      <c r="E21" s="138"/>
-    </row>
-    <row r="22" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A22" s="136" t="s">
+      <c r="E23" s="138" t="s">
         <v>1103</v>
       </c>
-      <c r="B22" s="136" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="136" t="s">
+        <v>410</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>1104</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D22" s="136" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E22" s="138" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="136" t="s">
-        <v>410</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="136" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E23" s="138"/>
-    </row>
-    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="136" t="s">
-        <v>413</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>1110</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="136" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E24" s="138"/>
     </row>
-    <row r="25" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="136" t="s">
         <v>413</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="136" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E25" s="138"/>
+    </row>
+    <row r="26" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A26" s="136" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E26" s="138"/>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="136" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="136" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D27" s="136" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E27" s="138" t="s">
         <v>1112</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="29" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="136" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B28" s="136" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D28" s="136"/>
+      <c r="E28" s="138" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="136" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B29" s="136" t="s">
         <v>1113</v>
       </c>
-      <c r="E25" s="138"/>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="136" t="s">
-        <v>254</v>
-      </c>
-      <c r="B26" s="136" t="s">
+      <c r="C29" s="137" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D29" s="136" t="s">
         <v>1114</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="E29" s="138" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="186" t="s">
         <v>1115</v>
       </c>
-      <c r="D26" s="136" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E26" s="138" t="s">
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="188"/>
+    </row>
+    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" s="141" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="136" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B27" s="136" t="s">
+      <c r="C31" s="142" t="s">
         <v>1117</v>
       </c>
-      <c r="C27" s="137" t="s">
+      <c r="D31" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="D27" s="136" t="s">
+      <c r="E31" s="143" t="s">
         <v>1119</v>
       </c>
-      <c r="E27" s="138" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A32" s="144" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="186" t="s">
+      <c r="B32" s="144" t="s">
         <v>1121</v>
       </c>
-      <c r="B28" s="187"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="188"/>
-    </row>
-    <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="141" t="s">
+      <c r="C32" s="145" t="s">
         <v>1122</v>
       </c>
-      <c r="C29" s="142" t="s">
+      <c r="D32" s="144" t="s">
         <v>1123</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E32" s="146" t="s">
         <v>1124</v>
       </c>
-      <c r="E29" s="143" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30" s="144" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="E33" s="146"/>
+    </row>
+    <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>1126</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="E34" s="146"/>
+    </row>
+    <row r="35" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="189" t="s">
         <v>1127</v>
       </c>
-      <c r="C30" s="145" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D30" s="144" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="18" t="s">
-        <v>999</v>
-      </c>
-      <c r="E31" s="146"/>
-    </row>
-    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="E32" s="146"/>
-    </row>
-    <row r="33" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="189" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="192"/>
-    </row>
-    <row r="34" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="144" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="147" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C34" s="145" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E34" s="146" t="s">
-        <v>1137</v>
-      </c>
-      <c r="F34" s="135"/>
-    </row>
-    <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="144" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B35" s="148" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C35" s="145" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D35" s="149" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E35" s="146" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F35" s="135"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="192"/>
     </row>
     <row r="36" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="144" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B36" s="148" t="s">
-        <v>1142</v>
+        <v>243</v>
+      </c>
+      <c r="B36" s="147" t="s">
+        <v>1128</v>
       </c>
       <c r="C36" s="145" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D36" s="149" t="s">
-        <v>1140</v>
+        <v>1129</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>1130</v>
       </c>
       <c r="E36" s="146" t="s">
-        <v>1144</v>
+        <v>1131</v>
       </c>
       <c r="F36" s="135"/>
     </row>
@@ -16735,16 +16756,16 @@
         <v>1047</v>
       </c>
       <c r="B37" s="148" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>1146</v>
+        <v>1132</v>
+      </c>
+      <c r="C37" s="145" t="s">
+        <v>1133</v>
       </c>
       <c r="D37" s="149" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E37" s="146" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="F37" s="135"/>
     </row>
@@ -16753,16 +16774,16 @@
         <v>1047</v>
       </c>
       <c r="B38" s="148" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>1149</v>
+        <v>1136</v>
+      </c>
+      <c r="C38" s="145" t="s">
+        <v>1137</v>
       </c>
       <c r="D38" s="149" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E38" s="146" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="F38" s="135"/>
     </row>
@@ -16771,16 +16792,16 @@
         <v>1047</v>
       </c>
       <c r="B39" s="148" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="D39" s="149" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="E39" s="146" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="F39" s="135"/>
     </row>
@@ -16789,262 +16810,261 @@
         <v>1047</v>
       </c>
       <c r="B40" s="148" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="C40" s="49" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D40" s="149" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E40" s="146" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F40" s="135"/>
+    </row>
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="144" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B41" s="148" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D41" s="149" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E41" s="146" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F41" s="135"/>
+    </row>
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="144" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B42" s="148" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C42" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="149" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E40" s="146" t="s">
+      <c r="D42" s="149" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E42" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="135"/>
-    </row>
-    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="F42" s="135"/>
+    </row>
+    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="18" t="s">
+      <c r="B43" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="18" t="s">
         <v>999</v>
       </c>
-      <c r="E41" s="146"/>
-      <c r="F41" s="135"/>
-    </row>
-    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="E42" s="146"/>
-      <c r="F42" s="135"/>
-    </row>
-    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="144" t="s">
-        <v>243</v>
-      </c>
-      <c r="B43" s="136" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E43" s="146" t="s">
-        <v>1159</v>
-      </c>
+      <c r="E43" s="146"/>
       <c r="F43" s="135"/>
     </row>
     <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="C44" s="27"/>
       <c r="D44" s="18" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="135"/>
     </row>
     <row r="45" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="144" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="136" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E45" s="146" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F45" s="135"/>
+    </row>
+    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C46" s="27"/>
+      <c r="D46" s="18" t="s">
+        <v>999</v>
+      </c>
+      <c r="E46" s="146"/>
+      <c r="F46" s="135"/>
+    </row>
+    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B47" s="28" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="18" t="s">
+        <v>992</v>
+      </c>
+      <c r="E47" s="146"/>
+      <c r="F47" s="135"/>
+    </row>
+    <row r="48" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="186" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B48" s="187"/>
+      <c r="C48" s="187"/>
+      <c r="D48" s="187"/>
+      <c r="E48" s="188"/>
+    </row>
+    <row r="49" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A49" s="144" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" s="144" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>860</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A50" s="144" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B50" s="144" t="s">
         <v>1161</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="18" t="s">
-        <v>992</v>
-      </c>
-      <c r="E45" s="146"/>
-      <c r="F45" s="135"/>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="186" t="s">
+      <c r="C50" s="62" t="s">
+        <v>922</v>
+      </c>
+      <c r="D50" s="116" t="s">
         <v>1162</v>
       </c>
-      <c r="B46" s="187"/>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="188"/>
-    </row>
-    <row r="47" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="144" t="s">
-        <v>243</v>
-      </c>
-      <c r="B47" s="144" t="s">
+      <c r="E50" s="63" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="144" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B51" s="144" t="s">
         <v>1163</v>
       </c>
-      <c r="C47" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="D47" s="116" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>860</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A48" s="144" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B48" s="144" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>922</v>
-      </c>
-      <c r="D48" s="116" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="144" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B49" s="144" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D49" s="116" t="s">
+      <c r="C51" s="62" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D51" s="116" t="s">
         <v>1008</v>
       </c>
-      <c r="E49" s="63" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B50" s="136" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C50" s="145" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D50" s="121" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B51" s="136" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C51" s="145" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D51" s="121" t="s">
-        <v>1176</v>
-      </c>
       <c r="E51" s="63" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B52" s="136" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="C52" s="145" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="D52" s="121" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="E52" s="63" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+        <v>1051</v>
+      </c>
+      <c r="F52" s="73" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B53" s="136" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="C53" s="145" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="D53" s="121" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="E53" s="63" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B54" s="136" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="C54" s="145" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="D54" s="121" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="E54" s="63" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B55" s="136" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="C55" s="145" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="D55" s="121" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="E55" s="63" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F55" s="73" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17052,59 +17072,56 @@
         <v>382</v>
       </c>
       <c r="B56" s="136" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="C56" s="145" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="D56" s="121" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F56" s="73" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B57" s="136" t="s">
-        <v>1199</v>
+        <v>1184</v>
       </c>
       <c r="C57" s="145" t="s">
-        <v>1200</v>
+        <v>1185</v>
       </c>
       <c r="D57" s="121" t="s">
-        <v>1201</v>
+        <v>1186</v>
       </c>
       <c r="E57" s="63" t="s">
-        <v>1202</v>
+        <v>1077</v>
       </c>
       <c r="F57" s="73" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B58" s="136" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="C58" s="145" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D58" s="121" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="E58" s="63" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="F58" s="73" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17112,50 +17129,56 @@
         <v>382</v>
       </c>
       <c r="B59" s="136" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="C59" s="145" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="D59" s="121" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="E59" s="63" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>1196</v>
+      </c>
+      <c r="F59" s="73" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B60" s="136" t="s">
-        <v>1213</v>
+        <v>1198</v>
       </c>
       <c r="C60" s="145" t="s">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="D60" s="121" t="s">
-        <v>1215</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="63" t="s">
-        <v>1216</v>
+        <v>1201</v>
+      </c>
+      <c r="F60" s="73" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B61" s="18" t="s">
-        <v>1217</v>
+      <c r="B61" s="136" t="s">
+        <v>1203</v>
       </c>
       <c r="C61" s="145" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="D61" s="121" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="E61" s="63" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17163,85 +17186,103 @@
         <v>382</v>
       </c>
       <c r="B62" s="136" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="C62" s="145" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="D62" s="121" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E62" s="79" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="144" t="s">
-        <v>732</v>
-      </c>
-      <c r="B63" s="144" t="s">
-        <v>1225</v>
+        <v>1209</v>
+      </c>
+      <c r="E62" s="63" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>1211</v>
       </c>
       <c r="C63" s="145" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="78" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F63" s="135"/>
-    </row>
-    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="144" t="s">
-        <v>732</v>
-      </c>
-      <c r="B64" s="144" t="s">
-        <v>1228</v>
+        <v>1212</v>
+      </c>
+      <c r="D63" s="121" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E63" s="63" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B64" s="136" t="s">
+        <v>1215</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D64" s="148"/>
-      <c r="E64" s="78" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F64" s="135"/>
+        <v>1216</v>
+      </c>
+      <c r="D64" s="121" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E64" s="79" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="144" t="s">
         <v>732</v>
       </c>
-      <c r="B65" s="136" t="s">
-        <v>1229</v>
+      <c r="B65" s="144" t="s">
+        <v>1219</v>
       </c>
       <c r="C65" s="145" t="s">
-        <v>1139</v>
+        <v>1220</v>
       </c>
       <c r="D65" s="148"/>
       <c r="E65" s="78" t="s">
-        <v>1141</v>
+        <v>1221</v>
       </c>
       <c r="F65" s="135"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="144"/>
-      <c r="B66" s="144"/>
-      <c r="C66" s="145"/>
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="144" t="s">
+        <v>732</v>
+      </c>
+      <c r="B66" s="144" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C66" s="145" t="s">
+        <v>1146</v>
+      </c>
       <c r="D66" s="148"/>
-      <c r="E66" s="146"/>
+      <c r="E66" s="78" t="s">
+        <v>1147</v>
+      </c>
       <c r="F66" s="135"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="144"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="145"/>
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="144" t="s">
+        <v>732</v>
+      </c>
+      <c r="B67" s="136" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C67" s="145" t="s">
+        <v>1133</v>
+      </c>
       <c r="D67" s="148"/>
-      <c r="E67" s="146"/>
+      <c r="E67" s="78" t="s">
+        <v>1135</v>
+      </c>
       <c r="F67" s="135"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="144"/>
-      <c r="B68" s="136"/>
+      <c r="B68" s="144"/>
       <c r="C68" s="145"/>
       <c r="D68" s="148"/>
       <c r="E68" s="146"/>
@@ -17251,39 +17292,55 @@
       <c r="A69" s="144"/>
       <c r="B69" s="136"/>
       <c r="C69" s="145"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="150"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="146"/>
       <c r="F69" s="135"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="144"/>
+      <c r="B70" s="136"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="146"/>
+      <c r="F70" s="135"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="144"/>
       <c r="B71" s="136"/>
       <c r="C71" s="145"/>
       <c r="D71" s="144"/>
-      <c r="E71" s="146"/>
+      <c r="E71" s="150"/>
       <c r="F71" s="135"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="144"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="144"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="135"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="144"/>
-      <c r="B73" s="144"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="145"/>
       <c r="D73" s="144"/>
       <c r="E73" s="146"/>
       <c r="F73" s="135"/>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="144"/>
+      <c r="B74" s="136"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="146"/>
+      <c r="F74" s="135"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="144"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="145"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="135"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7232F7-6A3F-1947-A2BB-E3D94CF2FDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9D321-8B77-1B4B-A04E-7B325D16E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1438">
   <si>
     <r>
       <rPr>
@@ -5099,15 +5099,9 @@
     <t>apDeclarationPageTitle</t>
   </si>
   <si>
-    <t>Attending practitioner declaration</t>
-  </si>
-  <si>
     <t>Page title - describes the action of signing off the declaration in order to send the certificate for scrutiny.</t>
   </si>
   <si>
-    <t>Datganiad Ymarferydd sy'n Mynychu</t>
-  </si>
-  <si>
     <t>Checkbox</t>
   </si>
   <si>
@@ -5126,12 +5120,6 @@
     <t>apDeclarationSubmitForScrutiny</t>
   </si>
   <si>
-    <t>Submit for scrutiny</t>
-  </si>
-  <si>
-    <t>Cyflwyno ar gyfer craffu</t>
-  </si>
-  <si>
     <t>apDeclarationValidationSummaryNoTick</t>
   </si>
   <si>
@@ -5147,15 +5135,9 @@
     <t>meScrutinyDeclarationPageTitle</t>
   </si>
   <si>
-    <t>Medical examiner declaration</t>
-  </si>
-  <si>
     <t>Page title - describes the action of signing off the declaration post scrutiny.</t>
   </si>
   <si>
-    <t>Datganiad yr Archwiliwr Meddygol</t>
-  </si>
-  <si>
     <t>meScrutinyDeclarationContent</t>
   </si>
   <si>
@@ -5171,9 +5153,6 @@
     <t>meScrutinyReadyForRegistrar</t>
   </si>
   <si>
-    <t>Submit scrutiny</t>
-  </si>
-  <si>
     <t>meScrutinyDeclarationValidationSummaryNoTick</t>
   </si>
   <si>
@@ -5183,9 +5162,6 @@
     <t>meCertDeclarationPageTitle</t>
   </si>
   <si>
-    <t>Medical examiner declaration (ME Cert)</t>
-  </si>
-  <si>
     <t>Page title - describes the action of signing off the declaration for ME Cert.</t>
   </si>
   <si>
@@ -5210,18 +5186,9 @@
     <t>meCertDeclarationCTA</t>
   </si>
   <si>
-    <t>Complete MCCD</t>
-  </si>
-  <si>
-    <t>MCCD cyflawn</t>
-  </si>
-  <si>
     <t>meoDeclarationPageTitle</t>
   </si>
   <si>
-    <t>Medical examiner officer declaration</t>
-  </si>
-  <si>
     <t>meoDeclarationContent</t>
   </si>
   <si>
@@ -5232,9 +5199,6 @@
   </si>
   <si>
     <t>meoDeclarationSubmitForScrutiny</t>
-  </si>
-  <si>
-    <t>Submit for ME scrutiny</t>
   </si>
   <si>
     <t>meoDeclarationValidationSummaryNoTick</t>
@@ -5704,13 +5668,31 @@
     <t>Achos y farwolaeth (1)</t>
   </si>
   <si>
-    <t>024</t>
-  </si>
-  <si>
     <t>2 Other significant condition (optional)</t>
   </si>
   <si>
     <t>2 Cyflwr arwyddocaol arall (dewisol)</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t> Datganiad</t>
+  </si>
+  <si>
+    <t>Cyflwyno</t>
+  </si>
+  <si>
+    <t>Datganiad</t>
+  </si>
+  <si>
+    <t> Cyflwyno</t>
+  </si>
+  <si>
+    <t>025</t>
   </si>
 </sst>
 </file>
@@ -6186,7 +6168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6663,6 +6645,15 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -6681,15 +6672,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6761,6 +6743,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7912,8 +7897,8 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7954,31 +7939,31 @@
       <c r="B2" s="92" t="s">
         <v>1244</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="151" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>1245</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>1247</v>
+      <c r="E2" s="152" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C3" s="96" t="s">
         <v>1248</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="D3" s="95" t="s">
         <v>1249</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="E3" s="89" t="s">
         <v>1250</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7986,16 +7971,16 @@
         <v>758</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>1254</v>
+        <v>1251</v>
+      </c>
+      <c r="C4" s="195" t="s">
+        <v>1432</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="E4" s="89" t="s">
-        <v>1255</v>
+      <c r="E4" s="155" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8003,13 +7988,13 @@
         <v>410</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="E5" s="89" t="s">
         <v>404</v>
@@ -8020,13 +8005,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>404</v>
@@ -8054,33 +8039,33 @@
         <v>243</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>1261</v>
+        <v>1256</v>
+      </c>
+      <c r="C8" s="195" t="s">
+        <v>1431</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E8" s="89" t="s">
-        <v>1263</v>
+        <v>1257</v>
+      </c>
+      <c r="E8" s="155" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B9" s="95" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C9" s="96" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8088,16 +8073,16 @@
         <v>758</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>1269</v>
+        <v>1262</v>
+      </c>
+      <c r="C10" s="195" t="s">
+        <v>1432</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="E10" s="89" t="s">
-        <v>404</v>
+      <c r="E10" s="155" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8105,13 +8090,13 @@
         <v>410</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1270</v>
+        <v>1263</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>404</v>
@@ -8122,13 +8107,13 @@
         <v>413</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>404</v>
@@ -8156,33 +8141,33 @@
         <v>243</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>1273</v>
+        <v>1265</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>1431</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E14" s="89" t="s">
-        <v>404</v>
+        <v>1266</v>
+      </c>
+      <c r="E14" s="155" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B15" s="95" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="C15" s="96" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="E15" s="89" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8190,13 +8175,13 @@
         <v>410</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="C16" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>404</v>
@@ -8207,13 +8192,13 @@
         <v>413</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1280</v>
+        <v>1272</v>
       </c>
       <c r="C17" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>404</v>
@@ -8224,16 +8209,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>1282</v>
+        <v>1273</v>
+      </c>
+      <c r="C18" s="195" t="s">
+        <v>1432</v>
       </c>
       <c r="D18" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="E18" s="89" t="s">
-        <v>1283</v>
+      <c r="E18" s="155" t="s">
+        <v>1434</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8258,30 +8243,30 @@
         <v>243</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C20" s="96" t="s">
-        <v>1285</v>
+        <v>1274</v>
+      </c>
+      <c r="C20" s="195" t="s">
+        <v>1431</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E20" s="89" t="s">
-        <v>404</v>
+        <v>1245</v>
+      </c>
+      <c r="E20" s="155" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>1286</v>
+        <v>1275</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>1287</v>
+        <v>1276</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>1288</v>
+        <v>1277</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>404</v>
@@ -8292,16 +8277,16 @@
         <v>758</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>1290</v>
+        <v>1278</v>
+      </c>
+      <c r="C22" s="195" t="s">
+        <v>1432</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>404</v>
       </c>
-      <c r="E22" s="89" t="s">
-        <v>404</v>
+      <c r="E22" s="155" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -8309,13 +8294,13 @@
         <v>410</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>1291</v>
+        <v>1279</v>
       </c>
       <c r="C23" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="E23" s="89" t="s">
         <v>404</v>
@@ -8326,13 +8311,13 @@
         <v>413</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1292</v>
+        <v>1280</v>
       </c>
       <c r="C24" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>404</v>
@@ -8385,7 +8370,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="193" t="s">
-        <v>1293</v>
+        <v>1281</v>
       </c>
       <c r="B2" s="194"/>
       <c r="C2" s="194"/>
@@ -8398,16 +8383,16 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1294</v>
+        <v>1282</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1295</v>
+        <v>1283</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1226</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1296</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8415,13 +8400,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1297</v>
+        <v>1285</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1298</v>
+        <v>1286</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1299</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8429,13 +8414,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8443,13 +8428,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1303</v>
+        <v>1291</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1304</v>
+        <v>1292</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>1305</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8457,112 +8442,112 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1306</v>
+        <v>1294</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>1308</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>1313</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8570,14 +8555,14 @@
         <v>952</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1332</v>
+        <v>1320</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1333</v>
+        <v>1321</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8585,34 +8570,34 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>1336</v>
+        <v>1324</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1337</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1339</v>
+        <v>1327</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1341</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="193" t="s">
-        <v>1342</v>
+        <v>1330</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
@@ -8625,16 +8610,16 @@
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1345</v>
+        <v>1333</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1343</v>
+        <v>1331</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1226</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1344</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -8642,13 +8627,13 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1346</v>
+        <v>1334</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8656,13 +8641,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1347</v>
+        <v>1335</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1301</v>
+        <v>1289</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1302</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8670,13 +8655,13 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1348</v>
+        <v>1336</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8698,9 +8683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8740,13 +8725,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -8764,7 +8749,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -9819,18 +9804,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>1362</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1361</v>
+        <v>1349</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10131,14 +10116,14 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1386</v>
+        <v>1374</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1387</v>
+        <v>1375</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1395</v>
+        <v>1383</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10147,19 +10132,19 @@
         <v>484</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1388</v>
+        <v>1376</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1389</v>
+        <v>1377</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1396</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="159" t="s">
-        <v>1390</v>
+        <v>1378</v>
       </c>
       <c r="B4" s="160"/>
       <c r="C4" s="160"/>
@@ -10171,14 +10156,14 @@
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1391</v>
+        <v>1379</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1393</v>
+        <v>1381</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1397</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10186,14 +10171,14 @@
         <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1392</v>
+        <v>1380</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1394</v>
+        <v>1382</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1398</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10414,7 +10399,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1401</v>
+        <v>1389</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>276</v>
@@ -10438,7 +10423,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1402</v>
+        <v>1390</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>280</v>
@@ -10452,13 +10437,13 @@
         <v>281</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1407</v>
+        <v>1395</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>283</v>
@@ -10472,13 +10457,13 @@
         <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1408</v>
+        <v>1396</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>285</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -10489,13 +10474,13 @@
         <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>288</v>
@@ -10697,7 +10682,7 @@
         <v>336</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1399</v>
+        <v>1387</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>337</v>
@@ -10831,17 +10816,17 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1405</v>
+        <v>1393</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1406</v>
+        <v>1394</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1403</v>
+        <v>1391</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="37" t="s">
-        <v>1404</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10918,13 +10903,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="164"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="167"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11052,13 +11037,13 @@
       <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="168" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11087,13 +11072,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>1364</v>
+        <v>1352</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -11105,13 +11090,13 @@
         <v>403</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>1365</v>
+        <v>1353</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>404</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>1366</v>
+        <v>1354</v>
       </c>
       <c r="F13" s="86"/>
     </row>
@@ -11579,7 +11564,7 @@
         <v>485</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1382</v>
+        <v>1370</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="120" t="s">
@@ -11592,14 +11577,14 @@
         <v>484</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1385</v>
+        <v>1373</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1383</v>
+        <v>1371</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="120" t="s">
-        <v>1384</v>
+        <v>1372</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -11827,7 +11812,7 @@
         <v>522</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>1375</v>
+        <v>1363</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -11836,14 +11821,14 @@
         <v>519</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>1372</v>
+        <v>1360</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>1374</v>
+        <v>1362</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="120" t="s">
-        <v>1373</v>
+        <v>1361</v>
       </c>
       <c r="F62" s="119"/>
     </row>
@@ -12177,11 +12162,11 @@
         <v>572</v>
       </c>
       <c r="C84" s="117" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="120" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="F84" s="119" t="s">
         <v>575</v>
@@ -12291,11 +12276,11 @@
         <v>593</v>
       </c>
       <c r="C91" s="117" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="D91" s="116"/>
       <c r="E91" s="120" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="F91" s="119"/>
     </row>
@@ -13029,7 +13014,7 @@
         <v>710</v>
       </c>
       <c r="C141" s="113" t="s">
-        <v>1350</v>
+        <v>1338</v>
       </c>
       <c r="D141" s="122" t="s">
         <v>711</v>
@@ -13119,7 +13104,7 @@
         <v>725</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>1349</v>
+        <v>1337</v>
       </c>
       <c r="D147" s="116" t="s">
         <v>726</v>
@@ -13150,14 +13135,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="116" t="s">
-        <v>1351</v>
+        <v>1339</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>1353</v>
+        <v>1341</v>
       </c>
       <c r="D149" s="116"/>
       <c r="E149" s="120" t="s">
-        <v>1355</v>
+        <v>1343</v>
       </c>
       <c r="F149" s="119"/>
     </row>
@@ -13166,14 +13151,14 @@
         <v>37</v>
       </c>
       <c r="B150" s="116" t="s">
-        <v>1352</v>
+        <v>1340</v>
       </c>
       <c r="C150" s="59" t="s">
-        <v>1354</v>
+        <v>1342</v>
       </c>
       <c r="D150" s="116"/>
       <c r="E150" s="120" t="s">
-        <v>1356</v>
+        <v>1344</v>
       </c>
       <c r="F150" s="119"/>
     </row>
@@ -13392,13 +13377,13 @@
       <c r="F164" s="119"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="168" t="s">
+      <c r="A165" s="162" t="s">
         <v>765</v>
       </c>
-      <c r="B165" s="169"/>
-      <c r="C165" s="169"/>
-      <c r="D165" s="169"/>
-      <c r="E165" s="170"/>
+      <c r="B165" s="163"/>
+      <c r="C165" s="163"/>
+      <c r="D165" s="163"/>
+      <c r="E165" s="164"/>
       <c r="F165" s="129" t="s">
         <v>766</v>
       </c>
@@ -13825,13 +13810,13 @@
         <v>815</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="D193" s="116" t="s">
         <v>816</v>
       </c>
       <c r="E193" s="120" t="s">
-        <v>1371</v>
+        <v>1359</v>
       </c>
       <c r="F193" s="119"/>
     </row>
@@ -13840,14 +13825,14 @@
         <v>484</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>1368</v>
+        <v>1356</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1369</v>
+        <v>1357</v>
       </c>
       <c r="D194" s="116"/>
       <c r="E194" s="120" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -13947,11 +13932,11 @@
         <v>827</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>1378</v>
+        <v>1366</v>
       </c>
       <c r="D201" s="116"/>
       <c r="E201" s="120" t="s">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="F201" s="119"/>
     </row>
@@ -13960,7 +13945,7 @@
         <v>734</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="C202" s="117" t="s">
         <v>43</v>
@@ -13976,14 +13961,14 @@
         <v>32</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>1379</v>
+        <v>1367</v>
       </c>
       <c r="C203" s="134" t="s">
-        <v>1376</v>
+        <v>1364</v>
       </c>
       <c r="D203" s="116"/>
       <c r="E203" s="120" t="s">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="F203" s="119"/>
     </row>
@@ -14355,13 +14340,13 @@
         <v>866</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="D228" s="116" t="s">
         <v>867</v>
       </c>
       <c r="E228" s="120" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
       <c r="F228" s="119"/>
     </row>
@@ -15301,6 +15286,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A208:E208"/>
+    <mergeCell ref="A214:E214"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A174:E174"/>
     <mergeCell ref="A157:E157"/>
     <mergeCell ref="A63:E63"/>
@@ -15311,18 +15308,6 @@
     <mergeCell ref="A146:E146"/>
     <mergeCell ref="A92:E92"/>
     <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A214:E214"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15593,13 +15578,13 @@
         <v>942</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>1357</v>
+        <v>1345</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>934</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>1358</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15799,10 +15784,10 @@
         <v>982</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15810,13 +15795,13 @@
         <v>261</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15976,13 +15961,13 @@
         <v>1007</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="D45" s="116" t="s">
         <v>1008</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16171,7 +16156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA2FE89-1BCA-4888-9BB6-D7A7737E07E4}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
@@ -16375,23 +16360,23 @@
         <v>1074</v>
       </c>
       <c r="E11" s="138" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="136" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="C12" s="137" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="D12" s="136"/>
       <c r="E12" s="138" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="F12" s="135"/>
     </row>
@@ -16403,7 +16388,7 @@
         <v>1075</v>
       </c>
       <c r="C13" s="137" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="D13" s="136" t="s">
         <v>1076</v>
@@ -16449,7 +16434,7 @@
         <v>1081</v>
       </c>
       <c r="C16" s="137" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="D16" s="136" t="s">
         <v>1082</v>
@@ -16467,7 +16452,7 @@
         <v>1084</v>
       </c>
       <c r="C17" s="137" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="D17" s="136" t="s">
         <v>1085</v>
@@ -16485,7 +16470,7 @@
         <v>1087</v>
       </c>
       <c r="C18" s="137" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="D18" s="136" t="s">
         <v>1088</v>
@@ -16625,17 +16610,17 @@
     </row>
     <row r="28" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="136" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="D28" s="136"/>
       <c r="E28" s="138" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16646,13 +16631,13 @@
         <v>1113</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="D29" s="136" t="s">
         <v>1114</v>
       </c>
       <c r="E29" s="138" t="s">
-        <v>1443</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -16895,7 +16880,7 @@
         <v>1151</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>1400</v>
+        <v>1388</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>1152</v>
@@ -16987,13 +16972,13 @@
         <v>1163</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
       <c r="D51" s="116" t="s">
         <v>1008</v>
       </c>
       <c r="E51" s="63" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -17356,6 +17341,47 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
+      <UserInfo>
+        <DisplayName>Erika Osti</DisplayName>
+        <AccountId>534</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Penny Johnson</DisplayName>
+        <AccountId>489</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Ben Childs</DisplayName>
+        <AccountId>643</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Thomas Leeds</DisplayName>
+        <AccountId>459</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kasmyn Chen</DisplayName>
+        <AccountId>532</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096D84A54A9CD274097F17166F184737D" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fd95a4cfdf4f2f51219070f5dff16a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="565e1b1d-057e-4d85-b896-01a5881d8a45" xmlns:ns3="bf601f31-63a1-4825-9216-91d773c5ef9c" xmlns:ns4="2799d30d-6731-4efe-ac9b-c4895a8828d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7499f6f4dc8ad2a533df04863f63fa7" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -17632,47 +17658,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Readyforteam_x003f_ xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">false</Readyforteam_x003f_>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <SharedWithUsers xmlns="bf601f31-63a1-4825-9216-91d773c5ef9c">
-      <UserInfo>
-        <DisplayName>Erika Osti</DisplayName>
-        <AccountId>534</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Penny Johnson</DisplayName>
-        <AccountId>489</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Ben Childs</DisplayName>
-        <AccountId>643</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Thomas Leeds</DisplayName>
-        <AccountId>459</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kasmyn Chen</DisplayName>
-        <AccountId>532</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="565e1b1d-057e-4d85-b896-01a5881d8a45">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2799d30d-6731-4efe-ac9b-c4895a8828d9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7CE8C7-18DC-484F-8376-ED09F13D44C8}">
   <ds:schemaRefs>
@@ -17682,6 +17667,19 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
+    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAFDB110-4046-4E72-A1EF-1908ABEC3151}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17700,17 +17698,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017ACE96-8143-486E-8436-7787F6B96F4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="565e1b1d-057e-4d85-b896-01a5881d8a45"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="bf601f31-63a1-4825-9216-91d773c5ef9c"/>
-    <ds:schemaRef ds:uri="2799d30d-6731-4efe-ac9b-c4895a8828d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/data/MCCD-localisation.xlsx
+++ b/app/data/MCCD-localisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JALAT/GIT/medical-certificate-of-cause-of-death/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9D321-8B77-1B4B-A04E-7B325D16E8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FF176C-F8DC-4941-B908-49560ABB8BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Using this document" sheetId="8" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1437">
   <si>
     <r>
       <rPr>
@@ -2557,12 +2557,6 @@
     <t>dpdEthnicGroupHint</t>
   </si>
   <si>
-    <t>Select the ethnicity of the deceased person as it is recorded on the patient record. If there is no match with the list, or no ethnicity is recorded on the patient record, select 'unknown'.</t>
-  </si>
-  <si>
-    <t>Dewiswch ethnigrwydd yr ymadawedig fel y'i cofnodir ar gofnod y claf. Os nad oes cyfatebiaeth â'r rhestr, neu os na chofnodir ethnigrwydd ar gofnod y claf, dewiswch 'anhysbys'.</t>
-  </si>
-  <si>
     <t>Updated the ID tag as it was duplicated - James</t>
   </si>
   <si>
@@ -2642,9 +2636,6 @@
   </si>
   <si>
     <t>Not stated</t>
-  </si>
-  <si>
-    <t>Heb ei ddatgan</t>
   </si>
   <si>
     <t>Didn't seem to be in, so I've added it - James</t>
@@ -5692,7 +5683,13 @@
     <t> Cyflwyno</t>
   </si>
   <si>
-    <t>025</t>
+    <t>Select the ethnicity of the deceased person as it is recorded on the patient record. If there is no match with the list, or no ethnicity is recorded on the patient record, select 'not stated'.</t>
+  </si>
+  <si>
+    <t>Dewiswch ethnigrwydd yr ymadawedig gan ei fod wedi'i gofnodi ar y cofnod cleifion. Os nad oes unrhyw gyd-fynd â'r rhestr, neu os nad oes unrhyw ethnigrwydd yn cael ei gofnodi ar y cofnod claf, dewiswch 'heb ei nodi'.</t>
+  </si>
+  <si>
+    <t>026</t>
   </si>
 </sst>
 </file>
@@ -6633,6 +6630,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6743,9 +6743,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7130,538 +7127,538 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-      <c r="L1" s="158"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="158"/>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158"/>
-      <c r="L6" s="158"/>
+      <c r="A6" s="159"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="159"/>
+      <c r="L6" s="159"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="158"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="158"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="158"/>
-      <c r="K9" s="158"/>
-      <c r="L9" s="158"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="158"/>
-      <c r="K10" s="158"/>
-      <c r="L10" s="158"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158"/>
-      <c r="K11" s="158"/>
-      <c r="L11" s="158"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="158"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="158"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="158"/>
-      <c r="L13" s="158"/>
+      <c r="A13" s="159"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="158"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
-      <c r="K15" s="158"/>
-      <c r="L15" s="158"/>
+      <c r="A15" s="159"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="158"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="158"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="158"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="158"/>
+      <c r="A17" s="159"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="159"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="158"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="158"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
+      <c r="A19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="158"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="159"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="158"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="158"/>
-      <c r="L21" s="158"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="158"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="158"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="158"/>
-      <c r="L23" s="158"/>
+      <c r="A23" s="159"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="158"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="158"/>
-      <c r="L24" s="158"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="159"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
+      <c r="A25" s="159"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="159"/>
+      <c r="D25" s="159"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="159"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="158"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="158"/>
-      <c r="L26" s="158"/>
+      <c r="A26" s="159"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="158"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="158"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="158"/>
-      <c r="L28" s="158"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="158"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="158"/>
-      <c r="L29" s="158"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
-      <c r="L30" s="158"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
-      <c r="K31" s="158"/>
-      <c r="L31" s="158"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="158"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
-      <c r="K32" s="158"/>
-      <c r="L32" s="158"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="158"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="158"/>
-      <c r="L33" s="158"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="158"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
-      <c r="K34" s="158"/>
-      <c r="L34" s="158"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="158"/>
-      <c r="B35" s="158"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="158"/>
-      <c r="B36" s="158"/>
-      <c r="C36" s="158"/>
-      <c r="D36" s="158"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="159"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="159"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
-      <c r="K37" s="158"/>
-      <c r="L37" s="158"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="159"/>
+      <c r="L37" s="159"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
-      <c r="K38" s="158"/>
-      <c r="L38" s="158"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7716,16 +7713,16 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>1224</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7733,16 +7730,16 @@
         <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7750,50 +7747,50 @@
         <v>32</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="F5" s="68" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1232</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1235</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="F6" s="68" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -7801,16 +7798,16 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -7818,49 +7815,49 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="37" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="37" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="74" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="37" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7937,50 +7934,50 @@
         <v>243</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C2" s="151" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E2" s="152" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="94" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D3" s="95" t="s">
         <v>1246</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="E3" s="89" t="s">
         <v>1247</v>
-      </c>
-      <c r="C3" s="96" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B4" s="95" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C4" s="195" t="s">
-        <v>1432</v>
+        <v>1248</v>
+      </c>
+      <c r="C4" s="158" t="s">
+        <v>1429</v>
       </c>
       <c r="D4" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E4" s="155" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7988,13 +7985,13 @@
         <v>410</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D5" s="107" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E5" s="89" t="s">
         <v>404</v>
@@ -8005,13 +8002,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="105" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C6" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E6" s="89" t="s">
         <v>404</v>
@@ -8039,50 +8036,50 @@
         <v>243</v>
       </c>
       <c r="B8" s="95" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C8" s="195" t="s">
-        <v>1431</v>
+        <v>1253</v>
+      </c>
+      <c r="C8" s="158" t="s">
+        <v>1428</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E8" s="155" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="94" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B9" s="95" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E9" s="89" t="s">
         <v>1258</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="94" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C10" s="195" t="s">
-        <v>1432</v>
+        <v>1259</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>1429</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E10" s="155" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8090,13 +8087,13 @@
         <v>410</v>
       </c>
       <c r="B11" s="105" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C11" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D11" s="107" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E11" s="89" t="s">
         <v>404</v>
@@ -8107,13 +8104,13 @@
         <v>413</v>
       </c>
       <c r="B12" s="105" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C12" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D12" s="107" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E12" s="89" t="s">
         <v>404</v>
@@ -8141,33 +8138,33 @@
         <v>243</v>
       </c>
       <c r="B14" s="95" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>1431</v>
+        <v>1262</v>
+      </c>
+      <c r="C14" s="158" t="s">
+        <v>1428</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="E14" s="155" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B15" s="95" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E15" s="89" t="s">
         <v>1267</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D15" s="95" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E15" s="89" t="s">
-        <v>1270</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -8175,13 +8172,13 @@
         <v>410</v>
       </c>
       <c r="B16" s="105" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C16" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D16" s="107" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E16" s="89" t="s">
         <v>404</v>
@@ -8192,13 +8189,13 @@
         <v>413</v>
       </c>
       <c r="B17" s="105" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C17" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>404</v>
@@ -8209,16 +8206,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="95" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C18" s="195" t="s">
-        <v>1432</v>
+        <v>1270</v>
+      </c>
+      <c r="C18" s="158" t="s">
+        <v>1429</v>
       </c>
       <c r="D18" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E18" s="155" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -8243,30 +8240,30 @@
         <v>243</v>
       </c>
       <c r="B20" s="95" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C20" s="195" t="s">
-        <v>1431</v>
+        <v>1271</v>
+      </c>
+      <c r="C20" s="158" t="s">
+        <v>1428</v>
       </c>
       <c r="D20" s="95" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="E20" s="155" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="94" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B21" s="95" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E21" s="89" t="s">
         <v>404</v>
@@ -8274,19 +8271,19 @@
     </row>
     <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="94" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B22" s="95" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C22" s="195" t="s">
-        <v>1432</v>
+        <v>1275</v>
+      </c>
+      <c r="C22" s="158" t="s">
+        <v>1429</v>
       </c>
       <c r="D22" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E22" s="155" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -8294,13 +8291,13 @@
         <v>410</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C23" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D23" s="107" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E23" s="89" t="s">
         <v>404</v>
@@ -8311,13 +8308,13 @@
         <v>413</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C24" s="106" t="s">
         <v>404</v>
       </c>
       <c r="D24" s="107" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="E24" s="89" t="s">
         <v>404</v>
@@ -8369,30 +8366,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="193" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
+      <c r="A2" s="194" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8400,13 +8397,13 @@
         <v>261</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8414,13 +8411,13 @@
         <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8428,13 +8425,13 @@
         <v>261</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -8442,127 +8439,127 @@
         <v>254</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>1297</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="37" t="s">
         <v>1301</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="37" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="37" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8570,56 +8567,56 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="37" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="37" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="193" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B18" s="194"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
+      <c r="A18" s="194" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B18" s="195"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
     </row>
     <row r="19" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -8627,13 +8624,13 @@
         <v>261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -8641,13 +8638,13 @@
         <v>254</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -8655,13 +8652,13 @@
         <v>261</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -8685,7 +8682,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8725,13 +8722,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="100" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F2" s="98"/>
     </row>
@@ -8749,7 +8746,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
@@ -9804,18 +9801,18 @@
     </row>
     <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>1347</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>76</v>
@@ -10116,14 +10113,14 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="43" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -10132,38 +10129,38 @@
         <v>484</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="43" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="159" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="A4" s="160" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>243</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="43" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10171,14 +10168,14 @@
         <v>484</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="43" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -10399,7 +10396,7 @@
         <v>243</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>276</v>
@@ -10423,7 +10420,7 @@
         <v>246</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>280</v>
@@ -10437,13 +10434,13 @@
         <v>281</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D5" s="66" t="s">
         <v>282</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>283</v>
@@ -10457,13 +10454,13 @@
         <v>284</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D6" s="67" t="s">
         <v>285</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -10474,13 +10471,13 @@
         <v>286</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D7" s="67" t="s">
         <v>287</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>288</v>
@@ -10682,7 +10679,7 @@
         <v>336</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>337</v>
@@ -10816,17 +10813,17 @@
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="37" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10867,8 +10864,8 @@
   <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10903,13 +10900,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>367</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="167"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="168"/>
       <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11037,13 +11034,13 @@
       <c r="F9" s="119"/>
     </row>
     <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="168" t="s">
+      <c r="A10" s="169" t="s">
         <v>396</v>
       </c>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="170"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="171"/>
       <c r="F10" s="119"/>
     </row>
     <row r="11" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11072,13 +11069,13 @@
         <v>401</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D12" s="84" t="s">
         <v>402</v>
       </c>
       <c r="E12" s="152" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="F12" s="86"/>
     </row>
@@ -11090,24 +11087,24 @@
         <v>403</v>
       </c>
       <c r="C13" s="154" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D13" s="88" t="s">
         <v>404</v>
       </c>
       <c r="E13" s="155" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="160" t="s">
         <v>405</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="161"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
       <c r="F14" s="119"/>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11251,13 +11248,13 @@
       <c r="F23" s="119"/>
     </row>
     <row r="24" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="160" t="s">
         <v>435</v>
       </c>
-      <c r="B24" s="160"/>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="161"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
       <c r="F24" s="119"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11529,13 +11526,13 @@
       <c r="F42" s="119"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="159" t="s">
+      <c r="A43" s="160" t="s">
         <v>479</v>
       </c>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="161"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="162"/>
       <c r="F43" s="119"/>
     </row>
     <row r="44" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11564,7 +11561,7 @@
         <v>485</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="120" t="s">
@@ -11577,14 +11574,14 @@
         <v>484</v>
       </c>
       <c r="B46" s="116" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="120" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -11753,13 +11750,13 @@
       <c r="F57" s="119"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="159" t="s">
+      <c r="A58" s="160" t="s">
         <v>509</v>
       </c>
-      <c r="B58" s="160"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="161"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="162"/>
       <c r="F58" s="119"/>
     </row>
     <row r="59" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -11812,7 +11809,7 @@
         <v>522</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -11821,25 +11818,25 @@
         <v>519</v>
       </c>
       <c r="B62" s="116" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C62" s="117" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D62" s="116"/>
       <c r="E62" s="120" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="F62" s="119"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="159" t="s">
+      <c r="A63" s="160" t="s">
         <v>523</v>
       </c>
-      <c r="B63" s="160"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="161"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="162"/>
       <c r="F63" s="119"/>
     </row>
     <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11889,13 +11886,13 @@
       <c r="F66" s="119"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="159" t="s">
+      <c r="A67" s="160" t="s">
         <v>528</v>
       </c>
-      <c r="B67" s="160"/>
-      <c r="C67" s="160"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="161"/>
+      <c r="B67" s="161"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="162"/>
       <c r="F67" s="119"/>
     </row>
     <row r="68" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12127,13 +12124,13 @@
       <c r="F81" s="119"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="159" t="s">
+      <c r="A82" s="160" t="s">
         <v>567</v>
       </c>
-      <c r="B82" s="160"/>
-      <c r="C82" s="160"/>
-      <c r="D82" s="160"/>
-      <c r="E82" s="161"/>
+      <c r="B82" s="161"/>
+      <c r="C82" s="161"/>
+      <c r="D82" s="161"/>
+      <c r="E82" s="162"/>
       <c r="F82" s="119"/>
     </row>
     <row r="83" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12162,14 +12159,14 @@
         <v>572</v>
       </c>
       <c r="C84" s="117" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="120" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="F84" s="119" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12177,14 +12174,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="116" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C85" s="117" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D85" s="116"/>
       <c r="E85" s="120" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F85" s="119"/>
     </row>
@@ -12193,14 +12190,14 @@
         <v>84</v>
       </c>
       <c r="B86" s="116" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C86" s="60" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D86" s="116"/>
       <c r="E86" s="120" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F86" s="119"/>
     </row>
@@ -12209,14 +12206,14 @@
         <v>84</v>
       </c>
       <c r="B87" s="116" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C87" s="117" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D87" s="116"/>
       <c r="E87" s="120" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F87" s="119"/>
     </row>
@@ -12225,14 +12222,14 @@
         <v>84</v>
       </c>
       <c r="B88" s="116" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C88" s="117" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D88" s="116"/>
       <c r="E88" s="120" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F88" s="119"/>
     </row>
@@ -12241,14 +12238,14 @@
         <v>84</v>
       </c>
       <c r="B89" s="116" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C89" s="117" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D89" s="116"/>
       <c r="E89" s="120" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F89" s="119"/>
     </row>
@@ -12257,14 +12254,14 @@
         <v>490</v>
       </c>
       <c r="B90" s="116" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C90" s="117" t="s">
         <v>492</v>
       </c>
       <c r="D90" s="116"/>
       <c r="E90" s="120" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F90" s="119"/>
     </row>
@@ -12273,25 +12270,25 @@
         <v>84</v>
       </c>
       <c r="B91" s="116" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C91" s="117" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D91" s="116"/>
       <c r="E91" s="120" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="F91" s="119"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="159" t="s">
-        <v>594</v>
-      </c>
-      <c r="B92" s="160"/>
-      <c r="C92" s="160"/>
-      <c r="D92" s="160"/>
-      <c r="E92" s="161"/>
+      <c r="A92" s="160" t="s">
+        <v>592</v>
+      </c>
+      <c r="B92" s="161"/>
+      <c r="C92" s="161"/>
+      <c r="D92" s="161"/>
+      <c r="E92" s="162"/>
       <c r="F92" s="119"/>
     </row>
     <row r="93" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12299,16 +12296,16 @@
         <v>243</v>
       </c>
       <c r="B93" s="116" t="s">
+        <v>593</v>
+      </c>
+      <c r="C93" s="117" t="s">
+        <v>594</v>
+      </c>
+      <c r="D93" s="116" t="s">
         <v>595</v>
       </c>
-      <c r="C93" s="117" t="s">
+      <c r="E93" s="120" t="s">
         <v>596</v>
-      </c>
-      <c r="D93" s="116" t="s">
-        <v>597</v>
-      </c>
-      <c r="E93" s="120" t="s">
-        <v>598</v>
       </c>
       <c r="F93" s="119"/>
     </row>
@@ -12317,17 +12314,17 @@
         <v>519</v>
       </c>
       <c r="B94" s="116" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C94" s="117" t="s">
-        <v>573</v>
+        <v>1434</v>
       </c>
       <c r="D94" s="116"/>
       <c r="E94" s="120" t="s">
-        <v>574</v>
+        <v>1435</v>
       </c>
       <c r="F94" s="119" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12335,19 +12332,19 @@
         <v>84</v>
       </c>
       <c r="B95" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C95" s="93" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D95" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="E95" s="85" t="s">
-        <v>602</v>
+      <c r="E95" s="152" t="s">
+        <v>1218</v>
       </c>
       <c r="F95" s="86" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12355,16 +12352,16 @@
         <v>84</v>
       </c>
       <c r="B96" s="116" t="s">
+        <v>601</v>
+      </c>
+      <c r="C96" s="117" t="s">
+        <v>602</v>
+      </c>
+      <c r="D96" s="116" t="s">
+        <v>603</v>
+      </c>
+      <c r="E96" s="120" t="s">
         <v>604</v>
-      </c>
-      <c r="C96" s="117" t="s">
-        <v>605</v>
-      </c>
-      <c r="D96" s="116" t="s">
-        <v>606</v>
-      </c>
-      <c r="E96" s="120" t="s">
-        <v>607</v>
       </c>
       <c r="F96" s="119"/>
     </row>
@@ -12373,16 +12370,16 @@
         <v>84</v>
       </c>
       <c r="B97" s="116" t="s">
+        <v>605</v>
+      </c>
+      <c r="C97" s="117" t="s">
+        <v>606</v>
+      </c>
+      <c r="D97" s="116" t="s">
+        <v>607</v>
+      </c>
+      <c r="E97" s="120" t="s">
         <v>608</v>
-      </c>
-      <c r="C97" s="117" t="s">
-        <v>609</v>
-      </c>
-      <c r="D97" s="116" t="s">
-        <v>610</v>
-      </c>
-      <c r="E97" s="120" t="s">
-        <v>611</v>
       </c>
       <c r="F97" s="119"/>
     </row>
@@ -12391,16 +12388,16 @@
         <v>84</v>
       </c>
       <c r="B98" s="116" t="s">
+        <v>609</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>610</v>
+      </c>
+      <c r="D98" s="116" t="s">
+        <v>611</v>
+      </c>
+      <c r="E98" s="120" t="s">
         <v>612</v>
-      </c>
-      <c r="C98" s="61" t="s">
-        <v>613</v>
-      </c>
-      <c r="D98" s="116" t="s">
-        <v>614</v>
-      </c>
-      <c r="E98" s="120" t="s">
-        <v>615</v>
       </c>
       <c r="F98" s="119"/>
     </row>
@@ -12409,16 +12406,16 @@
         <v>84</v>
       </c>
       <c r="B99" s="116" t="s">
+        <v>613</v>
+      </c>
+      <c r="C99" s="117" t="s">
+        <v>614</v>
+      </c>
+      <c r="D99" s="116" t="s">
+        <v>615</v>
+      </c>
+      <c r="E99" s="120" t="s">
         <v>616</v>
-      </c>
-      <c r="C99" s="117" t="s">
-        <v>617</v>
-      </c>
-      <c r="D99" s="116" t="s">
-        <v>618</v>
-      </c>
-      <c r="E99" s="120" t="s">
-        <v>619</v>
       </c>
       <c r="F99" s="119"/>
     </row>
@@ -12435,16 +12432,16 @@
         <v>84</v>
       </c>
       <c r="B101" s="116" t="s">
+        <v>617</v>
+      </c>
+      <c r="C101" s="117" t="s">
+        <v>618</v>
+      </c>
+      <c r="D101" s="116" t="s">
+        <v>619</v>
+      </c>
+      <c r="E101" s="120" t="s">
         <v>620</v>
-      </c>
-      <c r="C101" s="117" t="s">
-        <v>621</v>
-      </c>
-      <c r="D101" s="116" t="s">
-        <v>622</v>
-      </c>
-      <c r="E101" s="120" t="s">
-        <v>623</v>
       </c>
       <c r="F101" s="119"/>
     </row>
@@ -12453,16 +12450,16 @@
         <v>84</v>
       </c>
       <c r="B102" s="116" t="s">
+        <v>621</v>
+      </c>
+      <c r="C102" s="117" t="s">
+        <v>622</v>
+      </c>
+      <c r="D102" s="116" t="s">
+        <v>623</v>
+      </c>
+      <c r="E102" s="120" t="s">
         <v>624</v>
-      </c>
-      <c r="C102" s="117" t="s">
-        <v>625</v>
-      </c>
-      <c r="D102" s="116" t="s">
-        <v>626</v>
-      </c>
-      <c r="E102" s="120" t="s">
-        <v>627</v>
       </c>
       <c r="F102" s="119"/>
     </row>
@@ -12471,16 +12468,16 @@
         <v>84</v>
       </c>
       <c r="B103" s="116" t="s">
+        <v>625</v>
+      </c>
+      <c r="C103" s="117" t="s">
+        <v>626</v>
+      </c>
+      <c r="D103" s="116" t="s">
+        <v>627</v>
+      </c>
+      <c r="E103" s="120" t="s">
         <v>628</v>
-      </c>
-      <c r="C103" s="117" t="s">
-        <v>629</v>
-      </c>
-      <c r="D103" s="116" t="s">
-        <v>630</v>
-      </c>
-      <c r="E103" s="120" t="s">
-        <v>631</v>
       </c>
       <c r="F103" s="119"/>
     </row>
@@ -12489,16 +12486,16 @@
         <v>84</v>
       </c>
       <c r="B104" s="116" t="s">
+        <v>629</v>
+      </c>
+      <c r="C104" s="117" t="s">
+        <v>630</v>
+      </c>
+      <c r="D104" s="116" t="s">
+        <v>631</v>
+      </c>
+      <c r="E104" s="120" t="s">
         <v>632</v>
-      </c>
-      <c r="C104" s="117" t="s">
-        <v>633</v>
-      </c>
-      <c r="D104" s="116" t="s">
-        <v>634</v>
-      </c>
-      <c r="E104" s="120" t="s">
-        <v>635</v>
       </c>
       <c r="F104" s="119"/>
     </row>
@@ -12515,16 +12512,16 @@
         <v>84</v>
       </c>
       <c r="B106" s="116" t="s">
+        <v>633</v>
+      </c>
+      <c r="C106" s="117" t="s">
+        <v>634</v>
+      </c>
+      <c r="D106" s="116" t="s">
+        <v>635</v>
+      </c>
+      <c r="E106" s="120" t="s">
         <v>636</v>
-      </c>
-      <c r="C106" s="117" t="s">
-        <v>637</v>
-      </c>
-      <c r="D106" s="116" t="s">
-        <v>638</v>
-      </c>
-      <c r="E106" s="120" t="s">
-        <v>639</v>
       </c>
       <c r="F106" s="119"/>
     </row>
@@ -12533,16 +12530,16 @@
         <v>84</v>
       </c>
       <c r="B107" s="116" t="s">
+        <v>637</v>
+      </c>
+      <c r="C107" s="117" t="s">
+        <v>638</v>
+      </c>
+      <c r="D107" s="116" t="s">
+        <v>639</v>
+      </c>
+      <c r="E107" s="120" t="s">
         <v>640</v>
-      </c>
-      <c r="C107" s="117" t="s">
-        <v>641</v>
-      </c>
-      <c r="D107" s="116" t="s">
-        <v>642</v>
-      </c>
-      <c r="E107" s="120" t="s">
-        <v>643</v>
       </c>
       <c r="F107" s="119"/>
     </row>
@@ -12551,16 +12548,16 @@
         <v>84</v>
       </c>
       <c r="B108" s="116" t="s">
+        <v>641</v>
+      </c>
+      <c r="C108" s="117" t="s">
+        <v>642</v>
+      </c>
+      <c r="D108" s="116" t="s">
+        <v>643</v>
+      </c>
+      <c r="E108" s="120" t="s">
         <v>644</v>
-      </c>
-      <c r="C108" s="117" t="s">
-        <v>645</v>
-      </c>
-      <c r="D108" s="116" t="s">
-        <v>646</v>
-      </c>
-      <c r="E108" s="120" t="s">
-        <v>647</v>
       </c>
       <c r="F108" s="119"/>
     </row>
@@ -12569,16 +12566,16 @@
         <v>84</v>
       </c>
       <c r="B109" s="116" t="s">
+        <v>645</v>
+      </c>
+      <c r="C109" s="117" t="s">
+        <v>646</v>
+      </c>
+      <c r="D109" s="116" t="s">
+        <v>647</v>
+      </c>
+      <c r="E109" s="120" t="s">
         <v>648</v>
-      </c>
-      <c r="C109" s="117" t="s">
-        <v>649</v>
-      </c>
-      <c r="D109" s="116" t="s">
-        <v>650</v>
-      </c>
-      <c r="E109" s="120" t="s">
-        <v>651</v>
       </c>
       <c r="F109" s="119"/>
     </row>
@@ -12587,16 +12584,16 @@
         <v>84</v>
       </c>
       <c r="B110" s="116" t="s">
+        <v>649</v>
+      </c>
+      <c r="C110" s="117" t="s">
+        <v>650</v>
+      </c>
+      <c r="D110" s="116" t="s">
+        <v>651</v>
+      </c>
+      <c r="E110" s="120" t="s">
         <v>652</v>
-      </c>
-      <c r="C110" s="117" t="s">
-        <v>653</v>
-      </c>
-      <c r="D110" s="116" t="s">
-        <v>654</v>
-      </c>
-      <c r="E110" s="120" t="s">
-        <v>655</v>
       </c>
       <c r="F110" s="119"/>
     </row>
@@ -12605,16 +12602,16 @@
         <v>84</v>
       </c>
       <c r="B112" s="116" t="s">
+        <v>653</v>
+      </c>
+      <c r="C112" s="117" t="s">
+        <v>654</v>
+      </c>
+      <c r="D112" s="116" t="s">
+        <v>655</v>
+      </c>
+      <c r="E112" s="120" t="s">
         <v>656</v>
-      </c>
-      <c r="C112" s="117" t="s">
-        <v>657</v>
-      </c>
-      <c r="D112" s="116" t="s">
-        <v>658</v>
-      </c>
-      <c r="E112" s="120" t="s">
-        <v>659</v>
       </c>
       <c r="F112" s="119"/>
     </row>
@@ -12623,16 +12620,16 @@
         <v>84</v>
       </c>
       <c r="B113" s="116" t="s">
+        <v>657</v>
+      </c>
+      <c r="C113" s="117" t="s">
+        <v>658</v>
+      </c>
+      <c r="D113" s="116" t="s">
+        <v>659</v>
+      </c>
+      <c r="E113" s="120" t="s">
         <v>660</v>
-      </c>
-      <c r="C113" s="117" t="s">
-        <v>661</v>
-      </c>
-      <c r="D113" s="116" t="s">
-        <v>662</v>
-      </c>
-      <c r="E113" s="120" t="s">
-        <v>663</v>
       </c>
       <c r="F113" s="119"/>
     </row>
@@ -12641,16 +12638,16 @@
         <v>84</v>
       </c>
       <c r="B114" s="116" t="s">
+        <v>661</v>
+      </c>
+      <c r="C114" s="117" t="s">
+        <v>662</v>
+      </c>
+      <c r="D114" s="116" t="s">
+        <v>663</v>
+      </c>
+      <c r="E114" s="120" t="s">
         <v>664</v>
-      </c>
-      <c r="C114" s="117" t="s">
-        <v>665</v>
-      </c>
-      <c r="D114" s="116" t="s">
-        <v>666</v>
-      </c>
-      <c r="E114" s="120" t="s">
-        <v>667</v>
       </c>
       <c r="F114" s="119"/>
     </row>
@@ -12667,16 +12664,16 @@
         <v>84</v>
       </c>
       <c r="B116" s="116" t="s">
+        <v>665</v>
+      </c>
+      <c r="C116" s="117" t="s">
+        <v>666</v>
+      </c>
+      <c r="D116" s="116" t="s">
+        <v>667</v>
+      </c>
+      <c r="E116" s="120" t="s">
         <v>668</v>
-      </c>
-      <c r="C116" s="117" t="s">
-        <v>669</v>
-      </c>
-      <c r="D116" s="116" t="s">
-        <v>670</v>
-      </c>
-      <c r="E116" s="120" t="s">
-        <v>671</v>
       </c>
       <c r="F116" s="119"/>
     </row>
@@ -12685,16 +12682,16 @@
         <v>84</v>
       </c>
       <c r="B117" s="116" t="s">
+        <v>669</v>
+      </c>
+      <c r="C117" s="117" t="s">
+        <v>670</v>
+      </c>
+      <c r="D117" s="116" t="s">
+        <v>671</v>
+      </c>
+      <c r="E117" s="120" t="s">
         <v>672</v>
-      </c>
-      <c r="C117" s="117" t="s">
-        <v>673</v>
-      </c>
-      <c r="D117" s="116" t="s">
-        <v>674</v>
-      </c>
-      <c r="E117" s="120" t="s">
-        <v>675</v>
       </c>
       <c r="F117" s="119"/>
     </row>
@@ -12711,11 +12708,11 @@
       <c r="B119" s="120"/>
       <c r="C119" s="120"/>
       <c r="D119" s="116" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E119" s="120"/>
       <c r="F119" s="119" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -12723,7 +12720,7 @@
       <c r="B120" s="120"/>
       <c r="C120" s="120"/>
       <c r="D120" s="116" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E120" s="120"/>
       <c r="F120" s="119"/>
@@ -12733,7 +12730,7 @@
         <v>410</v>
       </c>
       <c r="B121" s="116" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C121" s="120"/>
       <c r="D121" s="20" t="s">
@@ -12747,7 +12744,7 @@
         <v>413</v>
       </c>
       <c r="B122" s="116" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C122" s="120"/>
       <c r="D122" s="20" t="s">
@@ -12757,13 +12754,13 @@
       <c r="F122" s="119"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="159" t="s">
-        <v>681</v>
-      </c>
-      <c r="B123" s="160"/>
-      <c r="C123" s="160"/>
-      <c r="D123" s="160"/>
-      <c r="E123" s="161"/>
+      <c r="A123" s="160" t="s">
+        <v>678</v>
+      </c>
+      <c r="B123" s="161"/>
+      <c r="C123" s="161"/>
+      <c r="D123" s="161"/>
+      <c r="E123" s="162"/>
       <c r="F123" s="119"/>
     </row>
     <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12771,16 +12768,16 @@
         <v>243</v>
       </c>
       <c r="B124" s="116" t="s">
+        <v>679</v>
+      </c>
+      <c r="C124" s="117" t="s">
+        <v>680</v>
+      </c>
+      <c r="D124" s="116" t="s">
+        <v>681</v>
+      </c>
+      <c r="E124" s="120" t="s">
         <v>682</v>
-      </c>
-      <c r="C124" s="117" t="s">
-        <v>683</v>
-      </c>
-      <c r="D124" s="116" t="s">
-        <v>684</v>
-      </c>
-      <c r="E124" s="120" t="s">
-        <v>685</v>
       </c>
       <c r="F124" s="119"/>
     </row>
@@ -12789,16 +12786,16 @@
         <v>484</v>
       </c>
       <c r="B125" s="116" t="s">
+        <v>683</v>
+      </c>
+      <c r="C125" s="117" t="s">
+        <v>684</v>
+      </c>
+      <c r="D125" s="116" t="s">
+        <v>685</v>
+      </c>
+      <c r="E125" s="120" t="s">
         <v>686</v>
-      </c>
-      <c r="C125" s="117" t="s">
-        <v>687</v>
-      </c>
-      <c r="D125" s="116" t="s">
-        <v>688</v>
-      </c>
-      <c r="E125" s="120" t="s">
-        <v>689</v>
       </c>
       <c r="F125" s="119"/>
     </row>
@@ -12815,7 +12812,7 @@
         <v>416</v>
       </c>
       <c r="B127" s="116" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C127" s="59" t="s">
         <v>156</v>
@@ -12831,7 +12828,7 @@
         <v>416</v>
       </c>
       <c r="B128" s="116" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C128" s="59" t="s">
         <v>160</v>
@@ -12847,7 +12844,7 @@
         <v>416</v>
       </c>
       <c r="B129" s="116" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C129" s="59" t="s">
         <v>164</v>
@@ -12871,11 +12868,11 @@
         <v>410</v>
       </c>
       <c r="B131" s="116" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C131" s="120"/>
       <c r="D131" s="20" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E131" s="120"/>
       <c r="F131" s="119"/>
@@ -12885,11 +12882,11 @@
         <v>413</v>
       </c>
       <c r="B132" s="116" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C132" s="120"/>
       <c r="D132" s="20" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E132" s="120"/>
       <c r="F132" s="119"/>
@@ -12899,7 +12896,7 @@
         <v>410</v>
       </c>
       <c r="B133" s="116" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C133" s="120"/>
       <c r="D133" s="20" t="s">
@@ -12913,7 +12910,7 @@
         <v>413</v>
       </c>
       <c r="B134" s="116" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C134" s="120"/>
       <c r="D134" s="20" t="s">
@@ -12927,11 +12924,11 @@
         <v>410</v>
       </c>
       <c r="B135" s="116" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="C135" s="120"/>
       <c r="D135" s="20" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E135" s="120"/>
       <c r="F135" s="119"/>
@@ -12941,23 +12938,23 @@
         <v>413</v>
       </c>
       <c r="B136" s="116" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C136" s="120"/>
       <c r="D136" s="20" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E136" s="120"/>
       <c r="F136" s="119"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="159" t="s">
-        <v>703</v>
-      </c>
-      <c r="B137" s="160"/>
-      <c r="C137" s="160"/>
-      <c r="D137" s="160"/>
-      <c r="E137" s="161"/>
+      <c r="A137" s="160" t="s">
+        <v>700</v>
+      </c>
+      <c r="B137" s="161"/>
+      <c r="C137" s="161"/>
+      <c r="D137" s="161"/>
+      <c r="E137" s="162"/>
       <c r="F137" s="119"/>
     </row>
     <row r="138" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12965,16 +12962,16 @@
         <v>243</v>
       </c>
       <c r="B138" s="116" t="s">
+        <v>701</v>
+      </c>
+      <c r="C138" s="117" t="s">
+        <v>702</v>
+      </c>
+      <c r="D138" s="116" t="s">
+        <v>703</v>
+      </c>
+      <c r="E138" s="120" t="s">
         <v>704</v>
-      </c>
-      <c r="C138" s="117" t="s">
-        <v>705</v>
-      </c>
-      <c r="D138" s="116" t="s">
-        <v>706</v>
-      </c>
-      <c r="E138" s="120" t="s">
-        <v>707</v>
       </c>
       <c r="F138" s="119"/>
     </row>
@@ -12983,7 +12980,7 @@
         <v>410</v>
       </c>
       <c r="B139" s="116" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C139" s="120"/>
       <c r="D139" s="20" t="s">
@@ -12997,7 +12994,7 @@
         <v>413</v>
       </c>
       <c r="B140" s="116" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C140" s="120"/>
       <c r="D140" s="20" t="s">
@@ -13011,19 +13008,19 @@
         <v>37</v>
       </c>
       <c r="B141" s="122" t="s">
+        <v>707</v>
+      </c>
+      <c r="C141" s="113" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D141" s="122" t="s">
+        <v>708</v>
+      </c>
+      <c r="E141" s="122" t="s">
+        <v>709</v>
+      </c>
+      <c r="F141" s="123" t="s">
         <v>710</v>
-      </c>
-      <c r="C141" s="113" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D141" s="122" t="s">
-        <v>711</v>
-      </c>
-      <c r="E141" s="122" t="s">
-        <v>712</v>
-      </c>
-      <c r="F141" s="123" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13031,15 +13028,15 @@
         <v>410</v>
       </c>
       <c r="B142" s="122" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="C142" s="122"/>
       <c r="D142" s="113" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E142" s="122"/>
       <c r="F142" s="123" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -13047,11 +13044,11 @@
         <v>413</v>
       </c>
       <c r="B143" s="122" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C143" s="122"/>
       <c r="D143" s="113" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E143" s="122"/>
       <c r="F143" s="123"/>
@@ -13061,15 +13058,15 @@
         <v>410</v>
       </c>
       <c r="B144" s="116" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="C144" s="120"/>
       <c r="D144" s="20" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="E144" s="120"/>
       <c r="F144" s="119" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -13077,23 +13074,23 @@
         <v>413</v>
       </c>
       <c r="B145" s="116" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C145" s="120"/>
       <c r="D145" s="20" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E145" s="120"/>
       <c r="F145" s="119"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="159" t="s">
-        <v>724</v>
-      </c>
-      <c r="B146" s="160"/>
-      <c r="C146" s="160"/>
-      <c r="D146" s="160"/>
-      <c r="E146" s="161"/>
+      <c r="A146" s="160" t="s">
+        <v>721</v>
+      </c>
+      <c r="B146" s="161"/>
+      <c r="C146" s="161"/>
+      <c r="D146" s="161"/>
+      <c r="E146" s="162"/>
       <c r="F146" s="119"/>
     </row>
     <row r="147" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13101,32 +13098,32 @@
         <v>243</v>
       </c>
       <c r="B147" s="116" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C147" s="59" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D147" s="116" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="E147" s="120" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="F147" s="119"/>
     </row>
     <row r="148" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A148" s="116" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B148" s="116" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C148" s="59" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D148" s="116"/>
       <c r="E148" s="120" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F148" s="119"/>
     </row>
@@ -13135,14 +13132,14 @@
         <v>37</v>
       </c>
       <c r="B149" s="116" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C149" s="59" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D149" s="116"/>
       <c r="E149" s="120" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="F149" s="119"/>
     </row>
@@ -13151,23 +13148,23 @@
         <v>37</v>
       </c>
       <c r="B150" s="116" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C150" s="59" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D150" s="116"/>
       <c r="E150" s="120" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="F150" s="119"/>
     </row>
     <row r="151" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="116" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B151" s="116" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C151" s="117" t="s">
         <v>76</v>
@@ -13180,10 +13177,10 @@
     </row>
     <row r="152" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="116" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B152" s="116" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C152" s="117" t="s">
         <v>43</v>
@@ -13199,11 +13196,11 @@
         <v>410</v>
       </c>
       <c r="B153" s="116" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C153" s="120"/>
       <c r="D153" s="20" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E153" s="120"/>
       <c r="F153" s="119"/>
@@ -13213,11 +13210,11 @@
         <v>413</v>
       </c>
       <c r="B154" s="116" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C154" s="120"/>
       <c r="D154" s="20" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E154" s="120"/>
       <c r="F154" s="119"/>
@@ -13227,15 +13224,15 @@
         <v>410</v>
       </c>
       <c r="B155" s="116" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C155" s="120"/>
       <c r="D155" s="20" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E155" s="120"/>
       <c r="F155" s="119" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -13243,23 +13240,23 @@
         <v>413</v>
       </c>
       <c r="B156" s="116" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C156" s="120"/>
       <c r="D156" s="20" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E156" s="120"/>
       <c r="F156" s="119"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="159" t="s">
-        <v>745</v>
-      </c>
-      <c r="B157" s="160"/>
-      <c r="C157" s="160"/>
-      <c r="D157" s="160"/>
-      <c r="E157" s="161"/>
+      <c r="A157" s="160" t="s">
+        <v>742</v>
+      </c>
+      <c r="B157" s="161"/>
+      <c r="C157" s="161"/>
+      <c r="D157" s="161"/>
+      <c r="E157" s="162"/>
       <c r="F157" s="119"/>
     </row>
     <row r="158" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13267,16 +13264,16 @@
         <v>243</v>
       </c>
       <c r="B158" s="116" t="s">
+        <v>743</v>
+      </c>
+      <c r="C158" s="124" t="s">
+        <v>744</v>
+      </c>
+      <c r="D158" s="116" t="s">
+        <v>745</v>
+      </c>
+      <c r="E158" s="120" t="s">
         <v>746</v>
-      </c>
-      <c r="C158" s="124" t="s">
-        <v>747</v>
-      </c>
-      <c r="D158" s="116" t="s">
-        <v>748</v>
-      </c>
-      <c r="E158" s="120" t="s">
-        <v>749</v>
       </c>
       <c r="F158" s="119"/>
     </row>
@@ -13285,16 +13282,16 @@
         <v>261</v>
       </c>
       <c r="B159" s="116" t="s">
+        <v>747</v>
+      </c>
+      <c r="C159" s="117" t="s">
+        <v>748</v>
+      </c>
+      <c r="D159" s="125" t="s">
+        <v>749</v>
+      </c>
+      <c r="E159" s="120" t="s">
         <v>750</v>
-      </c>
-      <c r="C159" s="117" t="s">
-        <v>751</v>
-      </c>
-      <c r="D159" s="125" t="s">
-        <v>752</v>
-      </c>
-      <c r="E159" s="120" t="s">
-        <v>753</v>
       </c>
       <c r="F159" s="119"/>
     </row>
@@ -13303,25 +13300,25 @@
         <v>32</v>
       </c>
       <c r="B160" s="116" t="s">
+        <v>751</v>
+      </c>
+      <c r="C160" s="117" t="s">
+        <v>752</v>
+      </c>
+      <c r="D160" s="125" t="s">
+        <v>753</v>
+      </c>
+      <c r="E160" s="120" t="s">
         <v>754</v>
-      </c>
-      <c r="C160" s="117" t="s">
-        <v>755</v>
-      </c>
-      <c r="D160" s="125" t="s">
-        <v>756</v>
-      </c>
-      <c r="E160" s="120" t="s">
-        <v>757</v>
       </c>
       <c r="F160" s="119"/>
     </row>
     <row r="161" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="126" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B161" s="116" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C161" s="127" t="s">
         <v>47</v>
@@ -13334,10 +13331,10 @@
     </row>
     <row r="162" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="116" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B162" s="116" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C162" s="117" t="s">
         <v>76</v>
@@ -13353,11 +13350,11 @@
         <v>410</v>
       </c>
       <c r="B163" s="116" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C163" s="128"/>
       <c r="D163" s="20" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E163" s="120"/>
       <c r="F163" s="119"/>
@@ -13367,25 +13364,25 @@
         <v>413</v>
       </c>
       <c r="B164" s="116" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C164" s="120"/>
       <c r="D164" s="20" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E164" s="120"/>
       <c r="F164" s="119"/>
     </row>
     <row r="165" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A165" s="162" t="s">
-        <v>765</v>
-      </c>
-      <c r="B165" s="163"/>
-      <c r="C165" s="163"/>
-      <c r="D165" s="163"/>
-      <c r="E165" s="164"/>
+      <c r="A165" s="163" t="s">
+        <v>762</v>
+      </c>
+      <c r="B165" s="164"/>
+      <c r="C165" s="164"/>
+      <c r="D165" s="164"/>
+      <c r="E165" s="165"/>
       <c r="F165" s="129" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13393,15 +13390,15 @@
         <v>243</v>
       </c>
       <c r="B166" s="116" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C166" s="130" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D166" s="114"/>
       <c r="E166" s="131"/>
       <c r="F166" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13409,31 +13406,31 @@
         <v>261</v>
       </c>
       <c r="B167" s="116" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C167" s="117" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D167" s="114"/>
       <c r="E167" s="131"/>
       <c r="F167" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="126" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B168" s="116" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C168" s="115" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D168" s="114"/>
       <c r="E168" s="131"/>
       <c r="F168" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13441,15 +13438,15 @@
         <v>32</v>
       </c>
       <c r="B169" s="116" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C169" s="130" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D169" s="114"/>
       <c r="E169" s="131"/>
       <c r="F169" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13457,7 +13454,7 @@
         <v>32</v>
       </c>
       <c r="B170" s="60" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C170" s="130" t="s">
         <v>76</v>
@@ -13465,15 +13462,15 @@
       <c r="D170" s="114"/>
       <c r="E170" s="131"/>
       <c r="F170" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="116" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B171" s="116" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C171" s="130" t="s">
         <v>47</v>
@@ -13481,7 +13478,7 @@
       <c r="D171" s="114"/>
       <c r="E171" s="131"/>
       <c r="F171" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13493,7 +13490,7 @@
       <c r="D172" s="114"/>
       <c r="E172" s="131"/>
       <c r="F172" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -13505,17 +13502,17 @@
       <c r="D173" s="114"/>
       <c r="E173" s="131"/>
       <c r="F173" s="129" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="159" t="s">
-        <v>777</v>
-      </c>
-      <c r="B174" s="160"/>
-      <c r="C174" s="160"/>
-      <c r="D174" s="160"/>
-      <c r="E174" s="161"/>
+      <c r="A174" s="160" t="s">
+        <v>774</v>
+      </c>
+      <c r="B174" s="161"/>
+      <c r="C174" s="161"/>
+      <c r="D174" s="161"/>
+      <c r="E174" s="162"/>
       <c r="F174" s="119"/>
     </row>
     <row r="175" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13523,16 +13520,16 @@
         <v>243</v>
       </c>
       <c r="B175" s="92" t="s">
+        <v>775</v>
+      </c>
+      <c r="C175" s="93" t="s">
+        <v>776</v>
+      </c>
+      <c r="D175" s="92" t="s">
+        <v>777</v>
+      </c>
+      <c r="E175" s="85" t="s">
         <v>778</v>
-      </c>
-      <c r="C175" s="93" t="s">
-        <v>779</v>
-      </c>
-      <c r="D175" s="92" t="s">
-        <v>780</v>
-      </c>
-      <c r="E175" s="85" t="s">
-        <v>781</v>
       </c>
       <c r="F175" s="119"/>
     </row>
@@ -13541,7 +13538,7 @@
         <v>416</v>
       </c>
       <c r="B176" s="95" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C176" s="96" t="s">
         <v>56</v>
@@ -13559,7 +13556,7 @@
         <v>416</v>
       </c>
       <c r="B177" s="95" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C177" s="96" t="s">
         <v>60</v>
@@ -13577,7 +13574,7 @@
         <v>416</v>
       </c>
       <c r="B178" s="95" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C178" s="96" t="s">
         <v>64</v>
@@ -13595,7 +13592,7 @@
         <v>416</v>
       </c>
       <c r="B179" s="95" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C179" s="96" t="s">
         <v>68</v>
@@ -13613,7 +13610,7 @@
         <v>416</v>
       </c>
       <c r="B180" s="95" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C180" s="96" t="s">
         <v>39</v>
@@ -13631,16 +13628,16 @@
         <v>32</v>
       </c>
       <c r="B181" s="95" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C181" s="97" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D181" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E181" s="89" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F181" s="119"/>
     </row>
@@ -13649,11 +13646,11 @@
         <v>410</v>
       </c>
       <c r="B182" s="116" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C182" s="120"/>
       <c r="D182" s="20" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E182" s="120"/>
       <c r="F182" s="119"/>
@@ -13663,11 +13660,11 @@
         <v>413</v>
       </c>
       <c r="B183" s="116" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C183" s="120"/>
       <c r="D183" s="20" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E183" s="120"/>
       <c r="F183" s="119"/>
@@ -13677,11 +13674,11 @@
         <v>410</v>
       </c>
       <c r="B184" s="116" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C184" s="120"/>
       <c r="D184" s="20" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E184" s="120"/>
       <c r="F184" s="119"/>
@@ -13691,23 +13688,23 @@
         <v>413</v>
       </c>
       <c r="B185" s="116" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C185" s="120"/>
       <c r="D185" s="20" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E185" s="120"/>
       <c r="F185" s="119"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="159" t="s">
-        <v>798</v>
-      </c>
-      <c r="B186" s="160"/>
-      <c r="C186" s="160"/>
-      <c r="D186" s="160"/>
-      <c r="E186" s="161"/>
+      <c r="A186" s="160" t="s">
+        <v>795</v>
+      </c>
+      <c r="B186" s="161"/>
+      <c r="C186" s="161"/>
+      <c r="D186" s="161"/>
+      <c r="E186" s="162"/>
       <c r="F186" s="119"/>
     </row>
     <row r="187" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13715,16 +13712,16 @@
         <v>243</v>
       </c>
       <c r="B187" s="116" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C187" s="117" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D187" s="116" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E187" s="120" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F187" s="119"/>
     </row>
@@ -13733,11 +13730,11 @@
         <v>410</v>
       </c>
       <c r="B188" s="116" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C188" s="120"/>
       <c r="D188" s="20" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E188" s="120"/>
       <c r="F188" s="119"/>
@@ -13747,23 +13744,23 @@
         <v>413</v>
       </c>
       <c r="B189" s="116" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C189" s="120"/>
       <c r="D189" s="20" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E189" s="120"/>
       <c r="F189" s="119"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="159" t="s">
-        <v>806</v>
-      </c>
-      <c r="B190" s="160"/>
-      <c r="C190" s="160"/>
-      <c r="D190" s="160"/>
-      <c r="E190" s="161"/>
+      <c r="A190" s="160" t="s">
+        <v>803</v>
+      </c>
+      <c r="B190" s="161"/>
+      <c r="C190" s="161"/>
+      <c r="D190" s="161"/>
+      <c r="E190" s="162"/>
       <c r="F190" s="119"/>
     </row>
     <row r="191" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -13771,16 +13768,16 @@
         <v>243</v>
       </c>
       <c r="B191" s="116" t="s">
+        <v>804</v>
+      </c>
+      <c r="C191" s="117" t="s">
+        <v>805</v>
+      </c>
+      <c r="D191" s="116" t="s">
+        <v>806</v>
+      </c>
+      <c r="E191" s="120" t="s">
         <v>807</v>
-      </c>
-      <c r="C191" s="117" t="s">
-        <v>808</v>
-      </c>
-      <c r="D191" s="116" t="s">
-        <v>809</v>
-      </c>
-      <c r="E191" s="120" t="s">
-        <v>810</v>
       </c>
       <c r="F191" s="119"/>
     </row>
@@ -13789,16 +13786,16 @@
         <v>548</v>
       </c>
       <c r="B192" s="116" t="s">
+        <v>808</v>
+      </c>
+      <c r="C192" s="117" t="s">
+        <v>809</v>
+      </c>
+      <c r="D192" s="116" t="s">
+        <v>810</v>
+      </c>
+      <c r="E192" s="120" t="s">
         <v>811</v>
-      </c>
-      <c r="C192" s="117" t="s">
-        <v>812</v>
-      </c>
-      <c r="D192" s="116" t="s">
-        <v>813</v>
-      </c>
-      <c r="E192" s="120" t="s">
-        <v>814</v>
       </c>
       <c r="F192" s="119"/>
     </row>
@@ -13807,16 +13804,16 @@
         <v>484</v>
       </c>
       <c r="B193" s="116" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C193" s="59" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D193" s="116" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E193" s="120" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="F193" s="119"/>
     </row>
@@ -13825,14 +13822,14 @@
         <v>484</v>
       </c>
       <c r="B194" s="116" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C194" s="59" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D194" s="116"/>
       <c r="E194" s="120" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="F194" s="119"/>
     </row>
@@ -13841,11 +13838,11 @@
         <v>410</v>
       </c>
       <c r="B195" s="116" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C195" s="120"/>
       <c r="D195" s="20" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E195" s="120"/>
       <c r="F195" s="119"/>
@@ -13855,23 +13852,23 @@
         <v>413</v>
       </c>
       <c r="B196" s="116" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C196" s="120"/>
       <c r="D196" s="20" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E196" s="120"/>
       <c r="F196" s="119"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="159" t="s">
-        <v>821</v>
-      </c>
-      <c r="B197" s="160"/>
-      <c r="C197" s="160"/>
-      <c r="D197" s="160"/>
-      <c r="E197" s="161"/>
+      <c r="A197" s="160" t="s">
+        <v>818</v>
+      </c>
+      <c r="B197" s="161"/>
+      <c r="C197" s="161"/>
+      <c r="D197" s="161"/>
+      <c r="E197" s="162"/>
       <c r="F197" s="119"/>
     </row>
     <row r="198" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -13879,16 +13876,16 @@
         <v>243</v>
       </c>
       <c r="B198" s="116" t="s">
+        <v>819</v>
+      </c>
+      <c r="C198" s="117" t="s">
+        <v>820</v>
+      </c>
+      <c r="D198" s="116" t="s">
+        <v>821</v>
+      </c>
+      <c r="E198" s="120" t="s">
         <v>822</v>
-      </c>
-      <c r="C198" s="117" t="s">
-        <v>823</v>
-      </c>
-      <c r="D198" s="116" t="s">
-        <v>824</v>
-      </c>
-      <c r="E198" s="120" t="s">
-        <v>825</v>
       </c>
       <c r="F198" s="119"/>
     </row>
@@ -13897,7 +13894,7 @@
         <v>416</v>
       </c>
       <c r="B199" s="116" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C199" s="117" t="s">
         <v>39</v>
@@ -13910,10 +13907,10 @@
     </row>
     <row r="200" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="116" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B200" s="116" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C200" s="117" t="s">
         <v>76</v>
@@ -13926,26 +13923,26 @@
     </row>
     <row r="201" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="116" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B201" s="116" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C201" s="117" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="D201" s="116"/>
       <c r="E201" s="120" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="F201" s="119"/>
     </row>
     <row r="202" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="116" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B202" s="116" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C202" s="117" t="s">
         <v>43</v>
@@ -13961,14 +13958,14 @@
         <v>32</v>
       </c>
       <c r="B203" s="116" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C203" s="134" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D203" s="116"/>
       <c r="E203" s="120" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="F203" s="119"/>
     </row>
@@ -13977,11 +13974,11 @@
         <v>410</v>
       </c>
       <c r="B204" s="116" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C204" s="120"/>
       <c r="D204" s="20" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E204" s="120"/>
       <c r="F204" s="119"/>
@@ -13991,11 +13988,11 @@
         <v>413</v>
       </c>
       <c r="B205" s="116" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C205" s="120"/>
       <c r="D205" s="20" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E205" s="120"/>
       <c r="F205" s="119"/>
@@ -14005,11 +14002,11 @@
         <v>410</v>
       </c>
       <c r="B206" s="116" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C206" s="120"/>
       <c r="D206" s="20" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E206" s="120"/>
       <c r="F206" s="119"/>
@@ -14019,23 +14016,23 @@
         <v>413</v>
       </c>
       <c r="B207" s="116" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C207" s="120"/>
       <c r="D207" s="20" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="E207" s="120"/>
       <c r="F207" s="119"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="159" t="s">
-        <v>832</v>
-      </c>
-      <c r="B208" s="160"/>
-      <c r="C208" s="160"/>
-      <c r="D208" s="160"/>
-      <c r="E208" s="161"/>
+      <c r="A208" s="160" t="s">
+        <v>829</v>
+      </c>
+      <c r="B208" s="161"/>
+      <c r="C208" s="161"/>
+      <c r="D208" s="161"/>
+      <c r="E208" s="162"/>
       <c r="F208" s="119"/>
     </row>
     <row r="209" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14043,13 +14040,13 @@
         <v>243</v>
       </c>
       <c r="B209" s="116" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C209" s="117" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D209" s="116" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E209" s="120" t="s">
         <v>54</v>
@@ -14061,16 +14058,16 @@
         <v>261</v>
       </c>
       <c r="B210" s="116" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C210" s="117" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D210" s="125" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E210" s="120" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F210" s="119"/>
     </row>
@@ -14079,16 +14076,16 @@
         <v>32</v>
       </c>
       <c r="B211" s="116" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C211" s="117" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D211" s="125" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E211" s="120" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F211" s="119"/>
     </row>
@@ -14097,11 +14094,11 @@
         <v>410</v>
       </c>
       <c r="B212" s="116" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C212" s="128"/>
       <c r="D212" s="20" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E212" s="120"/>
       <c r="F212" s="119"/>
@@ -14111,23 +14108,23 @@
         <v>413</v>
       </c>
       <c r="B213" s="116" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C213" s="120"/>
       <c r="D213" s="20" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E213" s="120"/>
       <c r="F213" s="119"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="159" t="s">
-        <v>842</v>
-      </c>
-      <c r="B214" s="160"/>
-      <c r="C214" s="160"/>
-      <c r="D214" s="160"/>
-      <c r="E214" s="161"/>
+      <c r="A214" s="160" t="s">
+        <v>839</v>
+      </c>
+      <c r="B214" s="161"/>
+      <c r="C214" s="161"/>
+      <c r="D214" s="161"/>
+      <c r="E214" s="162"/>
       <c r="F214" s="119"/>
     </row>
     <row r="215" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -14135,16 +14132,16 @@
         <v>243</v>
       </c>
       <c r="B215" s="116" t="s">
+        <v>840</v>
+      </c>
+      <c r="C215" s="117" t="s">
+        <v>841</v>
+      </c>
+      <c r="D215" s="116" t="s">
+        <v>842</v>
+      </c>
+      <c r="E215" s="120" t="s">
         <v>843</v>
-      </c>
-      <c r="C215" s="117" t="s">
-        <v>844</v>
-      </c>
-      <c r="D215" s="116" t="s">
-        <v>845</v>
-      </c>
-      <c r="E215" s="120" t="s">
-        <v>846</v>
       </c>
       <c r="F215" s="119"/>
     </row>
@@ -14153,7 +14150,7 @@
         <v>416</v>
       </c>
       <c r="B216" s="116" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C216" s="117" t="s">
         <v>56</v>
@@ -14169,7 +14166,7 @@
         <v>416</v>
       </c>
       <c r="B217" s="116" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C217" s="117" t="s">
         <v>60</v>
@@ -14185,7 +14182,7 @@
         <v>416</v>
       </c>
       <c r="B218" s="116" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C218" s="117" t="s">
         <v>64</v>
@@ -14201,7 +14198,7 @@
         <v>416</v>
       </c>
       <c r="B219" s="116" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C219" s="117" t="s">
         <v>68</v>
@@ -14217,7 +14214,7 @@
         <v>416</v>
       </c>
       <c r="B220" s="116" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C220" s="117" t="s">
         <v>39</v>
@@ -14233,11 +14230,11 @@
         <v>410</v>
       </c>
       <c r="B221" s="116" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C221" s="120"/>
       <c r="D221" s="20" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E221" s="120"/>
       <c r="F221" s="119"/>
@@ -14247,11 +14244,11 @@
         <v>413</v>
       </c>
       <c r="B222" s="116" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C222" s="120"/>
       <c r="D222" s="20" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E222" s="120"/>
       <c r="F222" s="119"/>
@@ -14261,11 +14258,11 @@
         <v>410</v>
       </c>
       <c r="B223" s="116" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C223" s="120"/>
       <c r="D223" s="20" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E223" s="120"/>
       <c r="F223" s="119"/>
@@ -14275,23 +14272,23 @@
         <v>413</v>
       </c>
       <c r="B224" s="116" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C224" s="120"/>
       <c r="D224" s="20" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E224" s="120"/>
       <c r="F224" s="119"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="159" t="s">
-        <v>856</v>
-      </c>
-      <c r="B225" s="160"/>
-      <c r="C225" s="160"/>
-      <c r="D225" s="160"/>
-      <c r="E225" s="161"/>
+      <c r="A225" s="160" t="s">
+        <v>853</v>
+      </c>
+      <c r="B225" s="161"/>
+      <c r="C225" s="161"/>
+      <c r="D225" s="161"/>
+      <c r="E225" s="162"/>
       <c r="F225" s="119"/>
     </row>
     <row r="226" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14299,19 +14296,19 @@
         <v>243</v>
       </c>
       <c r="B226" s="116" t="s">
+        <v>854</v>
+      </c>
+      <c r="C226" s="117" t="s">
+        <v>855</v>
+      </c>
+      <c r="D226" s="116" t="s">
+        <v>856</v>
+      </c>
+      <c r="E226" s="120" t="s">
         <v>857</v>
       </c>
-      <c r="C226" s="117" t="s">
+      <c r="F226" s="38" t="s">
         <v>858</v>
-      </c>
-      <c r="D226" s="116" t="s">
-        <v>859</v>
-      </c>
-      <c r="E226" s="120" t="s">
-        <v>860</v>
-      </c>
-      <c r="F226" s="38" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14319,16 +14316,16 @@
         <v>368</v>
       </c>
       <c r="B227" s="116" t="s">
+        <v>859</v>
+      </c>
+      <c r="C227" s="117" t="s">
+        <v>860</v>
+      </c>
+      <c r="D227" s="116" t="s">
+        <v>861</v>
+      </c>
+      <c r="E227" s="120" t="s">
         <v>862</v>
-      </c>
-      <c r="C227" s="117" t="s">
-        <v>863</v>
-      </c>
-      <c r="D227" s="116" t="s">
-        <v>864</v>
-      </c>
-      <c r="E227" s="120" t="s">
-        <v>865</v>
       </c>
       <c r="F227" s="119"/>
     </row>
@@ -14337,16 +14334,16 @@
         <v>261</v>
       </c>
       <c r="B228" s="116" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C228" s="59" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D228" s="116" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E228" s="120" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="F228" s="119"/>
     </row>
@@ -14355,16 +14352,16 @@
         <v>382</v>
       </c>
       <c r="B229" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="C229" s="117" t="s">
+        <v>866</v>
+      </c>
+      <c r="D229" s="121" t="s">
+        <v>867</v>
+      </c>
+      <c r="E229" s="120" t="s">
         <v>868</v>
-      </c>
-      <c r="C229" s="117" t="s">
-        <v>869</v>
-      </c>
-      <c r="D229" s="121" t="s">
-        <v>870</v>
-      </c>
-      <c r="E229" s="120" t="s">
-        <v>871</v>
       </c>
       <c r="F229" s="119"/>
     </row>
@@ -14373,13 +14370,13 @@
         <v>382</v>
       </c>
       <c r="B230" s="116" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C230" s="117" t="s">
         <v>384</v>
       </c>
       <c r="D230" s="121" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E230" s="120" t="s">
         <v>386</v>
@@ -14391,16 +14388,16 @@
         <v>382</v>
       </c>
       <c r="B231" s="116" t="s">
+        <v>871</v>
+      </c>
+      <c r="C231" s="117" t="s">
+        <v>872</v>
+      </c>
+      <c r="D231" s="121" t="s">
+        <v>873</v>
+      </c>
+      <c r="E231" s="120" t="s">
         <v>874</v>
-      </c>
-      <c r="C231" s="117" t="s">
-        <v>875</v>
-      </c>
-      <c r="D231" s="121" t="s">
-        <v>876</v>
-      </c>
-      <c r="E231" s="120" t="s">
-        <v>877</v>
       </c>
       <c r="F231" s="119"/>
     </row>
@@ -14409,16 +14406,16 @@
         <v>382</v>
       </c>
       <c r="B232" s="116" t="s">
+        <v>875</v>
+      </c>
+      <c r="C232" s="117" t="s">
+        <v>876</v>
+      </c>
+      <c r="D232" s="121" t="s">
+        <v>877</v>
+      </c>
+      <c r="E232" s="120" t="s">
         <v>878</v>
-      </c>
-      <c r="C232" s="117" t="s">
-        <v>879</v>
-      </c>
-      <c r="D232" s="121" t="s">
-        <v>880</v>
-      </c>
-      <c r="E232" s="120" t="s">
-        <v>881</v>
       </c>
       <c r="F232" s="119"/>
     </row>
@@ -14427,16 +14424,16 @@
         <v>382</v>
       </c>
       <c r="B233" s="116" t="s">
+        <v>879</v>
+      </c>
+      <c r="C233" s="117" t="s">
+        <v>880</v>
+      </c>
+      <c r="D233" s="121" t="s">
+        <v>881</v>
+      </c>
+      <c r="E233" s="120" t="s">
         <v>882</v>
-      </c>
-      <c r="C233" s="117" t="s">
-        <v>883</v>
-      </c>
-      <c r="D233" s="121" t="s">
-        <v>884</v>
-      </c>
-      <c r="E233" s="120" t="s">
-        <v>885</v>
       </c>
       <c r="F233" s="119"/>
     </row>
@@ -14445,16 +14442,16 @@
         <v>490</v>
       </c>
       <c r="B234" s="116" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C234" s="117" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D234" s="121" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E234" s="120" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F234" s="119"/>
     </row>
@@ -14463,16 +14460,16 @@
         <v>382</v>
       </c>
       <c r="B235" s="116" t="s">
+        <v>886</v>
+      </c>
+      <c r="C235" s="117" t="s">
+        <v>887</v>
+      </c>
+      <c r="D235" s="121" t="s">
+        <v>888</v>
+      </c>
+      <c r="E235" s="120" t="s">
         <v>889</v>
-      </c>
-      <c r="C235" s="117" t="s">
-        <v>890</v>
-      </c>
-      <c r="D235" s="121" t="s">
-        <v>891</v>
-      </c>
-      <c r="E235" s="120" t="s">
-        <v>892</v>
       </c>
       <c r="F235" s="119"/>
     </row>
@@ -14481,13 +14478,13 @@
         <v>382</v>
       </c>
       <c r="B236" s="116" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C236" s="117" t="s">
         <v>317</v>
       </c>
       <c r="D236" s="121" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E236" s="120" t="s">
         <v>319</v>
@@ -14499,16 +14496,16 @@
         <v>382</v>
       </c>
       <c r="B237" s="116" t="s">
+        <v>892</v>
+      </c>
+      <c r="C237" s="117" t="s">
+        <v>893</v>
+      </c>
+      <c r="D237" s="121" t="s">
+        <v>894</v>
+      </c>
+      <c r="E237" s="120" t="s">
         <v>895</v>
-      </c>
-      <c r="C237" s="117" t="s">
-        <v>896</v>
-      </c>
-      <c r="D237" s="121" t="s">
-        <v>897</v>
-      </c>
-      <c r="E237" s="120" t="s">
-        <v>898</v>
       </c>
       <c r="F237" s="119"/>
     </row>
@@ -14517,16 +14514,16 @@
         <v>382</v>
       </c>
       <c r="B238" s="116" t="s">
+        <v>896</v>
+      </c>
+      <c r="C238" s="117" t="s">
+        <v>897</v>
+      </c>
+      <c r="D238" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="E238" s="120" t="s">
         <v>899</v>
-      </c>
-      <c r="C238" s="117" t="s">
-        <v>900</v>
-      </c>
-      <c r="D238" s="121" t="s">
-        <v>901</v>
-      </c>
-      <c r="E238" s="120" t="s">
-        <v>902</v>
       </c>
       <c r="F238" s="119"/>
     </row>
@@ -14534,12 +14531,12 @@
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="37"/>
       <c r="F239" s="68" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -15354,123 +15351,123 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="174" t="s">
-        <v>905</v>
-      </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
+      <c r="A2" s="175" t="s">
+        <v>902</v>
+      </c>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="177"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="46" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B8" s="92" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>404</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="46" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>152</v>
@@ -15481,10 +15478,10 @@
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>140</v>
@@ -15494,29 +15491,29 @@
       </c>
     </row>
     <row r="12" spans="1:6" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="174" t="s">
-        <v>927</v>
-      </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="176"/>
+      <c r="A12" s="175" t="s">
+        <v>924</v>
+      </c>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="177"/>
     </row>
     <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>925</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>926</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>928</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15524,16 +15521,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>931</v>
+      </c>
+      <c r="E14" s="46" t="s">
         <v>932</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>933</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>934</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15541,16 +15538,16 @@
         <v>84</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -15558,16 +15555,16 @@
         <v>84</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15575,16 +15572,16 @@
         <v>84</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D17" s="92" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E17" s="152" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15592,11 +15589,11 @@
         <v>410</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="18" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15604,176 +15601,176 @@
         <v>413</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="18" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="183" t="s">
-        <v>947</v>
-      </c>
-      <c r="B20" s="184"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="185"/>
+      <c r="A20" s="184" t="s">
+        <v>944</v>
+      </c>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="186"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="81" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="80" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="81" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="80" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B23" s="94" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="81" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="180" t="s">
-        <v>960</v>
-      </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="182"/>
+      <c r="A24" s="181" t="s">
+        <v>957</v>
+      </c>
+      <c r="B24" s="182"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="183"/>
     </row>
     <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>243</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="46" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="171" t="s">
-        <v>964</v>
-      </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="173"/>
+      <c r="A26" s="172" t="s">
+        <v>961</v>
+      </c>
+      <c r="B26" s="173"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>243</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="46" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="171" t="s">
-        <v>968</v>
-      </c>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
+      <c r="A28" s="172" t="s">
+        <v>965</v>
+      </c>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="174"/>
     </row>
     <row r="29" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
         <v>243</v>
       </c>
       <c r="B29" s="92" t="s">
+        <v>966</v>
+      </c>
+      <c r="C29" s="93" t="s">
+        <v>967</v>
+      </c>
+      <c r="D29" s="92" t="s">
+        <v>968</v>
+      </c>
+      <c r="E29" s="85" t="s">
         <v>969</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="F29" s="71" t="s">
         <v>970</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>971</v>
-      </c>
-      <c r="E29" s="85" t="s">
-        <v>972</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="94" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="B30" s="95" t="s">
+        <v>971</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>972</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>973</v>
+      </c>
+      <c r="E30" s="89" t="s">
         <v>974</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>975</v>
-      </c>
-      <c r="D30" s="95" t="s">
-        <v>976</v>
-      </c>
-      <c r="E30" s="89" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="335" x14ac:dyDescent="0.2">
       <c r="A31" s="94" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B31" s="95" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D31" s="95" t="s">
         <v>404</v>
       </c>
       <c r="E31" s="89" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15781,13 +15778,13 @@
         <v>261</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15795,13 +15792,13 @@
         <v>261</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E33" s="46" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15809,16 +15806,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>981</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="E34" s="46" t="s">
         <v>983</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>984</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>985</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -15826,11 +15823,11 @@
         <v>410</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="18" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15838,11 +15835,11 @@
         <v>410</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="18" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15850,37 +15847,37 @@
         <v>413</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="18" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="171" t="s">
-        <v>993</v>
-      </c>
-      <c r="B38" s="172"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="173"/>
+      <c r="A38" s="172" t="s">
+        <v>990</v>
+      </c>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="174"/>
     </row>
     <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>243</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>992</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="E39" s="46" t="s">
         <v>994</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>995</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15888,11 +15885,11 @@
         <v>410</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15900,40 +15897,40 @@
         <v>413</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="18" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     